--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4944D1-35ED-4760-844B-0C03D6AB66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9535F261-0B84-4B77-B15E-9E3602F5AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
     <t>BGR</t>
   </si>
   <si>
-    <t>Electricity Trade Data (TWh)</t>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
   </si>
   <si>
     <t>ISO</t>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9535F261-0B84-4B77-B15E-9E3602F5AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484D292-961E-4364-900A-BD7985E31203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -47,16 +48,40 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
   <si>
     <t>bioenergy</t>
   </si>
@@ -381,6 +406,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+  <rv s="1">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,14 +872,14 @@
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="4" cm="1">
+      <c r="Q4" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="Q4">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.50828415182197206</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" cm="1">
+      <c r="S4" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="S4">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P4))</f>
-        <v>0.25824553878597789</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
@@ -811,17 +902,17 @@
       <c r="P5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="4" cm="1">
+      <c r="Q5" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="Q5">MAX(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MAX(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.29014459665144599</v>
-      </c>
-      <c r="R5" s="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" s="4" t="e" vm="2">
         <f>IF(Q5&gt;0.7,Q5,0.7)</f>
-        <v>0.7</v>
-      </c>
-      <c r="S5" s="4" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" s="4" t="e" cm="1" vm="1">
         <f t="array" ref="S5">MIN(_xlfn._xlws.FILTER(_xlfn.BYROW(historical_data!$D$24:$AA$30, _xlfn.LAMBDA(_xlpm.r, MIN(_xlpm.r))), historical_data!$C$24:$C$30=$P5))</f>
-        <v>0.14840182648401828</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
@@ -931,9 +1022,9 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="e" vm="2">
         <f>-Q4*$Q$1*8.76</f>
-        <v>-4.8978260869565231</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8">
@@ -951,9 +1042,9 @@
       <c r="AF8">
         <v>1</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="3" t="e" vm="2">
         <f>-S4*$S$1*8.76</f>
-        <v>-2.0360078277886497</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -975,13 +1066,13 @@
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="3" t="e" vm="2">
         <f>-Q5*$Q$1*8.76</f>
-        <v>-2.7958333333333334</v>
-      </c>
-      <c r="Z9" s="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z9" s="3" t="e" vm="2">
         <f>-R5*$Q$1*8.76</f>
-        <v>-6.7451999999999996</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -998,9 +1089,9 @@
       <c r="AF9">
         <v>1</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="3" t="e" vm="2">
         <f>-S5*$S$1*8.76</f>
-        <v>-1.1700000000000004</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1172,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1656,852 +1747,801 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2000</v>
+      </c>
+      <c r="C17">
+        <v>2001</v>
+      </c>
+      <c r="D17">
+        <v>2002</v>
+      </c>
+      <c r="E17">
+        <v>2003</v>
+      </c>
+      <c r="F17">
+        <v>2004</v>
+      </c>
+      <c r="G17">
+        <v>2005</v>
+      </c>
+      <c r="H17">
+        <v>2006</v>
+      </c>
+      <c r="I17">
+        <v>2007</v>
+      </c>
+      <c r="J17">
+        <v>2008</v>
+      </c>
+      <c r="K17">
+        <v>2009</v>
+      </c>
+      <c r="L17">
+        <v>2010</v>
+      </c>
+      <c r="M17">
+        <v>2011</v>
+      </c>
+      <c r="N17">
+        <v>2012</v>
+      </c>
+      <c r="O17">
+        <v>2013</v>
+      </c>
+      <c r="P17">
+        <v>2014</v>
+      </c>
+      <c r="Q17">
+        <v>2015</v>
+      </c>
+      <c r="R17">
+        <v>2016</v>
+      </c>
+      <c r="S17">
+        <v>2017</v>
+      </c>
+      <c r="T17">
+        <v>2018</v>
+      </c>
+      <c r="U17">
+        <v>2019</v>
+      </c>
+      <c r="V17">
+        <v>2020</v>
+      </c>
+      <c r="W17">
+        <v>2021</v>
+      </c>
+      <c r="X17">
+        <v>2022</v>
+      </c>
+      <c r="Y17">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K18">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L18">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="M18">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="N18">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="O18">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="P18">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q18">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="R18">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="S18">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="T18">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="U18">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="V18">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="W18">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="X18">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="Y18">
+        <v>4.9771689497716896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.34409073920603195</v>
+      </c>
+      <c r="C19">
+        <v>0.39609028421001313</v>
+      </c>
+      <c r="D19">
+        <v>0.34896569655015519</v>
+      </c>
+      <c r="E19">
+        <v>0.3908090804205463</v>
+      </c>
+      <c r="F19">
+        <v>0.3922789539227895</v>
+      </c>
+      <c r="G19">
+        <v>0.38314653383146535</v>
+      </c>
+      <c r="H19">
+        <v>0.396222498962225</v>
+      </c>
+      <c r="I19">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="J19">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="K19">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="L19">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="M19">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="N19">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="O19">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="P19">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="Q19">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="R19">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="S19">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="T19">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="U19">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="V19">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="W19">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="X19">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="Y19">
+        <v>0.25824553878597789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="C20">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="D20">
+        <v>0.1583775556378296</v>
+      </c>
+      <c r="E20">
+        <v>0.18100292072894811</v>
+      </c>
+      <c r="F20">
+        <v>0.15323542720802993</v>
+      </c>
+      <c r="G20">
+        <v>0.1779176436710683</v>
+      </c>
+      <c r="H20">
+        <v>0.22213994816734542</v>
+      </c>
+      <c r="I20">
+        <v>0.23228111971411552</v>
+      </c>
+      <c r="J20">
+        <v>0.23426642842962081</v>
+      </c>
+      <c r="K20">
+        <v>0.19456025411951558</v>
+      </c>
+      <c r="L20">
+        <v>0.19555290847726822</v>
+      </c>
+      <c r="M20">
+        <v>0.19786910197869106</v>
+      </c>
+      <c r="N20">
+        <v>0.22450532724505329</v>
+      </c>
+      <c r="O20">
+        <v>0.2226027397260274</v>
+      </c>
+      <c r="P20">
+        <v>0.20357686453576868</v>
+      </c>
+      <c r="Q20">
+        <v>0.17694063926940642</v>
+      </c>
+      <c r="R20">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="S20">
+        <v>0.18359969558599698</v>
+      </c>
+      <c r="T20">
+        <v>0.19216133942161343</v>
+      </c>
+      <c r="U20">
+        <v>0.20452815829528159</v>
+      </c>
+      <c r="V20">
+        <v>0.21784627092846273</v>
+      </c>
+      <c r="W20">
+        <v>0.29014459665144599</v>
+      </c>
+      <c r="X20">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="Y20">
+        <v>0.14840182648401828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>0.29434148088459128</v>
+      </c>
+      <c r="C21">
+        <v>0.22423352902804958</v>
+      </c>
+      <c r="D21">
+        <v>0.22408253001860307</v>
+      </c>
+      <c r="E21">
+        <v>0.20686315206863154</v>
+      </c>
+      <c r="F21">
+        <v>0.18103408514367419</v>
+      </c>
+      <c r="G21">
+        <v>0.24791291914579586</v>
+      </c>
+      <c r="H21">
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="I21">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="J21">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="K21">
+        <v>0.18296846327828276</v>
+      </c>
+      <c r="L21">
+        <v>0.26339491433119683</v>
+      </c>
+      <c r="M21">
+        <v>0.14626141552511415</v>
+      </c>
+      <c r="N21">
+        <v>0.15647142182333496</v>
+      </c>
+      <c r="O21">
+        <v>0.19708855325293684</v>
+      </c>
+      <c r="P21">
+        <v>0.22250599798777185</v>
+      </c>
+      <c r="Q21">
+        <v>0.27329541057193724</v>
+      </c>
+      <c r="R21">
+        <v>0.18767897221577279</v>
+      </c>
+      <c r="S21">
+        <v>0.12870890865760704</v>
+      </c>
+      <c r="T21">
+        <v>0.23422292564900221</v>
+      </c>
+      <c r="U21">
+        <v>0.13325692663137406</v>
+      </c>
+      <c r="V21">
+        <v>0.12825410686023031</v>
+      </c>
+      <c r="W21">
+        <v>0.21921446633557101</v>
+      </c>
+      <c r="X21">
+        <v>0.17145847997545438</v>
+      </c>
+      <c r="Y21">
+        <v>0.14032522966412186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>0.58791571267802401</v>
+      </c>
+      <c r="C22">
+        <v>0.632219592016247</v>
+      </c>
+      <c r="D22">
+        <v>0.84860999194198217</v>
+      </c>
+      <c r="E22">
+        <v>0.72522159548751008</v>
+      </c>
+      <c r="F22">
+        <v>0.70591592801504166</v>
+      </c>
+      <c r="G22">
+        <v>0.78271890948160072</v>
+      </c>
+      <c r="H22">
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="I22">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="J22">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="K22">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="L22">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="M22">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="N22">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="O22">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="P22">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="Q22">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="R22">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="S22">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="T22">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="U22">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="V22">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W22">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X22">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y22">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>65535</v>
+      </c>
+      <c r="C23">
+        <v>65535</v>
+      </c>
+      <c r="D23">
+        <v>65535</v>
+      </c>
+      <c r="E23">
+        <v>65535</v>
+      </c>
+      <c r="F23">
+        <v>65535</v>
+      </c>
+      <c r="G23">
+        <v>65535</v>
+      </c>
+      <c r="H23">
+        <v>65535</v>
+      </c>
+      <c r="I23">
+        <v>65535</v>
+      </c>
+      <c r="J23">
+        <v>65535</v>
+      </c>
+      <c r="K23">
+        <v>65535</v>
+      </c>
+      <c r="L23">
+        <v>65535</v>
+      </c>
+      <c r="M23">
+        <v>65535</v>
+      </c>
+      <c r="N23">
+        <v>65535</v>
+      </c>
+      <c r="O23">
+        <v>65535</v>
+      </c>
+      <c r="P23">
+        <v>65535</v>
+      </c>
+      <c r="Q23">
+        <v>65535</v>
+      </c>
+      <c r="R23">
+        <v>65535</v>
+      </c>
+      <c r="S23">
+        <v>65535</v>
+      </c>
+      <c r="T23">
+        <v>65535</v>
+      </c>
+      <c r="U23">
+        <v>65535</v>
+      </c>
+      <c r="V23">
+        <v>65535</v>
+      </c>
+      <c r="W23">
+        <v>65535</v>
+      </c>
+      <c r="X23">
+        <v>65535</v>
+      </c>
+      <c r="Y23">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M24">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="N24">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O24">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P24">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q24">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R24">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S24">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T24">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U24">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V24">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W24">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X24">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y24">
+        <v>0.13667567483614451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I25">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J25">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K25">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L25">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M25">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N25">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O25">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P25">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q25">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R25">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S25">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T25">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U25">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V25">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W25">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X25">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y25">
+        <v>0.25277234181343772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C29" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D29">
         <v>2000</v>
       </c>
-      <c r="E17">
+      <c r="E29">
         <v>2001</v>
       </c>
-      <c r="F17">
+      <c r="F29">
         <v>2002</v>
       </c>
-      <c r="G17">
+      <c r="G29">
         <v>2003</v>
       </c>
-      <c r="H17">
+      <c r="H29">
         <v>2004</v>
       </c>
-      <c r="I17">
+      <c r="I29">
         <v>2005</v>
       </c>
-      <c r="J17">
+      <c r="J29">
         <v>2006</v>
       </c>
-      <c r="K17">
+      <c r="K29">
         <v>2007</v>
       </c>
-      <c r="L17">
+      <c r="L29">
         <v>2008</v>
       </c>
-      <c r="M17">
+      <c r="M29">
         <v>2009</v>
       </c>
-      <c r="N17">
+      <c r="N29">
         <v>2010</v>
       </c>
-      <c r="O17">
+      <c r="O29">
         <v>2011</v>
       </c>
-      <c r="P17">
+      <c r="P29">
         <v>2012</v>
       </c>
-      <c r="Q17">
+      <c r="Q29">
         <v>2013</v>
       </c>
-      <c r="R17">
+      <c r="R29">
         <v>2014</v>
       </c>
-      <c r="S17">
+      <c r="S29">
         <v>2015</v>
       </c>
-      <c r="T17">
+      <c r="T29">
         <v>2016</v>
       </c>
-      <c r="U17">
+      <c r="U29">
         <v>2017</v>
       </c>
-      <c r="V17">
+      <c r="V29">
         <v>2018</v>
       </c>
-      <c r="W17">
+      <c r="W29">
         <v>2019</v>
       </c>
-      <c r="X17">
+      <c r="X29">
         <v>2020</v>
       </c>
-      <c r="Y17">
+      <c r="Y29">
         <v>2021</v>
       </c>
-      <c r="Z17">
+      <c r="Z29">
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.30441400304414001</v>
-      </c>
-      <c r="M18">
-        <v>0.10147133434804669</v>
-      </c>
-      <c r="N18">
-        <v>0.40447488584474894</v>
-      </c>
-      <c r="O18">
-        <v>0.5811540058115402</v>
-      </c>
-      <c r="P18">
-        <v>0.53816046966731901</v>
-      </c>
-      <c r="Q18">
-        <v>0.37067553048616708</v>
-      </c>
-      <c r="R18">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="S18">
-        <v>0.57500422797226458</v>
-      </c>
-      <c r="T18">
-        <v>0.70696146759593048</v>
-      </c>
-      <c r="U18">
-        <v>0.86924428402751963</v>
-      </c>
-      <c r="V18">
-        <v>2.5863099724480505</v>
-      </c>
-      <c r="W18">
-        <v>3.6549813955986812</v>
-      </c>
-      <c r="X18">
-        <v>4.036889720525596</v>
-      </c>
-      <c r="Y18">
-        <v>6.2453375126974553</v>
-      </c>
-      <c r="Z18">
-        <v>3.2548137163984849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>0.17918731176527739</v>
-      </c>
-      <c r="E19">
-        <v>0.14535545467936098</v>
-      </c>
-      <c r="F19">
-        <v>0.15845780240593327</v>
-      </c>
-      <c r="G19">
-        <v>0.1498316039834055</v>
-      </c>
-      <c r="H19">
-        <v>0.1347902156764661</v>
-      </c>
-      <c r="I19">
-        <v>0.18958653994151151</v>
-      </c>
-      <c r="J19">
-        <v>0.18353719344825822</v>
-      </c>
-      <c r="K19">
-        <v>0.12836507928947488</v>
-      </c>
-      <c r="L19">
-        <v>0.12535509016122517</v>
-      </c>
-      <c r="M19">
-        <v>0.15416139825537606</v>
-      </c>
-      <c r="N19">
-        <v>0.21319901365069094</v>
-      </c>
-      <c r="O19">
-        <v>0.13556538436675425</v>
-      </c>
-      <c r="P19">
-        <v>0.1426745416205524</v>
-      </c>
-      <c r="Q19">
-        <v>0.17089921406444017</v>
-      </c>
-      <c r="R19">
-        <v>0.18308207829936693</v>
-      </c>
-      <c r="S19">
-        <v>0.21797454043557021</v>
-      </c>
-      <c r="T19">
-        <v>0.16178813238750592</v>
-      </c>
-      <c r="U19">
-        <v>0.11826549026371555</v>
-      </c>
-      <c r="V19">
-        <v>0.18320015783762453</v>
-      </c>
-      <c r="W19">
-        <v>0.11430375923833559</v>
-      </c>
-      <c r="X19">
-        <v>0.11225524213694742</v>
-      </c>
-      <c r="Y19">
-        <v>0.1716829439171017</v>
-      </c>
-      <c r="Z19">
-        <v>0.13069358514235713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>0.58751816400088952</v>
-      </c>
-      <c r="E20">
-        <v>0.63195855763612019</v>
-      </c>
-      <c r="F20">
-        <v>0.84807034848805107</v>
-      </c>
-      <c r="G20">
-        <v>0.72468873612271401</v>
-      </c>
-      <c r="H20">
-        <v>0.70518756353607848</v>
-      </c>
-      <c r="I20">
-        <v>0.78226961776024206</v>
-      </c>
-      <c r="J20">
-        <v>0.81749754243287398</v>
-      </c>
-      <c r="K20">
-        <v>0.88349648121868596</v>
-      </c>
-      <c r="L20">
-        <v>0.95119319991890894</v>
-      </c>
-      <c r="M20">
-        <v>0.92048229990249752</v>
-      </c>
-      <c r="N20">
-        <v>0.92005994960757642</v>
-      </c>
-      <c r="O20">
-        <v>0.98431753019201262</v>
-      </c>
-      <c r="P20">
-        <v>0.94540432280661413</v>
-      </c>
-      <c r="Q20">
-        <v>0.81619276686525755</v>
-      </c>
-      <c r="R20">
-        <v>0.91711461765215874</v>
-      </c>
-      <c r="S20">
-        <v>0.88913935610658323</v>
-      </c>
-      <c r="T20">
-        <v>0.91556341739152636</v>
-      </c>
-      <c r="U20">
-        <v>0.90218624426321981</v>
-      </c>
-      <c r="V20">
-        <v>0.91672584775055033</v>
-      </c>
-      <c r="W20">
-        <v>0.942110199083116</v>
-      </c>
-      <c r="X20">
-        <v>0.94612082701666678</v>
-      </c>
-      <c r="Y20">
-        <v>0.9382181082323805</v>
-      </c>
-      <c r="Z20">
-        <v>0.93680249206717758</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>1.3728687025740881E-2</v>
-      </c>
-      <c r="E21">
-        <v>8.9246408872480296E-3</v>
-      </c>
-      <c r="F21">
-        <v>1.4064542368890371E-2</v>
-      </c>
-      <c r="G21">
-        <v>1.3440969291696423E-2</v>
-      </c>
-      <c r="H21">
-        <v>1.4367639360976603E-2</v>
-      </c>
-      <c r="I21">
-        <v>1.06544901065449E-2</v>
-      </c>
-      <c r="J21">
-        <v>6.8721033906174785E-3</v>
-      </c>
-      <c r="K21">
-        <v>1.3383397499030053E-2</v>
-      </c>
-      <c r="L21">
-        <v>6.8134032678754683E-3</v>
-      </c>
-      <c r="M21">
-        <v>8.974387151398696E-3</v>
-      </c>
-      <c r="N21">
-        <v>1.0171012962918537E-2</v>
-      </c>
-      <c r="O21">
-        <v>4.0275281549390085E-3</v>
-      </c>
-      <c r="P21">
-        <v>5.4770281784942507E-3</v>
-      </c>
-      <c r="Q21">
-        <v>5.9193423561722108E-3</v>
-      </c>
-      <c r="R21">
-        <v>5.7979529360833674E-3</v>
-      </c>
-      <c r="S21">
-        <v>5.9440758150922698E-3</v>
-      </c>
-      <c r="T21">
-        <v>1.0672682178439969E-2</v>
-      </c>
-      <c r="U21">
-        <v>1.3166338195431674E-2</v>
-      </c>
-      <c r="V21">
-        <v>1.0273264456408587E-2</v>
-      </c>
-      <c r="W21">
-        <v>1.1459284473580975E-2</v>
-      </c>
-      <c r="X21">
-        <v>1.0273784895450284E-2</v>
-      </c>
-      <c r="Y21">
-        <v>1.1799059936493149E-2</v>
-      </c>
-      <c r="Z21">
-        <v>1.5180712412366853E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22">
-        <v>0.22831050228310501</v>
-      </c>
-      <c r="L22">
-        <v>0.1906392694063927</v>
-      </c>
-      <c r="M22">
-        <v>0.18647260273972602</v>
-      </c>
-      <c r="N22">
-        <v>6.7876712328767116E-2</v>
-      </c>
-      <c r="O22">
-        <v>7.476575935480044E-2</v>
-      </c>
-      <c r="P22">
-        <v>9.6412405035707568E-2</v>
-      </c>
-      <c r="Q22">
-        <v>0.15293804193529958</v>
-      </c>
-      <c r="R22">
-        <v>0.13941040865139273</v>
-      </c>
-      <c r="S22">
-        <v>0.1534278778672068</v>
-      </c>
-      <c r="T22">
-        <v>0.15383140488540142</v>
-      </c>
-      <c r="U22">
-        <v>0.15538589047072227</v>
-      </c>
-      <c r="V22">
-        <v>0.14838111835914639</v>
-      </c>
-      <c r="W22">
-        <v>0.15491400651998427</v>
-      </c>
-      <c r="X22">
-        <v>0.15239085998651261</v>
-      </c>
-      <c r="Y22">
-        <v>0.13133926069138591</v>
-      </c>
-      <c r="Z22">
-        <v>0.13764325363624622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23">
-        <v>0.11415525114155251</v>
-      </c>
-      <c r="I23">
-        <v>6.5453767123287668E-2</v>
-      </c>
-      <c r="J23">
-        <v>8.4758159986470502E-2</v>
-      </c>
-      <c r="K23">
-        <v>0.17808980213089803</v>
-      </c>
-      <c r="L23">
-        <v>0.12192381639029079</v>
-      </c>
-      <c r="M23">
-        <v>8.1248714467892558E-2</v>
-      </c>
-      <c r="N23">
-        <v>0.15938903548169775</v>
-      </c>
-      <c r="O23">
-        <v>0.18169781142649755</v>
-      </c>
-      <c r="P23">
-        <v>0.2058669391554197</v>
-      </c>
-      <c r="Q23">
-        <v>0.22956604290766625</v>
-      </c>
-      <c r="R23">
-        <v>0.2172995015710637</v>
-      </c>
-      <c r="S23">
-        <v>0.23704950320418605</v>
-      </c>
-      <c r="T23">
-        <v>0.23271503321770831</v>
-      </c>
-      <c r="U23">
-        <v>0.24584659524473154</v>
-      </c>
-      <c r="V23">
-        <v>0.21529025081619735</v>
-      </c>
-      <c r="W23">
-        <v>0.21381996798613462</v>
-      </c>
-      <c r="X23">
-        <v>0.23992922634315969</v>
-      </c>
-      <c r="Y23">
-        <v>0.2323315222455867</v>
-      </c>
-      <c r="Z23">
-        <v>0.24297964087912982</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>2000</v>
-      </c>
-      <c r="E27">
-        <v>2001</v>
-      </c>
-      <c r="F27">
-        <v>2002</v>
-      </c>
-      <c r="G27">
-        <v>2003</v>
-      </c>
-      <c r="H27">
-        <v>2004</v>
-      </c>
-      <c r="I27">
-        <v>2005</v>
-      </c>
-      <c r="J27">
-        <v>2006</v>
-      </c>
-      <c r="K27">
-        <v>2007</v>
-      </c>
-      <c r="L27">
-        <v>2008</v>
-      </c>
-      <c r="M27">
-        <v>2009</v>
-      </c>
-      <c r="N27">
-        <v>2010</v>
-      </c>
-      <c r="O27">
-        <v>2011</v>
-      </c>
-      <c r="P27">
-        <v>2012</v>
-      </c>
-      <c r="Q27">
-        <v>2013</v>
-      </c>
-      <c r="R27">
-        <v>2014</v>
-      </c>
-      <c r="S27">
-        <v>2015</v>
-      </c>
-      <c r="T27">
-        <v>2016</v>
-      </c>
-      <c r="U27">
-        <v>2017</v>
-      </c>
-      <c r="V27">
-        <v>2018</v>
-      </c>
-      <c r="W27">
-        <v>2019</v>
-      </c>
-      <c r="X27">
-        <v>2020</v>
-      </c>
-      <c r="Y27">
-        <v>2021</v>
-      </c>
-      <c r="Z27">
-        <v>2022</v>
-      </c>
-      <c r="AA27">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="M28">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="N28">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="O28">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="P28">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="Q28">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="R28">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="S28">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="T28">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="U28">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="V28">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="W28">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="X28">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="Y28">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="Z28">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="AA28">
-        <v>4.9771689497716896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="E29">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="F29">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="G29">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="H29">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="I29">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="J29">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="K29">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="L29">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="M29">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="N29">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="O29">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="P29">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="Q29">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="R29">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="S29">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="T29">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="U29">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="V29">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="W29">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="X29">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="Y29">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="Z29">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="AA29">
-        <v>0.25824553878597789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>0.19642930601834707</v>
-      </c>
-      <c r="E30">
-        <v>0.19642930601834707</v>
-      </c>
-      <c r="F30">
-        <v>0.1583775556378296</v>
-      </c>
-      <c r="G30">
-        <v>0.18100292072894811</v>
-      </c>
-      <c r="H30">
-        <v>0.15323542720802993</v>
-      </c>
-      <c r="I30">
-        <v>0.1779176436710683</v>
-      </c>
-      <c r="J30">
-        <v>0.22213994816734542</v>
-      </c>
-      <c r="K30">
-        <v>0.23228111971411552</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0.23426642842962081</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="M30">
-        <v>0.19456025411951558</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="N30">
-        <v>0.19555290847726822</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="O30">
-        <v>0.19786910197869106</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="P30">
-        <v>0.22450532724505329</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="Q30">
-        <v>0.2226027397260274</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="R30">
-        <v>0.20357686453576868</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="S30">
-        <v>0.17694063926940642</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="T30">
-        <v>0.1950152207001522</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="U30">
-        <v>0.18359969558599698</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="V30">
-        <v>0.19216133942161343</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="W30">
-        <v>0.20452815829528159</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="X30">
-        <v>0.21784627092846273</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="Y30">
-        <v>0.29014459665144599</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="Z30">
-        <v>0.1950152207001522</v>
-      </c>
-      <c r="AA30">
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
+        <v>3.2548137163984849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>81</v>
@@ -2510,81 +2550,78 @@
         <v>12</v>
       </c>
       <c r="D31">
-        <v>0.29434148088459128</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="E31">
-        <v>0.22423352902804958</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="F31">
-        <v>0.22408253001860307</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="G31">
-        <v>0.20686315206863154</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="H31">
-        <v>0.18103408514367419</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="I31">
-        <v>0.24791291914579586</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="J31">
-        <v>0.2427240440939071</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="K31">
-        <v>0.16072605011472321</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="L31">
-        <v>0.1502326182476092</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="M31">
-        <v>0.18296846327828276</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="N31">
-        <v>0.26339491433119683</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="O31">
-        <v>0.14626141552511415</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="P31">
-        <v>0.15647142182333496</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="Q31">
-        <v>0.19708855325293684</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="R31">
-        <v>0.22250599798777185</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="S31">
-        <v>0.27329541057193724</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="T31">
-        <v>0.18767897221577279</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="U31">
-        <v>0.12870890865760704</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="V31">
-        <v>0.23422292564900221</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="W31">
-        <v>0.13325692663137406</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="X31">
-        <v>0.12825410686023031</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="Y31">
-        <v>0.21921446633557101</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="Z31">
-        <v>0.17145847997545438</v>
-      </c>
-      <c r="AA31">
-        <v>0.14032522966412186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
+        <v>0.13069358514235713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
@@ -2593,81 +2630,78 @@
         <v>13</v>
       </c>
       <c r="D32">
-        <v>0.58791571267802401</v>
+        <v>0.58751816400088952</v>
       </c>
       <c r="E32">
-        <v>0.632219592016247</v>
+        <v>0.63195855763612019</v>
       </c>
       <c r="F32">
-        <v>0.84860999194198217</v>
+        <v>0.84807034848805107</v>
       </c>
       <c r="G32">
-        <v>0.72522159548751008</v>
+        <v>0.72468873612271401</v>
       </c>
       <c r="H32">
-        <v>0.70591592801504166</v>
+        <v>0.70518756353607848</v>
       </c>
       <c r="I32">
-        <v>0.78271890948160072</v>
+        <v>0.78226961776024206</v>
       </c>
       <c r="J32">
-        <v>0.81797273704002138</v>
+        <v>0.81749754243287398</v>
       </c>
       <c r="K32">
-        <v>0.88425019931869253</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="L32">
-        <v>0.95250175158850958</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="M32">
-        <v>0.92169795366142393</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="N32">
-        <v>0.92109395762363799</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="O32">
-        <v>0.98511753762895304</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="P32">
-        <v>0.94312558272968505</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="Q32">
-        <v>0.81695954983626218</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="R32">
-        <v>0.91497163414971638</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="S32">
-        <v>0.88672109220054429</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="T32">
-        <v>0.91440094569223274</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="U32">
-        <v>0.90107317525438657</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="V32">
-        <v>0.91608169199663791</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="W32">
-        <v>0.94050296462891025</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="X32">
-        <v>0.9444785206388151</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="Y32">
-        <v>0.93652740861900541</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="Z32">
-        <v>0.93482359890047495</v>
-      </c>
-      <c r="AA32">
-        <v>0.91778550171516859</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>81</v>
@@ -2676,81 +2710,78 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>65535</v>
+        <v>1.3728687025740881E-2</v>
       </c>
       <c r="E33">
-        <v>65535</v>
+        <v>8.9246408872480296E-3</v>
       </c>
       <c r="F33">
-        <v>65535</v>
+        <v>1.4064542368890371E-2</v>
       </c>
       <c r="G33">
-        <v>65535</v>
+        <v>1.3440969291696423E-2</v>
       </c>
       <c r="H33">
-        <v>65535</v>
+        <v>1.4367639360976603E-2</v>
       </c>
       <c r="I33">
-        <v>65535</v>
+        <v>1.06544901065449E-2</v>
       </c>
       <c r="J33">
-        <v>65535</v>
+        <v>6.8721033906174785E-3</v>
       </c>
       <c r="K33">
-        <v>65535</v>
+        <v>1.3383397499030053E-2</v>
       </c>
       <c r="L33">
-        <v>65535</v>
+        <v>6.8134032678754683E-3</v>
       </c>
       <c r="M33">
-        <v>65535</v>
+        <v>8.974387151398696E-3</v>
       </c>
       <c r="N33">
-        <v>65535</v>
+        <v>1.0171012962918537E-2</v>
       </c>
       <c r="O33">
-        <v>65535</v>
+        <v>4.0275281549390085E-3</v>
       </c>
       <c r="P33">
-        <v>65535</v>
+        <v>5.4770281784942507E-3</v>
       </c>
       <c r="Q33">
-        <v>65535</v>
+        <v>5.9193423561722108E-3</v>
       </c>
       <c r="R33">
-        <v>65535</v>
+        <v>5.7979529360833674E-3</v>
       </c>
       <c r="S33">
-        <v>65535</v>
+        <v>5.9440758150922698E-3</v>
       </c>
       <c r="T33">
-        <v>65535</v>
+        <v>1.0672682178439969E-2</v>
       </c>
       <c r="U33">
-        <v>65535</v>
+        <v>1.3166338195431674E-2</v>
       </c>
       <c r="V33">
-        <v>65535</v>
+        <v>1.0273264456408587E-2</v>
       </c>
       <c r="W33">
-        <v>65535</v>
+        <v>1.1459284473580975E-2</v>
       </c>
       <c r="X33">
-        <v>65535</v>
+        <v>1.0273784895450284E-2</v>
       </c>
       <c r="Y33">
-        <v>65535</v>
+        <v>1.1799059936493149E-2</v>
       </c>
       <c r="Z33">
-        <v>65535</v>
-      </c>
-      <c r="AA33">
-        <v>65535</v>
+        <v>1.5180712412366853E-2</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
@@ -2758,52 +2789,58 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
+      <c r="K34">
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="L34">
+        <v>0.1906392694063927</v>
+      </c>
+      <c r="M34">
+        <v>0.18647260273972602</v>
+      </c>
       <c r="N34">
-        <v>3.8051750380517509E-2</v>
+        <v>6.7876712328767116E-2</v>
       </c>
       <c r="O34">
-        <v>7.6103500761035017E-2</v>
+        <v>7.476575935480044E-2</v>
       </c>
       <c r="P34">
-        <v>9.6783799880881469E-2</v>
+        <v>9.6412405035707568E-2</v>
       </c>
       <c r="Q34">
-        <v>0.1525728837372673</v>
+        <v>0.15293804193529958</v>
       </c>
       <c r="R34">
-        <v>0.13964622955180209</v>
+        <v>0.13941040865139273</v>
       </c>
       <c r="S34">
-        <v>0.15294587046149752</v>
+        <v>0.1534278778672068</v>
       </c>
       <c r="T34">
-        <v>0.1540541738706388</v>
+        <v>0.15383140488540142</v>
       </c>
       <c r="U34">
-        <v>0.15516247727978011</v>
+        <v>0.15538589047072227</v>
       </c>
       <c r="V34">
-        <v>0.14851265682493239</v>
+        <v>0.14838111835914639</v>
       </c>
       <c r="W34">
-        <v>0.15586582367404284</v>
+        <v>0.15491400651998427</v>
       </c>
       <c r="X34">
-        <v>0.15255292652552924</v>
+        <v>0.15239085998651261</v>
       </c>
       <c r="Y34">
-        <v>0.13213245604573401</v>
+        <v>0.13133926069138591</v>
       </c>
       <c r="Z34">
-        <v>0.13711751430220961</v>
-      </c>
-      <c r="AA34">
-        <v>0.13667567483614451</v>
+        <v>0.13764325363624622</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>81</v>
@@ -2811,61 +2848,768 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
+      <c r="H35">
+        <v>0.11415525114155251</v>
+      </c>
       <c r="I35">
+        <v>6.5453767123287668E-2</v>
+      </c>
+      <c r="J35">
+        <v>8.4758159986470502E-2</v>
+      </c>
+      <c r="K35">
+        <v>0.17808980213089803</v>
+      </c>
+      <c r="L35">
+        <v>0.12192381639029079</v>
+      </c>
+      <c r="M35">
+        <v>8.1248714467892558E-2</v>
+      </c>
+      <c r="N35">
+        <v>0.15938903548169775</v>
+      </c>
+      <c r="O35">
+        <v>0.18169781142649755</v>
+      </c>
+      <c r="P35">
+        <v>0.2058669391554197</v>
+      </c>
+      <c r="Q35">
+        <v>0.22956604290766625</v>
+      </c>
+      <c r="R35">
+        <v>0.2172995015710637</v>
+      </c>
+      <c r="S35">
+        <v>0.23704950320418605</v>
+      </c>
+      <c r="T35">
+        <v>0.23271503321770831</v>
+      </c>
+      <c r="U35">
+        <v>0.24584659524473154</v>
+      </c>
+      <c r="V35">
+        <v>0.21529025081619735</v>
+      </c>
+      <c r="W35">
+        <v>0.21381996798613462</v>
+      </c>
+      <c r="X35">
+        <v>0.23992922634315969</v>
+      </c>
+      <c r="Y35">
+        <v>0.2323315222455867</v>
+      </c>
+      <c r="Z35">
+        <v>0.24297964087912982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>2000</v>
+      </c>
+      <c r="E39">
+        <v>2001</v>
+      </c>
+      <c r="F39">
+        <v>2002</v>
+      </c>
+      <c r="G39">
+        <v>2003</v>
+      </c>
+      <c r="H39">
+        <v>2004</v>
+      </c>
+      <c r="I39">
+        <v>2005</v>
+      </c>
+      <c r="J39">
+        <v>2006</v>
+      </c>
+      <c r="K39">
+        <v>2007</v>
+      </c>
+      <c r="L39">
+        <v>2008</v>
+      </c>
+      <c r="M39">
+        <v>2009</v>
+      </c>
+      <c r="N39">
+        <v>2010</v>
+      </c>
+      <c r="O39">
+        <v>2011</v>
+      </c>
+      <c r="P39">
+        <v>2012</v>
+      </c>
+      <c r="Q39">
+        <v>2013</v>
+      </c>
+      <c r="R39">
+        <v>2014</v>
+      </c>
+      <c r="S39">
+        <v>2015</v>
+      </c>
+      <c r="T39">
+        <v>2016</v>
+      </c>
+      <c r="U39">
+        <v>2017</v>
+      </c>
+      <c r="V39">
+        <v>2018</v>
+      </c>
+      <c r="W39">
+        <v>2019</v>
+      </c>
+      <c r="X39">
+        <v>2020</v>
+      </c>
+      <c r="Y39">
+        <v>2021</v>
+      </c>
+      <c r="Z39">
+        <v>2022</v>
+      </c>
+      <c r="AA39">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
         <v>0</v>
       </c>
-      <c r="J35">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="M40">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="N40">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="O40">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="P40">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="Q40">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="R40">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="S40">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="T40">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="U40">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="V40">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="W40">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="X40">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="Y40">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="Z40">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="AA40">
+        <v>4.9771689497716896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.34409073920603195</v>
+      </c>
+      <c r="E41">
+        <v>0.39609028421001313</v>
+      </c>
+      <c r="F41">
+        <v>0.34896569655015519</v>
+      </c>
+      <c r="G41">
+        <v>0.3908090804205463</v>
+      </c>
+      <c r="H41">
+        <v>0.3922789539227895</v>
+      </c>
+      <c r="I41">
+        <v>0.38314653383146535</v>
+      </c>
+      <c r="J41">
+        <v>0.396222498962225</v>
+      </c>
+      <c r="K41">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="L41">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="M41">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="N41">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="O41">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="P41">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="Q41">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="R41">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="S41">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="T41">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="U41">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="V41">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="W41">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="X41">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="Y41">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="Z41">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="AA41">
+        <v>0.25824553878597789</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="E42">
+        <v>0.19642930601834707</v>
+      </c>
+      <c r="F42">
+        <v>0.1583775556378296</v>
+      </c>
+      <c r="G42">
+        <v>0.18100292072894811</v>
+      </c>
+      <c r="H42">
+        <v>0.15323542720802993</v>
+      </c>
+      <c r="I42">
+        <v>0.1779176436710683</v>
+      </c>
+      <c r="J42">
+        <v>0.22213994816734542</v>
+      </c>
+      <c r="K42">
+        <v>0.23228111971411552</v>
+      </c>
+      <c r="L42">
+        <v>0.23426642842962081</v>
+      </c>
+      <c r="M42">
+        <v>0.19456025411951558</v>
+      </c>
+      <c r="N42">
+        <v>0.19555290847726822</v>
+      </c>
+      <c r="O42">
+        <v>0.19786910197869106</v>
+      </c>
+      <c r="P42">
+        <v>0.22450532724505329</v>
+      </c>
+      <c r="Q42">
+        <v>0.2226027397260274</v>
+      </c>
+      <c r="R42">
+        <v>0.20357686453576868</v>
+      </c>
+      <c r="S42">
+        <v>0.17694063926940642</v>
+      </c>
+      <c r="T42">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="U42">
+        <v>0.18359969558599698</v>
+      </c>
+      <c r="V42">
+        <v>0.19216133942161343</v>
+      </c>
+      <c r="W42">
+        <v>0.20452815829528159</v>
+      </c>
+      <c r="X42">
+        <v>0.21784627092846273</v>
+      </c>
+      <c r="Y42">
+        <v>0.29014459665144599</v>
+      </c>
+      <c r="Z42">
+        <v>0.1950152207001522</v>
+      </c>
+      <c r="AA42">
+        <v>0.14840182648401828</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>0.29434148088459128</v>
+      </c>
+      <c r="E43">
+        <v>0.22423352902804958</v>
+      </c>
+      <c r="F43">
+        <v>0.22408253001860307</v>
+      </c>
+      <c r="G43">
+        <v>0.20686315206863154</v>
+      </c>
+      <c r="H43">
+        <v>0.18103408514367419</v>
+      </c>
+      <c r="I43">
+        <v>0.24791291914579586</v>
+      </c>
+      <c r="J43">
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="K43">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="L43">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="M43">
+        <v>0.18296846327828276</v>
+      </c>
+      <c r="N43">
+        <v>0.26339491433119683</v>
+      </c>
+      <c r="O43">
+        <v>0.14626141552511415</v>
+      </c>
+      <c r="P43">
+        <v>0.15647142182333496</v>
+      </c>
+      <c r="Q43">
+        <v>0.19708855325293684</v>
+      </c>
+      <c r="R43">
+        <v>0.22250599798777185</v>
+      </c>
+      <c r="S43">
+        <v>0.27329541057193724</v>
+      </c>
+      <c r="T43">
+        <v>0.18767897221577279</v>
+      </c>
+      <c r="U43">
+        <v>0.12870890865760704</v>
+      </c>
+      <c r="V43">
+        <v>0.23422292564900221</v>
+      </c>
+      <c r="W43">
+        <v>0.13325692663137406</v>
+      </c>
+      <c r="X43">
+        <v>0.12825410686023031</v>
+      </c>
+      <c r="Y43">
+        <v>0.21921446633557101</v>
+      </c>
+      <c r="Z43">
+        <v>0.17145847997545438</v>
+      </c>
+      <c r="AA43">
+        <v>0.14032522966412186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>0.58791571267802401</v>
+      </c>
+      <c r="E44">
+        <v>0.632219592016247</v>
+      </c>
+      <c r="F44">
+        <v>0.84860999194198217</v>
+      </c>
+      <c r="G44">
+        <v>0.72522159548751008</v>
+      </c>
+      <c r="H44">
+        <v>0.70591592801504166</v>
+      </c>
+      <c r="I44">
+        <v>0.78271890948160072</v>
+      </c>
+      <c r="J44">
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="K44">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="L44">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="M44">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="N44">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="O44">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="P44">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="Q44">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="R44">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="S44">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="T44">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="U44">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="V44">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="W44">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="X44">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="Y44">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="Z44">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="AA44">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>65535</v>
+      </c>
+      <c r="E45">
+        <v>65535</v>
+      </c>
+      <c r="F45">
+        <v>65535</v>
+      </c>
+      <c r="G45">
+        <v>65535</v>
+      </c>
+      <c r="H45">
+        <v>65535</v>
+      </c>
+      <c r="I45">
+        <v>65535</v>
+      </c>
+      <c r="J45">
+        <v>65535</v>
+      </c>
+      <c r="K45">
+        <v>65535</v>
+      </c>
+      <c r="L45">
+        <v>65535</v>
+      </c>
+      <c r="M45">
+        <v>65535</v>
+      </c>
+      <c r="N45">
+        <v>65535</v>
+      </c>
+      <c r="O45">
+        <v>65535</v>
+      </c>
+      <c r="P45">
+        <v>65535</v>
+      </c>
+      <c r="Q45">
+        <v>65535</v>
+      </c>
+      <c r="R45">
+        <v>65535</v>
+      </c>
+      <c r="S45">
+        <v>65535</v>
+      </c>
+      <c r="T45">
+        <v>65535</v>
+      </c>
+      <c r="U45">
+        <v>65535</v>
+      </c>
+      <c r="V45">
+        <v>65535</v>
+      </c>
+      <c r="W45">
+        <v>65535</v>
+      </c>
+      <c r="X45">
+        <v>65535</v>
+      </c>
+      <c r="Y45">
+        <v>65535</v>
+      </c>
+      <c r="Z45">
+        <v>65535</v>
+      </c>
+      <c r="AA45">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="O46">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="K35">
+      <c r="P46">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="Q46">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="R46">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="S46">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="T46">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="U46">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="V46">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="W46">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="X46">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="Y46">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="Z46">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="AA46">
+        <v>0.13667567483614451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="K47">
         <v>0.19025875190258754</v>
       </c>
-      <c r="L35">
+      <c r="L47">
         <v>0.12453300124533001</v>
       </c>
-      <c r="M35">
+      <c r="M47">
         <v>8.3022000830220002E-2</v>
       </c>
-      <c r="N35">
+      <c r="N47">
         <v>0.15841953219644023</v>
       </c>
-      <c r="O35">
+      <c r="O47">
         <v>0.18180280737358362</v>
       </c>
-      <c r="P35">
+      <c r="P47">
         <v>0.20480795057749127</v>
       </c>
-      <c r="Q35">
+      <c r="Q47">
         <v>0.22998925597636316</v>
       </c>
-      <c r="R35">
+      <c r="R47">
         <v>0.21689497716894979</v>
       </c>
-      <c r="S35">
+      <c r="S47">
         <v>0.23646444879321593</v>
       </c>
-      <c r="T35">
+      <c r="T47">
         <v>0.23157208088714937</v>
       </c>
-      <c r="U35">
+      <c r="U47">
         <v>0.24461839530332682</v>
       </c>
-      <c r="V35">
+      <c r="V47">
         <v>0.21526418786692761</v>
       </c>
-      <c r="W35">
+      <c r="W47">
         <v>0.21526418786692761</v>
       </c>
-      <c r="X35">
+      <c r="X47">
         <v>0.24135681669928247</v>
       </c>
-      <c r="Y35">
+      <c r="Y47">
         <v>0.23320287018917157</v>
       </c>
-      <c r="Z35">
+      <c r="Z47">
         <v>0.23483365949119375</v>
       </c>
-      <c r="AA35">
+      <c r="AA47">
         <v>0.25277234181343772</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8484D292-961E-4364-900A-BD7985E31203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90376F09-7BA1-4ED3-B5E8-8ECE594A46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>bioenergy</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Import</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>EMBER Generation (TWh)</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1750,7 +1756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>4.9771689497716896</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>0.25824553878597789</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>0.14840182648401828</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>0.14032522966412186</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>0.91778550171516859</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>0.13667567483614451</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2398,1219 +2404,1908 @@
         <v>0.25277234181343772</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2000</v>
+      </c>
+      <c r="C29">
+        <v>2001</v>
+      </c>
+      <c r="D29">
+        <v>2002</v>
+      </c>
+      <c r="E29">
+        <v>2003</v>
+      </c>
+      <c r="F29">
+        <v>2004</v>
+      </c>
+      <c r="G29">
+        <v>2005</v>
+      </c>
+      <c r="H29">
+        <v>2006</v>
+      </c>
+      <c r="I29">
+        <v>2007</v>
+      </c>
+      <c r="J29">
+        <v>2008</v>
+      </c>
+      <c r="K29">
+        <v>2009</v>
+      </c>
+      <c r="L29">
+        <v>2010</v>
+      </c>
+      <c r="M29">
+        <v>2011</v>
+      </c>
+      <c r="N29">
+        <v>2012</v>
+      </c>
+      <c r="O29">
+        <v>2013</v>
+      </c>
+      <c r="P29">
+        <v>2014</v>
+      </c>
+      <c r="Q29">
+        <v>2015</v>
+      </c>
+      <c r="R29">
+        <v>2016</v>
+      </c>
+      <c r="S29">
+        <v>2017</v>
+      </c>
+      <c r="T29">
+        <v>2018</v>
+      </c>
+      <c r="U29">
+        <v>2019</v>
+      </c>
+      <c r="V29">
+        <v>2020</v>
+      </c>
+      <c r="W29">
+        <v>2021</v>
+      </c>
+      <c r="X29">
+        <v>2022</v>
+      </c>
+      <c r="Y29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0.05</v>
+      </c>
+      <c r="C30">
+        <v>0.05</v>
+      </c>
+      <c r="D30">
+        <v>0.05</v>
+      </c>
+      <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="G30">
+        <v>0.01</v>
+      </c>
+      <c r="H30">
+        <v>0.01</v>
+      </c>
+      <c r="I30">
+        <v>0.01</v>
+      </c>
+      <c r="J30">
+        <v>0.01</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+      <c r="L30">
+        <v>0.01</v>
+      </c>
+      <c r="M30">
+        <v>0.01</v>
+      </c>
+      <c r="N30">
+        <v>0.01</v>
+      </c>
+      <c r="O30">
+        <v>0.03</v>
+      </c>
+      <c r="P30">
+        <v>0.04</v>
+      </c>
+      <c r="Q30">
+        <v>0.05</v>
+      </c>
+      <c r="R30">
+        <v>0.06</v>
+      </c>
+      <c r="S30">
+        <v>0.05</v>
+      </c>
+      <c r="T30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U30">
+        <v>0.06</v>
+      </c>
+      <c r="V30">
+        <v>0.05</v>
+      </c>
+      <c r="W30">
+        <v>0.05</v>
+      </c>
+      <c r="X30">
+        <v>0.05</v>
+      </c>
+      <c r="Y30">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>5.62</v>
+      </c>
+      <c r="C31">
+        <v>5.62</v>
+      </c>
+      <c r="D31">
+        <v>5.62</v>
+      </c>
+      <c r="E31">
+        <v>5.62</v>
+      </c>
+      <c r="F31">
+        <v>5.5</v>
+      </c>
+      <c r="G31">
+        <v>5.5</v>
+      </c>
+      <c r="H31">
+        <v>5.5</v>
+      </c>
+      <c r="I31">
+        <v>5.5</v>
+      </c>
+      <c r="J31">
+        <v>5.5</v>
+      </c>
+      <c r="K31">
+        <v>5.63</v>
+      </c>
+      <c r="L31">
+        <v>5.63</v>
+      </c>
+      <c r="M31">
+        <v>6.32</v>
+      </c>
+      <c r="N31">
+        <v>6.32</v>
+      </c>
+      <c r="O31">
+        <v>6.11</v>
+      </c>
+      <c r="P31">
+        <v>5.9</v>
+      </c>
+      <c r="Q31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="R31">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="S31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="T31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="U31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="V31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="W31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="X31">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Y31">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M32">
+        <v>1.2</v>
+      </c>
+      <c r="N32">
+        <v>1.2</v>
+      </c>
+      <c r="O32">
+        <v>1.2</v>
+      </c>
+      <c r="P32">
+        <v>1.2</v>
+      </c>
+      <c r="Q32">
+        <v>1.2</v>
+      </c>
+      <c r="R32">
+        <v>1.2</v>
+      </c>
+      <c r="S32">
+        <v>1.2</v>
+      </c>
+      <c r="T32">
+        <v>1.2</v>
+      </c>
+      <c r="U32">
+        <v>1.2</v>
+      </c>
+      <c r="V32">
+        <v>1.2</v>
+      </c>
+      <c r="W32">
+        <v>1.2</v>
+      </c>
+      <c r="X32">
+        <v>1.2</v>
+      </c>
+      <c r="Y32">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>1.02</v>
+      </c>
+      <c r="C33">
+        <v>0.84</v>
+      </c>
+      <c r="D33">
+        <v>1.08</v>
+      </c>
+      <c r="E33">
+        <v>1.65</v>
+      </c>
+      <c r="F33">
+        <v>1.98</v>
+      </c>
+      <c r="G33">
+        <v>1.98</v>
+      </c>
+      <c r="H33">
+        <v>1.98</v>
+      </c>
+      <c r="I33">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J33">
+        <v>2.12</v>
+      </c>
+      <c r="K33">
+        <v>2.14</v>
+      </c>
+      <c r="L33">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M33">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N33">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O33">
+        <v>2.34</v>
+      </c>
+      <c r="P33">
+        <v>2.36</v>
+      </c>
+      <c r="Q33">
+        <v>2.36</v>
+      </c>
+      <c r="R33">
+        <v>2.36</v>
+      </c>
+      <c r="S33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="V33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="W33">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="X33">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Y33">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>3.53</v>
+      </c>
+      <c r="C34">
+        <v>3.53</v>
+      </c>
+      <c r="D34">
+        <v>2.72</v>
+      </c>
+      <c r="E34">
+        <v>2.72</v>
+      </c>
+      <c r="F34">
+        <v>2.72</v>
+      </c>
+      <c r="G34">
+        <v>2.72</v>
+      </c>
+      <c r="H34">
+        <v>2.72</v>
+      </c>
+      <c r="I34">
+        <v>1.89</v>
+      </c>
+      <c r="J34">
+        <v>1.89</v>
+      </c>
+      <c r="K34">
+        <v>1.89</v>
+      </c>
+      <c r="L34">
+        <v>1.89</v>
+      </c>
+      <c r="M34">
+        <v>1.89</v>
+      </c>
+      <c r="N34">
+        <v>1.91</v>
+      </c>
+      <c r="O34">
+        <v>1.98</v>
+      </c>
+      <c r="P34">
+        <v>1.98</v>
+      </c>
+      <c r="Q34">
+        <v>1.98</v>
+      </c>
+      <c r="R34">
+        <v>1.97</v>
+      </c>
+      <c r="S34">
+        <v>1.97</v>
+      </c>
+      <c r="T34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X34">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y34">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0.03</v>
+      </c>
+      <c r="M36">
+        <v>0.15</v>
+      </c>
+      <c r="N36">
+        <v>0.92</v>
+      </c>
+      <c r="O36">
+        <v>1.04</v>
+      </c>
+      <c r="P36">
+        <v>1.03</v>
+      </c>
+      <c r="Q36">
+        <v>1.03</v>
+      </c>
+      <c r="R36">
+        <v>1.03</v>
+      </c>
+      <c r="S36">
+        <v>1.03</v>
+      </c>
+      <c r="T36">
+        <v>1.03</v>
+      </c>
+      <c r="U36">
+        <v>1.04</v>
+      </c>
+      <c r="V36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W36">
+        <v>1.27</v>
+      </c>
+      <c r="X36">
+        <v>1.74</v>
+      </c>
+      <c r="Y36">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.01</v>
+      </c>
+      <c r="H37">
+        <v>0.03</v>
+      </c>
+      <c r="I37">
+        <v>0.03</v>
+      </c>
+      <c r="J37">
+        <v>0.11</v>
+      </c>
+      <c r="K37">
+        <v>0.33</v>
+      </c>
+      <c r="L37">
+        <v>0.49</v>
+      </c>
+      <c r="M37">
+        <v>0.54</v>
+      </c>
+      <c r="N37">
+        <v>0.68</v>
+      </c>
+      <c r="O37">
+        <v>0.68</v>
+      </c>
+      <c r="P37">
+        <v>0.7</v>
+      </c>
+      <c r="Q37">
+        <v>0.7</v>
+      </c>
+      <c r="R37">
+        <v>0.7</v>
+      </c>
+      <c r="S37">
+        <v>0.7</v>
+      </c>
+      <c r="T37">
+        <v>0.7</v>
+      </c>
+      <c r="U37">
+        <v>0.7</v>
+      </c>
+      <c r="V37">
+        <v>0.7</v>
+      </c>
+      <c r="W37">
+        <v>0.7</v>
+      </c>
+      <c r="X37">
+        <v>0.7</v>
+      </c>
+      <c r="Y37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>2000</v>
+      </c>
+      <c r="C41">
+        <v>2001</v>
+      </c>
+      <c r="D41">
+        <v>2002</v>
+      </c>
+      <c r="E41">
+        <v>2003</v>
+      </c>
+      <c r="F41">
+        <v>2004</v>
+      </c>
+      <c r="G41">
+        <v>2005</v>
+      </c>
+      <c r="H41">
+        <v>2006</v>
+      </c>
+      <c r="I41">
+        <v>2007</v>
+      </c>
+      <c r="J41">
+        <v>2008</v>
+      </c>
+      <c r="K41">
+        <v>2009</v>
+      </c>
+      <c r="L41">
+        <v>2010</v>
+      </c>
+      <c r="M41">
+        <v>2011</v>
+      </c>
+      <c r="N41">
+        <v>2012</v>
+      </c>
+      <c r="O41">
+        <v>2013</v>
+      </c>
+      <c r="P41">
+        <v>2014</v>
+      </c>
+      <c r="Q41">
+        <v>2015</v>
+      </c>
+      <c r="R41">
+        <v>2016</v>
+      </c>
+      <c r="S41">
+        <v>2017</v>
+      </c>
+      <c r="T41">
+        <v>2018</v>
+      </c>
+      <c r="U41">
+        <v>2019</v>
+      </c>
+      <c r="V41">
+        <v>2020</v>
+      </c>
+      <c r="W41">
+        <v>2021</v>
+      </c>
+      <c r="X41">
+        <v>2022</v>
+      </c>
+      <c r="Y41">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.02</v>
+      </c>
+      <c r="K42">
+        <v>0.01</v>
+      </c>
+      <c r="L42">
+        <v>0.04</v>
+      </c>
+      <c r="M42">
+        <v>0.06</v>
+      </c>
+      <c r="N42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O42">
+        <v>0.11</v>
+      </c>
+      <c r="P42">
+        <v>0.2</v>
+      </c>
+      <c r="Q42">
+        <v>0.27</v>
+      </c>
+      <c r="R42">
+        <v>0.35</v>
+      </c>
+      <c r="S42">
+        <v>0.4</v>
+      </c>
+      <c r="T42">
+        <v>1.57</v>
+      </c>
+      <c r="U42">
+        <v>1.82</v>
+      </c>
+      <c r="V42">
+        <v>1.7</v>
+      </c>
+      <c r="W42">
+        <v>2.59</v>
+      </c>
+      <c r="X42">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="C43">
+        <v>19.5</v>
+      </c>
+      <c r="D43">
+        <v>17.18</v>
+      </c>
+      <c r="E43">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F43">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G43">
+        <v>18.46</v>
+      </c>
+      <c r="H43">
+        <v>19.09</v>
+      </c>
+      <c r="I43">
+        <v>22.37</v>
+      </c>
+      <c r="J43">
+        <v>23.18</v>
+      </c>
+      <c r="K43">
+        <v>21.1</v>
+      </c>
+      <c r="L43">
+        <v>22.61</v>
+      </c>
+      <c r="M43">
+        <v>27.53</v>
+      </c>
+      <c r="N43">
+        <v>22.87</v>
+      </c>
+      <c r="O43">
+        <v>19.39</v>
+      </c>
+      <c r="P43">
+        <v>21.31</v>
+      </c>
+      <c r="Q43">
+        <v>22.53</v>
+      </c>
+      <c r="R43">
+        <v>19.37</v>
+      </c>
+      <c r="S43">
+        <v>20.92</v>
+      </c>
+      <c r="T43">
+        <v>18.66</v>
+      </c>
+      <c r="U43">
+        <v>17.2</v>
+      </c>
+      <c r="V43">
+        <v>13.51</v>
+      </c>
+      <c r="W43">
+        <v>17.09</v>
+      </c>
+      <c r="X43">
+        <v>21.79</v>
+      </c>
+      <c r="Y43">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>1.91</v>
+      </c>
+      <c r="C44">
+        <v>1.91</v>
+      </c>
+      <c r="D44">
+        <v>1.54</v>
+      </c>
+      <c r="E44">
+        <v>1.76</v>
+      </c>
+      <c r="F44">
+        <v>1.49</v>
+      </c>
+      <c r="G44">
+        <v>1.73</v>
+      </c>
+      <c r="H44">
+        <v>2.16</v>
+      </c>
+      <c r="I44">
+        <v>2.34</v>
+      </c>
+      <c r="J44">
+        <v>2.36</v>
+      </c>
+      <c r="K44">
+        <v>1.96</v>
+      </c>
+      <c r="L44">
+        <v>1.97</v>
+      </c>
+      <c r="M44">
+        <v>2.08</v>
+      </c>
+      <c r="N44">
+        <v>2.36</v>
+      </c>
+      <c r="O44">
+        <v>2.34</v>
+      </c>
+      <c r="P44">
+        <v>2.14</v>
+      </c>
+      <c r="Q44">
+        <v>1.86</v>
+      </c>
+      <c r="R44">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S44">
+        <v>1.93</v>
+      </c>
+      <c r="T44">
+        <v>2.02</v>
+      </c>
+      <c r="U44">
+        <v>2.15</v>
+      </c>
+      <c r="V44">
+        <v>2.29</v>
+      </c>
+      <c r="W44">
+        <v>3.05</v>
+      </c>
+      <c r="X44">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>2.63</v>
+      </c>
+      <c r="C45">
+        <v>1.65</v>
+      </c>
+      <c r="D45">
+        <v>2.12</v>
+      </c>
+      <c r="E45">
+        <v>2.99</v>
+      </c>
+      <c r="F45">
+        <v>3.14</v>
+      </c>
+      <c r="G45">
+        <v>4.3</v>
+      </c>
+      <c r="H45">
+        <v>4.21</v>
+      </c>
+      <c r="I45">
+        <v>2.83</v>
+      </c>
+      <c r="J45">
+        <v>2.79</v>
+      </c>
+      <c r="K45">
+        <v>3.43</v>
+      </c>
+      <c r="L45">
+        <v>5.03</v>
+      </c>
+      <c r="M45">
+        <v>2.87</v>
+      </c>
+      <c r="N45">
+        <v>3.18</v>
+      </c>
+      <c r="O45">
+        <v>4.04</v>
+      </c>
+      <c r="P45">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q45">
+        <v>5.65</v>
+      </c>
+      <c r="R45">
+        <v>3.88</v>
+      </c>
+      <c r="S45">
+        <v>2.83</v>
+      </c>
+      <c r="T45">
+        <v>5.15</v>
+      </c>
+      <c r="U45">
+        <v>2.93</v>
+      </c>
+      <c r="V45">
+        <v>2.82</v>
+      </c>
+      <c r="W45">
+        <v>4.82</v>
+      </c>
+      <c r="X45">
+        <v>3.8</v>
+      </c>
+      <c r="Y45">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>18.18</v>
+      </c>
+      <c r="C46">
+        <v>19.55</v>
+      </c>
+      <c r="D46">
+        <v>20.22</v>
+      </c>
+      <c r="E46">
+        <v>17.28</v>
+      </c>
+      <c r="F46">
+        <v>16.82</v>
+      </c>
+      <c r="G46">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H46">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I46">
+        <v>14.64</v>
+      </c>
+      <c r="J46">
+        <v>15.77</v>
+      </c>
+      <c r="K46">
+        <v>15.26</v>
+      </c>
+      <c r="L46">
+        <v>15.25</v>
+      </c>
+      <c r="M46">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N46">
+        <v>15.78</v>
+      </c>
+      <c r="O46">
+        <v>14.17</v>
+      </c>
+      <c r="P46">
+        <v>15.87</v>
+      </c>
+      <c r="Q46">
+        <v>15.38</v>
+      </c>
+      <c r="R46">
+        <v>15.78</v>
+      </c>
+      <c r="S46">
+        <v>15.55</v>
+      </c>
+      <c r="T46">
+        <v>16.13</v>
+      </c>
+      <c r="U46">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V46">
+        <v>16.63</v>
+      </c>
+      <c r="W46">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X46">
+        <v>16.46</v>
+      </c>
+      <c r="Y46">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>0.93</v>
+      </c>
+      <c r="C47">
+        <v>0.83</v>
+      </c>
+      <c r="D47">
+        <v>1.02</v>
+      </c>
+      <c r="E47">
+        <v>1.01</v>
+      </c>
+      <c r="F47">
+        <v>1.01</v>
+      </c>
+      <c r="G47">
+        <v>0.75</v>
+      </c>
+      <c r="H47">
+        <v>0.47</v>
+      </c>
+      <c r="I47">
+        <v>0.59</v>
+      </c>
+      <c r="J47">
+        <v>0.25</v>
+      </c>
+      <c r="K47">
+        <v>0.31</v>
+      </c>
+      <c r="L47">
+        <v>0.34</v>
+      </c>
+      <c r="M47">
+        <v>0.15</v>
+      </c>
+      <c r="N47">
+        <v>0.2</v>
+      </c>
+      <c r="O47">
+        <v>0.21</v>
+      </c>
+      <c r="P47">
+        <v>0.21</v>
+      </c>
+      <c r="Q47">
+        <v>0.19</v>
+      </c>
+      <c r="R47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S47">
+        <v>0.31</v>
+      </c>
+      <c r="T47">
+        <v>0.32</v>
+      </c>
+      <c r="U47">
+        <v>0.32</v>
+      </c>
+      <c r="V47">
+        <v>0.24</v>
+      </c>
+      <c r="W47">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X47">
+        <v>0.35</v>
+      </c>
+      <c r="Y47">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0.01</v>
+      </c>
+      <c r="M48">
+        <v>0.1</v>
+      </c>
+      <c r="N48">
+        <v>0.78</v>
+      </c>
+      <c r="O48">
+        <v>1.39</v>
+      </c>
+      <c r="P48">
+        <v>1.26</v>
+      </c>
+      <c r="Q48">
+        <v>1.38</v>
+      </c>
+      <c r="R48">
+        <v>1.39</v>
+      </c>
+      <c r="S48">
+        <v>1.4</v>
+      </c>
+      <c r="T48">
+        <v>1.34</v>
+      </c>
+      <c r="U48">
+        <v>1.42</v>
+      </c>
+      <c r="V48">
+        <v>1.47</v>
+      </c>
+      <c r="W48">
+        <v>1.47</v>
+      </c>
+      <c r="X48">
+        <v>2.09</v>
+      </c>
+      <c r="Y48">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0.02</v>
+      </c>
+      <c r="I49">
+        <v>0.05</v>
+      </c>
+      <c r="J49">
+        <v>0.12</v>
+      </c>
+      <c r="K49">
+        <v>0.24</v>
+      </c>
+      <c r="L49">
+        <v>0.68</v>
+      </c>
+      <c r="M49">
+        <v>0.86</v>
+      </c>
+      <c r="N49">
+        <v>1.22</v>
+      </c>
+      <c r="O49">
+        <v>1.37</v>
+      </c>
+      <c r="P49">
+        <v>1.33</v>
+      </c>
+      <c r="Q49">
+        <v>1.45</v>
+      </c>
+      <c r="R49">
+        <v>1.42</v>
+      </c>
+      <c r="S49">
+        <v>1.5</v>
+      </c>
+      <c r="T49">
+        <v>1.32</v>
+      </c>
+      <c r="U49">
+        <v>1.32</v>
+      </c>
+      <c r="V49">
+        <v>1.48</v>
+      </c>
+      <c r="W49">
+        <v>1.43</v>
+      </c>
+      <c r="X49">
+        <v>1.44</v>
+      </c>
+      <c r="Y49">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B53" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D53">
         <v>2000</v>
       </c>
-      <c r="E29">
+      <c r="E53">
         <v>2001</v>
       </c>
-      <c r="F29">
+      <c r="F53">
         <v>2002</v>
       </c>
-      <c r="G29">
+      <c r="G53">
         <v>2003</v>
       </c>
-      <c r="H29">
+      <c r="H53">
         <v>2004</v>
       </c>
-      <c r="I29">
+      <c r="I53">
         <v>2005</v>
       </c>
-      <c r="J29">
+      <c r="J53">
         <v>2006</v>
       </c>
-      <c r="K29">
+      <c r="K53">
         <v>2007</v>
       </c>
-      <c r="L29">
+      <c r="L53">
         <v>2008</v>
       </c>
-      <c r="M29">
+      <c r="M53">
         <v>2009</v>
       </c>
-      <c r="N29">
+      <c r="N53">
         <v>2010</v>
       </c>
-      <c r="O29">
+      <c r="O53">
         <v>2011</v>
       </c>
-      <c r="P29">
+      <c r="P53">
         <v>2012</v>
       </c>
-      <c r="Q29">
+      <c r="Q53">
         <v>2013</v>
       </c>
-      <c r="R29">
+      <c r="R53">
         <v>2014</v>
       </c>
-      <c r="S29">
+      <c r="S53">
         <v>2015</v>
       </c>
-      <c r="T29">
+      <c r="T53">
         <v>2016</v>
       </c>
-      <c r="U29">
+      <c r="U53">
         <v>2017</v>
       </c>
-      <c r="V29">
+      <c r="V53">
         <v>2018</v>
       </c>
-      <c r="W29">
+      <c r="W53">
         <v>2019</v>
       </c>
-      <c r="X29">
+      <c r="X53">
         <v>2020</v>
       </c>
-      <c r="Y29">
+      <c r="Y53">
         <v>2021</v>
       </c>
-      <c r="Z29">
+      <c r="Z53">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B54" t="s">
         <v>81</v>
       </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>0.30441400304414001</v>
       </c>
-      <c r="M30">
+      <c r="M54">
         <v>0.10147133434804669</v>
       </c>
-      <c r="N30">
+      <c r="N54">
         <v>0.40447488584474894</v>
       </c>
-      <c r="O30">
+      <c r="O54">
         <v>0.5811540058115402</v>
       </c>
-      <c r="P30">
+      <c r="P54">
         <v>0.53816046966731901</v>
       </c>
-      <c r="Q30">
+      <c r="Q54">
         <v>0.37067553048616708</v>
       </c>
-      <c r="R30">
+      <c r="R54">
         <v>0.57077625570776258</v>
       </c>
-      <c r="S30">
+      <c r="S54">
         <v>0.57500422797226458</v>
       </c>
-      <c r="T30">
+      <c r="T54">
         <v>0.70696146759593048</v>
       </c>
-      <c r="U30">
+      <c r="U54">
         <v>0.86924428402751963</v>
       </c>
-      <c r="V30">
+      <c r="V54">
         <v>2.5863099724480505</v>
       </c>
-      <c r="W30">
+      <c r="W54">
         <v>3.6549813955986812</v>
       </c>
-      <c r="X30">
+      <c r="X54">
         <v>4.036889720525596</v>
       </c>
-      <c r="Y30">
+      <c r="Y54">
         <v>6.2453375126974553</v>
       </c>
-      <c r="Z30">
+      <c r="Z54">
         <v>3.2548137163984849</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B55" t="s">
         <v>81</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C55" t="s">
         <v>12</v>
       </c>
-      <c r="D31">
+      <c r="D55">
         <v>0.17918731176527739</v>
       </c>
-      <c r="E31">
+      <c r="E55">
         <v>0.14535545467936098</v>
       </c>
-      <c r="F31">
+      <c r="F55">
         <v>0.15845780240593327</v>
       </c>
-      <c r="G31">
+      <c r="G55">
         <v>0.1498316039834055</v>
       </c>
-      <c r="H31">
+      <c r="H55">
         <v>0.1347902156764661</v>
       </c>
-      <c r="I31">
+      <c r="I55">
         <v>0.18958653994151151</v>
       </c>
-      <c r="J31">
+      <c r="J55">
         <v>0.18353719344825822</v>
       </c>
-      <c r="K31">
+      <c r="K55">
         <v>0.12836507928947488</v>
       </c>
-      <c r="L31">
+      <c r="L55">
         <v>0.12535509016122517</v>
       </c>
-      <c r="M31">
+      <c r="M55">
         <v>0.15416139825537606</v>
       </c>
-      <c r="N31">
+      <c r="N55">
         <v>0.21319901365069094</v>
       </c>
-      <c r="O31">
+      <c r="O55">
         <v>0.13556538436675425</v>
       </c>
-      <c r="P31">
+      <c r="P55">
         <v>0.1426745416205524</v>
       </c>
-      <c r="Q31">
+      <c r="Q55">
         <v>0.17089921406444017</v>
       </c>
-      <c r="R31">
+      <c r="R55">
         <v>0.18308207829936693</v>
       </c>
-      <c r="S31">
+      <c r="S55">
         <v>0.21797454043557021</v>
       </c>
-      <c r="T31">
+      <c r="T55">
         <v>0.16178813238750592</v>
       </c>
-      <c r="U31">
+      <c r="U55">
         <v>0.11826549026371555</v>
       </c>
-      <c r="V31">
+      <c r="V55">
         <v>0.18320015783762453</v>
       </c>
-      <c r="W31">
+      <c r="W55">
         <v>0.11430375923833559</v>
       </c>
-      <c r="X31">
+      <c r="X55">
         <v>0.11225524213694742</v>
       </c>
-      <c r="Y31">
+      <c r="Y55">
         <v>0.1716829439171017</v>
       </c>
-      <c r="Z31">
+      <c r="Z55">
         <v>0.13069358514235713</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B56" t="s">
         <v>81</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C56" t="s">
         <v>13</v>
       </c>
-      <c r="D32">
+      <c r="D56">
         <v>0.58751816400088952</v>
       </c>
-      <c r="E32">
+      <c r="E56">
         <v>0.63195855763612019</v>
       </c>
-      <c r="F32">
+      <c r="F56">
         <v>0.84807034848805107</v>
       </c>
-      <c r="G32">
+      <c r="G56">
         <v>0.72468873612271401</v>
       </c>
-      <c r="H32">
+      <c r="H56">
         <v>0.70518756353607848</v>
       </c>
-      <c r="I32">
+      <c r="I56">
         <v>0.78226961776024206</v>
       </c>
-      <c r="J32">
+      <c r="J56">
         <v>0.81749754243287398</v>
       </c>
-      <c r="K32">
+      <c r="K56">
         <v>0.88349648121868596</v>
       </c>
-      <c r="L32">
+      <c r="L56">
         <v>0.95119319991890894</v>
       </c>
-      <c r="M32">
+      <c r="M56">
         <v>0.92048229990249752</v>
       </c>
-      <c r="N32">
+      <c r="N56">
         <v>0.92005994960757642</v>
       </c>
-      <c r="O32">
+      <c r="O56">
         <v>0.98431753019201262</v>
       </c>
-      <c r="P32">
+      <c r="P56">
         <v>0.94540432280661413</v>
       </c>
-      <c r="Q32">
+      <c r="Q56">
         <v>0.81619276686525755</v>
       </c>
-      <c r="R32">
+      <c r="R56">
         <v>0.91711461765215874</v>
       </c>
-      <c r="S32">
+      <c r="S56">
         <v>0.88913935610658323</v>
       </c>
-      <c r="T32">
+      <c r="T56">
         <v>0.91556341739152636</v>
       </c>
-      <c r="U32">
+      <c r="U56">
         <v>0.90218624426321981</v>
       </c>
-      <c r="V32">
+      <c r="V56">
         <v>0.91672584775055033</v>
       </c>
-      <c r="W32">
+      <c r="W56">
         <v>0.942110199083116</v>
       </c>
-      <c r="X32">
+      <c r="X56">
         <v>0.94612082701666678</v>
       </c>
-      <c r="Y32">
+      <c r="Y56">
         <v>0.9382181082323805</v>
       </c>
-      <c r="Z32">
+      <c r="Z56">
         <v>0.93680249206717758</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B57" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C57" t="s">
         <v>3</v>
       </c>
-      <c r="D33">
+      <c r="D57">
         <v>1.3728687025740881E-2</v>
       </c>
-      <c r="E33">
+      <c r="E57">
         <v>8.9246408872480296E-3</v>
       </c>
-      <c r="F33">
+      <c r="F57">
         <v>1.4064542368890371E-2</v>
       </c>
-      <c r="G33">
+      <c r="G57">
         <v>1.3440969291696423E-2</v>
       </c>
-      <c r="H33">
+      <c r="H57">
         <v>1.4367639360976603E-2</v>
       </c>
-      <c r="I33">
+      <c r="I57">
         <v>1.06544901065449E-2</v>
       </c>
-      <c r="J33">
+      <c r="J57">
         <v>6.8721033906174785E-3</v>
       </c>
-      <c r="K33">
+      <c r="K57">
         <v>1.3383397499030053E-2</v>
       </c>
-      <c r="L33">
+      <c r="L57">
         <v>6.8134032678754683E-3</v>
       </c>
-      <c r="M33">
+      <c r="M57">
         <v>8.974387151398696E-3</v>
       </c>
-      <c r="N33">
+      <c r="N57">
         <v>1.0171012962918537E-2</v>
       </c>
-      <c r="O33">
+      <c r="O57">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="P33">
+      <c r="P57">
         <v>5.4770281784942507E-3</v>
       </c>
-      <c r="Q33">
+      <c r="Q57">
         <v>5.9193423561722108E-3</v>
       </c>
-      <c r="R33">
+      <c r="R57">
         <v>5.7979529360833674E-3</v>
       </c>
-      <c r="S33">
+      <c r="S57">
         <v>5.9440758150922698E-3</v>
       </c>
-      <c r="T33">
+      <c r="T57">
         <v>1.0672682178439969E-2</v>
       </c>
-      <c r="U33">
+      <c r="U57">
         <v>1.3166338195431674E-2</v>
       </c>
-      <c r="V33">
+      <c r="V57">
         <v>1.0273264456408587E-2</v>
       </c>
-      <c r="W33">
+      <c r="W57">
         <v>1.1459284473580975E-2</v>
       </c>
-      <c r="X33">
+      <c r="X57">
         <v>1.0273784895450284E-2</v>
       </c>
-      <c r="Y33">
+      <c r="Y57">
         <v>1.1799059936493149E-2</v>
       </c>
-      <c r="Z33">
+      <c r="Z57">
         <v>1.5180712412366853E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>44</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B58" t="s">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="K34">
+      <c r="K58">
         <v>0.22831050228310501</v>
       </c>
-      <c r="L34">
+      <c r="L58">
         <v>0.1906392694063927</v>
       </c>
-      <c r="M34">
+      <c r="M58">
         <v>0.18647260273972602</v>
       </c>
-      <c r="N34">
+      <c r="N58">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="O34">
+      <c r="O58">
         <v>7.476575935480044E-2</v>
       </c>
-      <c r="P34">
+      <c r="P58">
         <v>9.6412405035707568E-2</v>
       </c>
-      <c r="Q34">
+      <c r="Q58">
         <v>0.15293804193529958</v>
       </c>
-      <c r="R34">
+      <c r="R58">
         <v>0.13941040865139273</v>
       </c>
-      <c r="S34">
+      <c r="S58">
         <v>0.1534278778672068</v>
       </c>
-      <c r="T34">
+      <c r="T58">
         <v>0.15383140488540142</v>
       </c>
-      <c r="U34">
+      <c r="U58">
         <v>0.15538589047072227</v>
       </c>
-      <c r="V34">
+      <c r="V58">
         <v>0.14838111835914639</v>
       </c>
-      <c r="W34">
+      <c r="W58">
         <v>0.15491400651998427</v>
       </c>
-      <c r="X34">
+      <c r="X58">
         <v>0.15239085998651261</v>
       </c>
-      <c r="Y34">
+      <c r="Y58">
         <v>0.13133926069138591</v>
       </c>
-      <c r="Z34">
+      <c r="Z58">
         <v>0.13764325363624622</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>44</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="H35">
+      <c r="H59">
         <v>0.11415525114155251</v>
       </c>
-      <c r="I35">
+      <c r="I59">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="J35">
+      <c r="J59">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="K35">
+      <c r="K59">
         <v>0.17808980213089803</v>
       </c>
-      <c r="L35">
+      <c r="L59">
         <v>0.12192381639029079</v>
       </c>
-      <c r="M35">
+      <c r="M59">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="N35">
+      <c r="N59">
         <v>0.15938903548169775</v>
       </c>
-      <c r="O35">
+      <c r="O59">
         <v>0.18169781142649755</v>
       </c>
-      <c r="P35">
+      <c r="P59">
         <v>0.2058669391554197</v>
       </c>
-      <c r="Q35">
+      <c r="Q59">
         <v>0.22956604290766625</v>
       </c>
-      <c r="R35">
+      <c r="R59">
         <v>0.2172995015710637</v>
       </c>
-      <c r="S35">
+      <c r="S59">
         <v>0.23704950320418605</v>
       </c>
-      <c r="T35">
+      <c r="T59">
         <v>0.23271503321770831</v>
       </c>
-      <c r="U35">
+      <c r="U59">
         <v>0.24584659524473154</v>
       </c>
-      <c r="V35">
+      <c r="V59">
         <v>0.21529025081619735</v>
       </c>
-      <c r="W35">
+      <c r="W59">
         <v>0.21381996798613462</v>
       </c>
-      <c r="X35">
+      <c r="X59">
         <v>0.23992922634315969</v>
       </c>
-      <c r="Y35">
+      <c r="Y59">
         <v>0.2323315222455867</v>
       </c>
-      <c r="Z35">
+      <c r="Z59">
         <v>0.24297964087912982</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>2000</v>
-      </c>
-      <c r="E39">
-        <v>2001</v>
-      </c>
-      <c r="F39">
-        <v>2002</v>
-      </c>
-      <c r="G39">
-        <v>2003</v>
-      </c>
-      <c r="H39">
-        <v>2004</v>
-      </c>
-      <c r="I39">
-        <v>2005</v>
-      </c>
-      <c r="J39">
-        <v>2006</v>
-      </c>
-      <c r="K39">
-        <v>2007</v>
-      </c>
-      <c r="L39">
-        <v>2008</v>
-      </c>
-      <c r="M39">
-        <v>2009</v>
-      </c>
-      <c r="N39">
-        <v>2010</v>
-      </c>
-      <c r="O39">
-        <v>2011</v>
-      </c>
-      <c r="P39">
-        <v>2012</v>
-      </c>
-      <c r="Q39">
-        <v>2013</v>
-      </c>
-      <c r="R39">
-        <v>2014</v>
-      </c>
-      <c r="S39">
-        <v>2015</v>
-      </c>
-      <c r="T39">
-        <v>2016</v>
-      </c>
-      <c r="U39">
-        <v>2017</v>
-      </c>
-      <c r="V39">
-        <v>2018</v>
-      </c>
-      <c r="W39">
-        <v>2019</v>
-      </c>
-      <c r="X39">
-        <v>2020</v>
-      </c>
-      <c r="Y39">
-        <v>2021</v>
-      </c>
-      <c r="Z39">
-        <v>2022</v>
-      </c>
-      <c r="AA39">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="M40">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="N40">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="O40">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="P40">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="Q40">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="R40">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="S40">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="T40">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="U40">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="V40">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="W40">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="X40">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="Y40">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="Z40">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="AA40">
-        <v>4.9771689497716896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="E41">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="F41">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="G41">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="H41">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="I41">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="J41">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="K41">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="L41">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="M41">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="N41">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="O41">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="P41">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="Q41">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="R41">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="S41">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="T41">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="U41">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="V41">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="W41">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="X41">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="Y41">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="Z41">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="AA41">
-        <v>0.25824553878597789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>0.19642930601834707</v>
-      </c>
-      <c r="E42">
-        <v>0.19642930601834707</v>
-      </c>
-      <c r="F42">
-        <v>0.1583775556378296</v>
-      </c>
-      <c r="G42">
-        <v>0.18100292072894811</v>
-      </c>
-      <c r="H42">
-        <v>0.15323542720802993</v>
-      </c>
-      <c r="I42">
-        <v>0.1779176436710683</v>
-      </c>
-      <c r="J42">
-        <v>0.22213994816734542</v>
-      </c>
-      <c r="K42">
-        <v>0.23228111971411552</v>
-      </c>
-      <c r="L42">
-        <v>0.23426642842962081</v>
-      </c>
-      <c r="M42">
-        <v>0.19456025411951558</v>
-      </c>
-      <c r="N42">
-        <v>0.19555290847726822</v>
-      </c>
-      <c r="O42">
-        <v>0.19786910197869106</v>
-      </c>
-      <c r="P42">
-        <v>0.22450532724505329</v>
-      </c>
-      <c r="Q42">
-        <v>0.2226027397260274</v>
-      </c>
-      <c r="R42">
-        <v>0.20357686453576868</v>
-      </c>
-      <c r="S42">
-        <v>0.17694063926940642</v>
-      </c>
-      <c r="T42">
-        <v>0.1950152207001522</v>
-      </c>
-      <c r="U42">
-        <v>0.18359969558599698</v>
-      </c>
-      <c r="V42">
-        <v>0.19216133942161343</v>
-      </c>
-      <c r="W42">
-        <v>0.20452815829528159</v>
-      </c>
-      <c r="X42">
-        <v>0.21784627092846273</v>
-      </c>
-      <c r="Y42">
-        <v>0.29014459665144599</v>
-      </c>
-      <c r="Z42">
-        <v>0.1950152207001522</v>
-      </c>
-      <c r="AA42">
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>0.29434148088459128</v>
-      </c>
-      <c r="E43">
-        <v>0.22423352902804958</v>
-      </c>
-      <c r="F43">
-        <v>0.22408253001860307</v>
-      </c>
-      <c r="G43">
-        <v>0.20686315206863154</v>
-      </c>
-      <c r="H43">
-        <v>0.18103408514367419</v>
-      </c>
-      <c r="I43">
-        <v>0.24791291914579586</v>
-      </c>
-      <c r="J43">
-        <v>0.2427240440939071</v>
-      </c>
-      <c r="K43">
-        <v>0.16072605011472321</v>
-      </c>
-      <c r="L43">
-        <v>0.1502326182476092</v>
-      </c>
-      <c r="M43">
-        <v>0.18296846327828276</v>
-      </c>
-      <c r="N43">
-        <v>0.26339491433119683</v>
-      </c>
-      <c r="O43">
-        <v>0.14626141552511415</v>
-      </c>
-      <c r="P43">
-        <v>0.15647142182333496</v>
-      </c>
-      <c r="Q43">
-        <v>0.19708855325293684</v>
-      </c>
-      <c r="R43">
-        <v>0.22250599798777185</v>
-      </c>
-      <c r="S43">
-        <v>0.27329541057193724</v>
-      </c>
-      <c r="T43">
-        <v>0.18767897221577279</v>
-      </c>
-      <c r="U43">
-        <v>0.12870890865760704</v>
-      </c>
-      <c r="V43">
-        <v>0.23422292564900221</v>
-      </c>
-      <c r="W43">
-        <v>0.13325692663137406</v>
-      </c>
-      <c r="X43">
-        <v>0.12825410686023031</v>
-      </c>
-      <c r="Y43">
-        <v>0.21921446633557101</v>
-      </c>
-      <c r="Z43">
-        <v>0.17145847997545438</v>
-      </c>
-      <c r="AA43">
-        <v>0.14032522966412186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44">
-        <v>0.58791571267802401</v>
-      </c>
-      <c r="E44">
-        <v>0.632219592016247</v>
-      </c>
-      <c r="F44">
-        <v>0.84860999194198217</v>
-      </c>
-      <c r="G44">
-        <v>0.72522159548751008</v>
-      </c>
-      <c r="H44">
-        <v>0.70591592801504166</v>
-      </c>
-      <c r="I44">
-        <v>0.78271890948160072</v>
-      </c>
-      <c r="J44">
-        <v>0.81797273704002138</v>
-      </c>
-      <c r="K44">
-        <v>0.88425019931869253</v>
-      </c>
-      <c r="L44">
-        <v>0.95250175158850958</v>
-      </c>
-      <c r="M44">
-        <v>0.92169795366142393</v>
-      </c>
-      <c r="N44">
-        <v>0.92109395762363799</v>
-      </c>
-      <c r="O44">
-        <v>0.98511753762895304</v>
-      </c>
-      <c r="P44">
-        <v>0.94312558272968505</v>
-      </c>
-      <c r="Q44">
-        <v>0.81695954983626218</v>
-      </c>
-      <c r="R44">
-        <v>0.91497163414971638</v>
-      </c>
-      <c r="S44">
-        <v>0.88672109220054429</v>
-      </c>
-      <c r="T44">
-        <v>0.91440094569223274</v>
-      </c>
-      <c r="U44">
-        <v>0.90107317525438657</v>
-      </c>
-      <c r="V44">
-        <v>0.91608169199663791</v>
-      </c>
-      <c r="W44">
-        <v>0.94050296462891025</v>
-      </c>
-      <c r="X44">
-        <v>0.9444785206388151</v>
-      </c>
-      <c r="Y44">
-        <v>0.93652740861900541</v>
-      </c>
-      <c r="Z44">
-        <v>0.93482359890047495</v>
-      </c>
-      <c r="AA44">
-        <v>0.91778550171516859</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>65535</v>
-      </c>
-      <c r="E45">
-        <v>65535</v>
-      </c>
-      <c r="F45">
-        <v>65535</v>
-      </c>
-      <c r="G45">
-        <v>65535</v>
-      </c>
-      <c r="H45">
-        <v>65535</v>
-      </c>
-      <c r="I45">
-        <v>65535</v>
-      </c>
-      <c r="J45">
-        <v>65535</v>
-      </c>
-      <c r="K45">
-        <v>65535</v>
-      </c>
-      <c r="L45">
-        <v>65535</v>
-      </c>
-      <c r="M45">
-        <v>65535</v>
-      </c>
-      <c r="N45">
-        <v>65535</v>
-      </c>
-      <c r="O45">
-        <v>65535</v>
-      </c>
-      <c r="P45">
-        <v>65535</v>
-      </c>
-      <c r="Q45">
-        <v>65535</v>
-      </c>
-      <c r="R45">
-        <v>65535</v>
-      </c>
-      <c r="S45">
-        <v>65535</v>
-      </c>
-      <c r="T45">
-        <v>65535</v>
-      </c>
-      <c r="U45">
-        <v>65535</v>
-      </c>
-      <c r="V45">
-        <v>65535</v>
-      </c>
-      <c r="W45">
-        <v>65535</v>
-      </c>
-      <c r="X45">
-        <v>65535</v>
-      </c>
-      <c r="Y45">
-        <v>65535</v>
-      </c>
-      <c r="Z45">
-        <v>65535</v>
-      </c>
-      <c r="AA45">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="N46">
-        <v>3.8051750380517509E-2</v>
-      </c>
-      <c r="O46">
-        <v>7.6103500761035017E-2</v>
-      </c>
-      <c r="P46">
-        <v>9.6783799880881469E-2</v>
-      </c>
-      <c r="Q46">
-        <v>0.1525728837372673</v>
-      </c>
-      <c r="R46">
-        <v>0.13964622955180209</v>
-      </c>
-      <c r="S46">
-        <v>0.15294587046149752</v>
-      </c>
-      <c r="T46">
-        <v>0.1540541738706388</v>
-      </c>
-      <c r="U46">
-        <v>0.15516247727978011</v>
-      </c>
-      <c r="V46">
-        <v>0.14851265682493239</v>
-      </c>
-      <c r="W46">
-        <v>0.15586582367404284</v>
-      </c>
-      <c r="X46">
-        <v>0.15255292652552924</v>
-      </c>
-      <c r="Y46">
-        <v>0.13213245604573401</v>
-      </c>
-      <c r="Z46">
-        <v>0.13711751430220961</v>
-      </c>
-      <c r="AA46">
-        <v>0.13667567483614451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>7.6103500761035017E-2</v>
-      </c>
-      <c r="K47">
-        <v>0.19025875190258754</v>
-      </c>
-      <c r="L47">
-        <v>0.12453300124533001</v>
-      </c>
-      <c r="M47">
-        <v>8.3022000830220002E-2</v>
-      </c>
-      <c r="N47">
-        <v>0.15841953219644023</v>
-      </c>
-      <c r="O47">
-        <v>0.18180280737358362</v>
-      </c>
-      <c r="P47">
-        <v>0.20480795057749127</v>
-      </c>
-      <c r="Q47">
-        <v>0.22998925597636316</v>
-      </c>
-      <c r="R47">
-        <v>0.21689497716894979</v>
-      </c>
-      <c r="S47">
-        <v>0.23646444879321593</v>
-      </c>
-      <c r="T47">
-        <v>0.23157208088714937</v>
-      </c>
-      <c r="U47">
-        <v>0.24461839530332682</v>
-      </c>
-      <c r="V47">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="W47">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="X47">
-        <v>0.24135681669928247</v>
-      </c>
-      <c r="Y47">
-        <v>0.23320287018917157</v>
-      </c>
-      <c r="Z47">
-        <v>0.23483365949119375</v>
-      </c>
-      <c r="AA47">
-        <v>0.25277234181343772</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90376F09-7BA1-4ED3-B5E8-8ECE594A46C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084AEEE7-24EF-4FB0-A3B3-88130D991CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t>bioenergy</t>
   </si>
@@ -101,18 +101,6 @@
     <t>model_fuel</t>
   </si>
   <si>
-    <t>generation_twh_gem_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_ember</t>
-  </si>
-  <si>
-    <t>generation_twh_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_ember</t>
-  </si>
-  <si>
     <t>utilization_factor_irena</t>
   </si>
   <si>
@@ -272,6 +260,30 @@
     <t>-CO2Captured</t>
   </si>
   <si>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>Unnamed: 5</t>
+  </si>
+  <si>
+    <t>Unnamed: 6</t>
+  </si>
+  <si>
+    <t>Unnamed: 7</t>
+  </si>
+  <si>
     <t>Unnamed: 8</t>
   </si>
   <si>
@@ -326,15 +338,12 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
+    <t>ISO</t>
+  </si>
+  <si>
     <t>BGR</t>
   </si>
   <si>
-    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
-  </si>
-  <si>
-    <t>ISO</t>
-  </si>
-  <si>
     <t>Export</t>
   </si>
   <si>
@@ -345,6 +354,12 @@
   </si>
   <si>
     <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
   </si>
 </sst>
 </file>
@@ -844,36 +859,36 @@
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="R3">
         <v>2050</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="T3">
         <v>2050</v>
       </c>
       <c r="V3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -890,20 +905,20 @@
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="e">
         <f>VLOOKUP(B5,historical_data!$B$2:$J$12,MATCH(Veda!$J5,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.13</v>
+        <v>#N/A</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
         <v>2</v>
@@ -923,50 +938,50 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="e">
         <f>VLOOKUP(B6,historical_data!$B$2:$J$12,MATCH(Veda!$J6,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.14000000000000001</v>
+        <v>#N/A</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AD6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="D7" t="e">
         <f>VLOOKUP(B7,historical_data!$B$2:$J$12,MATCH(Veda!$J7,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.24</v>
+        <v>#N/A</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Y7">
         <v>2022</v>
@@ -975,55 +990,55 @@
         <v>2050</v>
       </c>
       <c r="AA7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AD7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AG7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AH7">
         <v>2050</v>
       </c>
       <c r="AI7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="e">
         <f>VLOOKUP(B8,historical_data!$B$2:$J$12,MATCH(Veda!$J8,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>0.93</v>
+        <v>#N/A</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1040,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AE8" t="s">
         <v>1</v>
@@ -1061,13 +1076,13 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="U9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1087,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AE9" t="s">
         <v>2</v>
@@ -1110,23 +1125,23 @@
     <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>2100</v>
@@ -1136,63 +1151,63 @@
         <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <f>G22*3.6</f>
@@ -1202,18 +1217,18 @@
         <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E24" si="0">G23*3.6</f>
@@ -1223,18 +1238,18 @@
         <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -1244,22 +1259,22 @@
         <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1290,2283 +1305,2648 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="T1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="V1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="W1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Z1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>21.8</v>
+        <v>2001</v>
+      </c>
+      <c r="E2">
+        <v>2002</v>
       </c>
       <c r="F2">
-        <v>21.8</v>
+        <v>2003</v>
+      </c>
+      <c r="G2">
+        <v>2004</v>
       </c>
       <c r="H2">
-        <v>0.49</v>
+        <v>2005</v>
+      </c>
+      <c r="I2">
+        <v>2006</v>
+      </c>
+      <c r="J2">
+        <v>2007</v>
+      </c>
+      <c r="K2">
+        <v>2008</v>
+      </c>
+      <c r="L2">
+        <v>2009</v>
+      </c>
+      <c r="M2">
+        <v>2010</v>
+      </c>
+      <c r="N2">
+        <v>2011</v>
+      </c>
+      <c r="O2">
+        <v>2012</v>
+      </c>
+      <c r="P2">
+        <v>2013</v>
+      </c>
+      <c r="Q2">
+        <v>2014</v>
+      </c>
+      <c r="R2">
+        <v>2015</v>
+      </c>
+      <c r="S2">
+        <v>2016</v>
+      </c>
+      <c r="T2">
+        <v>2017</v>
+      </c>
+      <c r="U2">
+        <v>2018</v>
+      </c>
+      <c r="V2">
+        <v>2019</v>
+      </c>
+      <c r="W2">
+        <v>2020</v>
+      </c>
+      <c r="X2">
+        <v>2021</v>
+      </c>
+      <c r="Y2">
+        <v>2022</v>
+      </c>
+      <c r="Z2">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>5.6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8.3000000000000007</v>
       </c>
       <c r="F3">
-        <v>2.1</v>
+        <v>6.8</v>
+      </c>
+      <c r="G3">
+        <v>6.6</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>8.4</v>
+      </c>
+      <c r="I3">
+        <v>8.9</v>
+      </c>
+      <c r="J3">
+        <v>7.5</v>
+      </c>
+      <c r="K3">
+        <v>8.4</v>
+      </c>
+      <c r="L3">
+        <v>7.7</v>
+      </c>
+      <c r="M3">
+        <v>9.6</v>
+      </c>
+      <c r="N3">
+        <v>12.1</v>
+      </c>
+      <c r="O3">
+        <v>10.7</v>
+      </c>
+      <c r="P3">
+        <v>9.5</v>
+      </c>
+      <c r="Q3">
+        <v>13.8</v>
+      </c>
+      <c r="R3">
+        <v>14.8</v>
+      </c>
+      <c r="S3">
+        <v>10.9</v>
+      </c>
+      <c r="T3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>8.9</v>
+      </c>
+      <c r="W3">
+        <v>7.1</v>
+      </c>
+      <c r="X3">
+        <v>10.6</v>
+      </c>
+      <c r="Y3">
+        <v>13.7</v>
+      </c>
+      <c r="Z3">
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1.3</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J4">
+        <v>3.1</v>
+      </c>
+      <c r="K4">
+        <v>3.1</v>
+      </c>
+      <c r="L4">
+        <v>2.7</v>
+      </c>
+      <c r="M4">
+        <v>1.2</v>
+      </c>
+      <c r="N4">
+        <v>1.4</v>
+      </c>
+      <c r="O4">
+        <v>2.4</v>
+      </c>
+      <c r="P4">
+        <v>3.4</v>
+      </c>
+      <c r="Q4">
+        <v>4.3</v>
+      </c>
+      <c r="R4">
+        <v>4.3</v>
+      </c>
+      <c r="S4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T4">
+        <v>3.7</v>
+      </c>
+      <c r="U4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>3.9</v>
-      </c>
-      <c r="E4">
-        <v>3.8</v>
-      </c>
-      <c r="F4">
-        <v>3.8</v>
-      </c>
-      <c r="G4">
-        <v>0.13</v>
-      </c>
-      <c r="H4">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>16.5</v>
-      </c>
-      <c r="F5">
-        <v>16.5</v>
-      </c>
-      <c r="G5">
-        <v>0.94</v>
-      </c>
-      <c r="H5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+      <c r="W4">
+        <v>3.7</v>
+      </c>
+      <c r="X4">
         <v>1.9</v>
       </c>
-      <c r="D6">
-        <v>1.9</v>
-      </c>
-      <c r="E6">
-        <v>2.1</v>
-      </c>
-      <c r="F6">
-        <v>2.1</v>
-      </c>
-      <c r="G6">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.14000000000000001</v>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
+      <c r="Z4">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-      <c r="D7">
-        <v>1.3</v>
-      </c>
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-      <c r="F7">
-        <v>1.4</v>
-      </c>
-      <c r="G7">
-        <v>0.24</v>
-      </c>
-      <c r="H7">
-        <v>0.23</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8">
+        <v>2003</v>
+      </c>
+      <c r="F8">
+        <v>2004</v>
+      </c>
+      <c r="G8">
+        <v>2005</v>
+      </c>
+      <c r="H8">
+        <v>2006</v>
+      </c>
+      <c r="I8">
+        <v>2007</v>
+      </c>
+      <c r="J8">
+        <v>2008</v>
+      </c>
+      <c r="K8">
+        <v>2009</v>
+      </c>
+      <c r="L8">
+        <v>2010</v>
+      </c>
+      <c r="M8">
+        <v>2011</v>
+      </c>
+      <c r="N8">
+        <v>2012</v>
+      </c>
+      <c r="O8">
+        <v>2013</v>
+      </c>
+      <c r="P8">
+        <v>2014</v>
+      </c>
+      <c r="Q8">
+        <v>2015</v>
+      </c>
+      <c r="R8">
+        <v>2016</v>
+      </c>
+      <c r="S8">
+        <v>2017</v>
+      </c>
+      <c r="T8">
+        <v>2018</v>
+      </c>
+      <c r="U8">
+        <v>2019</v>
+      </c>
+      <c r="V8">
+        <v>2020</v>
+      </c>
+      <c r="W8">
+        <v>2021</v>
+      </c>
+      <c r="X8">
+        <v>2022</v>
+      </c>
+      <c r="Y8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="L9">
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="M9">
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="N9">
+        <v>0.7990867579908677</v>
+      </c>
+      <c r="O9">
+        <v>0.41856925418569257</v>
+      </c>
+      <c r="P9">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="Q9">
+        <v>0.61643835616438358</v>
+      </c>
+      <c r="R9">
+        <v>0.66590563165905636</v>
+      </c>
+      <c r="S9">
+        <v>0.91324200913242015</v>
+      </c>
+      <c r="T9">
+        <v>2.5603392041748205</v>
+      </c>
+      <c r="U9">
+        <v>3.4627092846270933</v>
+      </c>
+      <c r="V9">
+        <v>3.8812785388127851</v>
+      </c>
+      <c r="W9">
+        <v>5.9132420091324196</v>
+      </c>
+      <c r="X9">
+        <v>5.1141552511415531</v>
+      </c>
+      <c r="Y9">
+        <v>4.9771689497716896</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.34409073920603195</v>
+      </c>
+      <c r="C10">
+        <v>0.39609028421001313</v>
+      </c>
+      <c r="D10">
+        <v>0.34896569655015519</v>
+      </c>
+      <c r="E10">
+        <v>0.3908090804205463</v>
+      </c>
+      <c r="F10">
+        <v>0.3922789539227895</v>
+      </c>
+      <c r="G10">
+        <v>0.38314653383146535</v>
+      </c>
+      <c r="H10">
+        <v>0.396222498962225</v>
+      </c>
+      <c r="I10">
+        <v>0.46430053964300544</v>
+      </c>
+      <c r="J10">
+        <v>0.48111249481112495</v>
+      </c>
+      <c r="K10">
+        <v>0.42782873873654675</v>
+      </c>
+      <c r="L10">
+        <v>0.45844586648499153</v>
+      </c>
+      <c r="M10">
+        <v>0.49726171897578175</v>
+      </c>
+      <c r="N10">
+        <v>0.41309028379862439</v>
+      </c>
+      <c r="O10">
+        <v>0.36227010141320837</v>
+      </c>
+      <c r="P10">
+        <v>0.41231328844516674</v>
+      </c>
+      <c r="Q10">
+        <v>0.50828415182197206</v>
+      </c>
+      <c r="R10">
+        <v>0.4369935206742831</v>
+      </c>
+      <c r="S10">
+        <v>0.46734400271649285</v>
+      </c>
+      <c r="T10">
+        <v>0.41685655309224456</v>
+      </c>
+      <c r="U10">
+        <v>0.38424076705180099</v>
+      </c>
+      <c r="V10">
+        <v>0.30180771877150181</v>
+      </c>
+      <c r="W10">
+        <v>0.38178341330902782</v>
+      </c>
+      <c r="X10">
+        <v>0.48677943686388042</v>
+      </c>
+      <c r="Y10">
+        <v>0.25824553878597789</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.19642930601834707</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="D11">
-        <v>2001</v>
+        <v>0.1583775556378296</v>
       </c>
       <c r="E11">
-        <v>2002</v>
+        <v>0.18100292072894811</v>
       </c>
       <c r="F11">
-        <v>2003</v>
+        <v>0.15323542720802993</v>
       </c>
       <c r="G11">
-        <v>2004</v>
+        <v>0.1779176436710683</v>
       </c>
       <c r="H11">
-        <v>2005</v>
+        <v>0.22213994816734542</v>
       </c>
       <c r="I11">
-        <v>2006</v>
+        <v>0.23228111971411552</v>
       </c>
       <c r="J11">
-        <v>2007</v>
+        <v>0.23426642842962081</v>
       </c>
       <c r="K11">
-        <v>2008</v>
+        <v>0.19456025411951558</v>
       </c>
       <c r="L11">
-        <v>2009</v>
+        <v>0.19555290847726822</v>
       </c>
       <c r="M11">
-        <v>2010</v>
+        <v>0.19786910197869106</v>
       </c>
       <c r="N11">
-        <v>2011</v>
+        <v>0.22450532724505329</v>
       </c>
       <c r="O11">
-        <v>2012</v>
+        <v>0.2226027397260274</v>
       </c>
       <c r="P11">
-        <v>2013</v>
+        <v>0.20357686453576868</v>
       </c>
       <c r="Q11">
-        <v>2014</v>
+        <v>0.17694063926940642</v>
       </c>
       <c r="R11">
-        <v>2015</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="S11">
-        <v>2016</v>
+        <v>0.18359969558599698</v>
       </c>
       <c r="T11">
-        <v>2017</v>
+        <v>0.19216133942161343</v>
       </c>
       <c r="U11">
-        <v>2018</v>
+        <v>0.20452815829528159</v>
       </c>
       <c r="V11">
-        <v>2019</v>
+        <v>0.21784627092846273</v>
       </c>
       <c r="W11">
-        <v>2020</v>
+        <v>0.29014459665144599</v>
       </c>
       <c r="X11">
-        <v>2021</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="Y11">
-        <v>2022</v>
-      </c>
-      <c r="Z11">
-        <v>2023</v>
+        <v>0.14840182648401828</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.29434148088459128</v>
       </c>
       <c r="C12">
-        <v>5.6</v>
+        <v>0.22423352902804958</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>0.22408253001860307</v>
       </c>
       <c r="E12">
-        <v>8.3000000000000007</v>
+        <v>0.20686315206863154</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>0.18103408514367419</v>
       </c>
       <c r="G12">
-        <v>6.6</v>
+        <v>0.24791291914579586</v>
       </c>
       <c r="H12">
-        <v>8.4</v>
+        <v>0.2427240440939071</v>
       </c>
       <c r="I12">
-        <v>8.9</v>
+        <v>0.16072605011472321</v>
       </c>
       <c r="J12">
-        <v>7.5</v>
+        <v>0.1502326182476092</v>
       </c>
       <c r="K12">
-        <v>8.4</v>
+        <v>0.18296846327828276</v>
       </c>
       <c r="L12">
-        <v>7.7</v>
+        <v>0.26339491433119683</v>
       </c>
       <c r="M12">
-        <v>9.6</v>
+        <v>0.14626141552511415</v>
       </c>
       <c r="N12">
-        <v>12.1</v>
+        <v>0.15647142182333496</v>
       </c>
       <c r="O12">
-        <v>10.7</v>
+        <v>0.19708855325293684</v>
       </c>
       <c r="P12">
-        <v>9.5</v>
+        <v>0.22250599798777185</v>
       </c>
       <c r="Q12">
-        <v>13.8</v>
+        <v>0.27329541057193724</v>
       </c>
       <c r="R12">
-        <v>14.8</v>
+        <v>0.18767897221577279</v>
       </c>
       <c r="S12">
-        <v>10.9</v>
+        <v>0.12870890865760704</v>
       </c>
       <c r="T12">
-        <v>9.1999999999999993</v>
+        <v>0.23422292564900221</v>
       </c>
       <c r="U12">
-        <v>10</v>
+        <v>0.13325692663137406</v>
       </c>
       <c r="V12">
-        <v>8.9</v>
+        <v>0.12825410686023031</v>
       </c>
       <c r="W12">
-        <v>7.1</v>
+        <v>0.21921446633557101</v>
       </c>
       <c r="X12">
-        <v>10.6</v>
+        <v>0.17145847997545438</v>
       </c>
       <c r="Y12">
-        <v>13.7</v>
-      </c>
-      <c r="Z12">
-        <v>7.7</v>
+        <v>0.14032522966412186</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.58791571267802401</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.632219592016247</v>
       </c>
       <c r="D13">
-        <v>1.1000000000000001</v>
+        <v>0.84860999194198217</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>0.72522159548751008</v>
       </c>
       <c r="F13">
-        <v>1.3</v>
+        <v>0.70591592801504166</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.78271890948160072</v>
       </c>
       <c r="H13">
-        <v>0.8</v>
+        <v>0.81797273704002138</v>
       </c>
       <c r="I13">
-        <v>1.1000000000000001</v>
+        <v>0.88425019931869253</v>
       </c>
       <c r="J13">
-        <v>3.1</v>
+        <v>0.95250175158850958</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>0.92169795366142393</v>
       </c>
       <c r="L13">
-        <v>2.7</v>
+        <v>0.92109395762363799</v>
       </c>
       <c r="M13">
-        <v>1.2</v>
+        <v>0.98511753762895304</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>0.94312558272968505</v>
       </c>
       <c r="O13">
-        <v>2.4</v>
+        <v>0.81695954983626218</v>
       </c>
       <c r="P13">
-        <v>3.4</v>
+        <v>0.91497163414971638</v>
       </c>
       <c r="Q13">
-        <v>4.3</v>
+        <v>0.88672109220054429</v>
       </c>
       <c r="R13">
-        <v>4.3</v>
+        <v>0.91440094569223274</v>
       </c>
       <c r="S13">
-        <v>4.5999999999999996</v>
+        <v>0.90107317525438657</v>
       </c>
       <c r="T13">
-        <v>3.7</v>
+        <v>0.91608169199663791</v>
       </c>
       <c r="U13">
-        <v>2.2000000000000002</v>
+        <v>0.94050296462891025</v>
       </c>
       <c r="V13">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W13">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X13">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y13">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="W13">
-        <v>3.7</v>
-      </c>
-      <c r="X13">
-        <v>1.9</v>
-      </c>
-      <c r="Y13">
-        <v>1.5</v>
-      </c>
-      <c r="Z13">
-        <v>4.4000000000000004</v>
+      <c r="B14">
+        <v>65535</v>
+      </c>
+      <c r="C14">
+        <v>65535</v>
+      </c>
+      <c r="D14">
+        <v>65535</v>
+      </c>
+      <c r="E14">
+        <v>65535</v>
+      </c>
+      <c r="F14">
+        <v>65535</v>
+      </c>
+      <c r="G14">
+        <v>65535</v>
+      </c>
+      <c r="H14">
+        <v>65535</v>
+      </c>
+      <c r="I14">
+        <v>65535</v>
+      </c>
+      <c r="J14">
+        <v>65535</v>
+      </c>
+      <c r="K14">
+        <v>65535</v>
+      </c>
+      <c r="L14">
+        <v>65535</v>
+      </c>
+      <c r="M14">
+        <v>65535</v>
+      </c>
+      <c r="N14">
+        <v>65535</v>
+      </c>
+      <c r="O14">
+        <v>65535</v>
+      </c>
+      <c r="P14">
+        <v>65535</v>
+      </c>
+      <c r="Q14">
+        <v>65535</v>
+      </c>
+      <c r="R14">
+        <v>65535</v>
+      </c>
+      <c r="S14">
+        <v>65535</v>
+      </c>
+      <c r="T14">
+        <v>65535</v>
+      </c>
+      <c r="U14">
+        <v>65535</v>
+      </c>
+      <c r="V14">
+        <v>65535</v>
+      </c>
+      <c r="W14">
+        <v>65535</v>
+      </c>
+      <c r="X14">
+        <v>65535</v>
+      </c>
+      <c r="Y14">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M15">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="N15">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O15">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P15">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q15">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R15">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S15">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T15">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U15">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V15">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W15">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X15">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y15">
+        <v>0.13667567483614451</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-      <c r="C17">
-        <v>2001</v>
-      </c>
-      <c r="D17">
-        <v>2002</v>
-      </c>
-      <c r="E17">
-        <v>2003</v>
-      </c>
-      <c r="F17">
-        <v>2004</v>
-      </c>
-      <c r="G17">
-        <v>2005</v>
-      </c>
-      <c r="H17">
-        <v>2006</v>
-      </c>
-      <c r="I17">
-        <v>2007</v>
-      </c>
-      <c r="J17">
-        <v>2008</v>
-      </c>
-      <c r="K17">
-        <v>2009</v>
-      </c>
-      <c r="L17">
-        <v>2010</v>
-      </c>
-      <c r="M17">
-        <v>2011</v>
-      </c>
-      <c r="N17">
-        <v>2012</v>
-      </c>
-      <c r="O17">
-        <v>2013</v>
-      </c>
-      <c r="P17">
-        <v>2014</v>
-      </c>
-      <c r="Q17">
-        <v>2015</v>
-      </c>
-      <c r="R17">
-        <v>2016</v>
-      </c>
-      <c r="S17">
-        <v>2017</v>
-      </c>
-      <c r="T17">
-        <v>2018</v>
-      </c>
-      <c r="U17">
-        <v>2019</v>
-      </c>
-      <c r="V17">
-        <v>2020</v>
-      </c>
-      <c r="W17">
-        <v>2021</v>
-      </c>
-      <c r="X17">
-        <v>2022</v>
-      </c>
-      <c r="Y17">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="K18">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="L18">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="M18">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="N18">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="O18">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="P18">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q18">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="R18">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="S18">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="T18">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="U18">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="V18">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="W18">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="X18">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="Y18">
-        <v>4.9771689497716896</v>
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J16">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K16">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M16">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N16">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O16">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P16">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q16">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R16">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S16">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T16">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U16">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V16">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W16">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X16">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y16">
+        <v>0.25277234181343772</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="C19">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="D19">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="E19">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="F19">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="G19">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="H19">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="I19">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="J19">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="K19">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="L19">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="M19">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="N19">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="O19">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="P19">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="Q19">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="R19">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="S19">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="T19">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="U19">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="V19">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="W19">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="X19">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="Y19">
-        <v>0.25824553878597789</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>0.19642930601834707</v>
+        <v>2000</v>
       </c>
       <c r="C20">
-        <v>0.19642930601834707</v>
+        <v>2001</v>
       </c>
       <c r="D20">
-        <v>0.1583775556378296</v>
+        <v>2002</v>
       </c>
       <c r="E20">
-        <v>0.18100292072894811</v>
+        <v>2003</v>
       </c>
       <c r="F20">
-        <v>0.15323542720802993</v>
+        <v>2004</v>
       </c>
       <c r="G20">
-        <v>0.1779176436710683</v>
+        <v>2005</v>
       </c>
       <c r="H20">
-        <v>0.22213994816734542</v>
+        <v>2006</v>
       </c>
       <c r="I20">
-        <v>0.23228111971411552</v>
+        <v>2007</v>
       </c>
       <c r="J20">
-        <v>0.23426642842962081</v>
+        <v>2008</v>
       </c>
       <c r="K20">
-        <v>0.19456025411951558</v>
+        <v>2009</v>
       </c>
       <c r="L20">
-        <v>0.19555290847726822</v>
+        <v>2010</v>
       </c>
       <c r="M20">
-        <v>0.19786910197869106</v>
+        <v>2011</v>
       </c>
       <c r="N20">
-        <v>0.22450532724505329</v>
+        <v>2012</v>
       </c>
       <c r="O20">
-        <v>0.2226027397260274</v>
+        <v>2013</v>
       </c>
       <c r="P20">
-        <v>0.20357686453576868</v>
+        <v>2014</v>
       </c>
       <c r="Q20">
-        <v>0.17694063926940642</v>
+        <v>2015</v>
       </c>
       <c r="R20">
-        <v>0.1950152207001522</v>
+        <v>2016</v>
       </c>
       <c r="S20">
-        <v>0.18359969558599698</v>
+        <v>2017</v>
       </c>
       <c r="T20">
-        <v>0.19216133942161343</v>
+        <v>2018</v>
       </c>
       <c r="U20">
-        <v>0.20452815829528159</v>
+        <v>2019</v>
       </c>
       <c r="V20">
-        <v>0.21784627092846273</v>
+        <v>2020</v>
       </c>
       <c r="W20">
-        <v>0.29014459665144599</v>
+        <v>2021</v>
       </c>
       <c r="X20">
-        <v>0.1950152207001522</v>
+        <v>2022</v>
       </c>
       <c r="Y20">
-        <v>0.14840182648401828</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.29434148088459128</v>
+        <v>0.05</v>
       </c>
       <c r="C21">
-        <v>0.22423352902804958</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
-        <v>0.22408253001860307</v>
+        <v>0.05</v>
       </c>
       <c r="E21">
-        <v>0.20686315206863154</v>
+        <v>0.01</v>
       </c>
       <c r="F21">
-        <v>0.18103408514367419</v>
+        <v>0.01</v>
       </c>
       <c r="G21">
-        <v>0.24791291914579586</v>
+        <v>0.01</v>
       </c>
       <c r="H21">
-        <v>0.2427240440939071</v>
+        <v>0.01</v>
       </c>
       <c r="I21">
-        <v>0.16072605011472321</v>
+        <v>0.01</v>
       </c>
       <c r="J21">
-        <v>0.1502326182476092</v>
+        <v>0.01</v>
       </c>
       <c r="K21">
-        <v>0.18296846327828276</v>
+        <v>0.01</v>
       </c>
       <c r="L21">
-        <v>0.26339491433119683</v>
+        <v>0.01</v>
       </c>
       <c r="M21">
-        <v>0.14626141552511415</v>
+        <v>0.01</v>
       </c>
       <c r="N21">
-        <v>0.15647142182333496</v>
+        <v>0.01</v>
       </c>
       <c r="O21">
-        <v>0.19708855325293684</v>
+        <v>0.03</v>
       </c>
       <c r="P21">
-        <v>0.22250599798777185</v>
+        <v>0.04</v>
       </c>
       <c r="Q21">
-        <v>0.27329541057193724</v>
+        <v>0.05</v>
       </c>
       <c r="R21">
-        <v>0.18767897221577279</v>
+        <v>0.06</v>
       </c>
       <c r="S21">
-        <v>0.12870890865760704</v>
+        <v>0.05</v>
       </c>
       <c r="T21">
-        <v>0.23422292564900221</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U21">
-        <v>0.13325692663137406</v>
+        <v>0.06</v>
       </c>
       <c r="V21">
-        <v>0.12825410686023031</v>
+        <v>0.05</v>
       </c>
       <c r="W21">
-        <v>0.21921446633557101</v>
+        <v>0.05</v>
       </c>
       <c r="X21">
-        <v>0.17145847997545438</v>
+        <v>0.05</v>
       </c>
       <c r="Y21">
-        <v>0.14032522966412186</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>0.58791571267802401</v>
+        <v>5.62</v>
       </c>
       <c r="C22">
-        <v>0.632219592016247</v>
+        <v>5.62</v>
       </c>
       <c r="D22">
-        <v>0.84860999194198217</v>
+        <v>5.62</v>
       </c>
       <c r="E22">
-        <v>0.72522159548751008</v>
+        <v>5.62</v>
       </c>
       <c r="F22">
-        <v>0.70591592801504166</v>
+        <v>5.5</v>
       </c>
       <c r="G22">
-        <v>0.78271890948160072</v>
+        <v>5.5</v>
       </c>
       <c r="H22">
-        <v>0.81797273704002138</v>
+        <v>5.5</v>
       </c>
       <c r="I22">
-        <v>0.88425019931869253</v>
+        <v>5.5</v>
       </c>
       <c r="J22">
-        <v>0.95250175158850958</v>
+        <v>5.5</v>
       </c>
       <c r="K22">
-        <v>0.92169795366142393</v>
+        <v>5.63</v>
       </c>
       <c r="L22">
-        <v>0.92109395762363799</v>
+        <v>5.63</v>
       </c>
       <c r="M22">
-        <v>0.98511753762895304</v>
+        <v>6.32</v>
       </c>
       <c r="N22">
-        <v>0.94312558272968505</v>
+        <v>6.32</v>
       </c>
       <c r="O22">
-        <v>0.81695954983626218</v>
+        <v>6.11</v>
       </c>
       <c r="P22">
-        <v>0.91497163414971638</v>
+        <v>5.9</v>
       </c>
       <c r="Q22">
-        <v>0.88672109220054429</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R22">
-        <v>0.91440094569223274</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S22">
-        <v>0.90107317525438657</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T22">
-        <v>0.91608169199663791</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U22">
-        <v>0.94050296462891025</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V22">
-        <v>0.9444785206388151</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W22">
-        <v>0.93652740861900541</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X22">
-        <v>0.93482359890047495</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y22">
-        <v>0.91778550171516859</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H23">
-        <v>65535</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L23">
-        <v>65535</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="N23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="O23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="P23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="Q23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="R23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="S23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="T23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="U23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="V23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="W23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="X23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
       <c r="Y23">
-        <v>65535</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.84</v>
+      </c>
+      <c r="D24">
+        <v>1.08</v>
+      </c>
+      <c r="E24">
+        <v>1.65</v>
+      </c>
+      <c r="F24">
+        <v>1.98</v>
+      </c>
+      <c r="G24">
+        <v>1.98</v>
+      </c>
+      <c r="H24">
+        <v>1.98</v>
+      </c>
+      <c r="I24">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J24">
+        <v>2.12</v>
+      </c>
+      <c r="K24">
+        <v>2.14</v>
       </c>
       <c r="L24">
-        <v>3.8051750380517509E-2</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M24">
-        <v>7.6103500761035017E-2</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N24">
-        <v>9.6783799880881469E-2</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O24">
-        <v>0.1525728837372673</v>
+        <v>2.34</v>
       </c>
       <c r="P24">
-        <v>0.13964622955180209</v>
+        <v>2.36</v>
       </c>
       <c r="Q24">
-        <v>0.15294587046149752</v>
+        <v>2.36</v>
       </c>
       <c r="R24">
-        <v>0.1540541738706388</v>
+        <v>2.36</v>
       </c>
       <c r="S24">
-        <v>0.15516247727978011</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T24">
-        <v>0.14851265682493239</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U24">
-        <v>0.15586582367404284</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V24">
-        <v>0.15255292652552924</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W24">
-        <v>0.13213245604573401</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X24">
-        <v>0.13711751430220961</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Y24">
-        <v>0.13667567483614451</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>3.53</v>
+      </c>
+      <c r="C25">
+        <v>3.53</v>
+      </c>
+      <c r="D25">
+        <v>2.72</v>
+      </c>
+      <c r="E25">
+        <v>2.72</v>
+      </c>
+      <c r="F25">
+        <v>2.72</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H25">
-        <v>7.6103500761035017E-2</v>
+        <v>2.72</v>
       </c>
       <c r="I25">
-        <v>0.19025875190258754</v>
+        <v>1.89</v>
       </c>
       <c r="J25">
-        <v>0.12453300124533001</v>
+        <v>1.89</v>
       </c>
       <c r="K25">
-        <v>8.3022000830220002E-2</v>
+        <v>1.89</v>
       </c>
       <c r="L25">
-        <v>0.15841953219644023</v>
+        <v>1.89</v>
       </c>
       <c r="M25">
-        <v>0.18180280737358362</v>
+        <v>1.89</v>
       </c>
       <c r="N25">
-        <v>0.20480795057749127</v>
+        <v>1.91</v>
       </c>
       <c r="O25">
-        <v>0.22998925597636316</v>
+        <v>1.98</v>
       </c>
       <c r="P25">
-        <v>0.21689497716894979</v>
+        <v>1.98</v>
       </c>
       <c r="Q25">
-        <v>0.23646444879321593</v>
+        <v>1.98</v>
       </c>
       <c r="R25">
-        <v>0.23157208088714937</v>
+        <v>1.97</v>
       </c>
       <c r="S25">
-        <v>0.24461839530332682</v>
+        <v>1.97</v>
       </c>
       <c r="T25">
-        <v>0.21526418786692761</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U25">
-        <v>0.21526418786692761</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V25">
-        <v>0.24135681669928247</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="W25">
-        <v>0.23320287018917157</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="X25">
-        <v>0.23483365949119375</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Y25">
-        <v>0.25277234181343772</v>
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.03</v>
+      </c>
+      <c r="M27">
+        <v>0.15</v>
+      </c>
+      <c r="N27">
+        <v>0.92</v>
+      </c>
+      <c r="O27">
+        <v>1.04</v>
+      </c>
+      <c r="P27">
+        <v>1.03</v>
+      </c>
+      <c r="Q27">
+        <v>1.03</v>
+      </c>
+      <c r="R27">
+        <v>1.03</v>
+      </c>
+      <c r="S27">
+        <v>1.03</v>
+      </c>
+      <c r="T27">
+        <v>1.03</v>
+      </c>
+      <c r="U27">
+        <v>1.04</v>
+      </c>
+      <c r="V27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W27">
+        <v>1.27</v>
+      </c>
+      <c r="X27">
+        <v>1.74</v>
+      </c>
+      <c r="Y27">
+        <v>2.94</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="C29">
-        <v>2001</v>
-      </c>
-      <c r="D29">
-        <v>2002</v>
-      </c>
-      <c r="E29">
-        <v>2003</v>
-      </c>
-      <c r="F29">
-        <v>2004</v>
-      </c>
-      <c r="G29">
-        <v>2005</v>
-      </c>
-      <c r="H29">
-        <v>2006</v>
-      </c>
-      <c r="I29">
-        <v>2007</v>
-      </c>
-      <c r="J29">
-        <v>2008</v>
-      </c>
-      <c r="K29">
-        <v>2009</v>
-      </c>
-      <c r="L29">
-        <v>2010</v>
-      </c>
-      <c r="M29">
-        <v>2011</v>
-      </c>
-      <c r="N29">
-        <v>2012</v>
-      </c>
-      <c r="O29">
-        <v>2013</v>
-      </c>
-      <c r="P29">
-        <v>2014</v>
-      </c>
-      <c r="Q29">
-        <v>2015</v>
-      </c>
-      <c r="R29">
-        <v>2016</v>
-      </c>
-      <c r="S29">
-        <v>2017</v>
-      </c>
-      <c r="T29">
-        <v>2018</v>
-      </c>
-      <c r="U29">
-        <v>2019</v>
-      </c>
-      <c r="V29">
-        <v>2020</v>
-      </c>
-      <c r="W29">
-        <v>2021</v>
-      </c>
-      <c r="X29">
-        <v>2022</v>
-      </c>
-      <c r="Y29">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>0.05</v>
-      </c>
-      <c r="C30">
-        <v>0.05</v>
-      </c>
-      <c r="D30">
-        <v>0.05</v>
-      </c>
-      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>0.01</v>
       </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-      <c r="G30">
-        <v>0.01</v>
-      </c>
-      <c r="H30">
-        <v>0.01</v>
-      </c>
-      <c r="I30">
-        <v>0.01</v>
-      </c>
-      <c r="J30">
-        <v>0.01</v>
-      </c>
-      <c r="K30">
-        <v>0.01</v>
-      </c>
-      <c r="L30">
-        <v>0.01</v>
-      </c>
-      <c r="M30">
-        <v>0.01</v>
-      </c>
-      <c r="N30">
-        <v>0.01</v>
-      </c>
-      <c r="O30">
+      <c r="H28">
         <v>0.03</v>
       </c>
-      <c r="P30">
-        <v>0.04</v>
-      </c>
-      <c r="Q30">
-        <v>0.05</v>
-      </c>
-      <c r="R30">
-        <v>0.06</v>
-      </c>
-      <c r="S30">
-        <v>0.05</v>
-      </c>
-      <c r="T30">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U30">
-        <v>0.06</v>
-      </c>
-      <c r="V30">
-        <v>0.05</v>
-      </c>
-      <c r="W30">
-        <v>0.05</v>
-      </c>
-      <c r="X30">
-        <v>0.05</v>
-      </c>
-      <c r="Y30">
-        <v>0.05</v>
+      <c r="I28">
+        <v>0.03</v>
+      </c>
+      <c r="J28">
+        <v>0.11</v>
+      </c>
+      <c r="K28">
+        <v>0.33</v>
+      </c>
+      <c r="L28">
+        <v>0.49</v>
+      </c>
+      <c r="M28">
+        <v>0.54</v>
+      </c>
+      <c r="N28">
+        <v>0.68</v>
+      </c>
+      <c r="O28">
+        <v>0.68</v>
+      </c>
+      <c r="P28">
+        <v>0.7</v>
+      </c>
+      <c r="Q28">
+        <v>0.7</v>
+      </c>
+      <c r="R28">
+        <v>0.7</v>
+      </c>
+      <c r="S28">
+        <v>0.7</v>
+      </c>
+      <c r="T28">
+        <v>0.7</v>
+      </c>
+      <c r="U28">
+        <v>0.7</v>
+      </c>
+      <c r="V28">
+        <v>0.7</v>
+      </c>
+      <c r="W28">
+        <v>0.7</v>
+      </c>
+      <c r="X28">
+        <v>0.7</v>
+      </c>
+      <c r="Y28">
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>5.62</v>
-      </c>
-      <c r="C31">
-        <v>5.62</v>
-      </c>
-      <c r="D31">
-        <v>5.62</v>
-      </c>
-      <c r="E31">
-        <v>5.62</v>
-      </c>
-      <c r="F31">
-        <v>5.5</v>
-      </c>
-      <c r="G31">
-        <v>5.5</v>
-      </c>
-      <c r="H31">
-        <v>5.5</v>
-      </c>
-      <c r="I31">
-        <v>5.5</v>
-      </c>
-      <c r="J31">
-        <v>5.5</v>
-      </c>
-      <c r="K31">
-        <v>5.63</v>
-      </c>
-      <c r="L31">
-        <v>5.63</v>
-      </c>
-      <c r="M31">
-        <v>6.32</v>
-      </c>
-      <c r="N31">
-        <v>6.32</v>
-      </c>
-      <c r="O31">
-        <v>6.11</v>
-      </c>
-      <c r="P31">
-        <v>5.9</v>
-      </c>
-      <c r="Q31">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R31">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="S31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="T31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="U31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="V31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="W31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="X31">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Y31">
-        <v>5.1100000000000003</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>1.1100000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C32">
-        <v>1.1100000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D32">
-        <v>1.1100000000000001</v>
+        <v>2002</v>
       </c>
       <c r="E32">
-        <v>1.1100000000000001</v>
+        <v>2003</v>
       </c>
       <c r="F32">
-        <v>1.1100000000000001</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>1.1100000000000001</v>
+        <v>2005</v>
       </c>
       <c r="H32">
-        <v>1.1100000000000001</v>
+        <v>2006</v>
       </c>
       <c r="I32">
-        <v>1.1499999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J32">
-        <v>1.1499999999999999</v>
+        <v>2008</v>
       </c>
       <c r="K32">
-        <v>1.1499999999999999</v>
+        <v>2009</v>
       </c>
       <c r="L32">
-        <v>1.1499999999999999</v>
+        <v>2010</v>
       </c>
       <c r="M32">
-        <v>1.2</v>
+        <v>2011</v>
       </c>
       <c r="N32">
-        <v>1.2</v>
+        <v>2012</v>
       </c>
       <c r="O32">
-        <v>1.2</v>
+        <v>2013</v>
       </c>
       <c r="P32">
-        <v>1.2</v>
+        <v>2014</v>
       </c>
       <c r="Q32">
-        <v>1.2</v>
+        <v>2015</v>
       </c>
       <c r="R32">
-        <v>1.2</v>
+        <v>2016</v>
       </c>
       <c r="S32">
-        <v>1.2</v>
+        <v>2017</v>
       </c>
       <c r="T32">
-        <v>1.2</v>
+        <v>2018</v>
       </c>
       <c r="U32">
-        <v>1.2</v>
+        <v>2019</v>
       </c>
       <c r="V32">
-        <v>1.2</v>
+        <v>2020</v>
       </c>
       <c r="W32">
-        <v>1.2</v>
+        <v>2021</v>
       </c>
       <c r="X32">
-        <v>1.2</v>
+        <v>2022</v>
       </c>
       <c r="Y32">
-        <v>1.2</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2.12</v>
+        <v>0.02</v>
       </c>
       <c r="K33">
-        <v>2.14</v>
+        <v>0.01</v>
       </c>
       <c r="L33">
+        <v>0.04</v>
+      </c>
+      <c r="M33">
+        <v>0.06</v>
+      </c>
+      <c r="N33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O33">
+        <v>0.11</v>
+      </c>
+      <c r="P33">
+        <v>0.2</v>
+      </c>
+      <c r="Q33">
+        <v>0.27</v>
+      </c>
+      <c r="R33">
+        <v>0.35</v>
+      </c>
+      <c r="S33">
+        <v>0.4</v>
+      </c>
+      <c r="T33">
+        <v>1.57</v>
+      </c>
+      <c r="U33">
+        <v>1.82</v>
+      </c>
+      <c r="V33">
+        <v>1.7</v>
+      </c>
+      <c r="W33">
+        <v>2.59</v>
+      </c>
+      <c r="X33">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y33">
         <v>2.1800000000000002</v>
-      </c>
-      <c r="M33">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N33">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O33">
-        <v>2.34</v>
-      </c>
-      <c r="P33">
-        <v>2.36</v>
-      </c>
-      <c r="Q33">
-        <v>2.36</v>
-      </c>
-      <c r="R33">
-        <v>2.36</v>
-      </c>
-      <c r="S33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="T33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="U33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="V33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="W33">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="X33">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Y33">
-        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>3.53</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C34">
-        <v>3.53</v>
+        <v>19.5</v>
       </c>
       <c r="D34">
-        <v>2.72</v>
+        <v>17.18</v>
       </c>
       <c r="E34">
-        <v>2.72</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="F34">
-        <v>2.72</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G34">
-        <v>2.72</v>
+        <v>18.46</v>
       </c>
       <c r="H34">
-        <v>2.72</v>
+        <v>19.09</v>
       </c>
       <c r="I34">
-        <v>1.89</v>
+        <v>22.37</v>
       </c>
       <c r="J34">
-        <v>1.89</v>
+        <v>23.18</v>
       </c>
       <c r="K34">
-        <v>1.89</v>
+        <v>21.1</v>
       </c>
       <c r="L34">
-        <v>1.89</v>
+        <v>22.61</v>
       </c>
       <c r="M34">
-        <v>1.89</v>
+        <v>27.53</v>
       </c>
       <c r="N34">
-        <v>1.91</v>
+        <v>22.87</v>
       </c>
       <c r="O34">
-        <v>1.98</v>
+        <v>19.39</v>
       </c>
       <c r="P34">
-        <v>1.98</v>
+        <v>21.31</v>
       </c>
       <c r="Q34">
-        <v>1.98</v>
+        <v>22.53</v>
       </c>
       <c r="R34">
-        <v>1.97</v>
+        <v>19.37</v>
       </c>
       <c r="S34">
-        <v>1.97</v>
+        <v>20.92</v>
       </c>
       <c r="T34">
-        <v>2.0099999999999998</v>
+        <v>18.66</v>
       </c>
       <c r="U34">
-        <v>2.0099999999999998</v>
+        <v>17.2</v>
       </c>
       <c r="V34">
-        <v>2.0099999999999998</v>
+        <v>13.51</v>
       </c>
       <c r="W34">
-        <v>2.0099999999999998</v>
+        <v>17.09</v>
       </c>
       <c r="X34">
-        <v>2.0099999999999998</v>
+        <v>21.79</v>
       </c>
       <c r="Y34">
-        <v>2.0099999999999998</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="L36">
-        <v>0.03</v>
+        <v>5.03</v>
       </c>
       <c r="M36">
-        <v>0.15</v>
+        <v>2.87</v>
       </c>
       <c r="N36">
-        <v>0.92</v>
+        <v>3.18</v>
       </c>
       <c r="O36">
-        <v>1.04</v>
+        <v>4.04</v>
       </c>
       <c r="P36">
-        <v>1.03</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q36">
-        <v>1.03</v>
+        <v>5.65</v>
       </c>
       <c r="R36">
-        <v>1.03</v>
+        <v>3.88</v>
       </c>
       <c r="S36">
-        <v>1.03</v>
+        <v>2.83</v>
       </c>
       <c r="T36">
-        <v>1.03</v>
+        <v>5.15</v>
       </c>
       <c r="U36">
-        <v>1.04</v>
+        <v>2.93</v>
       </c>
       <c r="V36">
-        <v>1.1000000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="W36">
-        <v>1.27</v>
+        <v>4.82</v>
       </c>
       <c r="X36">
-        <v>1.74</v>
+        <v>3.8</v>
       </c>
       <c r="Y36">
-        <v>2.94</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>18.18</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>19.55</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>20.22</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>17.28</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>16.82</v>
       </c>
       <c r="G37">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H37">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I37">
+        <v>14.64</v>
+      </c>
+      <c r="J37">
+        <v>15.77</v>
+      </c>
+      <c r="K37">
+        <v>15.26</v>
+      </c>
+      <c r="L37">
+        <v>15.25</v>
+      </c>
+      <c r="M37">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N37">
+        <v>15.78</v>
+      </c>
+      <c r="O37">
+        <v>14.17</v>
+      </c>
+      <c r="P37">
+        <v>15.87</v>
+      </c>
+      <c r="Q37">
+        <v>15.38</v>
+      </c>
+      <c r="R37">
+        <v>15.78</v>
+      </c>
+      <c r="S37">
+        <v>15.55</v>
+      </c>
+      <c r="T37">
+        <v>16.13</v>
+      </c>
+      <c r="U37">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V37">
+        <v>16.63</v>
+      </c>
+      <c r="W37">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X37">
+        <v>16.46</v>
+      </c>
+      <c r="Y37">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>0.93</v>
+      </c>
+      <c r="C38">
+        <v>0.83</v>
+      </c>
+      <c r="D38">
+        <v>1.02</v>
+      </c>
+      <c r="E38">
+        <v>1.01</v>
+      </c>
+      <c r="F38">
+        <v>1.01</v>
+      </c>
+      <c r="G38">
+        <v>0.75</v>
+      </c>
+      <c r="H38">
+        <v>0.47</v>
+      </c>
+      <c r="I38">
+        <v>0.59</v>
+      </c>
+      <c r="J38">
+        <v>0.25</v>
+      </c>
+      <c r="K38">
+        <v>0.31</v>
+      </c>
+      <c r="L38">
+        <v>0.34</v>
+      </c>
+      <c r="M38">
+        <v>0.15</v>
+      </c>
+      <c r="N38">
+        <v>0.2</v>
+      </c>
+      <c r="O38">
+        <v>0.21</v>
+      </c>
+      <c r="P38">
+        <v>0.21</v>
+      </c>
+      <c r="Q38">
+        <v>0.19</v>
+      </c>
+      <c r="R38">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S38">
+        <v>0.31</v>
+      </c>
+      <c r="T38">
+        <v>0.32</v>
+      </c>
+      <c r="U38">
+        <v>0.32</v>
+      </c>
+      <c r="V38">
+        <v>0.24</v>
+      </c>
+      <c r="W38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X38">
+        <v>0.35</v>
+      </c>
+      <c r="Y38">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>0.01</v>
       </c>
-      <c r="H37">
-        <v>0.03</v>
-      </c>
-      <c r="I37">
-        <v>0.03</v>
-      </c>
-      <c r="J37">
-        <v>0.11</v>
-      </c>
-      <c r="K37">
-        <v>0.33</v>
-      </c>
-      <c r="L37">
-        <v>0.49</v>
-      </c>
-      <c r="M37">
-        <v>0.54</v>
-      </c>
-      <c r="N37">
-        <v>0.68</v>
-      </c>
-      <c r="O37">
-        <v>0.68</v>
-      </c>
-      <c r="P37">
-        <v>0.7</v>
-      </c>
-      <c r="Q37">
-        <v>0.7</v>
-      </c>
-      <c r="R37">
-        <v>0.7</v>
-      </c>
-      <c r="S37">
-        <v>0.7</v>
-      </c>
-      <c r="T37">
-        <v>0.7</v>
-      </c>
-      <c r="U37">
-        <v>0.7</v>
-      </c>
-      <c r="V37">
-        <v>0.7</v>
-      </c>
-      <c r="W37">
-        <v>0.7</v>
-      </c>
-      <c r="X37">
-        <v>0.7</v>
-      </c>
-      <c r="Y37">
-        <v>0.7</v>
+      <c r="M39">
+        <v>0.1</v>
+      </c>
+      <c r="N39">
+        <v>0.78</v>
+      </c>
+      <c r="O39">
+        <v>1.39</v>
+      </c>
+      <c r="P39">
+        <v>1.26</v>
+      </c>
+      <c r="Q39">
+        <v>1.38</v>
+      </c>
+      <c r="R39">
+        <v>1.39</v>
+      </c>
+      <c r="S39">
+        <v>1.4</v>
+      </c>
+      <c r="T39">
+        <v>1.34</v>
+      </c>
+      <c r="U39">
+        <v>1.42</v>
+      </c>
+      <c r="V39">
+        <v>1.47</v>
+      </c>
+      <c r="W39">
+        <v>1.47</v>
+      </c>
+      <c r="X39">
+        <v>2.09</v>
+      </c>
+      <c r="Y39">
+        <v>3.52</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41">
-        <v>2000</v>
-      </c>
-      <c r="C41">
-        <v>2001</v>
-      </c>
-      <c r="D41">
-        <v>2002</v>
-      </c>
-      <c r="E41">
-        <v>2003</v>
-      </c>
-      <c r="F41">
-        <v>2004</v>
-      </c>
-      <c r="G41">
-        <v>2005</v>
-      </c>
-      <c r="H41">
-        <v>2006</v>
-      </c>
-      <c r="I41">
-        <v>2007</v>
-      </c>
-      <c r="J41">
-        <v>2008</v>
-      </c>
-      <c r="K41">
-        <v>2009</v>
-      </c>
-      <c r="L41">
-        <v>2010</v>
-      </c>
-      <c r="M41">
-        <v>2011</v>
-      </c>
-      <c r="N41">
-        <v>2012</v>
-      </c>
-      <c r="O41">
-        <v>2013</v>
-      </c>
-      <c r="P41">
-        <v>2014</v>
-      </c>
-      <c r="Q41">
-        <v>2015</v>
-      </c>
-      <c r="R41">
-        <v>2016</v>
-      </c>
-      <c r="S41">
-        <v>2017</v>
-      </c>
-      <c r="T41">
-        <v>2018</v>
-      </c>
-      <c r="U41">
-        <v>2019</v>
-      </c>
-      <c r="V41">
-        <v>2020</v>
-      </c>
-      <c r="W41">
-        <v>2021</v>
-      </c>
-      <c r="X41">
-        <v>2022</v>
-      </c>
-      <c r="Y41">
-        <v>2023</v>
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.02</v>
+      </c>
+      <c r="I40">
+        <v>0.05</v>
+      </c>
+      <c r="J40">
+        <v>0.12</v>
+      </c>
+      <c r="K40">
+        <v>0.24</v>
+      </c>
+      <c r="L40">
+        <v>0.68</v>
+      </c>
+      <c r="M40">
+        <v>0.86</v>
+      </c>
+      <c r="N40">
+        <v>1.22</v>
+      </c>
+      <c r="O40">
+        <v>1.37</v>
+      </c>
+      <c r="P40">
+        <v>1.33</v>
+      </c>
+      <c r="Q40">
+        <v>1.45</v>
+      </c>
+      <c r="R40">
+        <v>1.42</v>
+      </c>
+      <c r="S40">
+        <v>1.5</v>
+      </c>
+      <c r="T40">
+        <v>1.32</v>
+      </c>
+      <c r="U40">
+        <v>1.32</v>
+      </c>
+      <c r="V40">
+        <v>1.48</v>
+      </c>
+      <c r="W40">
+        <v>1.43</v>
+      </c>
+      <c r="X40">
+        <v>1.44</v>
+      </c>
+      <c r="Y40">
+        <v>1.55</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0.02</v>
-      </c>
-      <c r="K42">
-        <v>0.01</v>
-      </c>
-      <c r="L42">
-        <v>0.04</v>
-      </c>
-      <c r="M42">
-        <v>0.06</v>
-      </c>
-      <c r="N42">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O42">
-        <v>0.11</v>
-      </c>
-      <c r="P42">
-        <v>0.2</v>
-      </c>
-      <c r="Q42">
-        <v>0.27</v>
-      </c>
-      <c r="R42">
-        <v>0.35</v>
-      </c>
-      <c r="S42">
-        <v>0.4</v>
-      </c>
-      <c r="T42">
-        <v>1.57</v>
-      </c>
-      <c r="U42">
-        <v>1.82</v>
-      </c>
-      <c r="V42">
-        <v>1.7</v>
-      </c>
-      <c r="W42">
-        <v>2.59</v>
-      </c>
-      <c r="X42">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="Y42">
-        <v>2.1800000000000002</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>16.940000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C43">
-        <v>19.5</v>
+        <v>2001</v>
       </c>
       <c r="D43">
-        <v>17.18</v>
+        <v>2002</v>
       </c>
       <c r="E43">
-        <v>19.239999999999998</v>
+        <v>2003</v>
       </c>
       <c r="F43">
-        <v>18.899999999999999</v>
+        <v>2004</v>
       </c>
       <c r="G43">
-        <v>18.46</v>
+        <v>2005</v>
       </c>
       <c r="H43">
-        <v>19.09</v>
+        <v>2006</v>
       </c>
       <c r="I43">
-        <v>22.37</v>
+        <v>2007</v>
       </c>
       <c r="J43">
-        <v>23.18</v>
+        <v>2008</v>
       </c>
       <c r="K43">
-        <v>21.1</v>
+        <v>2009</v>
       </c>
       <c r="L43">
-        <v>22.61</v>
+        <v>2010</v>
       </c>
       <c r="M43">
-        <v>27.53</v>
+        <v>2011</v>
       </c>
       <c r="N43">
-        <v>22.87</v>
+        <v>2012</v>
       </c>
       <c r="O43">
-        <v>19.39</v>
+        <v>2013</v>
       </c>
       <c r="P43">
-        <v>21.31</v>
+        <v>2014</v>
       </c>
       <c r="Q43">
-        <v>22.53</v>
+        <v>2015</v>
       </c>
       <c r="R43">
-        <v>19.37</v>
+        <v>2016</v>
       </c>
       <c r="S43">
-        <v>20.92</v>
+        <v>2017</v>
       </c>
       <c r="T43">
-        <v>18.66</v>
+        <v>2018</v>
       </c>
       <c r="U43">
-        <v>17.2</v>
+        <v>2019</v>
       </c>
       <c r="V43">
-        <v>13.51</v>
+        <v>2020</v>
       </c>
       <c r="W43">
-        <v>17.09</v>
+        <v>2021</v>
       </c>
       <c r="X43">
-        <v>21.79</v>
-      </c>
-      <c r="Y43">
-        <v>11.56</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44">
-        <v>1.91</v>
-      </c>
-      <c r="C44">
-        <v>1.91</v>
-      </c>
-      <c r="D44">
-        <v>1.54</v>
-      </c>
-      <c r="E44">
-        <v>1.76</v>
-      </c>
-      <c r="F44">
-        <v>1.49</v>
-      </c>
-      <c r="G44">
-        <v>1.73</v>
-      </c>
-      <c r="H44">
-        <v>2.16</v>
-      </c>
-      <c r="I44">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>2.36</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K44">
-        <v>1.96</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L44">
-        <v>1.97</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M44">
-        <v>2.08</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N44">
-        <v>2.36</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O44">
-        <v>2.34</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P44">
-        <v>2.14</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q44">
-        <v>1.86</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R44">
-        <v>2.0499999999999998</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S44">
-        <v>1.93</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T44">
-        <v>2.02</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U44">
-        <v>2.15</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V44">
-        <v>2.29</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W44">
-        <v>3.05</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X44">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Y44">
-        <v>1.56</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>2.63</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C45">
-        <v>1.65</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D45">
-        <v>2.12</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E45">
-        <v>2.99</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F45">
-        <v>3.14</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G45">
-        <v>4.3</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H45">
-        <v>4.21</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I45">
-        <v>2.83</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J45">
-        <v>2.79</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K45">
-        <v>3.43</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L45">
-        <v>5.03</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M45">
-        <v>2.87</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N45">
-        <v>3.18</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O45">
-        <v>4.04</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P45">
-        <v>4.5999999999999996</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q45">
-        <v>5.65</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R45">
-        <v>3.88</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S45">
-        <v>2.83</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T45">
-        <v>5.15</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U45">
-        <v>2.93</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V45">
-        <v>2.82</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W45">
-        <v>4.82</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X45">
-        <v>3.8</v>
-      </c>
-      <c r="Y45">
-        <v>3.11</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>18.18</v>
+        <v>0.58751816400088952</v>
       </c>
       <c r="C46">
-        <v>19.55</v>
+        <v>0.63195855763612019</v>
       </c>
       <c r="D46">
-        <v>20.22</v>
+        <v>0.84807034848805107</v>
       </c>
       <c r="E46">
-        <v>17.28</v>
+        <v>0.72468873612271401</v>
       </c>
       <c r="F46">
-        <v>16.82</v>
+        <v>0.70518756353607848</v>
       </c>
       <c r="G46">
-        <v>18.649999999999999</v>
+        <v>0.78226961776024206</v>
       </c>
       <c r="H46">
-        <v>19.489999999999998</v>
+        <v>0.81749754243287398</v>
       </c>
       <c r="I46">
-        <v>14.64</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J46">
-        <v>15.77</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K46">
-        <v>15.26</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L46">
-        <v>15.25</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M46">
-        <v>16.309999999999999</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N46">
-        <v>15.78</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O46">
-        <v>14.17</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P46">
-        <v>15.87</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q46">
-        <v>15.38</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R46">
-        <v>15.78</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S46">
-        <v>15.55</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T46">
-        <v>16.13</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U46">
-        <v>16.559999999999999</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V46">
-        <v>16.63</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W46">
-        <v>16.489999999999998</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X46">
-        <v>16.46</v>
-      </c>
-      <c r="Y46">
-        <v>16.16</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
@@ -3574,737 +3954,1841 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>0.93</v>
+        <v>1.3728687025740881E-2</v>
       </c>
       <c r="C47">
-        <v>0.83</v>
+        <v>8.9246408872480296E-3</v>
       </c>
       <c r="D47">
-        <v>1.02</v>
+        <v>1.4064542368890371E-2</v>
       </c>
       <c r="E47">
-        <v>1.01</v>
+        <v>1.3440969291696423E-2</v>
       </c>
       <c r="F47">
-        <v>1.01</v>
+        <v>1.4367639360976603E-2</v>
       </c>
       <c r="G47">
-        <v>0.75</v>
+        <v>1.06544901065449E-2</v>
       </c>
       <c r="H47">
-        <v>0.47</v>
+        <v>6.8721033906174785E-3</v>
       </c>
       <c r="I47">
-        <v>0.59</v>
+        <v>1.3383397499030053E-2</v>
       </c>
       <c r="J47">
-        <v>0.25</v>
+        <v>6.8134032678754683E-3</v>
       </c>
       <c r="K47">
-        <v>0.31</v>
+        <v>8.974387151398696E-3</v>
       </c>
       <c r="L47">
-        <v>0.34</v>
+        <v>1.0171012962918537E-2</v>
       </c>
       <c r="M47">
-        <v>0.15</v>
+        <v>4.0275281549390085E-3</v>
       </c>
       <c r="N47">
-        <v>0.2</v>
+        <v>5.4770281784942507E-3</v>
       </c>
       <c r="O47">
-        <v>0.21</v>
+        <v>5.9193423561722108E-3</v>
       </c>
       <c r="P47">
-        <v>0.21</v>
+        <v>5.7979529360833674E-3</v>
       </c>
       <c r="Q47">
-        <v>0.19</v>
+        <v>5.9440758150922698E-3</v>
       </c>
       <c r="R47">
-        <v>0.28999999999999998</v>
+        <v>1.0672682178439969E-2</v>
       </c>
       <c r="S47">
-        <v>0.31</v>
+        <v>1.3166338195431674E-2</v>
       </c>
       <c r="T47">
-        <v>0.32</v>
+        <v>1.0273264456408587E-2</v>
       </c>
       <c r="U47">
-        <v>0.32</v>
+        <v>1.1459284473580975E-2</v>
       </c>
       <c r="V47">
-        <v>0.24</v>
+        <v>1.0273784895450284E-2</v>
       </c>
       <c r="W47">
-        <v>0.28000000000000003</v>
+        <v>1.1799059936493149E-2</v>
       </c>
       <c r="X47">
-        <v>0.35</v>
-      </c>
-      <c r="Y47">
-        <v>0.35</v>
+        <v>1.5180712412366853E-2</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>0.22831050228310501</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>0.1906392694063927</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>0.18647260273972602</v>
       </c>
       <c r="L48">
-        <v>0.01</v>
+        <v>6.7876712328767116E-2</v>
       </c>
       <c r="M48">
-        <v>0.1</v>
+        <v>7.476575935480044E-2</v>
       </c>
       <c r="N48">
-        <v>0.78</v>
+        <v>9.6412405035707568E-2</v>
       </c>
       <c r="O48">
-        <v>1.39</v>
+        <v>0.15293804193529958</v>
       </c>
       <c r="P48">
-        <v>1.26</v>
+        <v>0.13941040865139273</v>
       </c>
       <c r="Q48">
-        <v>1.38</v>
+        <v>0.1534278778672068</v>
       </c>
       <c r="R48">
-        <v>1.39</v>
+        <v>0.15383140488540142</v>
       </c>
       <c r="S48">
-        <v>1.4</v>
+        <v>0.15538589047072227</v>
       </c>
       <c r="T48">
-        <v>1.34</v>
+        <v>0.14838111835914639</v>
       </c>
       <c r="U48">
-        <v>1.42</v>
+        <v>0.15491400651998427</v>
       </c>
       <c r="V48">
-        <v>1.47</v>
+        <v>0.15239085998651261</v>
       </c>
       <c r="W48">
-        <v>1.47</v>
+        <v>0.13133926069138591</v>
       </c>
       <c r="X48">
-        <v>2.09</v>
-      </c>
-      <c r="Y48">
-        <v>3.52</v>
+        <v>0.13764325363624622</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.11415525114155251</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>6.5453767123287668E-2</v>
       </c>
       <c r="H49">
-        <v>0.02</v>
+        <v>8.4758159986470502E-2</v>
       </c>
       <c r="I49">
-        <v>0.05</v>
+        <v>0.17808980213089803</v>
       </c>
       <c r="J49">
-        <v>0.12</v>
+        <v>0.12192381639029079</v>
       </c>
       <c r="K49">
-        <v>0.24</v>
+        <v>8.1248714467892558E-2</v>
       </c>
       <c r="L49">
-        <v>0.68</v>
+        <v>0.15938903548169775</v>
       </c>
       <c r="M49">
-        <v>0.86</v>
+        <v>0.18169781142649755</v>
       </c>
       <c r="N49">
-        <v>1.22</v>
+        <v>0.2058669391554197</v>
       </c>
       <c r="O49">
-        <v>1.37</v>
+        <v>0.22956604290766625</v>
       </c>
       <c r="P49">
-        <v>1.33</v>
+        <v>0.2172995015710637</v>
       </c>
       <c r="Q49">
-        <v>1.45</v>
+        <v>0.23704950320418605</v>
       </c>
       <c r="R49">
-        <v>1.42</v>
+        <v>0.23271503321770831</v>
       </c>
       <c r="S49">
-        <v>1.5</v>
+        <v>0.24584659524473154</v>
       </c>
       <c r="T49">
-        <v>1.32</v>
+        <v>0.21529025081619735</v>
       </c>
       <c r="U49">
-        <v>1.32</v>
+        <v>0.21381996798613462</v>
       </c>
       <c r="V49">
-        <v>1.48</v>
+        <v>0.23992922634315969</v>
       </c>
       <c r="W49">
-        <v>1.43</v>
+        <v>0.2323315222455867</v>
       </c>
       <c r="X49">
-        <v>1.44</v>
-      </c>
-      <c r="Y49">
-        <v>1.55</v>
+        <v>0.24297964087912982</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
         <v>5</v>
       </c>
+      <c r="B53">
+        <v>2000</v>
+      </c>
+      <c r="C53">
+        <v>2001</v>
+      </c>
       <c r="D53">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="E53">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F53">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G53">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="H53">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="I53">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="J53">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="K53">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="L53">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="M53">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="N53">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="O53">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="P53">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="Q53">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="R53">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="S53">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="T53">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="U53">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="V53">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="W53">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="X53">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Y53">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Z53">
-        <v>2022</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D54">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G54">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J54">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K54">
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L54">
-        <v>0.30441400304414001</v>
+        <v>0.01</v>
       </c>
       <c r="M54">
-        <v>0.10147133434804669</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N54">
-        <v>0.40447488584474894</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O54">
-        <v>0.5811540058115402</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P54">
-        <v>0.53816046966731901</v>
+        <v>0.04</v>
       </c>
       <c r="Q54">
-        <v>0.37067553048616708</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R54">
-        <v>0.57077625570776258</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S54">
-        <v>0.57500422797226458</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T54">
-        <v>0.70696146759593048</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U54">
-        <v>0.86924428402751963</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V54">
-        <v>2.5863099724480505</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W54">
-        <v>3.6549813955986812</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X54">
-        <v>4.036889720525596</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Y54">
-        <v>6.2453375126974553</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Z54">
-        <v>3.2548137163984849</v>
+        <v>7.8688999999999995E-2</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>1.88</v>
+      </c>
+      <c r="C55">
+        <v>1.7050000000000001</v>
       </c>
       <c r="D55">
-        <v>0.17918731176527739</v>
+        <v>1.948</v>
       </c>
       <c r="E55">
-        <v>0.14535545467936098</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="F55">
-        <v>0.15845780240593327</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="G55">
-        <v>0.1498316039834055</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="H55">
-        <v>0.1347902156764661</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="I55">
-        <v>0.18958653994151151</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J55">
-        <v>0.18353719344825822</v>
+        <v>2.984</v>
       </c>
       <c r="K55">
-        <v>0.12836507928947488</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L55">
-        <v>0.12535509016122517</v>
+        <v>3.048</v>
       </c>
       <c r="M55">
-        <v>0.15416139825537606</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="N55">
-        <v>0.21319901365069094</v>
+        <v>3.181</v>
       </c>
       <c r="O55">
-        <v>0.13556538436675425</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="P55">
-        <v>0.1426745416205524</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="Q55">
-        <v>0.17089921406444017</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="R55">
-        <v>0.18308207829936693</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="S55">
-        <v>0.21797454043557021</v>
+        <v>3.37155</v>
       </c>
       <c r="T55">
-        <v>0.16178813238750592</v>
+        <v>3.379</v>
       </c>
       <c r="U55">
-        <v>0.11826549026371555</v>
+        <v>3.3783499999999997</v>
       </c>
       <c r="V55">
-        <v>0.18320015783762453</v>
+        <v>3.3764560000000001</v>
       </c>
       <c r="W55">
-        <v>0.11430375923833559</v>
+        <v>3.3692329999999999</v>
       </c>
       <c r="X55">
-        <v>0.11225524213694742</v>
+        <v>3.348185</v>
       </c>
       <c r="Y55">
-        <v>0.1716829439171017</v>
+        <v>3.3502800000000001</v>
       </c>
       <c r="Z55">
-        <v>0.13069358514235713</v>
+        <v>3.3502800000000001</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>3.532</v>
+      </c>
+      <c r="C56">
+        <v>3.532</v>
       </c>
       <c r="D56">
-        <v>0.58751816400088952</v>
+        <v>2.722</v>
       </c>
       <c r="E56">
-        <v>0.63195855763612019</v>
+        <v>2.722</v>
       </c>
       <c r="F56">
-        <v>0.84807034848805107</v>
+        <v>2.722</v>
       </c>
       <c r="G56">
-        <v>0.72468873612271401</v>
+        <v>2.722</v>
       </c>
       <c r="H56">
-        <v>0.70518756353607848</v>
+        <v>2.722</v>
       </c>
       <c r="I56">
-        <v>0.78226961776024206</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="J56">
-        <v>0.81749754243287398</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="K56">
-        <v>0.88349648121868596</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="L56">
-        <v>0.95119319991890894</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="M56">
-        <v>0.92048229990249752</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="N56">
-        <v>0.92005994960757642</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="O56">
-        <v>0.98431753019201262</v>
+        <v>1.982</v>
       </c>
       <c r="P56">
-        <v>0.94540432280661413</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Q56">
-        <v>0.81619276686525755</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="R56">
-        <v>0.91711461765215874</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="S56">
-        <v>0.88913935610658323</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="T56">
-        <v>0.91556341739152636</v>
+        <v>2.008</v>
       </c>
       <c r="U56">
-        <v>0.90218624426321981</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="V56">
-        <v>0.91672584775055033</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="W56">
-        <v>0.942110199083116</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="X56">
-        <v>0.94612082701666678</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Y56">
-        <v>0.9382181082323805</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Z56">
-        <v>0.93680249206717758</v>
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
         <v>3</v>
       </c>
+      <c r="B57">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C57">
+        <v>7.4059999999999997</v>
+      </c>
       <c r="D57">
-        <v>1.3728687025740881E-2</v>
+        <v>6.8259999999999996</v>
       </c>
       <c r="E57">
-        <v>8.9246408872480296E-3</v>
+        <v>6.7519999999999998</v>
       </c>
       <c r="F57">
-        <v>1.4064542368890371E-2</v>
+        <v>6.6820000000000004</v>
       </c>
       <c r="G57">
-        <v>1.3440969291696423E-2</v>
+        <v>6.6749999999999998</v>
       </c>
       <c r="H57">
-        <v>1.4367639360976603E-2</v>
+        <v>6.4119999999999999</v>
       </c>
       <c r="I57">
-        <v>1.06544901065449E-2</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="J57">
-        <v>6.8721033906174785E-3</v>
+        <v>4.641</v>
       </c>
       <c r="K57">
-        <v>1.3383397499030053E-2</v>
+        <v>4.3630000000000004</v>
       </c>
       <c r="L57">
-        <v>6.8134032678754683E-3</v>
+        <v>4.5679999999999996</v>
       </c>
       <c r="M57">
-        <v>8.974387151398696E-3</v>
+        <v>4.5350000000000001</v>
       </c>
       <c r="N57">
-        <v>1.0171012962918537E-2</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="O57">
-        <v>4.0275281549390085E-3</v>
+        <v>4.6669999999999998</v>
       </c>
       <c r="P57">
-        <v>5.4770281784942507E-3</v>
+        <v>4.43</v>
       </c>
       <c r="Q57">
-        <v>5.9193423561722108E-3</v>
+        <v>3.9369999999999998</v>
       </c>
       <c r="R57">
-        <v>5.7979529360833674E-3</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="S57">
-        <v>5.9440758150922698E-3</v>
+        <v>3.7333600000000002</v>
       </c>
       <c r="T57">
-        <v>1.0672682178439969E-2</v>
+        <v>4.1509750000000007</v>
       </c>
       <c r="U57">
-        <v>1.3166338195431674E-2</v>
+        <v>4.040362</v>
       </c>
       <c r="V57">
-        <v>1.0273264456408587E-2</v>
+        <v>3.7584020000000002</v>
       </c>
       <c r="W57">
-        <v>1.1459284473580975E-2</v>
+        <v>3.8066649999999997</v>
       </c>
       <c r="X57">
-        <v>1.0273784895450284E-2</v>
+        <v>3.9745819999999998</v>
       </c>
       <c r="Y57">
-        <v>1.1799059936493149E-2</v>
+        <v>3.9745819999999998</v>
       </c>
       <c r="Z57">
-        <v>1.5180712412366853E-2</v>
+        <v>3.9745819999999998</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J58">
+        <v>1E-4</v>
       </c>
       <c r="K58">
-        <v>0.22831050228310501</v>
+        <v>2E-3</v>
       </c>
       <c r="L58">
-        <v>0.1906392694063927</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M58">
-        <v>0.18647260273972602</v>
+        <v>0.154</v>
       </c>
       <c r="N58">
-        <v>6.7876712328767116E-2</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="O58">
-        <v>7.476575935480044E-2</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="P58">
-        <v>9.6412405035707568E-2</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="Q58">
-        <v>0.15293804193529958</v>
+        <v>1.028</v>
       </c>
       <c r="R58">
-        <v>0.13941040865139273</v>
+        <v>1.03</v>
       </c>
       <c r="S58">
-        <v>0.1534278778672068</v>
+        <v>1.0307010000000001</v>
       </c>
       <c r="T58">
-        <v>0.15383140488540142</v>
+        <v>1.033058</v>
       </c>
       <c r="U58">
-        <v>0.15538589047072227</v>
+        <v>1.0443900000000002</v>
       </c>
       <c r="V58">
-        <v>0.14838111835914639</v>
+        <v>1.1002110000000001</v>
       </c>
       <c r="W58">
-        <v>0.15491400651998427</v>
+        <v>1.274713</v>
       </c>
       <c r="X58">
-        <v>0.15239085998651261</v>
+        <v>1.736537</v>
       </c>
       <c r="Y58">
-        <v>0.13133926069138591</v>
+        <v>2.9081269999999999</v>
       </c>
       <c r="Z58">
-        <v>0.13764325363624622</v>
+        <v>3.9081269999999999</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>1E-3</v>
+      </c>
+      <c r="G59">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.03</v>
+      </c>
+      <c r="J59">
+        <v>0.114</v>
+      </c>
+      <c r="K59">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="M59">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N59">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O59">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P59">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q59">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R59">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S59">
+        <v>0.69838999999999996</v>
+      </c>
+      <c r="T59">
+        <v>0.69891999999999999</v>
+      </c>
+      <c r="U59">
+        <v>0.70311999999999997</v>
+      </c>
+      <c r="V59">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W59">
+        <v>0.70437499999999997</v>
+      </c>
+      <c r="X59">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z59">
+        <v>0.70430999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>2000</v>
+      </c>
+      <c r="C63">
+        <v>2001</v>
+      </c>
+      <c r="D63">
+        <v>2002</v>
+      </c>
+      <c r="E63">
+        <v>2003</v>
+      </c>
+      <c r="F63">
+        <v>2004</v>
+      </c>
+      <c r="G63">
+        <v>2005</v>
+      </c>
+      <c r="H63">
+        <v>2006</v>
+      </c>
+      <c r="I63">
+        <v>2007</v>
+      </c>
+      <c r="J63">
+        <v>2008</v>
+      </c>
+      <c r="K63">
+        <v>2009</v>
+      </c>
+      <c r="L63">
+        <v>2010</v>
+      </c>
+      <c r="M63">
+        <v>2011</v>
+      </c>
+      <c r="N63">
+        <v>2012</v>
+      </c>
+      <c r="O63">
+        <v>2013</v>
+      </c>
+      <c r="P63">
+        <v>2014</v>
+      </c>
+      <c r="Q63">
+        <v>2015</v>
+      </c>
+      <c r="R63">
+        <v>2016</v>
+      </c>
+      <c r="S63">
+        <v>2017</v>
+      </c>
+      <c r="T63">
+        <v>2018</v>
+      </c>
+      <c r="U63">
+        <v>2019</v>
+      </c>
+      <c r="V63">
+        <v>2020</v>
+      </c>
+      <c r="W63">
+        <v>2021</v>
+      </c>
+      <c r="X63">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L64">
+        <v>3.5431999999999998E-2</v>
+      </c>
+      <c r="M64">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="N64">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O64">
+        <v>0.110402</v>
+      </c>
+      <c r="P64">
+        <v>0.2</v>
+      </c>
+      <c r="Q64">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R64">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S64">
+        <v>0.39598100000000003</v>
+      </c>
+      <c r="T64">
+        <v>1.5729660000000001</v>
+      </c>
+      <c r="U64">
+        <v>1.820811</v>
+      </c>
+      <c r="V64">
+        <v>1.699341</v>
+      </c>
+      <c r="W64">
+        <v>2.5888920000000004</v>
+      </c>
+      <c r="X64">
+        <v>2.2435940000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>17.207000000000001</v>
+      </c>
+      <c r="C65">
+        <v>19.757000000000001</v>
+      </c>
+      <c r="D65">
+        <v>17.373000000000001</v>
+      </c>
+      <c r="E65">
+        <v>19.462</v>
+      </c>
+      <c r="F65">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="G65">
+        <v>18.625</v>
+      </c>
+      <c r="H65">
+        <v>19.206</v>
+      </c>
+      <c r="I65">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J65">
+        <v>23.22</v>
+      </c>
+      <c r="K65">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="L65">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="M65">
+        <v>27.536999999999999</v>
+      </c>
+      <c r="N65">
+        <v>22.876000000000001</v>
+      </c>
+      <c r="O65">
+        <v>19.391598000000002</v>
+      </c>
+      <c r="P65">
+        <v>21.305</v>
+      </c>
+      <c r="Q65">
+        <v>22.521999999999998</v>
+      </c>
+      <c r="R65">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="S65">
+        <v>20.914090999999999</v>
+      </c>
+      <c r="T65">
+        <v>18.659473000000002</v>
+      </c>
+      <c r="U65">
+        <v>17.224985</v>
+      </c>
+      <c r="V65">
+        <v>13.53266</v>
+      </c>
+      <c r="W65">
+        <v>17.085889999999999</v>
+      </c>
+      <c r="X65">
+        <v>21.785509999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="C66">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="D66">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E66">
+        <v>1.762</v>
+      </c>
+      <c r="F66">
+        <v>1.494</v>
+      </c>
+      <c r="G66">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="H66">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I66">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J66">
+        <v>2.36</v>
+      </c>
+      <c r="K66">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="L66">
+        <v>1.9665680000000001</v>
+      </c>
+      <c r="M66">
+        <v>2.077</v>
+      </c>
+      <c r="N66">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="O66">
+        <v>2.339</v>
+      </c>
+      <c r="P66">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="Q66">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="R66">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="S66">
+        <v>1.9266459999999999</v>
+      </c>
+      <c r="T66">
+        <v>2.0227580000000001</v>
+      </c>
+      <c r="U66">
+        <v>2.1529029999999998</v>
+      </c>
+      <c r="V66">
+        <v>2.292316</v>
+      </c>
+      <c r="W66">
+        <v>3.0456720000000002</v>
+      </c>
+      <c r="X66">
+        <v>2.0534110000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>2.9509999999999996</v>
+      </c>
+      <c r="C67">
+        <v>2.1710000000000003</v>
+      </c>
+      <c r="D67">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="E67">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="F67">
+        <v>3.3628110000000002</v>
+      </c>
+      <c r="G67">
+        <v>4.7298960000000001</v>
+      </c>
+      <c r="H67">
+        <v>4.5789740000000005</v>
+      </c>
+      <c r="I67">
+        <v>3.2339989999999998</v>
+      </c>
+      <c r="J67">
+        <v>3.2767620000000002</v>
+      </c>
+      <c r="K67">
+        <v>4.0527119999999996</v>
+      </c>
+      <c r="L67">
+        <v>5.6925160000000004</v>
+      </c>
+      <c r="M67">
+        <v>3.6909139999999998</v>
+      </c>
+      <c r="N67">
+        <v>3.9757060000000002</v>
+      </c>
+      <c r="O67">
+        <v>4.7951379999999997</v>
+      </c>
+      <c r="P67">
+        <v>5.1626289999999999</v>
+      </c>
+      <c r="Q67">
+        <v>6.1465419999999993</v>
+      </c>
+      <c r="R67">
+        <v>4.5678419999999997</v>
+      </c>
+      <c r="S67">
+        <v>3.4929449999999997</v>
+      </c>
+      <c r="T67">
+        <v>5.4227320000000008</v>
+      </c>
+      <c r="U67">
+        <v>3.3827449999999999</v>
+      </c>
+      <c r="V67">
+        <v>3.3202579999999999</v>
+      </c>
+      <c r="W67">
+        <v>5.0671330000000001</v>
+      </c>
+      <c r="X67">
+        <v>3.833256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C68">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D68">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E68">
+        <v>17.28</v>
+      </c>
+      <c r="F68">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G68">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H68">
+        <v>19.492999999999999</v>
+      </c>
+      <c r="I68">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="J68">
+        <v>15.765000000000001</v>
+      </c>
+      <c r="K68">
+        <v>15.256</v>
+      </c>
+      <c r="L68">
+        <v>15.249000000000001</v>
+      </c>
+      <c r="M68">
+        <v>16.314</v>
+      </c>
+      <c r="N68">
+        <v>15.785</v>
+      </c>
+      <c r="O68">
+        <v>14.170999999999999</v>
+      </c>
+      <c r="P68">
+        <v>15.867000000000001</v>
+      </c>
+      <c r="Q68">
+        <v>15.382999999999999</v>
+      </c>
+      <c r="R68">
+        <v>15.776</v>
+      </c>
+      <c r="S68">
+        <v>15.545499</v>
+      </c>
+      <c r="T68">
+        <v>16.125281000000001</v>
+      </c>
+      <c r="U68">
+        <v>16.555288000000001</v>
+      </c>
+      <c r="V68">
+        <v>16.625764999999998</v>
+      </c>
+      <c r="W68">
+        <v>16.486893999999999</v>
+      </c>
+      <c r="X68">
+        <v>16.462018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C69">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D69">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E69">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F69">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G69">
+        <v>0.623</v>
+      </c>
+      <c r="H69">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J69">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K69">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L69">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M69">
+        <v>0.16</v>
+      </c>
+      <c r="N69">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O69">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P69">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q69">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R69">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S69">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T69">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U69">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V69">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W69">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X69">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J70">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K70">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L70">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M70">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N70">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O70">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P70">
+        <v>1.256651</v>
+      </c>
+      <c r="Q70">
+        <v>1.381661</v>
+      </c>
+      <c r="R70">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S70">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T70">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U70">
+        <v>1.417286</v>
+      </c>
+      <c r="V70">
+        <v>1.46872</v>
+      </c>
+      <c r="W70">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X70">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>1E-3</v>
+      </c>
+      <c r="G71">
+        <v>4.5869999999999999E-3</v>
+      </c>
+      <c r="H71">
+        <v>2.0047000000000002E-2</v>
+      </c>
+      <c r="I71">
+        <v>4.6801999999999996E-2</v>
+      </c>
+      <c r="J71">
+        <v>0.12175799999999999</v>
+      </c>
+      <c r="K71">
+        <v>0.237009</v>
+      </c>
+      <c r="L71">
+        <v>0.681369</v>
+      </c>
+      <c r="M71">
+        <v>0.86109500000000005</v>
+      </c>
+      <c r="N71">
+        <v>1.2208979999999998</v>
+      </c>
+      <c r="O71">
+        <v>1.3735119999999998</v>
+      </c>
+      <c r="P71">
+        <v>1.3305769999999999</v>
+      </c>
+      <c r="Q71">
+        <v>1.451511</v>
+      </c>
+      <c r="R71">
+        <v>1.4249700000000001</v>
+      </c>
+      <c r="S71">
+        <v>1.5040640000000001</v>
+      </c>
+      <c r="T71">
+        <v>1.3181230000000002</v>
+      </c>
+      <c r="U71">
+        <v>1.316988</v>
+      </c>
+      <c r="V71">
+        <v>1.4771310000000002</v>
+      </c>
+      <c r="W71">
+        <v>1.4335609999999999</v>
+      </c>
+      <c r="X71">
+        <v>1.499125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2000</v>
+      </c>
+      <c r="E75">
+        <v>2001</v>
+      </c>
+      <c r="F75">
+        <v>2002</v>
+      </c>
+      <c r="G75">
+        <v>2003</v>
+      </c>
+      <c r="H75">
+        <v>2004</v>
+      </c>
+      <c r="I75">
+        <v>2005</v>
+      </c>
+      <c r="J75">
+        <v>2006</v>
+      </c>
+      <c r="K75">
+        <v>2007</v>
+      </c>
+      <c r="L75">
+        <v>2008</v>
+      </c>
+      <c r="M75">
+        <v>2009</v>
+      </c>
+      <c r="N75">
+        <v>2010</v>
+      </c>
+      <c r="O75">
+        <v>2011</v>
+      </c>
+      <c r="P75">
+        <v>2012</v>
+      </c>
+      <c r="Q75">
+        <v>2013</v>
+      </c>
+      <c r="R75">
+        <v>2014</v>
+      </c>
+      <c r="S75">
+        <v>2015</v>
+      </c>
+      <c r="T75">
+        <v>2016</v>
+      </c>
+      <c r="U75">
+        <v>2017</v>
+      </c>
+      <c r="V75">
+        <v>2018</v>
+      </c>
+      <c r="W75">
+        <v>2019</v>
+      </c>
+      <c r="X75">
+        <v>2020</v>
+      </c>
+      <c r="Y75">
+        <v>2021</v>
+      </c>
+      <c r="Z75">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0.30441400304414001</v>
+      </c>
+      <c r="M76">
+        <v>0.10147133434804669</v>
+      </c>
+      <c r="N76">
+        <v>0.40447488584474894</v>
+      </c>
+      <c r="O76">
+        <v>0.5811540058115402</v>
+      </c>
+      <c r="P76">
+        <v>0.53816046966731901</v>
+      </c>
+      <c r="Q76">
+        <v>0.37067553048616708</v>
+      </c>
+      <c r="R76">
+        <v>0.57077625570776258</v>
+      </c>
+      <c r="S76">
+        <v>0.57500422797226458</v>
+      </c>
+      <c r="T76">
+        <v>0.70696146759593048</v>
+      </c>
+      <c r="U76">
+        <v>0.86924428402751963</v>
+      </c>
+      <c r="V76">
+        <v>2.5863099724480505</v>
+      </c>
+      <c r="W76">
+        <v>3.6549813955986812</v>
+      </c>
+      <c r="X76">
+        <v>4.036889720525596</v>
+      </c>
+      <c r="Y76">
+        <v>6.2453375126974553</v>
+      </c>
+      <c r="Z76">
+        <v>3.2548137163984849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77">
+        <v>0.17918731176527739</v>
+      </c>
+      <c r="E77">
+        <v>0.14535545467936098</v>
+      </c>
+      <c r="F77">
+        <v>0.15845780240593327</v>
+      </c>
+      <c r="G77">
+        <v>0.1498316039834055</v>
+      </c>
+      <c r="H77">
+        <v>0.1347902156764661</v>
+      </c>
+      <c r="I77">
+        <v>0.18958653994151151</v>
+      </c>
+      <c r="J77">
+        <v>0.18353719344825822</v>
+      </c>
+      <c r="K77">
+        <v>0.12836507928947488</v>
+      </c>
+      <c r="L77">
+        <v>0.12535509016122517</v>
+      </c>
+      <c r="M77">
+        <v>0.15416139825537606</v>
+      </c>
+      <c r="N77">
+        <v>0.21319901365069094</v>
+      </c>
+      <c r="O77">
+        <v>0.13556538436675425</v>
+      </c>
+      <c r="P77">
+        <v>0.1426745416205524</v>
+      </c>
+      <c r="Q77">
+        <v>0.17089921406444017</v>
+      </c>
+      <c r="R77">
+        <v>0.18308207829936693</v>
+      </c>
+      <c r="S77">
+        <v>0.21797454043557021</v>
+      </c>
+      <c r="T77">
+        <v>0.16178813238750592</v>
+      </c>
+      <c r="U77">
+        <v>0.11826549026371555</v>
+      </c>
+      <c r="V77">
+        <v>0.18320015783762453</v>
+      </c>
+      <c r="W77">
+        <v>0.11430375923833559</v>
+      </c>
+      <c r="X77">
+        <v>0.11225524213694742</v>
+      </c>
+      <c r="Y77">
+        <v>0.1716829439171017</v>
+      </c>
+      <c r="Z77">
+        <v>0.13069358514235713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>0.58751816400088952</v>
+      </c>
+      <c r="E78">
+        <v>0.63195855763612019</v>
+      </c>
+      <c r="F78">
+        <v>0.84807034848805107</v>
+      </c>
+      <c r="G78">
+        <v>0.72468873612271401</v>
+      </c>
+      <c r="H78">
+        <v>0.70518756353607848</v>
+      </c>
+      <c r="I78">
+        <v>0.78226961776024206</v>
+      </c>
+      <c r="J78">
+        <v>0.81749754243287398</v>
+      </c>
+      <c r="K78">
+        <v>0.88349648121868596</v>
+      </c>
+      <c r="L78">
+        <v>0.95119319991890894</v>
+      </c>
+      <c r="M78">
+        <v>0.92048229990249752</v>
+      </c>
+      <c r="N78">
+        <v>0.92005994960757642</v>
+      </c>
+      <c r="O78">
+        <v>0.98431753019201262</v>
+      </c>
+      <c r="P78">
+        <v>0.94540432280661413</v>
+      </c>
+      <c r="Q78">
+        <v>0.81619276686525755</v>
+      </c>
+      <c r="R78">
+        <v>0.91711461765215874</v>
+      </c>
+      <c r="S78">
+        <v>0.88913935610658323</v>
+      </c>
+      <c r="T78">
+        <v>0.91556341739152636</v>
+      </c>
+      <c r="U78">
+        <v>0.90218624426321981</v>
+      </c>
+      <c r="V78">
+        <v>0.91672584775055033</v>
+      </c>
+      <c r="W78">
+        <v>0.942110199083116</v>
+      </c>
+      <c r="X78">
+        <v>0.94612082701666678</v>
+      </c>
+      <c r="Y78">
+        <v>0.9382181082323805</v>
+      </c>
+      <c r="Z78">
+        <v>0.93680249206717758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>1.3728687025740881E-2</v>
+      </c>
+      <c r="E79">
+        <v>8.9246408872480296E-3</v>
+      </c>
+      <c r="F79">
+        <v>1.4064542368890371E-2</v>
+      </c>
+      <c r="G79">
+        <v>1.3440969291696423E-2</v>
+      </c>
+      <c r="H79">
+        <v>1.4367639360976603E-2</v>
+      </c>
+      <c r="I79">
+        <v>1.06544901065449E-2</v>
+      </c>
+      <c r="J79">
+        <v>6.8721033906174785E-3</v>
+      </c>
+      <c r="K79">
+        <v>1.3383397499030053E-2</v>
+      </c>
+      <c r="L79">
+        <v>6.8134032678754683E-3</v>
+      </c>
+      <c r="M79">
+        <v>8.974387151398696E-3</v>
+      </c>
+      <c r="N79">
+        <v>1.0171012962918537E-2</v>
+      </c>
+      <c r="O79">
+        <v>4.0275281549390085E-3</v>
+      </c>
+      <c r="P79">
+        <v>5.4770281784942507E-3</v>
+      </c>
+      <c r="Q79">
+        <v>5.9193423561722108E-3</v>
+      </c>
+      <c r="R79">
+        <v>5.7979529360833674E-3</v>
+      </c>
+      <c r="S79">
+        <v>5.9440758150922698E-3</v>
+      </c>
+      <c r="T79">
+        <v>1.0672682178439969E-2</v>
+      </c>
+      <c r="U79">
+        <v>1.3166338195431674E-2</v>
+      </c>
+      <c r="V79">
+        <v>1.0273264456408587E-2</v>
+      </c>
+      <c r="W79">
+        <v>1.1459284473580975E-2</v>
+      </c>
+      <c r="X79">
+        <v>1.0273784895450284E-2</v>
+      </c>
+      <c r="Y79">
+        <v>1.1799059936493149E-2</v>
+      </c>
+      <c r="Z79">
+        <v>1.5180712412366853E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="L80">
+        <v>0.1906392694063927</v>
+      </c>
+      <c r="M80">
+        <v>0.18647260273972602</v>
+      </c>
+      <c r="N80">
+        <v>6.7876712328767116E-2</v>
+      </c>
+      <c r="O80">
+        <v>7.476575935480044E-2</v>
+      </c>
+      <c r="P80">
+        <v>9.6412405035707568E-2</v>
+      </c>
+      <c r="Q80">
+        <v>0.15293804193529958</v>
+      </c>
+      <c r="R80">
+        <v>0.13941040865139273</v>
+      </c>
+      <c r="S80">
+        <v>0.1534278778672068</v>
+      </c>
+      <c r="T80">
+        <v>0.15383140488540142</v>
+      </c>
+      <c r="U80">
+        <v>0.15538589047072227</v>
+      </c>
+      <c r="V80">
+        <v>0.14838111835914639</v>
+      </c>
+      <c r="W80">
+        <v>0.15491400651998427</v>
+      </c>
+      <c r="X80">
+        <v>0.15239085998651261</v>
+      </c>
+      <c r="Y80">
+        <v>0.13133926069138591</v>
+      </c>
+      <c r="Z80">
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81">
         <v>0.11415525114155251</v>
       </c>
-      <c r="I59">
+      <c r="I81">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="J59">
+      <c r="J81">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="K59">
+      <c r="K81">
         <v>0.17808980213089803</v>
       </c>
-      <c r="L59">
+      <c r="L81">
         <v>0.12192381639029079</v>
       </c>
-      <c r="M59">
+      <c r="M81">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="N59">
+      <c r="N81">
         <v>0.15938903548169775</v>
       </c>
-      <c r="O59">
+      <c r="O81">
         <v>0.18169781142649755</v>
       </c>
-      <c r="P59">
+      <c r="P81">
         <v>0.2058669391554197</v>
       </c>
-      <c r="Q59">
+      <c r="Q81">
         <v>0.22956604290766625</v>
       </c>
-      <c r="R59">
+      <c r="R81">
         <v>0.2172995015710637</v>
       </c>
-      <c r="S59">
+      <c r="S81">
         <v>0.23704950320418605</v>
       </c>
-      <c r="T59">
+      <c r="T81">
         <v>0.23271503321770831</v>
       </c>
-      <c r="U59">
+      <c r="U81">
         <v>0.24584659524473154</v>
       </c>
-      <c r="V59">
+      <c r="V81">
         <v>0.21529025081619735</v>
       </c>
-      <c r="W59">
+      <c r="W81">
         <v>0.21381996798613462</v>
       </c>
-      <c r="X59">
+      <c r="X81">
         <v>0.23992922634315969</v>
       </c>
-      <c r="Y59">
+      <c r="Y81">
         <v>0.2323315222455867</v>
       </c>
-      <c r="Z59">
+      <c r="Z81">
         <v>0.24297964087912982</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084AEEE7-24EF-4FB0-A3B3-88130D991CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0BD70-0281-439A-9917-0887ED86DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>bioenergy</t>
   </si>
@@ -95,9 +95,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>iso_code</t>
-  </si>
-  <si>
     <t>model_fuel</t>
   </si>
   <si>
@@ -198,12 +195,6 @@
   </si>
   <si>
     <t>IRENA Utilization Factors</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>IRENA</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -859,36 +850,36 @@
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R3">
         <v>2050</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T3">
         <v>2050</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -905,20 +896,20 @@
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="e">
         <f>VLOOKUP(B5,historical_data!$B$2:$J$12,MATCH(Veda!$J5,historical_data!$B$1:$I$1,0),FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
         <v>2</v>
@@ -938,50 +929,50 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="e">
         <f>VLOOKUP(B6,historical_data!$B$2:$J$12,MATCH(Veda!$J6,historical_data!$B$1:$I$1,0),FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="e">
         <f>VLOOKUP(B7,historical_data!$B$2:$J$12,MATCH(Veda!$J7,historical_data!$B$1:$I$1,0),FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Y7">
         <v>2022</v>
@@ -990,55 +981,55 @@
         <v>2050</v>
       </c>
       <c r="AA7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AB7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AE7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AH7">
         <v>2050</v>
       </c>
       <c r="AI7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AJ7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="e">
         <f>VLOOKUP(B8,historical_data!$B$2:$J$12,MATCH(Veda!$J8,historical_data!$B$1:$I$1,0),FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1055,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AE8" t="s">
         <v>1</v>
@@ -1076,13 +1067,13 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="U9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1102,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AE9" t="s">
         <v>2</v>
@@ -1125,23 +1116,23 @@
     <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2100</v>
@@ -1151,63 +1142,63 @@
         <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <f>G22*3.6</f>
@@ -1217,18 +1208,18 @@
         <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E24" si="0">G23*3.6</f>
@@ -1238,18 +1229,18 @@
         <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -1259,22 +1250,22 @@
         <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1305,90 +1296,90 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>80</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>81</v>
-      </c>
-      <c r="X1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -1465,10 +1456,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>5.6</v>
@@ -1545,10 +1536,10 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1625,12 +1616,12 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -1938,7 +1929,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0.29434148088459128</v>
@@ -2015,7 +2006,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0.58791571267802401</v>
@@ -2169,7 +2160,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>3.8051750380517509E-2</v>
@@ -2216,7 +2207,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2278,12 +2269,12 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>2000</v>
@@ -2591,7 +2582,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>1.02</v>
@@ -2668,7 +2659,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>3.53</v>
@@ -2822,7 +2813,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2899,7 +2890,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2976,12 +2967,12 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>2000</v>
@@ -3289,7 +3280,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
         <v>2.63</v>
@@ -3366,7 +3357,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
         <v>18.18</v>
@@ -3520,7 +3511,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3597,7 +3588,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3674,12 +3665,12 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>2000</v>
@@ -3803,7 +3794,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>0.17918731176527739</v>
@@ -3877,7 +3868,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>0.58751816400088952</v>
@@ -4025,7 +4016,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I48">
         <v>0.22831050228310501</v>
@@ -4078,7 +4069,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>0.11415525114155251</v>
@@ -4140,12 +4131,12 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>2000</v>
@@ -4305,7 +4296,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>1.88</v>
@@ -4385,7 +4376,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>3.532</v>
@@ -4545,7 +4536,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58">
         <v>2.9999999999999997E-5</v>
@@ -4604,7 +4595,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>1E-3</v>
@@ -4672,12 +4663,12 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>2000</v>
@@ -4799,7 +4790,7 @@
         <v>2.2435940000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -4873,7 +4864,7 @@
         <v>21.785509999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4947,9 +4938,9 @@
         <v>2.0534110000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>2.9509999999999996</v>
@@ -5021,9 +5012,9 @@
         <v>3.833256</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>18.178000000000001</v>
@@ -5095,7 +5086,7 @@
         <v>16.462018</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -5169,9 +5160,9 @@
         <v>0.52855200000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I70">
         <v>5.9999999999999995E-5</v>
@@ -5222,9 +5213,9 @@
         <v>2.0938380000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71">
         <v>1E-3</v>
@@ -5282,514 +5273,6 @@
       </c>
       <c r="X71">
         <v>1.499125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75">
-        <v>2000</v>
-      </c>
-      <c r="E75">
-        <v>2001</v>
-      </c>
-      <c r="F75">
-        <v>2002</v>
-      </c>
-      <c r="G75">
-        <v>2003</v>
-      </c>
-      <c r="H75">
-        <v>2004</v>
-      </c>
-      <c r="I75">
-        <v>2005</v>
-      </c>
-      <c r="J75">
-        <v>2006</v>
-      </c>
-      <c r="K75">
-        <v>2007</v>
-      </c>
-      <c r="L75">
-        <v>2008</v>
-      </c>
-      <c r="M75">
-        <v>2009</v>
-      </c>
-      <c r="N75">
-        <v>2010</v>
-      </c>
-      <c r="O75">
-        <v>2011</v>
-      </c>
-      <c r="P75">
-        <v>2012</v>
-      </c>
-      <c r="Q75">
-        <v>2013</v>
-      </c>
-      <c r="R75">
-        <v>2014</v>
-      </c>
-      <c r="S75">
-        <v>2015</v>
-      </c>
-      <c r="T75">
-        <v>2016</v>
-      </c>
-      <c r="U75">
-        <v>2017</v>
-      </c>
-      <c r="V75">
-        <v>2018</v>
-      </c>
-      <c r="W75">
-        <v>2019</v>
-      </c>
-      <c r="X75">
-        <v>2020</v>
-      </c>
-      <c r="Y75">
-        <v>2021</v>
-      </c>
-      <c r="Z75">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0.30441400304414001</v>
-      </c>
-      <c r="M76">
-        <v>0.10147133434804669</v>
-      </c>
-      <c r="N76">
-        <v>0.40447488584474894</v>
-      </c>
-      <c r="O76">
-        <v>0.5811540058115402</v>
-      </c>
-      <c r="P76">
-        <v>0.53816046966731901</v>
-      </c>
-      <c r="Q76">
-        <v>0.37067553048616708</v>
-      </c>
-      <c r="R76">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="S76">
-        <v>0.57500422797226458</v>
-      </c>
-      <c r="T76">
-        <v>0.70696146759593048</v>
-      </c>
-      <c r="U76">
-        <v>0.86924428402751963</v>
-      </c>
-      <c r="V76">
-        <v>2.5863099724480505</v>
-      </c>
-      <c r="W76">
-        <v>3.6549813955986812</v>
-      </c>
-      <c r="X76">
-        <v>4.036889720525596</v>
-      </c>
-      <c r="Y76">
-        <v>6.2453375126974553</v>
-      </c>
-      <c r="Z76">
-        <v>3.2548137163984849</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>0.17918731176527739</v>
-      </c>
-      <c r="E77">
-        <v>0.14535545467936098</v>
-      </c>
-      <c r="F77">
-        <v>0.15845780240593327</v>
-      </c>
-      <c r="G77">
-        <v>0.1498316039834055</v>
-      </c>
-      <c r="H77">
-        <v>0.1347902156764661</v>
-      </c>
-      <c r="I77">
-        <v>0.18958653994151151</v>
-      </c>
-      <c r="J77">
-        <v>0.18353719344825822</v>
-      </c>
-      <c r="K77">
-        <v>0.12836507928947488</v>
-      </c>
-      <c r="L77">
-        <v>0.12535509016122517</v>
-      </c>
-      <c r="M77">
-        <v>0.15416139825537606</v>
-      </c>
-      <c r="N77">
-        <v>0.21319901365069094</v>
-      </c>
-      <c r="O77">
-        <v>0.13556538436675425</v>
-      </c>
-      <c r="P77">
-        <v>0.1426745416205524</v>
-      </c>
-      <c r="Q77">
-        <v>0.17089921406444017</v>
-      </c>
-      <c r="R77">
-        <v>0.18308207829936693</v>
-      </c>
-      <c r="S77">
-        <v>0.21797454043557021</v>
-      </c>
-      <c r="T77">
-        <v>0.16178813238750592</v>
-      </c>
-      <c r="U77">
-        <v>0.11826549026371555</v>
-      </c>
-      <c r="V77">
-        <v>0.18320015783762453</v>
-      </c>
-      <c r="W77">
-        <v>0.11430375923833559</v>
-      </c>
-      <c r="X77">
-        <v>0.11225524213694742</v>
-      </c>
-      <c r="Y77">
-        <v>0.1716829439171017</v>
-      </c>
-      <c r="Z77">
-        <v>0.13069358514235713</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>40</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78">
-        <v>0.58751816400088952</v>
-      </c>
-      <c r="E78">
-        <v>0.63195855763612019</v>
-      </c>
-      <c r="F78">
-        <v>0.84807034848805107</v>
-      </c>
-      <c r="G78">
-        <v>0.72468873612271401</v>
-      </c>
-      <c r="H78">
-        <v>0.70518756353607848</v>
-      </c>
-      <c r="I78">
-        <v>0.78226961776024206</v>
-      </c>
-      <c r="J78">
-        <v>0.81749754243287398</v>
-      </c>
-      <c r="K78">
-        <v>0.88349648121868596</v>
-      </c>
-      <c r="L78">
-        <v>0.95119319991890894</v>
-      </c>
-      <c r="M78">
-        <v>0.92048229990249752</v>
-      </c>
-      <c r="N78">
-        <v>0.92005994960757642</v>
-      </c>
-      <c r="O78">
-        <v>0.98431753019201262</v>
-      </c>
-      <c r="P78">
-        <v>0.94540432280661413</v>
-      </c>
-      <c r="Q78">
-        <v>0.81619276686525755</v>
-      </c>
-      <c r="R78">
-        <v>0.91711461765215874</v>
-      </c>
-      <c r="S78">
-        <v>0.88913935610658323</v>
-      </c>
-      <c r="T78">
-        <v>0.91556341739152636</v>
-      </c>
-      <c r="U78">
-        <v>0.90218624426321981</v>
-      </c>
-      <c r="V78">
-        <v>0.91672584775055033</v>
-      </c>
-      <c r="W78">
-        <v>0.942110199083116</v>
-      </c>
-      <c r="X78">
-        <v>0.94612082701666678</v>
-      </c>
-      <c r="Y78">
-        <v>0.9382181082323805</v>
-      </c>
-      <c r="Z78">
-        <v>0.93680249206717758</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>1.3728687025740881E-2</v>
-      </c>
-      <c r="E79">
-        <v>8.9246408872480296E-3</v>
-      </c>
-      <c r="F79">
-        <v>1.4064542368890371E-2</v>
-      </c>
-      <c r="G79">
-        <v>1.3440969291696423E-2</v>
-      </c>
-      <c r="H79">
-        <v>1.4367639360976603E-2</v>
-      </c>
-      <c r="I79">
-        <v>1.06544901065449E-2</v>
-      </c>
-      <c r="J79">
-        <v>6.8721033906174785E-3</v>
-      </c>
-      <c r="K79">
-        <v>1.3383397499030053E-2</v>
-      </c>
-      <c r="L79">
-        <v>6.8134032678754683E-3</v>
-      </c>
-      <c r="M79">
-        <v>8.974387151398696E-3</v>
-      </c>
-      <c r="N79">
-        <v>1.0171012962918537E-2</v>
-      </c>
-      <c r="O79">
-        <v>4.0275281549390085E-3</v>
-      </c>
-      <c r="P79">
-        <v>5.4770281784942507E-3</v>
-      </c>
-      <c r="Q79">
-        <v>5.9193423561722108E-3</v>
-      </c>
-      <c r="R79">
-        <v>5.7979529360833674E-3</v>
-      </c>
-      <c r="S79">
-        <v>5.9440758150922698E-3</v>
-      </c>
-      <c r="T79">
-        <v>1.0672682178439969E-2</v>
-      </c>
-      <c r="U79">
-        <v>1.3166338195431674E-2</v>
-      </c>
-      <c r="V79">
-        <v>1.0273264456408587E-2</v>
-      </c>
-      <c r="W79">
-        <v>1.1459284473580975E-2</v>
-      </c>
-      <c r="X79">
-        <v>1.0273784895450284E-2</v>
-      </c>
-      <c r="Y79">
-        <v>1.1799059936493149E-2</v>
-      </c>
-      <c r="Z79">
-        <v>1.5180712412366853E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80">
-        <v>0.22831050228310501</v>
-      </c>
-      <c r="L80">
-        <v>0.1906392694063927</v>
-      </c>
-      <c r="M80">
-        <v>0.18647260273972602</v>
-      </c>
-      <c r="N80">
-        <v>6.7876712328767116E-2</v>
-      </c>
-      <c r="O80">
-        <v>7.476575935480044E-2</v>
-      </c>
-      <c r="P80">
-        <v>9.6412405035707568E-2</v>
-      </c>
-      <c r="Q80">
-        <v>0.15293804193529958</v>
-      </c>
-      <c r="R80">
-        <v>0.13941040865139273</v>
-      </c>
-      <c r="S80">
-        <v>0.1534278778672068</v>
-      </c>
-      <c r="T80">
-        <v>0.15383140488540142</v>
-      </c>
-      <c r="U80">
-        <v>0.15538589047072227</v>
-      </c>
-      <c r="V80">
-        <v>0.14838111835914639</v>
-      </c>
-      <c r="W80">
-        <v>0.15491400651998427</v>
-      </c>
-      <c r="X80">
-        <v>0.15239085998651261</v>
-      </c>
-      <c r="Y80">
-        <v>0.13133926069138591</v>
-      </c>
-      <c r="Z80">
-        <v>0.13764325363624622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81">
-        <v>0.11415525114155251</v>
-      </c>
-      <c r="I81">
-        <v>6.5453767123287668E-2</v>
-      </c>
-      <c r="J81">
-        <v>8.4758159986470502E-2</v>
-      </c>
-      <c r="K81">
-        <v>0.17808980213089803</v>
-      </c>
-      <c r="L81">
-        <v>0.12192381639029079</v>
-      </c>
-      <c r="M81">
-        <v>8.1248714467892558E-2</v>
-      </c>
-      <c r="N81">
-        <v>0.15938903548169775</v>
-      </c>
-      <c r="O81">
-        <v>0.18169781142649755</v>
-      </c>
-      <c r="P81">
-        <v>0.2058669391554197</v>
-      </c>
-      <c r="Q81">
-        <v>0.22956604290766625</v>
-      </c>
-      <c r="R81">
-        <v>0.2172995015710637</v>
-      </c>
-      <c r="S81">
-        <v>0.23704950320418605</v>
-      </c>
-      <c r="T81">
-        <v>0.23271503321770831</v>
-      </c>
-      <c r="U81">
-        <v>0.24584659524473154</v>
-      </c>
-      <c r="V81">
-        <v>0.21529025081619735</v>
-      </c>
-      <c r="W81">
-        <v>0.21381996798613462</v>
-      </c>
-      <c r="X81">
-        <v>0.23992922634315969</v>
-      </c>
-      <c r="Y81">
-        <v>0.2323315222455867</v>
-      </c>
-      <c r="Z81">
-        <v>0.24297964087912982</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D0BD70-0281-439A-9917-0887ED86DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFCA902-EA6E-4781-8215-78191B091867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="88">
   <si>
     <t>bioenergy</t>
   </si>
@@ -95,9 +95,24 @@
     <t>oil</t>
   </si>
   <si>
+    <t>iso_code</t>
+  </si>
+  <si>
     <t>model_fuel</t>
   </si>
   <si>
+    <t>generation_twh_gem_irena</t>
+  </si>
+  <si>
+    <t>generation_twh_gem_ember</t>
+  </si>
+  <si>
+    <t>generation_twh_irena</t>
+  </si>
+  <si>
+    <t>generation_twh_ember</t>
+  </si>
+  <si>
     <t>utilization_factor_irena</t>
   </si>
   <si>
@@ -251,106 +266,85 @@
     <t>-CO2Captured</t>
   </si>
   <si>
+    <t>Unnamed: 8</t>
+  </si>
+  <si>
+    <t>Unnamed: 9</t>
+  </si>
+  <si>
+    <t>Unnamed: 10</t>
+  </si>
+  <si>
+    <t>Unnamed: 11</t>
+  </si>
+  <si>
+    <t>Unnamed: 12</t>
+  </si>
+  <si>
+    <t>Unnamed: 13</t>
+  </si>
+  <si>
+    <t>Unnamed: 14</t>
+  </si>
+  <si>
+    <t>Unnamed: 15</t>
+  </si>
+  <si>
+    <t>Unnamed: 16</t>
+  </si>
+  <si>
+    <t>Unnamed: 17</t>
+  </si>
+  <si>
+    <t>Unnamed: 18</t>
+  </si>
+  <si>
+    <t>Unnamed: 19</t>
+  </si>
+  <si>
+    <t>Unnamed: 20</t>
+  </si>
+  <si>
+    <t>Unnamed: 21</t>
+  </si>
+  <si>
+    <t>Unnamed: 22</t>
+  </si>
+  <si>
+    <t>Unnamed: 23</t>
+  </si>
+  <si>
+    <t>Unnamed: 24</t>
+  </si>
+  <si>
+    <t>Unnamed: 25</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
     <t>Electricity Trade Data (TWh) - Source: UNSD</t>
   </si>
   <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Unnamed: 2</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>Unnamed: 4</t>
-  </si>
-  <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
-    <t>Unnamed: 6</t>
-  </si>
-  <si>
-    <t>Unnamed: 7</t>
-  </si>
-  <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
-    <t>Unnamed: 9</t>
-  </si>
-  <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
-    <t>Unnamed: 12</t>
-  </si>
-  <si>
-    <t>Unnamed: 13</t>
-  </si>
-  <si>
-    <t>Unnamed: 14</t>
-  </si>
-  <si>
-    <t>Unnamed: 15</t>
-  </si>
-  <si>
-    <t>Unnamed: 16</t>
-  </si>
-  <si>
-    <t>Unnamed: 17</t>
-  </si>
-  <si>
-    <t>Unnamed: 18</t>
-  </si>
-  <si>
-    <t>Unnamed: 19</t>
-  </si>
-  <si>
-    <t>Unnamed: 20</t>
-  </si>
-  <si>
-    <t>Unnamed: 21</t>
-  </si>
-  <si>
-    <t>Unnamed: 22</t>
-  </si>
-  <si>
-    <t>Unnamed: 23</t>
-  </si>
-  <si>
-    <t>Unnamed: 24</t>
-  </si>
-  <si>
-    <t>Unnamed: 25</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
-    <t>BGR</t>
-  </si>
-  <si>
     <t>Export</t>
   </si>
   <si>
     <t>Import</t>
-  </si>
-  <si>
-    <t>EMBER Capacity (GW)</t>
-  </si>
-  <si>
-    <t>EMBER Generation (TWh)</t>
-  </si>
-  <si>
-    <t>IRENA Capacity (GW)</t>
-  </si>
-  <si>
-    <t>IRENA Generation (TWh)</t>
   </si>
 </sst>
 </file>
@@ -850,36 +844,36 @@
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R3">
         <v>2050</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="T3">
         <v>2050</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -896,20 +890,20 @@
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="e">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <f>VLOOKUP(B5,historical_data!$B$2:$J$12,MATCH(Veda!$J5,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>#N/A</v>
+        <v>0.13</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
         <v>2</v>
@@ -929,50 +923,50 @@
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="e">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <f>VLOOKUP(B6,historical_data!$B$2:$J$12,MATCH(Veda!$J6,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>#N/A</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(B7,historical_data!$B$2:$J$12,MATCH(Veda!$J7,historical_data!$B$1:$I$1,0),FALSE)</f>
+        <v>0.24</v>
+      </c>
+      <c r="J7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="e">
-        <f>VLOOKUP(B7,historical_data!$B$2:$J$12,MATCH(Veda!$J7,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Y7">
         <v>2022</v>
@@ -981,55 +975,55 @@
         <v>2050</v>
       </c>
       <c r="AA7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AB7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AG7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AH7">
         <v>2050</v>
       </c>
       <c r="AI7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AJ7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="e">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <f>VLOOKUP(B8,historical_data!$B$2:$J$12,MATCH(Veda!$J8,historical_data!$B$1:$I$1,0),FALSE)</f>
-        <v>#N/A</v>
+        <v>0.93</v>
       </c>
       <c r="J8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1046,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AE8" t="s">
         <v>1</v>
@@ -1067,13 +1061,13 @@
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.45">
       <c r="U9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="V9" t="s">
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -1093,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="AD9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AE9" t="s">
         <v>2</v>
@@ -1116,23 +1110,23 @@
     <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2100</v>
@@ -1142,63 +1136,63 @@
         <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <f>G22*3.6</f>
@@ -1208,18 +1202,18 @@
         <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:E24" si="0">G23*3.6</f>
@@ -1229,18 +1223,18 @@
         <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
@@ -1250,22 +1244,22 @@
         <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L25" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -1296,2222 +1290,1811 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>69</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>74</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>75</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>76</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>77</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>78</v>
-      </c>
-      <c r="X1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>2001</v>
-      </c>
-      <c r="E2">
-        <v>2002</v>
+        <v>21.8</v>
       </c>
       <c r="F2">
-        <v>2003</v>
-      </c>
-      <c r="G2">
-        <v>2004</v>
+        <v>21.8</v>
       </c>
       <c r="H2">
-        <v>2005</v>
-      </c>
-      <c r="I2">
-        <v>2006</v>
-      </c>
-      <c r="J2">
-        <v>2007</v>
-      </c>
-      <c r="K2">
-        <v>2008</v>
-      </c>
-      <c r="L2">
-        <v>2009</v>
-      </c>
-      <c r="M2">
-        <v>2010</v>
-      </c>
-      <c r="N2">
-        <v>2011</v>
-      </c>
-      <c r="O2">
-        <v>2012</v>
-      </c>
-      <c r="P2">
-        <v>2013</v>
-      </c>
-      <c r="Q2">
-        <v>2014</v>
-      </c>
-      <c r="R2">
-        <v>2015</v>
-      </c>
-      <c r="S2">
-        <v>2016</v>
-      </c>
-      <c r="T2">
-        <v>2017</v>
-      </c>
-      <c r="U2">
-        <v>2018</v>
-      </c>
-      <c r="V2">
-        <v>2019</v>
-      </c>
-      <c r="W2">
-        <v>2020</v>
-      </c>
-      <c r="X2">
-        <v>2021</v>
-      </c>
-      <c r="Y2">
-        <v>2022</v>
-      </c>
-      <c r="Z2">
-        <v>2023</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>8.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>6.8</v>
-      </c>
-      <c r="G3">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="H3">
-        <v>8.4</v>
-      </c>
-      <c r="I3">
-        <v>8.9</v>
-      </c>
-      <c r="J3">
-        <v>7.5</v>
-      </c>
-      <c r="K3">
-        <v>8.4</v>
-      </c>
-      <c r="L3">
-        <v>7.7</v>
-      </c>
-      <c r="M3">
-        <v>9.6</v>
-      </c>
-      <c r="N3">
-        <v>12.1</v>
-      </c>
-      <c r="O3">
-        <v>10.7</v>
-      </c>
-      <c r="P3">
-        <v>9.5</v>
-      </c>
-      <c r="Q3">
-        <v>13.8</v>
-      </c>
-      <c r="R3">
-        <v>14.8</v>
-      </c>
-      <c r="S3">
-        <v>10.9</v>
-      </c>
-      <c r="T3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="U3">
-        <v>10</v>
-      </c>
-      <c r="V3">
-        <v>8.9</v>
-      </c>
-      <c r="W3">
-        <v>7.1</v>
-      </c>
-      <c r="X3">
-        <v>10.6</v>
-      </c>
-      <c r="Y3">
-        <v>13.7</v>
-      </c>
-      <c r="Z3">
-        <v>7.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="F4">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0.13</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
-      </c>
-      <c r="I4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J4">
-        <v>3.1</v>
-      </c>
-      <c r="K4">
-        <v>3.1</v>
-      </c>
-      <c r="L4">
-        <v>2.7</v>
-      </c>
-      <c r="M4">
-        <v>1.2</v>
-      </c>
-      <c r="N4">
-        <v>1.4</v>
-      </c>
-      <c r="O4">
-        <v>2.4</v>
-      </c>
-      <c r="P4">
-        <v>3.4</v>
-      </c>
-      <c r="Q4">
-        <v>4.3</v>
-      </c>
-      <c r="R4">
-        <v>4.3</v>
-      </c>
-      <c r="S4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T4">
-        <v>3.7</v>
-      </c>
-      <c r="U4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>3.7</v>
-      </c>
-      <c r="X4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>16.5</v>
+      </c>
+      <c r="F5">
+        <v>16.5</v>
+      </c>
+      <c r="G5">
+        <v>0.94</v>
+      </c>
+      <c r="H5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>1.9</v>
       </c>
-      <c r="Y4">
-        <v>1.5</v>
-      </c>
-      <c r="Z4">
-        <v>4.4000000000000004</v>
+      <c r="D6">
+        <v>1.9</v>
+      </c>
+      <c r="E6">
+        <v>2.1</v>
+      </c>
+      <c r="F6">
+        <v>2.1</v>
+      </c>
+      <c r="G6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8">
-        <v>2001</v>
-      </c>
-      <c r="D8">
-        <v>2002</v>
-      </c>
-      <c r="E8">
-        <v>2003</v>
-      </c>
-      <c r="F8">
-        <v>2004</v>
-      </c>
-      <c r="G8">
-        <v>2005</v>
-      </c>
-      <c r="H8">
-        <v>2006</v>
-      </c>
-      <c r="I8">
-        <v>2007</v>
-      </c>
-      <c r="J8">
-        <v>2008</v>
-      </c>
-      <c r="K8">
-        <v>2009</v>
-      </c>
-      <c r="L8">
-        <v>2010</v>
-      </c>
-      <c r="M8">
-        <v>2011</v>
-      </c>
-      <c r="N8">
-        <v>2012</v>
-      </c>
-      <c r="O8">
-        <v>2013</v>
-      </c>
-      <c r="P8">
-        <v>2014</v>
-      </c>
-      <c r="Q8">
-        <v>2015</v>
-      </c>
-      <c r="R8">
-        <v>2016</v>
-      </c>
-      <c r="S8">
-        <v>2017</v>
-      </c>
-      <c r="T8">
-        <v>2018</v>
-      </c>
-      <c r="U8">
-        <v>2019</v>
-      </c>
-      <c r="V8">
-        <v>2020</v>
-      </c>
-      <c r="W8">
-        <v>2021</v>
-      </c>
-      <c r="X8">
-        <v>2022</v>
-      </c>
-      <c r="Y8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.22831050228310504</v>
-      </c>
-      <c r="K9">
-        <v>0.11415525114155252</v>
-      </c>
-      <c r="L9">
-        <v>0.45662100456621008</v>
-      </c>
-      <c r="M9">
-        <v>0.68493150684931503</v>
-      </c>
-      <c r="N9">
-        <v>0.7990867579908677</v>
-      </c>
-      <c r="O9">
-        <v>0.41856925418569257</v>
-      </c>
-      <c r="P9">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q9">
-        <v>0.61643835616438358</v>
-      </c>
-      <c r="R9">
-        <v>0.66590563165905636</v>
-      </c>
-      <c r="S9">
-        <v>0.91324200913242015</v>
-      </c>
-      <c r="T9">
-        <v>2.5603392041748205</v>
-      </c>
-      <c r="U9">
-        <v>3.4627092846270933</v>
-      </c>
-      <c r="V9">
-        <v>3.8812785388127851</v>
-      </c>
-      <c r="W9">
-        <v>5.9132420091324196</v>
-      </c>
-      <c r="X9">
-        <v>5.1141552511415531</v>
-      </c>
-      <c r="Y9">
-        <v>4.9771689497716896</v>
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7">
+        <v>1.3</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>1.4</v>
+      </c>
+      <c r="G7">
+        <v>0.24</v>
+      </c>
+      <c r="H7">
+        <v>0.23</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0.34409073920603195</v>
-      </c>
-      <c r="C10">
-        <v>0.39609028421001313</v>
-      </c>
-      <c r="D10">
-        <v>0.34896569655015519</v>
-      </c>
-      <c r="E10">
-        <v>0.3908090804205463</v>
-      </c>
-      <c r="F10">
-        <v>0.3922789539227895</v>
-      </c>
-      <c r="G10">
-        <v>0.38314653383146535</v>
-      </c>
-      <c r="H10">
-        <v>0.396222498962225</v>
-      </c>
-      <c r="I10">
-        <v>0.46430053964300544</v>
-      </c>
-      <c r="J10">
-        <v>0.48111249481112495</v>
-      </c>
-      <c r="K10">
-        <v>0.42782873873654675</v>
-      </c>
-      <c r="L10">
-        <v>0.45844586648499153</v>
-      </c>
-      <c r="M10">
-        <v>0.49726171897578175</v>
-      </c>
-      <c r="N10">
-        <v>0.41309028379862439</v>
-      </c>
-      <c r="O10">
-        <v>0.36227010141320837</v>
-      </c>
-      <c r="P10">
-        <v>0.41231328844516674</v>
-      </c>
-      <c r="Q10">
-        <v>0.50828415182197206</v>
-      </c>
-      <c r="R10">
-        <v>0.4369935206742831</v>
-      </c>
-      <c r="S10">
-        <v>0.46734400271649285</v>
-      </c>
-      <c r="T10">
-        <v>0.41685655309224456</v>
-      </c>
-      <c r="U10">
-        <v>0.38424076705180099</v>
-      </c>
-      <c r="V10">
-        <v>0.30180771877150181</v>
-      </c>
-      <c r="W10">
-        <v>0.38178341330902782</v>
-      </c>
-      <c r="X10">
-        <v>0.48677943686388042</v>
-      </c>
-      <c r="Y10">
-        <v>0.25824553878597789</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>0.19642930601834707</v>
+        <v>2000</v>
       </c>
       <c r="C11">
-        <v>0.19642930601834707</v>
+        <v>2001</v>
       </c>
       <c r="D11">
-        <v>0.1583775556378296</v>
+        <v>2002</v>
       </c>
       <c r="E11">
-        <v>0.18100292072894811</v>
+        <v>2003</v>
       </c>
       <c r="F11">
-        <v>0.15323542720802993</v>
+        <v>2004</v>
       </c>
       <c r="G11">
-        <v>0.1779176436710683</v>
+        <v>2005</v>
       </c>
       <c r="H11">
-        <v>0.22213994816734542</v>
+        <v>2006</v>
       </c>
       <c r="I11">
-        <v>0.23228111971411552</v>
+        <v>2007</v>
       </c>
       <c r="J11">
-        <v>0.23426642842962081</v>
+        <v>2008</v>
       </c>
       <c r="K11">
-        <v>0.19456025411951558</v>
+        <v>2009</v>
       </c>
       <c r="L11">
-        <v>0.19555290847726822</v>
+        <v>2010</v>
       </c>
       <c r="M11">
-        <v>0.19786910197869106</v>
+        <v>2011</v>
       </c>
       <c r="N11">
-        <v>0.22450532724505329</v>
+        <v>2012</v>
       </c>
       <c r="O11">
-        <v>0.2226027397260274</v>
+        <v>2013</v>
       </c>
       <c r="P11">
-        <v>0.20357686453576868</v>
+        <v>2014</v>
       </c>
       <c r="Q11">
-        <v>0.17694063926940642</v>
+        <v>2015</v>
       </c>
       <c r="R11">
-        <v>0.1950152207001522</v>
+        <v>2016</v>
       </c>
       <c r="S11">
-        <v>0.18359969558599698</v>
+        <v>2017</v>
       </c>
       <c r="T11">
-        <v>0.19216133942161343</v>
+        <v>2018</v>
       </c>
       <c r="U11">
-        <v>0.20452815829528159</v>
+        <v>2019</v>
       </c>
       <c r="V11">
-        <v>0.21784627092846273</v>
+        <v>2020</v>
       </c>
       <c r="W11">
-        <v>0.29014459665144599</v>
+        <v>2021</v>
       </c>
       <c r="X11">
-        <v>0.1950152207001522</v>
+        <v>2022</v>
       </c>
       <c r="Y11">
-        <v>0.14840182648401828</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>0.29434148088459128</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.22423352902804958</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.22408253001860307</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.20686315206863154</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.18103408514367419</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.24791291914579586</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.2427240440939071</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.16072605011472321</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1502326182476092</v>
+        <v>0.22831050228310504</v>
       </c>
       <c r="K12">
-        <v>0.18296846327828276</v>
+        <v>0.11415525114155252</v>
       </c>
       <c r="L12">
-        <v>0.26339491433119683</v>
+        <v>0.45662100456621008</v>
       </c>
       <c r="M12">
-        <v>0.14626141552511415</v>
+        <v>0.68493150684931503</v>
       </c>
       <c r="N12">
-        <v>0.15647142182333496</v>
+        <v>0.7990867579908677</v>
       </c>
       <c r="O12">
-        <v>0.19708855325293684</v>
+        <v>0.41856925418569257</v>
       </c>
       <c r="P12">
-        <v>0.22250599798777185</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q12">
-        <v>0.27329541057193724</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="R12">
-        <v>0.18767897221577279</v>
+        <v>0.66590563165905636</v>
       </c>
       <c r="S12">
-        <v>0.12870890865760704</v>
+        <v>0.91324200913242015</v>
       </c>
       <c r="T12">
-        <v>0.23422292564900221</v>
+        <v>2.5603392041748205</v>
       </c>
       <c r="U12">
-        <v>0.13325692663137406</v>
+        <v>3.4627092846270933</v>
       </c>
       <c r="V12">
-        <v>0.12825410686023031</v>
+        <v>3.8812785388127851</v>
       </c>
       <c r="W12">
-        <v>0.21921446633557101</v>
+        <v>5.9132420091324196</v>
       </c>
       <c r="X12">
-        <v>0.17145847997545438</v>
+        <v>5.1141552511415531</v>
       </c>
       <c r="Y12">
-        <v>0.14032522966412186</v>
+        <v>4.9771689497716896</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0.58791571267802401</v>
+        <v>0.34409073920603195</v>
       </c>
       <c r="C13">
-        <v>0.632219592016247</v>
+        <v>0.39609028421001313</v>
       </c>
       <c r="D13">
-        <v>0.84860999194198217</v>
+        <v>0.34896569655015519</v>
       </c>
       <c r="E13">
-        <v>0.72522159548751008</v>
+        <v>0.3908090804205463</v>
       </c>
       <c r="F13">
-        <v>0.70591592801504166</v>
+        <v>0.3922789539227895</v>
       </c>
       <c r="G13">
-        <v>0.78271890948160072</v>
+        <v>0.38314653383146535</v>
       </c>
       <c r="H13">
-        <v>0.81797273704002138</v>
+        <v>0.396222498962225</v>
       </c>
       <c r="I13">
-        <v>0.88425019931869253</v>
+        <v>0.46430053964300544</v>
       </c>
       <c r="J13">
-        <v>0.95250175158850958</v>
+        <v>0.48111249481112495</v>
       </c>
       <c r="K13">
-        <v>0.92169795366142393</v>
+        <v>0.42782873873654675</v>
       </c>
       <c r="L13">
-        <v>0.92109395762363799</v>
+        <v>0.45844586648499153</v>
       </c>
       <c r="M13">
-        <v>0.98511753762895304</v>
+        <v>0.49726171897578175</v>
       </c>
       <c r="N13">
-        <v>0.94312558272968505</v>
+        <v>0.41309028379862439</v>
       </c>
       <c r="O13">
-        <v>0.81695954983626218</v>
+        <v>0.36227010141320837</v>
       </c>
       <c r="P13">
-        <v>0.91497163414971638</v>
+        <v>0.41231328844516674</v>
       </c>
       <c r="Q13">
-        <v>0.88672109220054429</v>
+        <v>0.50828415182197206</v>
       </c>
       <c r="R13">
-        <v>0.91440094569223274</v>
+        <v>0.4369935206742831</v>
       </c>
       <c r="S13">
-        <v>0.90107317525438657</v>
+        <v>0.46734400271649285</v>
       </c>
       <c r="T13">
-        <v>0.91608169199663791</v>
+        <v>0.41685655309224456</v>
       </c>
       <c r="U13">
-        <v>0.94050296462891025</v>
+        <v>0.38424076705180099</v>
       </c>
       <c r="V13">
-        <v>0.9444785206388151</v>
+        <v>0.30180771877150181</v>
       </c>
       <c r="W13">
-        <v>0.93652740861900541</v>
+        <v>0.38178341330902782</v>
       </c>
       <c r="X13">
-        <v>0.93482359890047495</v>
+        <v>0.48677943686388042</v>
       </c>
       <c r="Y13">
-        <v>0.91778550171516859</v>
+        <v>0.25824553878597789</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>65535</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="C14">
-        <v>65535</v>
+        <v>0.19642930601834707</v>
       </c>
       <c r="D14">
-        <v>65535</v>
+        <v>0.1583775556378296</v>
       </c>
       <c r="E14">
-        <v>65535</v>
+        <v>0.18100292072894811</v>
       </c>
       <c r="F14">
-        <v>65535</v>
+        <v>0.15323542720802993</v>
       </c>
       <c r="G14">
-        <v>65535</v>
+        <v>0.1779176436710683</v>
       </c>
       <c r="H14">
-        <v>65535</v>
+        <v>0.22213994816734542</v>
       </c>
       <c r="I14">
-        <v>65535</v>
+        <v>0.23228111971411552</v>
       </c>
       <c r="J14">
-        <v>65535</v>
+        <v>0.23426642842962081</v>
       </c>
       <c r="K14">
-        <v>65535</v>
+        <v>0.19456025411951558</v>
       </c>
       <c r="L14">
-        <v>65535</v>
+        <v>0.19555290847726822</v>
       </c>
       <c r="M14">
-        <v>65535</v>
+        <v>0.19786910197869106</v>
       </c>
       <c r="N14">
-        <v>65535</v>
+        <v>0.22450532724505329</v>
       </c>
       <c r="O14">
-        <v>65535</v>
+        <v>0.2226027397260274</v>
       </c>
       <c r="P14">
-        <v>65535</v>
+        <v>0.20357686453576868</v>
       </c>
       <c r="Q14">
-        <v>65535</v>
+        <v>0.17694063926940642</v>
       </c>
       <c r="R14">
-        <v>65535</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="S14">
-        <v>65535</v>
+        <v>0.18359969558599698</v>
       </c>
       <c r="T14">
-        <v>65535</v>
+        <v>0.19216133942161343</v>
       </c>
       <c r="U14">
-        <v>65535</v>
+        <v>0.20452815829528159</v>
       </c>
       <c r="V14">
-        <v>65535</v>
+        <v>0.21784627092846273</v>
       </c>
       <c r="W14">
-        <v>65535</v>
+        <v>0.29014459665144599</v>
       </c>
       <c r="X14">
-        <v>65535</v>
+        <v>0.1950152207001522</v>
       </c>
       <c r="Y14">
-        <v>65535</v>
+        <v>0.14840182648401828</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.29434148088459128</v>
+      </c>
+      <c r="C15">
+        <v>0.22423352902804958</v>
+      </c>
+      <c r="D15">
+        <v>0.22408253001860307</v>
+      </c>
+      <c r="E15">
+        <v>0.20686315206863154</v>
+      </c>
+      <c r="F15">
+        <v>0.18103408514367419</v>
+      </c>
+      <c r="G15">
+        <v>0.24791291914579586</v>
+      </c>
+      <c r="H15">
+        <v>0.2427240440939071</v>
+      </c>
+      <c r="I15">
+        <v>0.16072605011472321</v>
+      </c>
+      <c r="J15">
+        <v>0.1502326182476092</v>
+      </c>
+      <c r="K15">
+        <v>0.18296846327828276</v>
       </c>
       <c r="L15">
-        <v>3.8051750380517509E-2</v>
+        <v>0.26339491433119683</v>
       </c>
       <c r="M15">
-        <v>7.6103500761035017E-2</v>
+        <v>0.14626141552511415</v>
       </c>
       <c r="N15">
-        <v>9.6783799880881469E-2</v>
+        <v>0.15647142182333496</v>
       </c>
       <c r="O15">
-        <v>0.1525728837372673</v>
+        <v>0.19708855325293684</v>
       </c>
       <c r="P15">
-        <v>0.13964622955180209</v>
+        <v>0.22250599798777185</v>
       </c>
       <c r="Q15">
-        <v>0.15294587046149752</v>
+        <v>0.27329541057193724</v>
       </c>
       <c r="R15">
-        <v>0.1540541738706388</v>
+        <v>0.18767897221577279</v>
       </c>
       <c r="S15">
-        <v>0.15516247727978011</v>
+        <v>0.12870890865760704</v>
       </c>
       <c r="T15">
-        <v>0.14851265682493239</v>
+        <v>0.23422292564900221</v>
       </c>
       <c r="U15">
-        <v>0.15586582367404284</v>
+        <v>0.13325692663137406</v>
       </c>
       <c r="V15">
-        <v>0.15255292652552924</v>
+        <v>0.12825410686023031</v>
       </c>
       <c r="W15">
-        <v>0.13213245604573401</v>
+        <v>0.21921446633557101</v>
       </c>
       <c r="X15">
-        <v>0.13711751430220961</v>
+        <v>0.17145847997545438</v>
       </c>
       <c r="Y15">
-        <v>0.13667567483614451</v>
+        <v>0.14032522966412186</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.58791571267802401</v>
+      </c>
+      <c r="C16">
+        <v>0.632219592016247</v>
+      </c>
+      <c r="D16">
+        <v>0.84860999194198217</v>
+      </c>
+      <c r="E16">
+        <v>0.72522159548751008</v>
+      </c>
+      <c r="F16">
+        <v>0.70591592801504166</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.78271890948160072</v>
       </c>
       <c r="H16">
+        <v>0.81797273704002138</v>
+      </c>
+      <c r="I16">
+        <v>0.88425019931869253</v>
+      </c>
+      <c r="J16">
+        <v>0.95250175158850958</v>
+      </c>
+      <c r="K16">
+        <v>0.92169795366142393</v>
+      </c>
+      <c r="L16">
+        <v>0.92109395762363799</v>
+      </c>
+      <c r="M16">
+        <v>0.98511753762895304</v>
+      </c>
+      <c r="N16">
+        <v>0.94312558272968505</v>
+      </c>
+      <c r="O16">
+        <v>0.81695954983626218</v>
+      </c>
+      <c r="P16">
+        <v>0.91497163414971638</v>
+      </c>
+      <c r="Q16">
+        <v>0.88672109220054429</v>
+      </c>
+      <c r="R16">
+        <v>0.91440094569223274</v>
+      </c>
+      <c r="S16">
+        <v>0.90107317525438657</v>
+      </c>
+      <c r="T16">
+        <v>0.91608169199663791</v>
+      </c>
+      <c r="U16">
+        <v>0.94050296462891025</v>
+      </c>
+      <c r="V16">
+        <v>0.9444785206388151</v>
+      </c>
+      <c r="W16">
+        <v>0.93652740861900541</v>
+      </c>
+      <c r="X16">
+        <v>0.93482359890047495</v>
+      </c>
+      <c r="Y16">
+        <v>0.91778550171516859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>65535</v>
+      </c>
+      <c r="C17">
+        <v>65535</v>
+      </c>
+      <c r="D17">
+        <v>65535</v>
+      </c>
+      <c r="E17">
+        <v>65535</v>
+      </c>
+      <c r="F17">
+        <v>65535</v>
+      </c>
+      <c r="G17">
+        <v>65535</v>
+      </c>
+      <c r="H17">
+        <v>65535</v>
+      </c>
+      <c r="I17">
+        <v>65535</v>
+      </c>
+      <c r="J17">
+        <v>65535</v>
+      </c>
+      <c r="K17">
+        <v>65535</v>
+      </c>
+      <c r="L17">
+        <v>65535</v>
+      </c>
+      <c r="M17">
+        <v>65535</v>
+      </c>
+      <c r="N17">
+        <v>65535</v>
+      </c>
+      <c r="O17">
+        <v>65535</v>
+      </c>
+      <c r="P17">
+        <v>65535</v>
+      </c>
+      <c r="Q17">
+        <v>65535</v>
+      </c>
+      <c r="R17">
+        <v>65535</v>
+      </c>
+      <c r="S17">
+        <v>65535</v>
+      </c>
+      <c r="T17">
+        <v>65535</v>
+      </c>
+      <c r="U17">
+        <v>65535</v>
+      </c>
+      <c r="V17">
+        <v>65535</v>
+      </c>
+      <c r="W17">
+        <v>65535</v>
+      </c>
+      <c r="X17">
+        <v>65535</v>
+      </c>
+      <c r="Y17">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18">
+        <v>3.8051750380517509E-2</v>
+      </c>
+      <c r="M18">
         <v>7.6103500761035017E-2</v>
       </c>
-      <c r="I16">
-        <v>0.19025875190258754</v>
-      </c>
-      <c r="J16">
-        <v>0.12453300124533001</v>
-      </c>
-      <c r="K16">
-        <v>8.3022000830220002E-2</v>
-      </c>
-      <c r="L16">
-        <v>0.15841953219644023</v>
-      </c>
-      <c r="M16">
-        <v>0.18180280737358362</v>
-      </c>
-      <c r="N16">
-        <v>0.20480795057749127</v>
-      </c>
-      <c r="O16">
-        <v>0.22998925597636316</v>
-      </c>
-      <c r="P16">
-        <v>0.21689497716894979</v>
-      </c>
-      <c r="Q16">
-        <v>0.23646444879321593</v>
-      </c>
-      <c r="R16">
-        <v>0.23157208088714937</v>
-      </c>
-      <c r="S16">
-        <v>0.24461839530332682</v>
-      </c>
-      <c r="T16">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="U16">
-        <v>0.21526418786692761</v>
-      </c>
-      <c r="V16">
-        <v>0.24135681669928247</v>
-      </c>
-      <c r="W16">
-        <v>0.23320287018917157</v>
-      </c>
-      <c r="X16">
-        <v>0.23483365949119375</v>
-      </c>
-      <c r="Y16">
-        <v>0.25277234181343772</v>
+      <c r="N18">
+        <v>9.6783799880881469E-2</v>
+      </c>
+      <c r="O18">
+        <v>0.1525728837372673</v>
+      </c>
+      <c r="P18">
+        <v>0.13964622955180209</v>
+      </c>
+      <c r="Q18">
+        <v>0.15294587046149752</v>
+      </c>
+      <c r="R18">
+        <v>0.1540541738706388</v>
+      </c>
+      <c r="S18">
+        <v>0.15516247727978011</v>
+      </c>
+      <c r="T18">
+        <v>0.14851265682493239</v>
+      </c>
+      <c r="U18">
+        <v>0.15586582367404284</v>
+      </c>
+      <c r="V18">
+        <v>0.15255292652552924</v>
+      </c>
+      <c r="W18">
+        <v>0.13213245604573401</v>
+      </c>
+      <c r="X18">
+        <v>0.13711751430220961</v>
+      </c>
+      <c r="Y18">
+        <v>0.13667567483614451</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-      <c r="C20">
-        <v>2001</v>
-      </c>
-      <c r="D20">
-        <v>2002</v>
-      </c>
-      <c r="E20">
-        <v>2003</v>
-      </c>
-      <c r="F20">
-        <v>2004</v>
-      </c>
-      <c r="G20">
-        <v>2005</v>
-      </c>
-      <c r="H20">
-        <v>2006</v>
-      </c>
-      <c r="I20">
-        <v>2007</v>
-      </c>
-      <c r="J20">
-        <v>2008</v>
-      </c>
-      <c r="K20">
-        <v>2009</v>
-      </c>
-      <c r="L20">
-        <v>2010</v>
-      </c>
-      <c r="M20">
-        <v>2011</v>
-      </c>
-      <c r="N20">
-        <v>2012</v>
-      </c>
-      <c r="O20">
-        <v>2013</v>
-      </c>
-      <c r="P20">
-        <v>2014</v>
-      </c>
-      <c r="Q20">
-        <v>2015</v>
-      </c>
-      <c r="R20">
-        <v>2016</v>
-      </c>
-      <c r="S20">
-        <v>2017</v>
-      </c>
-      <c r="T20">
-        <v>2018</v>
-      </c>
-      <c r="U20">
-        <v>2019</v>
-      </c>
-      <c r="V20">
-        <v>2020</v>
-      </c>
-      <c r="W20">
-        <v>2021</v>
-      </c>
-      <c r="X20">
-        <v>2022</v>
-      </c>
-      <c r="Y20">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0.05</v>
-      </c>
-      <c r="C21">
-        <v>0.05</v>
-      </c>
-      <c r="D21">
-        <v>0.05</v>
-      </c>
-      <c r="E21">
-        <v>0.01</v>
-      </c>
-      <c r="F21">
-        <v>0.01</v>
-      </c>
-      <c r="G21">
-        <v>0.01</v>
-      </c>
-      <c r="H21">
-        <v>0.01</v>
-      </c>
-      <c r="I21">
-        <v>0.01</v>
-      </c>
-      <c r="J21">
-        <v>0.01</v>
-      </c>
-      <c r="K21">
-        <v>0.01</v>
-      </c>
-      <c r="L21">
-        <v>0.01</v>
-      </c>
-      <c r="M21">
-        <v>0.01</v>
-      </c>
-      <c r="N21">
-        <v>0.01</v>
-      </c>
-      <c r="O21">
-        <v>0.03</v>
-      </c>
-      <c r="P21">
-        <v>0.04</v>
-      </c>
-      <c r="Q21">
-        <v>0.05</v>
-      </c>
-      <c r="R21">
-        <v>0.06</v>
-      </c>
-      <c r="S21">
-        <v>0.05</v>
-      </c>
-      <c r="T21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U21">
-        <v>0.06</v>
-      </c>
-      <c r="V21">
-        <v>0.05</v>
-      </c>
-      <c r="W21">
-        <v>0.05</v>
-      </c>
-      <c r="X21">
-        <v>0.05</v>
-      </c>
-      <c r="Y21">
-        <v>0.05</v>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>7.6103500761035017E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.19025875190258754</v>
+      </c>
+      <c r="J19">
+        <v>0.12453300124533001</v>
+      </c>
+      <c r="K19">
+        <v>8.3022000830220002E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.15841953219644023</v>
+      </c>
+      <c r="M19">
+        <v>0.18180280737358362</v>
+      </c>
+      <c r="N19">
+        <v>0.20480795057749127</v>
+      </c>
+      <c r="O19">
+        <v>0.22998925597636316</v>
+      </c>
+      <c r="P19">
+        <v>0.21689497716894979</v>
+      </c>
+      <c r="Q19">
+        <v>0.23646444879321593</v>
+      </c>
+      <c r="R19">
+        <v>0.23157208088714937</v>
+      </c>
+      <c r="S19">
+        <v>0.24461839530332682</v>
+      </c>
+      <c r="T19">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="U19">
+        <v>0.21526418786692761</v>
+      </c>
+      <c r="V19">
+        <v>0.24135681669928247</v>
+      </c>
+      <c r="W19">
+        <v>0.23320287018917157</v>
+      </c>
+      <c r="X19">
+        <v>0.23483365949119375</v>
+      </c>
+      <c r="Y19">
+        <v>0.25277234181343772</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>5.62</v>
-      </c>
-      <c r="C22">
-        <v>5.62</v>
-      </c>
-      <c r="D22">
-        <v>5.62</v>
-      </c>
-      <c r="E22">
-        <v>5.62</v>
-      </c>
-      <c r="F22">
-        <v>5.5</v>
-      </c>
-      <c r="G22">
-        <v>5.5</v>
-      </c>
-      <c r="H22">
-        <v>5.5</v>
-      </c>
-      <c r="I22">
-        <v>5.5</v>
-      </c>
-      <c r="J22">
-        <v>5.5</v>
-      </c>
-      <c r="K22">
-        <v>5.63</v>
-      </c>
-      <c r="L22">
-        <v>5.63</v>
-      </c>
-      <c r="M22">
-        <v>6.32</v>
-      </c>
-      <c r="N22">
-        <v>6.32</v>
-      </c>
-      <c r="O22">
-        <v>6.11</v>
-      </c>
-      <c r="P22">
-        <v>5.9</v>
-      </c>
-      <c r="Q22">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R22">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="S22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="T22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="U22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="V22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="W22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="X22">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Y22">
-        <v>5.1100000000000003</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>1.1100000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C23">
-        <v>1.1100000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D23">
-        <v>1.1100000000000001</v>
+        <v>2002</v>
       </c>
       <c r="E23">
-        <v>1.1100000000000001</v>
+        <v>2003</v>
       </c>
       <c r="F23">
-        <v>1.1100000000000001</v>
+        <v>2004</v>
       </c>
       <c r="G23">
-        <v>1.1100000000000001</v>
+        <v>2005</v>
       </c>
       <c r="H23">
-        <v>1.1100000000000001</v>
+        <v>2006</v>
       </c>
       <c r="I23">
-        <v>1.1499999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J23">
-        <v>1.1499999999999999</v>
+        <v>2008</v>
       </c>
       <c r="K23">
-        <v>1.1499999999999999</v>
+        <v>2009</v>
       </c>
       <c r="L23">
-        <v>1.1499999999999999</v>
+        <v>2010</v>
       </c>
       <c r="M23">
-        <v>1.2</v>
+        <v>2011</v>
       </c>
       <c r="N23">
-        <v>1.2</v>
+        <v>2012</v>
       </c>
       <c r="O23">
-        <v>1.2</v>
+        <v>2013</v>
       </c>
       <c r="P23">
-        <v>1.2</v>
+        <v>2014</v>
       </c>
       <c r="Q23">
-        <v>1.2</v>
+        <v>2015</v>
       </c>
       <c r="R23">
-        <v>1.2</v>
+        <v>2016</v>
       </c>
       <c r="S23">
-        <v>1.2</v>
+        <v>2017</v>
       </c>
       <c r="T23">
-        <v>1.2</v>
+        <v>2018</v>
       </c>
       <c r="U23">
-        <v>1.2</v>
+        <v>2019</v>
       </c>
       <c r="V23">
-        <v>1.2</v>
+        <v>2020</v>
       </c>
       <c r="W23">
-        <v>1.2</v>
+        <v>2021</v>
       </c>
       <c r="X23">
-        <v>1.2</v>
-      </c>
-      <c r="Y23">
-        <v>1.2</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24">
-        <v>1.02</v>
-      </c>
-      <c r="C24">
-        <v>0.84</v>
-      </c>
-      <c r="D24">
-        <v>1.08</v>
-      </c>
-      <c r="E24">
-        <v>1.65</v>
-      </c>
-      <c r="F24">
-        <v>1.98</v>
-      </c>
-      <c r="G24">
-        <v>1.98</v>
-      </c>
-      <c r="H24">
-        <v>1.98</v>
-      </c>
-      <c r="I24">
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2.12</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K24">
-        <v>2.14</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L24">
-        <v>2.1800000000000002</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M24">
-        <v>2.2400000000000002</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N24">
-        <v>2.3199999999999998</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O24">
-        <v>2.34</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P24">
-        <v>2.36</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q24">
-        <v>2.36</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R24">
-        <v>2.36</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S24">
-        <v>2.5099999999999998</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T24">
-        <v>2.5099999999999998</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U24">
-        <v>2.5099999999999998</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V24">
-        <v>2.5099999999999998</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W24">
-        <v>2.5099999999999998</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X24">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Y24">
-        <v>2.5299999999999998</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>3.53</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C25">
-        <v>3.53</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D25">
-        <v>2.72</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E25">
-        <v>2.72</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F25">
-        <v>2.72</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G25">
-        <v>2.72</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H25">
-        <v>2.72</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I25">
-        <v>1.89</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J25">
-        <v>1.89</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K25">
-        <v>1.89</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L25">
-        <v>1.89</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M25">
-        <v>1.89</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N25">
-        <v>1.91</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O25">
-        <v>1.98</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P25">
-        <v>1.98</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q25">
-        <v>1.98</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R25">
-        <v>1.97</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S25">
-        <v>1.97</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T25">
-        <v>2.0099999999999998</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U25">
-        <v>2.0099999999999998</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V25">
-        <v>2.0099999999999998</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W25">
-        <v>2.0099999999999998</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X25">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="Y25">
-        <v>2.0099999999999998</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.58751816400088952</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.63195855763612019</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.84807034848805107</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.72468873612271401</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.70518756353607848</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.78226961776024206</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.81749754243287398</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1.3728687025740881E-2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>8.9246408872480296E-3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.4064542368890371E-2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1.3440969291696423E-2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.4367639360976603E-2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1.06544901065449E-2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>6.8721033906174785E-3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1.3383397499030053E-2</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>6.8134032678754683E-3</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>8.974387151398696E-3</v>
       </c>
       <c r="L27">
-        <v>0.03</v>
+        <v>1.0171012962918537E-2</v>
       </c>
       <c r="M27">
-        <v>0.15</v>
+        <v>4.0275281549390085E-3</v>
       </c>
       <c r="N27">
-        <v>0.92</v>
+        <v>5.4770281784942507E-3</v>
       </c>
       <c r="O27">
-        <v>1.04</v>
+        <v>5.9193423561722108E-3</v>
       </c>
       <c r="P27">
-        <v>1.03</v>
+        <v>5.7979529360833674E-3</v>
       </c>
       <c r="Q27">
-        <v>1.03</v>
+        <v>5.9440758150922698E-3</v>
       </c>
       <c r="R27">
-        <v>1.03</v>
+        <v>1.0672682178439969E-2</v>
       </c>
       <c r="S27">
-        <v>1.03</v>
+        <v>1.3166338195431674E-2</v>
       </c>
       <c r="T27">
-        <v>1.03</v>
+        <v>1.0273264456408587E-2</v>
       </c>
       <c r="U27">
-        <v>1.04</v>
+        <v>1.1459284473580975E-2</v>
       </c>
       <c r="V27">
-        <v>1.1000000000000001</v>
+        <v>1.0273784895450284E-2</v>
       </c>
       <c r="W27">
-        <v>1.27</v>
+        <v>1.1799059936493149E-2</v>
       </c>
       <c r="X27">
-        <v>1.74</v>
-      </c>
-      <c r="Y27">
-        <v>2.94</v>
+        <v>1.5180712412366853E-2</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0.01</v>
-      </c>
-      <c r="H28">
-        <v>0.03</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <v>0.03</v>
+        <v>0.22831050228310501</v>
       </c>
       <c r="J28">
-        <v>0.11</v>
+        <v>0.1906392694063927</v>
       </c>
       <c r="K28">
-        <v>0.33</v>
+        <v>0.18647260273972602</v>
       </c>
       <c r="L28">
-        <v>0.49</v>
+        <v>6.7876712328767116E-2</v>
       </c>
       <c r="M28">
-        <v>0.54</v>
+        <v>7.476575935480044E-2</v>
       </c>
       <c r="N28">
-        <v>0.68</v>
+        <v>9.6412405035707568E-2</v>
       </c>
       <c r="O28">
-        <v>0.68</v>
+        <v>0.15293804193529958</v>
       </c>
       <c r="P28">
-        <v>0.7</v>
+        <v>0.13941040865139273</v>
       </c>
       <c r="Q28">
-        <v>0.7</v>
+        <v>0.1534278778672068</v>
       </c>
       <c r="R28">
-        <v>0.7</v>
+        <v>0.15383140488540142</v>
       </c>
       <c r="S28">
-        <v>0.7</v>
+        <v>0.15538589047072227</v>
       </c>
       <c r="T28">
-        <v>0.7</v>
+        <v>0.14838111835914639</v>
       </c>
       <c r="U28">
-        <v>0.7</v>
+        <v>0.15491400651998427</v>
       </c>
       <c r="V28">
-        <v>0.7</v>
+        <v>0.15239085998651261</v>
       </c>
       <c r="W28">
-        <v>0.7</v>
+        <v>0.13133926069138591</v>
       </c>
       <c r="X28">
-        <v>0.7</v>
-      </c>
-      <c r="Y28">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>87</v>
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>0.11415525114155251</v>
+      </c>
+      <c r="G29">
+        <v>6.5453767123287668E-2</v>
+      </c>
+      <c r="H29">
+        <v>8.4758159986470502E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.17808980213089803</v>
+      </c>
+      <c r="J29">
+        <v>0.12192381639029079</v>
+      </c>
+      <c r="K29">
+        <v>8.1248714467892558E-2</v>
+      </c>
+      <c r="L29">
+        <v>0.15938903548169775</v>
+      </c>
+      <c r="M29">
+        <v>0.18169781142649755</v>
+      </c>
+      <c r="N29">
+        <v>0.2058669391554197</v>
+      </c>
+      <c r="O29">
+        <v>0.22956604290766625</v>
+      </c>
+      <c r="P29">
+        <v>0.2172995015710637</v>
+      </c>
+      <c r="Q29">
+        <v>0.23704950320418605</v>
+      </c>
+      <c r="R29">
+        <v>0.23271503321770831</v>
+      </c>
+      <c r="S29">
+        <v>0.24584659524473154</v>
+      </c>
+      <c r="T29">
+        <v>0.21529025081619735</v>
+      </c>
+      <c r="U29">
+        <v>0.21381996798613462</v>
+      </c>
+      <c r="V29">
+        <v>0.23992922634315969</v>
+      </c>
+      <c r="W29">
+        <v>0.2323315222455867</v>
+      </c>
+      <c r="X29">
+        <v>0.24297964087912982</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32">
-        <v>2000</v>
-      </c>
-      <c r="C32">
-        <v>2001</v>
-      </c>
-      <c r="D32">
-        <v>2002</v>
-      </c>
-      <c r="E32">
-        <v>2003</v>
-      </c>
-      <c r="F32">
-        <v>2004</v>
-      </c>
-      <c r="G32">
-        <v>2005</v>
-      </c>
-      <c r="H32">
-        <v>2006</v>
-      </c>
-      <c r="I32">
-        <v>2007</v>
-      </c>
-      <c r="J32">
-        <v>2008</v>
-      </c>
-      <c r="K32">
-        <v>2009</v>
-      </c>
-      <c r="L32">
-        <v>2010</v>
-      </c>
-      <c r="M32">
-        <v>2011</v>
-      </c>
-      <c r="N32">
-        <v>2012</v>
-      </c>
-      <c r="O32">
-        <v>2013</v>
-      </c>
-      <c r="P32">
-        <v>2014</v>
-      </c>
-      <c r="Q32">
-        <v>2015</v>
-      </c>
-      <c r="R32">
-        <v>2016</v>
-      </c>
-      <c r="S32">
-        <v>2017</v>
-      </c>
-      <c r="T32">
-        <v>2018</v>
-      </c>
-      <c r="U32">
-        <v>2019</v>
-      </c>
-      <c r="V32">
-        <v>2020</v>
-      </c>
-      <c r="W32">
-        <v>2021</v>
-      </c>
-      <c r="X32">
-        <v>2022</v>
-      </c>
-      <c r="Y32">
-        <v>2023</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2002</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2004</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2006</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2007</v>
       </c>
       <c r="J33">
-        <v>0.02</v>
+        <v>2008</v>
       </c>
       <c r="K33">
-        <v>0.01</v>
+        <v>2009</v>
       </c>
       <c r="L33">
-        <v>0.04</v>
+        <v>2010</v>
       </c>
       <c r="M33">
-        <v>0.06</v>
+        <v>2011</v>
       </c>
       <c r="N33">
-        <v>7.0000000000000007E-2</v>
+        <v>2012</v>
       </c>
       <c r="O33">
-        <v>0.11</v>
+        <v>2013</v>
       </c>
       <c r="P33">
-        <v>0.2</v>
+        <v>2014</v>
       </c>
       <c r="Q33">
-        <v>0.27</v>
+        <v>2015</v>
       </c>
       <c r="R33">
-        <v>0.35</v>
+        <v>2016</v>
       </c>
       <c r="S33">
-        <v>0.4</v>
+        <v>2017</v>
       </c>
       <c r="T33">
-        <v>1.57</v>
+        <v>2018</v>
       </c>
       <c r="U33">
-        <v>1.82</v>
+        <v>2019</v>
       </c>
       <c r="V33">
-        <v>1.7</v>
+        <v>2020</v>
       </c>
       <c r="W33">
-        <v>2.59</v>
+        <v>2021</v>
       </c>
       <c r="X33">
-        <v>2.2400000000000002</v>
+        <v>2022</v>
       </c>
       <c r="Y33">
-        <v>2.1800000000000002</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>16.940000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C34">
-        <v>19.5</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
-        <v>17.18</v>
+        <v>0.05</v>
       </c>
       <c r="E34">
-        <v>19.239999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>18.899999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="G34">
-        <v>18.46</v>
+        <v>0.01</v>
       </c>
       <c r="H34">
-        <v>19.09</v>
+        <v>0.01</v>
       </c>
       <c r="I34">
-        <v>22.37</v>
+        <v>0.01</v>
       </c>
       <c r="J34">
-        <v>23.18</v>
+        <v>0.01</v>
       </c>
       <c r="K34">
-        <v>21.1</v>
+        <v>0.01</v>
       </c>
       <c r="L34">
-        <v>22.61</v>
+        <v>0.01</v>
       </c>
       <c r="M34">
-        <v>27.53</v>
+        <v>0.01</v>
       </c>
       <c r="N34">
-        <v>22.87</v>
+        <v>0.01</v>
       </c>
       <c r="O34">
-        <v>19.39</v>
+        <v>0.03</v>
       </c>
       <c r="P34">
-        <v>21.31</v>
+        <v>0.04</v>
       </c>
       <c r="Q34">
-        <v>22.53</v>
+        <v>0.05</v>
       </c>
       <c r="R34">
-        <v>19.37</v>
+        <v>0.06</v>
       </c>
       <c r="S34">
-        <v>20.92</v>
+        <v>0.05</v>
       </c>
       <c r="T34">
-        <v>18.66</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U34">
-        <v>17.2</v>
+        <v>0.06</v>
       </c>
       <c r="V34">
-        <v>13.51</v>
+        <v>0.05</v>
       </c>
       <c r="W34">
-        <v>17.09</v>
+        <v>0.05</v>
       </c>
       <c r="X34">
-        <v>21.79</v>
+        <v>0.05</v>
       </c>
       <c r="Y34">
-        <v>11.56</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>1.91</v>
+        <v>5.62</v>
       </c>
       <c r="C35">
-        <v>1.91</v>
+        <v>5.62</v>
       </c>
       <c r="D35">
-        <v>1.54</v>
+        <v>5.62</v>
       </c>
       <c r="E35">
-        <v>1.76</v>
+        <v>5.62</v>
       </c>
       <c r="F35">
-        <v>1.49</v>
+        <v>5.5</v>
       </c>
       <c r="G35">
-        <v>1.73</v>
+        <v>5.5</v>
       </c>
       <c r="H35">
-        <v>2.16</v>
+        <v>5.5</v>
       </c>
       <c r="I35">
-        <v>2.34</v>
+        <v>5.5</v>
       </c>
       <c r="J35">
-        <v>2.36</v>
+        <v>5.5</v>
       </c>
       <c r="K35">
-        <v>1.96</v>
+        <v>5.63</v>
       </c>
       <c r="L35">
-        <v>1.97</v>
+        <v>5.63</v>
       </c>
       <c r="M35">
-        <v>2.08</v>
+        <v>6.32</v>
       </c>
       <c r="N35">
-        <v>2.36</v>
+        <v>6.32</v>
       </c>
       <c r="O35">
-        <v>2.34</v>
+        <v>6.11</v>
       </c>
       <c r="P35">
-        <v>2.14</v>
+        <v>5.9</v>
       </c>
       <c r="Q35">
-        <v>1.86</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R35">
-        <v>2.0499999999999998</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S35">
-        <v>1.93</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T35">
-        <v>2.02</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U35">
-        <v>2.15</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V35">
-        <v>2.29</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W35">
-        <v>3.05</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X35">
-        <v>2.0499999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y35">
-        <v>1.56</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>2.63</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C36">
-        <v>1.65</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D36">
-        <v>2.12</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E36">
-        <v>2.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F36">
-        <v>3.14</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G36">
-        <v>4.3</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H36">
-        <v>4.21</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I36">
-        <v>2.83</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J36">
-        <v>2.79</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K36">
-        <v>3.43</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L36">
-        <v>5.03</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M36">
-        <v>2.87</v>
+        <v>1.2</v>
       </c>
       <c r="N36">
-        <v>3.18</v>
+        <v>1.2</v>
       </c>
       <c r="O36">
-        <v>4.04</v>
+        <v>1.2</v>
       </c>
       <c r="P36">
-        <v>4.5999999999999996</v>
+        <v>1.2</v>
       </c>
       <c r="Q36">
-        <v>5.65</v>
+        <v>1.2</v>
       </c>
       <c r="R36">
-        <v>3.88</v>
+        <v>1.2</v>
       </c>
       <c r="S36">
-        <v>2.83</v>
+        <v>1.2</v>
       </c>
       <c r="T36">
-        <v>5.15</v>
+        <v>1.2</v>
       </c>
       <c r="U36">
-        <v>2.93</v>
+        <v>1.2</v>
       </c>
       <c r="V36">
-        <v>2.82</v>
+        <v>1.2</v>
       </c>
       <c r="W36">
-        <v>4.82</v>
+        <v>1.2</v>
       </c>
       <c r="X36">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y36">
-        <v>3.11</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>18.18</v>
+        <v>1.02</v>
       </c>
       <c r="C37">
-        <v>19.55</v>
+        <v>0.84</v>
       </c>
       <c r="D37">
-        <v>20.22</v>
+        <v>1.08</v>
       </c>
       <c r="E37">
-        <v>17.28</v>
+        <v>1.65</v>
       </c>
       <c r="F37">
-        <v>16.82</v>
+        <v>1.98</v>
       </c>
       <c r="G37">
-        <v>18.649999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="H37">
-        <v>19.489999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="I37">
-        <v>14.64</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J37">
-        <v>15.77</v>
+        <v>2.12</v>
       </c>
       <c r="K37">
-        <v>15.26</v>
+        <v>2.14</v>
       </c>
       <c r="L37">
-        <v>15.25</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M37">
-        <v>16.309999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N37">
-        <v>15.78</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O37">
-        <v>14.17</v>
+        <v>2.34</v>
       </c>
       <c r="P37">
-        <v>15.87</v>
+        <v>2.36</v>
       </c>
       <c r="Q37">
-        <v>15.38</v>
+        <v>2.36</v>
       </c>
       <c r="R37">
-        <v>15.78</v>
+        <v>2.36</v>
       </c>
       <c r="S37">
-        <v>15.55</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T37">
-        <v>16.13</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U37">
-        <v>16.559999999999999</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V37">
-        <v>16.63</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W37">
-        <v>16.489999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X37">
-        <v>16.46</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Y37">
-        <v>16.16</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>0.93</v>
+        <v>3.53</v>
       </c>
       <c r="C38">
-        <v>0.83</v>
+        <v>3.53</v>
       </c>
       <c r="D38">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
       <c r="E38">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="F38">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="G38">
-        <v>0.75</v>
+        <v>2.72</v>
       </c>
       <c r="H38">
-        <v>0.47</v>
+        <v>2.72</v>
       </c>
       <c r="I38">
-        <v>0.59</v>
+        <v>1.89</v>
       </c>
       <c r="J38">
-        <v>0.25</v>
+        <v>1.89</v>
       </c>
       <c r="K38">
-        <v>0.31</v>
+        <v>1.89</v>
       </c>
       <c r="L38">
-        <v>0.34</v>
+        <v>1.89</v>
       </c>
       <c r="M38">
-        <v>0.15</v>
+        <v>1.89</v>
       </c>
       <c r="N38">
-        <v>0.2</v>
+        <v>1.91</v>
       </c>
       <c r="O38">
-        <v>0.21</v>
+        <v>1.98</v>
       </c>
       <c r="P38">
-        <v>0.21</v>
+        <v>1.98</v>
       </c>
       <c r="Q38">
-        <v>0.19</v>
+        <v>1.98</v>
       </c>
       <c r="R38">
-        <v>0.28999999999999998</v>
+        <v>1.97</v>
       </c>
       <c r="S38">
-        <v>0.31</v>
+        <v>1.97</v>
       </c>
       <c r="T38">
-        <v>0.32</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U38">
-        <v>0.32</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V38">
-        <v>0.24</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="W38">
-        <v>0.28000000000000003</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="X38">
-        <v>0.35</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Y38">
-        <v>0.35</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3544,51 +3127,51 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>3.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3609,1670 +3192,2224 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="L40">
+        <v>0.03</v>
+      </c>
+      <c r="M40">
+        <v>0.15</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>1.04</v>
+      </c>
+      <c r="P40">
+        <v>1.03</v>
+      </c>
+      <c r="Q40">
+        <v>1.03</v>
+      </c>
+      <c r="R40">
+        <v>1.03</v>
+      </c>
+      <c r="S40">
+        <v>1.03</v>
+      </c>
+      <c r="T40">
+        <v>1.03</v>
+      </c>
+      <c r="U40">
+        <v>1.04</v>
+      </c>
+      <c r="V40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W40">
+        <v>1.27</v>
+      </c>
+      <c r="X40">
+        <v>1.74</v>
+      </c>
+      <c r="Y40">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.01</v>
+      </c>
+      <c r="H41">
+        <v>0.03</v>
+      </c>
+      <c r="I41">
+        <v>0.03</v>
+      </c>
+      <c r="J41">
+        <v>0.11</v>
+      </c>
+      <c r="K41">
+        <v>0.33</v>
+      </c>
+      <c r="L41">
+        <v>0.49</v>
+      </c>
+      <c r="M41">
+        <v>0.54</v>
+      </c>
+      <c r="N41">
         <v>0.68</v>
       </c>
-      <c r="M40">
-        <v>0.86</v>
-      </c>
-      <c r="N40">
-        <v>1.22</v>
-      </c>
-      <c r="O40">
-        <v>1.37</v>
-      </c>
-      <c r="P40">
-        <v>1.33</v>
-      </c>
-      <c r="Q40">
-        <v>1.45</v>
-      </c>
-      <c r="R40">
-        <v>1.42</v>
-      </c>
-      <c r="S40">
-        <v>1.5</v>
-      </c>
-      <c r="T40">
-        <v>1.32</v>
-      </c>
-      <c r="U40">
-        <v>1.32</v>
-      </c>
-      <c r="V40">
-        <v>1.48</v>
-      </c>
-      <c r="W40">
-        <v>1.43</v>
-      </c>
-      <c r="X40">
-        <v>1.44</v>
-      </c>
-      <c r="Y40">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43">
-        <v>2000</v>
-      </c>
-      <c r="C43">
-        <v>2001</v>
-      </c>
-      <c r="D43">
-        <v>2002</v>
-      </c>
-      <c r="E43">
-        <v>2003</v>
-      </c>
-      <c r="F43">
-        <v>2004</v>
-      </c>
-      <c r="G43">
-        <v>2005</v>
-      </c>
-      <c r="H43">
-        <v>2006</v>
-      </c>
-      <c r="I43">
-        <v>2007</v>
-      </c>
-      <c r="J43">
-        <v>2008</v>
-      </c>
-      <c r="K43">
-        <v>2009</v>
-      </c>
-      <c r="L43">
-        <v>2010</v>
-      </c>
-      <c r="M43">
-        <v>2011</v>
-      </c>
-      <c r="N43">
-        <v>2012</v>
-      </c>
-      <c r="O43">
-        <v>2013</v>
-      </c>
-      <c r="P43">
-        <v>2014</v>
-      </c>
-      <c r="Q43">
-        <v>2015</v>
-      </c>
-      <c r="R43">
-        <v>2016</v>
-      </c>
-      <c r="S43">
-        <v>2017</v>
-      </c>
-      <c r="T43">
-        <v>2018</v>
-      </c>
-      <c r="U43">
-        <v>2019</v>
-      </c>
-      <c r="V43">
-        <v>2020</v>
-      </c>
-      <c r="W43">
-        <v>2021</v>
-      </c>
-      <c r="X43">
-        <v>2022</v>
+      <c r="O41">
+        <v>0.68</v>
+      </c>
+      <c r="P41">
+        <v>0.7</v>
+      </c>
+      <c r="Q41">
+        <v>0.7</v>
+      </c>
+      <c r="R41">
+        <v>0.7</v>
+      </c>
+      <c r="S41">
+        <v>0.7</v>
+      </c>
+      <c r="T41">
+        <v>0.7</v>
+      </c>
+      <c r="U41">
+        <v>0.7</v>
+      </c>
+      <c r="V41">
+        <v>0.7</v>
+      </c>
+      <c r="W41">
+        <v>0.7</v>
+      </c>
+      <c r="X41">
+        <v>0.7</v>
+      </c>
+      <c r="Y41">
+        <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0.30441400304414001</v>
-      </c>
-      <c r="K44">
-        <v>0.10147133434804669</v>
-      </c>
-      <c r="L44">
-        <v>0.40447488584474894</v>
-      </c>
-      <c r="M44">
-        <v>0.5811540058115402</v>
-      </c>
-      <c r="N44">
-        <v>0.53816046966731901</v>
-      </c>
-      <c r="O44">
-        <v>0.37067553048616708</v>
-      </c>
-      <c r="P44">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q44">
-        <v>0.57500422797226458</v>
-      </c>
-      <c r="R44">
-        <v>0.70696146759593048</v>
-      </c>
-      <c r="S44">
-        <v>0.86924428402751963</v>
-      </c>
-      <c r="T44">
-        <v>2.5863099724480505</v>
-      </c>
-      <c r="U44">
-        <v>3.6549813955986812</v>
-      </c>
-      <c r="V44">
-        <v>4.036889720525596</v>
-      </c>
-      <c r="W44">
-        <v>6.2453375126974553</v>
-      </c>
-      <c r="X44">
-        <v>3.2548137163984849</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>0.17918731176527739</v>
+        <v>2000</v>
       </c>
       <c r="C45">
-        <v>0.14535545467936098</v>
+        <v>2001</v>
       </c>
       <c r="D45">
-        <v>0.15845780240593327</v>
+        <v>2002</v>
       </c>
       <c r="E45">
-        <v>0.1498316039834055</v>
+        <v>2003</v>
       </c>
       <c r="F45">
-        <v>0.1347902156764661</v>
+        <v>2004</v>
       </c>
       <c r="G45">
-        <v>0.18958653994151151</v>
+        <v>2005</v>
       </c>
       <c r="H45">
-        <v>0.18353719344825822</v>
+        <v>2006</v>
       </c>
       <c r="I45">
-        <v>0.12836507928947488</v>
+        <v>2007</v>
       </c>
       <c r="J45">
-        <v>0.12535509016122517</v>
+        <v>2008</v>
       </c>
       <c r="K45">
-        <v>0.15416139825537606</v>
+        <v>2009</v>
       </c>
       <c r="L45">
-        <v>0.21319901365069094</v>
+        <v>2010</v>
       </c>
       <c r="M45">
-        <v>0.13556538436675425</v>
+        <v>2011</v>
       </c>
       <c r="N45">
-        <v>0.1426745416205524</v>
+        <v>2012</v>
       </c>
       <c r="O45">
-        <v>0.17089921406444017</v>
+        <v>2013</v>
       </c>
       <c r="P45">
-        <v>0.18308207829936693</v>
+        <v>2014</v>
       </c>
       <c r="Q45">
-        <v>0.21797454043557021</v>
+        <v>2015</v>
       </c>
       <c r="R45">
-        <v>0.16178813238750592</v>
+        <v>2016</v>
       </c>
       <c r="S45">
-        <v>0.11826549026371555</v>
+        <v>2017</v>
       </c>
       <c r="T45">
-        <v>0.18320015783762453</v>
+        <v>2018</v>
       </c>
       <c r="U45">
-        <v>0.11430375923833559</v>
+        <v>2019</v>
       </c>
       <c r="V45">
-        <v>0.11225524213694742</v>
+        <v>2020</v>
       </c>
       <c r="W45">
-        <v>0.1716829439171017</v>
+        <v>2021</v>
       </c>
       <c r="X45">
-        <v>0.13069358514235713</v>
+        <v>2022</v>
+      </c>
+      <c r="Y45">
+        <v>2023</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B46">
-        <v>0.58751816400088952</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.63195855763612019</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>0.84807034848805107</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0.72468873612271401</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.70518756353607848</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0.78226961776024206</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0.81749754243287398</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.88349648121868596</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.95119319991890894</v>
+        <v>0.02</v>
       </c>
       <c r="K46">
-        <v>0.92048229990249752</v>
+        <v>0.01</v>
       </c>
       <c r="L46">
-        <v>0.92005994960757642</v>
+        <v>0.04</v>
       </c>
       <c r="M46">
-        <v>0.98431753019201262</v>
+        <v>0.06</v>
       </c>
       <c r="N46">
-        <v>0.94540432280661413</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O46">
-        <v>0.81619276686525755</v>
+        <v>0.11</v>
       </c>
       <c r="P46">
-        <v>0.91711461765215874</v>
+        <v>0.2</v>
       </c>
       <c r="Q46">
-        <v>0.88913935610658323</v>
+        <v>0.27</v>
       </c>
       <c r="R46">
-        <v>0.91556341739152636</v>
+        <v>0.35</v>
       </c>
       <c r="S46">
-        <v>0.90218624426321981</v>
+        <v>0.4</v>
       </c>
       <c r="T46">
-        <v>0.91672584775055033</v>
+        <v>1.57</v>
       </c>
       <c r="U46">
-        <v>0.942110199083116</v>
+        <v>1.82</v>
       </c>
       <c r="V46">
-        <v>0.94612082701666678</v>
+        <v>1.7</v>
       </c>
       <c r="W46">
-        <v>0.9382181082323805</v>
+        <v>2.59</v>
       </c>
       <c r="X46">
-        <v>0.93680249206717758</v>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>1.3728687025740881E-2</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C47">
-        <v>8.9246408872480296E-3</v>
+        <v>19.5</v>
       </c>
       <c r="D47">
-        <v>1.4064542368890371E-2</v>
+        <v>17.18</v>
       </c>
       <c r="E47">
-        <v>1.3440969291696423E-2</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="F47">
-        <v>1.4367639360976603E-2</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G47">
-        <v>1.06544901065449E-2</v>
+        <v>18.46</v>
       </c>
       <c r="H47">
-        <v>6.8721033906174785E-3</v>
+        <v>19.09</v>
       </c>
       <c r="I47">
-        <v>1.3383397499030053E-2</v>
+        <v>22.37</v>
       </c>
       <c r="J47">
-        <v>6.8134032678754683E-3</v>
+        <v>23.18</v>
       </c>
       <c r="K47">
-        <v>8.974387151398696E-3</v>
+        <v>21.1</v>
       </c>
       <c r="L47">
-        <v>1.0171012962918537E-2</v>
+        <v>22.61</v>
       </c>
       <c r="M47">
-        <v>4.0275281549390085E-3</v>
+        <v>27.53</v>
       </c>
       <c r="N47">
-        <v>5.4770281784942507E-3</v>
+        <v>22.87</v>
       </c>
       <c r="O47">
-        <v>5.9193423561722108E-3</v>
+        <v>19.39</v>
       </c>
       <c r="P47">
-        <v>5.7979529360833674E-3</v>
+        <v>21.31</v>
       </c>
       <c r="Q47">
-        <v>5.9440758150922698E-3</v>
+        <v>22.53</v>
       </c>
       <c r="R47">
-        <v>1.0672682178439969E-2</v>
+        <v>19.37</v>
       </c>
       <c r="S47">
-        <v>1.3166338195431674E-2</v>
+        <v>20.92</v>
       </c>
       <c r="T47">
-        <v>1.0273264456408587E-2</v>
+        <v>18.66</v>
       </c>
       <c r="U47">
-        <v>1.1459284473580975E-2</v>
+        <v>17.2</v>
       </c>
       <c r="V47">
-        <v>1.0273784895450284E-2</v>
+        <v>13.51</v>
       </c>
       <c r="W47">
-        <v>1.1799059936493149E-2</v>
+        <v>17.09</v>
       </c>
       <c r="X47">
-        <v>1.5180712412366853E-2</v>
+        <v>21.79</v>
+      </c>
+      <c r="Y47">
+        <v>11.56</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>1.91</v>
+      </c>
+      <c r="C48">
+        <v>1.91</v>
+      </c>
+      <c r="D48">
+        <v>1.54</v>
+      </c>
+      <c r="E48">
+        <v>1.76</v>
+      </c>
+      <c r="F48">
+        <v>1.49</v>
+      </c>
+      <c r="G48">
+        <v>1.73</v>
+      </c>
+      <c r="H48">
+        <v>2.16</v>
       </c>
       <c r="I48">
-        <v>0.22831050228310501</v>
+        <v>2.34</v>
       </c>
       <c r="J48">
-        <v>0.1906392694063927</v>
+        <v>2.36</v>
       </c>
       <c r="K48">
-        <v>0.18647260273972602</v>
+        <v>1.96</v>
       </c>
       <c r="L48">
-        <v>6.7876712328767116E-2</v>
+        <v>1.97</v>
       </c>
       <c r="M48">
-        <v>7.476575935480044E-2</v>
+        <v>2.08</v>
       </c>
       <c r="N48">
-        <v>9.6412405035707568E-2</v>
+        <v>2.36</v>
       </c>
       <c r="O48">
-        <v>0.15293804193529958</v>
+        <v>2.34</v>
       </c>
       <c r="P48">
-        <v>0.13941040865139273</v>
+        <v>2.14</v>
       </c>
       <c r="Q48">
-        <v>0.1534278778672068</v>
+        <v>1.86</v>
       </c>
       <c r="R48">
-        <v>0.15383140488540142</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="S48">
-        <v>0.15538589047072227</v>
+        <v>1.93</v>
       </c>
       <c r="T48">
-        <v>0.14838111835914639</v>
+        <v>2.02</v>
       </c>
       <c r="U48">
-        <v>0.15491400651998427</v>
+        <v>2.15</v>
       </c>
       <c r="V48">
-        <v>0.15239085998651261</v>
+        <v>2.29</v>
       </c>
       <c r="W48">
-        <v>0.13133926069138591</v>
+        <v>3.05</v>
       </c>
       <c r="X48">
-        <v>0.13764325363624622</v>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>1.56</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>2.63</v>
+      </c>
+      <c r="C49">
+        <v>1.65</v>
+      </c>
+      <c r="D49">
+        <v>2.12</v>
+      </c>
+      <c r="E49">
+        <v>2.99</v>
       </c>
       <c r="F49">
-        <v>0.11415525114155251</v>
+        <v>3.14</v>
       </c>
       <c r="G49">
-        <v>6.5453767123287668E-2</v>
+        <v>4.3</v>
       </c>
       <c r="H49">
-        <v>8.4758159986470502E-2</v>
+        <v>4.21</v>
       </c>
       <c r="I49">
-        <v>0.17808980213089803</v>
+        <v>2.83</v>
       </c>
       <c r="J49">
-        <v>0.12192381639029079</v>
+        <v>2.79</v>
       </c>
       <c r="K49">
-        <v>8.1248714467892558E-2</v>
+        <v>3.43</v>
       </c>
       <c r="L49">
-        <v>0.15938903548169775</v>
+        <v>5.03</v>
       </c>
       <c r="M49">
-        <v>0.18169781142649755</v>
+        <v>2.87</v>
       </c>
       <c r="N49">
-        <v>0.2058669391554197</v>
+        <v>3.18</v>
       </c>
       <c r="O49">
-        <v>0.22956604290766625</v>
+        <v>4.04</v>
       </c>
       <c r="P49">
-        <v>0.2172995015710637</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Q49">
-        <v>0.23704950320418605</v>
+        <v>5.65</v>
       </c>
       <c r="R49">
-        <v>0.23271503321770831</v>
+        <v>3.88</v>
       </c>
       <c r="S49">
-        <v>0.24584659524473154</v>
+        <v>2.83</v>
       </c>
       <c r="T49">
-        <v>0.21529025081619735</v>
+        <v>5.15</v>
       </c>
       <c r="U49">
-        <v>0.21381996798613462</v>
+        <v>2.93</v>
       </c>
       <c r="V49">
-        <v>0.23992922634315969</v>
+        <v>2.82</v>
       </c>
       <c r="W49">
-        <v>0.2323315222455867</v>
+        <v>4.82</v>
       </c>
       <c r="X49">
-        <v>0.24297964087912982</v>
+        <v>3.8</v>
+      </c>
+      <c r="Y49">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>18.18</v>
+      </c>
+      <c r="C50">
+        <v>19.55</v>
+      </c>
+      <c r="D50">
+        <v>20.22</v>
+      </c>
+      <c r="E50">
+        <v>17.28</v>
+      </c>
+      <c r="F50">
+        <v>16.82</v>
+      </c>
+      <c r="G50">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H50">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I50">
+        <v>14.64</v>
+      </c>
+      <c r="J50">
+        <v>15.77</v>
+      </c>
+      <c r="K50">
+        <v>15.26</v>
+      </c>
+      <c r="L50">
+        <v>15.25</v>
+      </c>
+      <c r="M50">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N50">
+        <v>15.78</v>
+      </c>
+      <c r="O50">
+        <v>14.17</v>
+      </c>
+      <c r="P50">
+        <v>15.87</v>
+      </c>
+      <c r="Q50">
+        <v>15.38</v>
+      </c>
+      <c r="R50">
+        <v>15.78</v>
+      </c>
+      <c r="S50">
+        <v>15.55</v>
+      </c>
+      <c r="T50">
+        <v>16.13</v>
+      </c>
+      <c r="U50">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V50">
+        <v>16.63</v>
+      </c>
+      <c r="W50">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X50">
+        <v>16.46</v>
+      </c>
+      <c r="Y50">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>0.93</v>
+      </c>
+      <c r="C51">
+        <v>0.83</v>
+      </c>
+      <c r="D51">
+        <v>1.02</v>
+      </c>
+      <c r="E51">
+        <v>1.01</v>
+      </c>
+      <c r="F51">
+        <v>1.01</v>
+      </c>
+      <c r="G51">
+        <v>0.75</v>
+      </c>
+      <c r="H51">
+        <v>0.47</v>
+      </c>
+      <c r="I51">
+        <v>0.59</v>
+      </c>
+      <c r="J51">
+        <v>0.25</v>
+      </c>
+      <c r="K51">
+        <v>0.31</v>
+      </c>
+      <c r="L51">
+        <v>0.34</v>
+      </c>
+      <c r="M51">
+        <v>0.15</v>
+      </c>
+      <c r="N51">
+        <v>0.2</v>
+      </c>
+      <c r="O51">
+        <v>0.21</v>
+      </c>
+      <c r="P51">
+        <v>0.21</v>
+      </c>
+      <c r="Q51">
+        <v>0.19</v>
+      </c>
+      <c r="R51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S51">
+        <v>0.31</v>
+      </c>
+      <c r="T51">
+        <v>0.32</v>
+      </c>
+      <c r="U51">
+        <v>0.32</v>
+      </c>
+      <c r="V51">
+        <v>0.24</v>
+      </c>
+      <c r="W51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X51">
+        <v>0.35</v>
+      </c>
+      <c r="Y51">
+        <v>0.35</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0.01</v>
+      </c>
+      <c r="M52">
+        <v>0.1</v>
+      </c>
+      <c r="N52">
+        <v>0.78</v>
+      </c>
+      <c r="O52">
+        <v>1.39</v>
+      </c>
+      <c r="P52">
+        <v>1.26</v>
+      </c>
+      <c r="Q52">
+        <v>1.38</v>
+      </c>
+      <c r="R52">
+        <v>1.39</v>
+      </c>
+      <c r="S52">
+        <v>1.4</v>
+      </c>
+      <c r="T52">
+        <v>1.34</v>
+      </c>
+      <c r="U52">
+        <v>1.42</v>
+      </c>
+      <c r="V52">
+        <v>1.47</v>
+      </c>
+      <c r="W52">
+        <v>1.47</v>
+      </c>
+      <c r="X52">
+        <v>2.09</v>
+      </c>
+      <c r="Y52">
+        <v>3.52</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2006</v>
+        <v>0.02</v>
       </c>
       <c r="I53">
-        <v>2007</v>
+        <v>0.05</v>
       </c>
       <c r="J53">
-        <v>2008</v>
+        <v>0.12</v>
       </c>
       <c r="K53">
-        <v>2009</v>
+        <v>0.24</v>
       </c>
       <c r="L53">
-        <v>2010</v>
+        <v>0.68</v>
       </c>
       <c r="M53">
-        <v>2011</v>
+        <v>0.86</v>
       </c>
       <c r="N53">
-        <v>2012</v>
+        <v>1.22</v>
       </c>
       <c r="O53">
-        <v>2013</v>
+        <v>1.37</v>
       </c>
       <c r="P53">
-        <v>2014</v>
+        <v>1.33</v>
       </c>
       <c r="Q53">
-        <v>2015</v>
+        <v>1.45</v>
       </c>
       <c r="R53">
-        <v>2016</v>
+        <v>1.42</v>
       </c>
       <c r="S53">
-        <v>2017</v>
+        <v>1.5</v>
       </c>
       <c r="T53">
-        <v>2018</v>
+        <v>1.32</v>
       </c>
       <c r="U53">
-        <v>2019</v>
+        <v>1.32</v>
       </c>
       <c r="V53">
-        <v>2020</v>
+        <v>1.48</v>
       </c>
       <c r="W53">
-        <v>2021</v>
+        <v>1.43</v>
       </c>
       <c r="X53">
-        <v>2022</v>
+        <v>1.44</v>
       </c>
       <c r="Y53">
-        <v>2023</v>
-      </c>
-      <c r="Z53">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C54">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D54">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E54">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F54">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G54">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J54">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K54">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="L54">
-        <v>0.01</v>
-      </c>
-      <c r="M54">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N54">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O54">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P54">
-        <v>0.04</v>
-      </c>
-      <c r="Q54">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="R54">
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="S54">
-        <v>5.2003000000000001E-2</v>
-      </c>
-      <c r="T54">
-        <v>6.942799999999999E-2</v>
-      </c>
-      <c r="U54">
-        <v>5.6869000000000003E-2</v>
-      </c>
-      <c r="V54">
-        <v>4.8054000000000006E-2</v>
-      </c>
-      <c r="W54">
-        <v>4.7321000000000002E-2</v>
-      </c>
-      <c r="X54">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Y54">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Z54">
-        <v>7.8688999999999995E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
-        <v>1.88</v>
-      </c>
-      <c r="C55">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="D55">
-        <v>1.948</v>
-      </c>
-      <c r="E55">
-        <v>2.5150000000000001</v>
-      </c>
-      <c r="F55">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="G55">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="H55">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="I55">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="J55">
-        <v>2.984</v>
-      </c>
-      <c r="K55">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="L55">
-        <v>3.048</v>
-      </c>
-      <c r="M55">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="N55">
-        <v>3.181</v>
-      </c>
-      <c r="O55">
-        <v>3.2029999999999998</v>
-      </c>
-      <c r="P55">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="Q55">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="R55">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="S55">
-        <v>3.37155</v>
-      </c>
-      <c r="T55">
-        <v>3.379</v>
-      </c>
-      <c r="U55">
-        <v>3.3783499999999997</v>
-      </c>
-      <c r="V55">
-        <v>3.3764560000000001</v>
-      </c>
-      <c r="W55">
-        <v>3.3692329999999999</v>
-      </c>
-      <c r="X55">
-        <v>3.348185</v>
-      </c>
-      <c r="Y55">
-        <v>3.3502800000000001</v>
-      </c>
-      <c r="Z55">
-        <v>3.3502800000000001</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>3.532</v>
-      </c>
-      <c r="C56">
-        <v>3.532</v>
-      </c>
-      <c r="D56">
-        <v>2.722</v>
-      </c>
-      <c r="E56">
-        <v>2.722</v>
-      </c>
-      <c r="F56">
-        <v>2.722</v>
-      </c>
-      <c r="G56">
-        <v>2.722</v>
-      </c>
-      <c r="H56">
-        <v>2.722</v>
-      </c>
-      <c r="I56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="J56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="K56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="L56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="M56">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="N56">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="O56">
-        <v>1.982</v>
-      </c>
-      <c r="P56">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="Q56">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="R56">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="S56">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="T56">
-        <v>2.008</v>
-      </c>
-      <c r="U56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="V56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="W56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="X56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Y56">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Z56">
-        <v>2.0059999999999998</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>5.6210000000000004</v>
+        <v>2000</v>
       </c>
       <c r="C57">
-        <v>7.4059999999999997</v>
+        <v>2001</v>
       </c>
       <c r="D57">
-        <v>6.8259999999999996</v>
+        <v>2002</v>
       </c>
       <c r="E57">
-        <v>6.7519999999999998</v>
+        <v>2003</v>
       </c>
       <c r="F57">
-        <v>6.6820000000000004</v>
+        <v>2004</v>
       </c>
       <c r="G57">
-        <v>6.6749999999999998</v>
+        <v>2005</v>
       </c>
       <c r="H57">
-        <v>6.4119999999999999</v>
+        <v>2006</v>
       </c>
       <c r="I57">
-        <v>4.8959999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J57">
-        <v>4.641</v>
+        <v>2008</v>
       </c>
       <c r="K57">
-        <v>4.3630000000000004</v>
+        <v>2009</v>
       </c>
       <c r="L57">
-        <v>4.5679999999999996</v>
+        <v>2010</v>
       </c>
       <c r="M57">
-        <v>4.5350000000000001</v>
+        <v>2011</v>
       </c>
       <c r="N57">
-        <v>4.8979999999999997</v>
+        <v>2012</v>
       </c>
       <c r="O57">
-        <v>4.6669999999999998</v>
+        <v>2013</v>
       </c>
       <c r="P57">
-        <v>4.43</v>
+        <v>2014</v>
       </c>
       <c r="Q57">
-        <v>3.9369999999999998</v>
+        <v>2015</v>
       </c>
       <c r="R57">
-        <v>3.7650000000000001</v>
+        <v>2016</v>
       </c>
       <c r="S57">
-        <v>3.7333600000000002</v>
+        <v>2017</v>
       </c>
       <c r="T57">
-        <v>4.1509750000000007</v>
+        <v>2018</v>
       </c>
       <c r="U57">
-        <v>4.040362</v>
+        <v>2019</v>
       </c>
       <c r="V57">
-        <v>3.7584020000000002</v>
+        <v>2020</v>
       </c>
       <c r="W57">
-        <v>3.8066649999999997</v>
+        <v>2021</v>
       </c>
       <c r="X57">
-        <v>3.9745819999999998</v>
+        <v>2022</v>
       </c>
       <c r="Y57">
-        <v>3.9745819999999998</v>
+        <v>2023</v>
       </c>
       <c r="Z57">
-        <v>3.9745819999999998</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C58">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D58">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G58">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H58">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I58">
-        <v>2.9999999999999997E-5</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J58">
-        <v>1E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K58">
-        <v>2E-3</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L58">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="M58">
-        <v>0.154</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N58">
-        <v>0.92200000000000004</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O58">
-        <v>1.0389999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P58">
-        <v>1.0289999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="Q58">
-        <v>1.028</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R58">
-        <v>1.03</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S58">
-        <v>1.0307010000000001</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T58">
-        <v>1.033058</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U58">
-        <v>1.0443900000000002</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V58">
-        <v>1.1002110000000001</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W58">
-        <v>1.274713</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X58">
-        <v>1.736537</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Y58">
-        <v>2.9081269999999999</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Z58">
-        <v>3.9081269999999999</v>
+        <v>7.8688999999999995E-2</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>1.88</v>
+      </c>
+      <c r="C59">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D59">
+        <v>1.948</v>
+      </c>
+      <c r="E59">
+        <v>2.5150000000000001</v>
       </c>
       <c r="F59">
-        <v>1E-3</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="G59">
-        <v>8.0000000000000002E-3</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="H59">
-        <v>2.7E-2</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="I59">
-        <v>0.03</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J59">
-        <v>0.114</v>
+        <v>2.984</v>
       </c>
       <c r="K59">
-        <v>0.33300000000000002</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L59">
-        <v>0.48799999999999999</v>
+        <v>3.048</v>
       </c>
       <c r="M59">
-        <v>0.54100000000000004</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="N59">
-        <v>0.67700000000000005</v>
+        <v>3.181</v>
       </c>
       <c r="O59">
-        <v>0.68300000000000005</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="P59">
-        <v>0.69899999999999995</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="Q59">
-        <v>0.69899999999999995</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="R59">
-        <v>0.69899999999999995</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="S59">
-        <v>0.69838999999999996</v>
+        <v>3.37155</v>
       </c>
       <c r="T59">
-        <v>0.69891999999999999</v>
+        <v>3.379</v>
       </c>
       <c r="U59">
-        <v>0.70311999999999997</v>
+        <v>3.3783499999999997</v>
       </c>
       <c r="V59">
-        <v>0.70279999999999998</v>
+        <v>3.3764560000000001</v>
       </c>
       <c r="W59">
-        <v>0.70437499999999997</v>
+        <v>3.3692329999999999</v>
       </c>
       <c r="X59">
-        <v>0.70430999999999999</v>
+        <v>3.348185</v>
       </c>
       <c r="Y59">
-        <v>0.70430999999999999</v>
+        <v>3.3502800000000001</v>
       </c>
       <c r="Z59">
-        <v>0.70430999999999999</v>
+        <v>3.3502800000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>3.532</v>
+      </c>
+      <c r="C60">
+        <v>3.532</v>
+      </c>
+      <c r="D60">
+        <v>2.722</v>
+      </c>
+      <c r="E60">
+        <v>2.722</v>
+      </c>
+      <c r="F60">
+        <v>2.722</v>
+      </c>
+      <c r="G60">
+        <v>2.722</v>
+      </c>
+      <c r="H60">
+        <v>2.722</v>
+      </c>
+      <c r="I60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="L60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M60">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="N60">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="O60">
+        <v>1.982</v>
+      </c>
+      <c r="P60">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="R60">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="S60">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="T60">
+        <v>2.008</v>
+      </c>
+      <c r="U60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="V60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="W60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="X60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Z60">
+        <v>2.0059999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C61">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D61">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E61">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F61">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G61">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H61">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I61">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J61">
+        <v>4.641</v>
+      </c>
+      <c r="K61">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L61">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M61">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N61">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O61">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P61">
+        <v>4.43</v>
+      </c>
+      <c r="Q61">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R61">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S61">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T61">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U61">
+        <v>4.040362</v>
+      </c>
+      <c r="V61">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W61">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X61">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y61">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z61">
+        <v>3.9745819999999998</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J62">
+        <v>1E-4</v>
+      </c>
+      <c r="K62">
+        <v>2E-3</v>
+      </c>
+      <c r="L62">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M62">
+        <v>0.154</v>
+      </c>
+      <c r="N62">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O62">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P62">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q62">
+        <v>1.028</v>
+      </c>
+      <c r="R62">
+        <v>1.03</v>
+      </c>
+      <c r="S62">
+        <v>1.0307010000000001</v>
+      </c>
+      <c r="T62">
+        <v>1.033058</v>
+      </c>
+      <c r="U62">
+        <v>1.0443900000000002</v>
+      </c>
+      <c r="V62">
+        <v>1.1002110000000001</v>
+      </c>
+      <c r="W62">
+        <v>1.274713</v>
+      </c>
+      <c r="X62">
+        <v>1.736537</v>
+      </c>
+      <c r="Y62">
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z62">
+        <v>3.9081269999999999</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>1E-3</v>
+      </c>
+      <c r="G63">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H63">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.03</v>
+      </c>
+      <c r="J63">
+        <v>0.114</v>
+      </c>
+      <c r="K63">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L63">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="M63">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N63">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O63">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P63">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q63">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R63">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S63">
+        <v>0.69838999999999996</v>
+      </c>
+      <c r="T63">
+        <v>0.69891999999999999</v>
+      </c>
+      <c r="U63">
+        <v>0.70311999999999997</v>
+      </c>
+      <c r="V63">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W63">
+        <v>0.70437499999999997</v>
+      </c>
+      <c r="X63">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z63">
+        <v>0.70430999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
         <v>2000</v>
       </c>
-      <c r="C63">
+      <c r="C67">
         <v>2001</v>
       </c>
-      <c r="D63">
+      <c r="D67">
         <v>2002</v>
       </c>
-      <c r="E63">
+      <c r="E67">
         <v>2003</v>
       </c>
-      <c r="F63">
+      <c r="F67">
         <v>2004</v>
       </c>
-      <c r="G63">
+      <c r="G67">
         <v>2005</v>
       </c>
-      <c r="H63">
+      <c r="H67">
         <v>2006</v>
       </c>
-      <c r="I63">
+      <c r="I67">
         <v>2007</v>
       </c>
-      <c r="J63">
+      <c r="J67">
         <v>2008</v>
       </c>
-      <c r="K63">
+      <c r="K67">
         <v>2009</v>
       </c>
-      <c r="L63">
+      <c r="L67">
         <v>2010</v>
       </c>
-      <c r="M63">
+      <c r="M67">
         <v>2011</v>
       </c>
-      <c r="N63">
+      <c r="N67">
         <v>2012</v>
       </c>
-      <c r="O63">
+      <c r="O67">
         <v>2013</v>
       </c>
-      <c r="P63">
+      <c r="P67">
         <v>2014</v>
       </c>
-      <c r="Q63">
+      <c r="Q67">
         <v>2015</v>
       </c>
-      <c r="R63">
+      <c r="R67">
         <v>2016</v>
       </c>
-      <c r="S63">
+      <c r="S67">
         <v>2017</v>
       </c>
-      <c r="T63">
+      <c r="T67">
         <v>2018</v>
       </c>
-      <c r="U63">
+      <c r="U67">
         <v>2019</v>
       </c>
-      <c r="V63">
+      <c r="V67">
         <v>2020</v>
       </c>
-      <c r="W63">
+      <c r="W67">
         <v>2021</v>
       </c>
-      <c r="X63">
+      <c r="X67">
         <v>2022</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68">
         <v>1.6E-2</v>
       </c>
-      <c r="K64">
+      <c r="K68">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L64">
+      <c r="L68">
         <v>3.5431999999999998E-2</v>
       </c>
-      <c r="M64">
+      <c r="M68">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="N64">
+      <c r="N68">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O64">
+      <c r="O68">
         <v>0.110402</v>
       </c>
-      <c r="P64">
+      <c r="P68">
         <v>0.2</v>
       </c>
-      <c r="Q64">
+      <c r="Q68">
         <v>0.27200000000000002</v>
       </c>
-      <c r="R64">
+      <c r="R68">
         <v>0.35299999999999998</v>
       </c>
-      <c r="S64">
+      <c r="S68">
         <v>0.39598100000000003</v>
       </c>
-      <c r="T64">
+      <c r="T68">
         <v>1.5729660000000001</v>
       </c>
-      <c r="U64">
+      <c r="U68">
         <v>1.820811</v>
       </c>
-      <c r="V64">
+      <c r="V68">
         <v>1.699341</v>
       </c>
-      <c r="W64">
+      <c r="W68">
         <v>2.5888920000000004</v>
       </c>
-      <c r="X64">
+      <c r="X68">
         <v>2.2435940000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="B65">
+      <c r="B69">
         <v>17.207000000000001</v>
       </c>
-      <c r="C65">
+      <c r="C69">
         <v>19.757000000000001</v>
       </c>
-      <c r="D65">
+      <c r="D69">
         <v>17.373000000000001</v>
       </c>
-      <c r="E65">
+      <c r="E69">
         <v>19.462</v>
       </c>
-      <c r="F65">
+      <c r="F69">
         <v>19.106999999999999</v>
       </c>
-      <c r="G65">
+      <c r="G69">
         <v>18.625</v>
       </c>
-      <c r="H65">
+      <c r="H69">
         <v>19.206</v>
       </c>
-      <c r="I65">
+      <c r="I69">
         <v>22.463000000000001</v>
       </c>
-      <c r="J65">
+      <c r="J69">
         <v>23.22</v>
       </c>
-      <c r="K65">
+      <c r="K69">
         <v>21.103000000000002</v>
       </c>
-      <c r="L65">
+      <c r="L69">
         <v>22.606000000000002</v>
       </c>
-      <c r="M65">
+      <c r="M69">
         <v>27.536999999999999</v>
       </c>
-      <c r="N65">
+      <c r="N69">
         <v>22.876000000000001</v>
       </c>
-      <c r="O65">
+      <c r="O69">
         <v>19.391598000000002</v>
       </c>
-      <c r="P65">
+      <c r="P69">
         <v>21.305</v>
       </c>
-      <c r="Q65">
+      <c r="Q69">
         <v>22.521999999999998</v>
       </c>
-      <c r="R65">
+      <c r="R69">
         <v>19.364000000000001</v>
       </c>
-      <c r="S65">
+      <c r="S69">
         <v>20.914090999999999</v>
       </c>
-      <c r="T65">
+      <c r="T69">
         <v>18.659473000000002</v>
       </c>
-      <c r="U65">
+      <c r="U69">
         <v>17.224985</v>
       </c>
-      <c r="V65">
+      <c r="V69">
         <v>13.53266</v>
       </c>
-      <c r="W65">
+      <c r="W69">
         <v>17.085889999999999</v>
       </c>
-      <c r="X65">
+      <c r="X69">
         <v>21.785509999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>2</v>
       </c>
-      <c r="B66">
+      <c r="B70">
         <v>1.9119999999999999</v>
       </c>
-      <c r="C66">
+      <c r="C70">
         <v>1.9079999999999999</v>
       </c>
-      <c r="D66">
+      <c r="D70">
         <v>1.5389999999999999</v>
       </c>
-      <c r="E66">
+      <c r="E70">
         <v>1.762</v>
       </c>
-      <c r="F66">
+      <c r="F70">
         <v>1.494</v>
       </c>
-      <c r="G66">
+      <c r="G70">
         <v>1.7290000000000001</v>
       </c>
-      <c r="H66">
+      <c r="H70">
         <v>2.1589999999999998</v>
       </c>
-      <c r="I66">
+      <c r="I70">
         <v>2.3359999999999999</v>
       </c>
-      <c r="J66">
+      <c r="J70">
         <v>2.36</v>
       </c>
-      <c r="K66">
+      <c r="K70">
         <v>1.9610000000000001</v>
       </c>
-      <c r="L66">
+      <c r="L70">
         <v>1.9665680000000001</v>
       </c>
-      <c r="M66">
+      <c r="M70">
         <v>2.077</v>
       </c>
-      <c r="N66">
+      <c r="N70">
         <v>2.3559999999999999</v>
       </c>
-      <c r="O66">
+      <c r="O70">
         <v>2.339</v>
       </c>
-      <c r="P66">
+      <c r="P70">
         <v>2.1419999999999999</v>
       </c>
-      <c r="Q66">
+      <c r="Q70">
         <v>1.8640000000000001</v>
       </c>
-      <c r="R66">
+      <c r="R70">
         <v>2.0529999999999999</v>
       </c>
-      <c r="S66">
+      <c r="S70">
         <v>1.9266459999999999</v>
       </c>
-      <c r="T66">
+      <c r="T70">
         <v>2.0227580000000001</v>
       </c>
-      <c r="U66">
+      <c r="U70">
         <v>2.1529029999999998</v>
       </c>
-      <c r="V66">
+      <c r="V70">
         <v>2.292316</v>
       </c>
-      <c r="W66">
+      <c r="W70">
         <v>3.0456720000000002</v>
       </c>
-      <c r="X66">
+      <c r="X70">
         <v>2.0534110000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71">
         <v>2.9509999999999996</v>
       </c>
-      <c r="C67">
+      <c r="C71">
         <v>2.1710000000000003</v>
       </c>
-      <c r="D67">
+      <c r="D71">
         <v>2.7040000000000002</v>
       </c>
-      <c r="E67">
+      <c r="E71">
         <v>3.3010000000000002</v>
       </c>
-      <c r="F67">
+      <c r="F71">
         <v>3.3628110000000002</v>
       </c>
-      <c r="G67">
+      <c r="G71">
         <v>4.7298960000000001</v>
       </c>
-      <c r="H67">
+      <c r="H71">
         <v>4.5789740000000005</v>
       </c>
-      <c r="I67">
+      <c r="I71">
         <v>3.2339989999999998</v>
       </c>
-      <c r="J67">
+      <c r="J71">
         <v>3.2767620000000002</v>
       </c>
-      <c r="K67">
+      <c r="K71">
         <v>4.0527119999999996</v>
       </c>
-      <c r="L67">
+      <c r="L71">
         <v>5.6925160000000004</v>
       </c>
-      <c r="M67">
+      <c r="M71">
         <v>3.6909139999999998</v>
       </c>
-      <c r="N67">
+      <c r="N71">
         <v>3.9757060000000002</v>
       </c>
-      <c r="O67">
+      <c r="O71">
         <v>4.7951379999999997</v>
       </c>
-      <c r="P67">
+      <c r="P71">
         <v>5.1626289999999999</v>
       </c>
-      <c r="Q67">
+      <c r="Q71">
         <v>6.1465419999999993</v>
       </c>
-      <c r="R67">
+      <c r="R71">
         <v>4.5678419999999997</v>
       </c>
-      <c r="S67">
+      <c r="S71">
         <v>3.4929449999999997</v>
       </c>
-      <c r="T67">
+      <c r="T71">
         <v>5.4227320000000008</v>
       </c>
-      <c r="U67">
+      <c r="U71">
         <v>3.3827449999999999</v>
       </c>
-      <c r="V67">
+      <c r="V71">
         <v>3.3202579999999999</v>
       </c>
-      <c r="W67">
+      <c r="W71">
         <v>5.0671330000000001</v>
       </c>
-      <c r="X67">
+      <c r="X71">
         <v>3.833256</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C72">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D72">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E72">
+        <v>17.28</v>
+      </c>
+      <c r="F72">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G72">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H72">
+        <v>19.492999999999999</v>
+      </c>
+      <c r="I72">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="J72">
+        <v>15.765000000000001</v>
+      </c>
+      <c r="K72">
+        <v>15.256</v>
+      </c>
+      <c r="L72">
+        <v>15.249000000000001</v>
+      </c>
+      <c r="M72">
+        <v>16.314</v>
+      </c>
+      <c r="N72">
+        <v>15.785</v>
+      </c>
+      <c r="O72">
+        <v>14.170999999999999</v>
+      </c>
+      <c r="P72">
+        <v>15.867000000000001</v>
+      </c>
+      <c r="Q72">
+        <v>15.382999999999999</v>
+      </c>
+      <c r="R72">
+        <v>15.776</v>
+      </c>
+      <c r="S72">
+        <v>15.545499</v>
+      </c>
+      <c r="T72">
+        <v>16.125281000000001</v>
+      </c>
+      <c r="U72">
+        <v>16.555288000000001</v>
+      </c>
+      <c r="V72">
+        <v>16.625764999999998</v>
+      </c>
+      <c r="W72">
+        <v>16.486893999999999</v>
+      </c>
+      <c r="X72">
+        <v>16.462018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C73">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D73">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E73">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F73">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G73">
+        <v>0.623</v>
+      </c>
+      <c r="H73">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I73">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J73">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K73">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L73">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M73">
+        <v>0.16</v>
+      </c>
+      <c r="N73">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P73">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q73">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R73">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S73">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T73">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U73">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V73">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W73">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X73">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J74">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K74">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L74">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M74">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N74">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O74">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P74">
+        <v>1.256651</v>
+      </c>
+      <c r="Q74">
+        <v>1.381661</v>
+      </c>
+      <c r="R74">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S74">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T74">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U74">
+        <v>1.417286</v>
+      </c>
+      <c r="V74">
+        <v>1.46872</v>
+      </c>
+      <c r="W74">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X74">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>1E-3</v>
+      </c>
+      <c r="G75">
+        <v>4.5869999999999999E-3</v>
+      </c>
+      <c r="H75">
+        <v>2.0047000000000002E-2</v>
+      </c>
+      <c r="I75">
+        <v>4.6801999999999996E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.12175799999999999</v>
+      </c>
+      <c r="K75">
+        <v>0.237009</v>
+      </c>
+      <c r="L75">
+        <v>0.681369</v>
+      </c>
+      <c r="M75">
+        <v>0.86109500000000005</v>
+      </c>
+      <c r="N75">
+        <v>1.2208979999999998</v>
+      </c>
+      <c r="O75">
+        <v>1.3735119999999998</v>
+      </c>
+      <c r="P75">
+        <v>1.3305769999999999</v>
+      </c>
+      <c r="Q75">
+        <v>1.451511</v>
+      </c>
+      <c r="R75">
+        <v>1.4249700000000001</v>
+      </c>
+      <c r="S75">
+        <v>1.5040640000000001</v>
+      </c>
+      <c r="T75">
+        <v>1.3181230000000002</v>
+      </c>
+      <c r="U75">
+        <v>1.316988</v>
+      </c>
+      <c r="V75">
+        <v>1.4771310000000002</v>
+      </c>
+      <c r="W75">
+        <v>1.4335609999999999</v>
+      </c>
+      <c r="X75">
+        <v>1.499125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>2000</v>
+      </c>
+      <c r="D79">
+        <v>2001</v>
+      </c>
+      <c r="E79">
+        <v>2002</v>
+      </c>
+      <c r="F79">
+        <v>2003</v>
+      </c>
+      <c r="G79">
+        <v>2004</v>
+      </c>
+      <c r="H79">
+        <v>2005</v>
+      </c>
+      <c r="I79">
+        <v>2006</v>
+      </c>
+      <c r="J79">
+        <v>2007</v>
+      </c>
+      <c r="K79">
+        <v>2008</v>
+      </c>
+      <c r="L79">
+        <v>2009</v>
+      </c>
+      <c r="M79">
+        <v>2010</v>
+      </c>
+      <c r="N79">
+        <v>2011</v>
+      </c>
+      <c r="O79">
+        <v>2012</v>
+      </c>
+      <c r="P79">
+        <v>2013</v>
+      </c>
+      <c r="Q79">
+        <v>2014</v>
+      </c>
+      <c r="R79">
+        <v>2015</v>
+      </c>
+      <c r="S79">
+        <v>2016</v>
+      </c>
+      <c r="T79">
+        <v>2017</v>
+      </c>
+      <c r="U79">
+        <v>2018</v>
+      </c>
+      <c r="V79">
+        <v>2019</v>
+      </c>
+      <c r="W79">
+        <v>2020</v>
+      </c>
+      <c r="X79">
+        <v>2021</v>
+      </c>
+      <c r="Y79">
+        <v>2022</v>
+      </c>
+      <c r="Z79">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80">
+        <v>5.6</v>
+      </c>
+      <c r="D80">
         <v>8</v>
       </c>
-      <c r="B68">
-        <v>18.178000000000001</v>
-      </c>
-      <c r="C68">
-        <v>19.553000000000001</v>
-      </c>
-      <c r="D68">
-        <v>20.222000000000001</v>
-      </c>
-      <c r="E68">
-        <v>17.28</v>
-      </c>
-      <c r="F68">
-        <v>16.815000000000001</v>
-      </c>
-      <c r="G68">
-        <v>18.652999999999999</v>
-      </c>
-      <c r="H68">
-        <v>19.492999999999999</v>
-      </c>
-      <c r="I68">
-        <v>14.643000000000001</v>
-      </c>
-      <c r="J68">
-        <v>15.765000000000001</v>
-      </c>
-      <c r="K68">
-        <v>15.256</v>
-      </c>
-      <c r="L68">
-        <v>15.249000000000001</v>
-      </c>
-      <c r="M68">
-        <v>16.314</v>
-      </c>
-      <c r="N68">
-        <v>15.785</v>
-      </c>
-      <c r="O68">
-        <v>14.170999999999999</v>
-      </c>
-      <c r="P68">
-        <v>15.867000000000001</v>
-      </c>
-      <c r="Q68">
-        <v>15.382999999999999</v>
-      </c>
-      <c r="R68">
-        <v>15.776</v>
-      </c>
-      <c r="S68">
-        <v>15.545499</v>
-      </c>
-      <c r="T68">
-        <v>16.125281000000001</v>
-      </c>
-      <c r="U68">
-        <v>16.555288000000001</v>
-      </c>
-      <c r="V68">
-        <v>16.625764999999998</v>
-      </c>
-      <c r="W68">
-        <v>16.486893999999999</v>
-      </c>
-      <c r="X68">
-        <v>16.462018</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="E80">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F80">
+        <v>6.8</v>
+      </c>
+      <c r="G80">
+        <v>6.6</v>
+      </c>
+      <c r="H80">
+        <v>8.4</v>
+      </c>
+      <c r="I80">
+        <v>8.9</v>
+      </c>
+      <c r="J80">
+        <v>7.5</v>
+      </c>
+      <c r="K80">
+        <v>8.4</v>
+      </c>
+      <c r="L80">
+        <v>7.7</v>
+      </c>
+      <c r="M80">
+        <v>9.6</v>
+      </c>
+      <c r="N80">
+        <v>12.1</v>
+      </c>
+      <c r="O80">
+        <v>10.7</v>
+      </c>
+      <c r="P80">
+        <v>9.5</v>
+      </c>
+      <c r="Q80">
+        <v>13.8</v>
+      </c>
+      <c r="R80">
+        <v>14.8</v>
+      </c>
+      <c r="S80">
+        <v>10.9</v>
+      </c>
+      <c r="T80">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U80">
+        <v>10</v>
+      </c>
+      <c r="V80">
+        <v>8.9</v>
+      </c>
+      <c r="W80">
+        <v>7.1</v>
+      </c>
+      <c r="X80">
+        <v>10.6</v>
+      </c>
+      <c r="Y80">
+        <v>13.7</v>
+      </c>
+      <c r="Z80">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>1.3</v>
+      </c>
+      <c r="G81">
+        <v>0.7</v>
+      </c>
+      <c r="H81">
+        <v>0.8</v>
+      </c>
+      <c r="I81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J81">
+        <v>3.1</v>
+      </c>
+      <c r="K81">
+        <v>3.1</v>
+      </c>
+      <c r="L81">
+        <v>2.7</v>
+      </c>
+      <c r="M81">
+        <v>1.2</v>
+      </c>
+      <c r="N81">
+        <v>1.4</v>
+      </c>
+      <c r="O81">
+        <v>2.4</v>
+      </c>
+      <c r="P81">
+        <v>3.4</v>
+      </c>
+      <c r="Q81">
+        <v>4.3</v>
+      </c>
+      <c r="R81">
+        <v>4.3</v>
+      </c>
+      <c r="S81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T81">
+        <v>3.7</v>
+      </c>
+      <c r="U81">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V81">
         <v>3</v>
       </c>
-      <c r="B69">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="C69">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D69">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="E69">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="F69">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G69">
-        <v>0.623</v>
-      </c>
-      <c r="H69">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="I69">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="J69">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="K69">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L69">
-        <v>0.40700000000000003</v>
-      </c>
-      <c r="M69">
-        <v>0.16</v>
-      </c>
-      <c r="N69">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="O69">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="P69">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="Q69">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R69">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="S69">
-        <v>0.43059500000000001</v>
-      </c>
-      <c r="T69">
-        <v>0.37356200000000001</v>
-      </c>
-      <c r="U69">
-        <v>0.40558499999999997</v>
-      </c>
-      <c r="V69">
-        <v>0.33825000000000005</v>
-      </c>
-      <c r="W69">
-        <v>0.39345599999999997</v>
-      </c>
-      <c r="X69">
-        <v>0.52855200000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70">
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="J70">
-        <v>1.6700000000000002E-4</v>
-      </c>
-      <c r="K70">
-        <v>3.2669999999999999E-3</v>
-      </c>
-      <c r="L70">
-        <v>1.4865E-2</v>
-      </c>
-      <c r="M70">
-        <v>0.10086199999999999</v>
-      </c>
-      <c r="N70">
-        <v>0.77869600000000005</v>
-      </c>
-      <c r="O70">
-        <v>1.3919870000000001</v>
-      </c>
-      <c r="P70">
-        <v>1.256651</v>
-      </c>
-      <c r="Q70">
-        <v>1.381661</v>
-      </c>
-      <c r="R70">
-        <v>1.3879900000000001</v>
-      </c>
-      <c r="S70">
-        <v>1.4029700000000001</v>
-      </c>
-      <c r="T70">
-        <v>1.3427880000000001</v>
-      </c>
-      <c r="U70">
-        <v>1.417286</v>
-      </c>
-      <c r="V70">
-        <v>1.46872</v>
-      </c>
-      <c r="W70">
-        <v>1.4665979999999998</v>
-      </c>
-      <c r="X70">
-        <v>2.0938380000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71">
-        <v>1E-3</v>
-      </c>
-      <c r="G71">
-        <v>4.5869999999999999E-3</v>
-      </c>
-      <c r="H71">
-        <v>2.0047000000000002E-2</v>
-      </c>
-      <c r="I71">
-        <v>4.6801999999999996E-2</v>
-      </c>
-      <c r="J71">
-        <v>0.12175799999999999</v>
-      </c>
-      <c r="K71">
-        <v>0.237009</v>
-      </c>
-      <c r="L71">
-        <v>0.681369</v>
-      </c>
-      <c r="M71">
-        <v>0.86109500000000005</v>
-      </c>
-      <c r="N71">
-        <v>1.2208979999999998</v>
-      </c>
-      <c r="O71">
-        <v>1.3735119999999998</v>
-      </c>
-      <c r="P71">
-        <v>1.3305769999999999</v>
-      </c>
-      <c r="Q71">
-        <v>1.451511</v>
-      </c>
-      <c r="R71">
-        <v>1.4249700000000001</v>
-      </c>
-      <c r="S71">
-        <v>1.5040640000000001</v>
-      </c>
-      <c r="T71">
-        <v>1.3181230000000002</v>
-      </c>
-      <c r="U71">
-        <v>1.316988</v>
-      </c>
-      <c r="V71">
-        <v>1.4771310000000002</v>
-      </c>
-      <c r="W71">
-        <v>1.4335609999999999</v>
-      </c>
-      <c r="X71">
-        <v>1.499125</v>
+      <c r="W81">
+        <v>3.7</v>
+      </c>
+      <c r="X81">
+        <v>1.9</v>
+      </c>
+      <c r="Y81">
+        <v>1.5</v>
+      </c>
+      <c r="Z81">
+        <v>4.4000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F14531B-1C43-4896-9029-F6F8C68D0C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07D71F-687F-451C-A851-B72DD70DCF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z72"/>
+  <dimension ref="A1:Z74"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -2022,3256 +2022,3256 @@
         <v>0.25277234181343772</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14">
-        <v>2001</v>
-      </c>
-      <c r="D14">
-        <v>2002</v>
-      </c>
-      <c r="E14">
-        <v>2003</v>
-      </c>
-      <c r="F14">
-        <v>2004</v>
-      </c>
-      <c r="G14">
-        <v>2005</v>
-      </c>
-      <c r="H14">
-        <v>2006</v>
-      </c>
-      <c r="I14">
-        <v>2007</v>
-      </c>
-      <c r="J14">
-        <v>2008</v>
-      </c>
-      <c r="K14">
-        <v>2009</v>
-      </c>
-      <c r="L14">
-        <v>2010</v>
-      </c>
-      <c r="M14">
-        <v>2011</v>
-      </c>
-      <c r="N14">
-        <v>2012</v>
-      </c>
-      <c r="O14">
-        <v>2013</v>
-      </c>
-      <c r="P14">
-        <v>2014</v>
-      </c>
-      <c r="Q14">
-        <v>2015</v>
-      </c>
-      <c r="R14">
-        <v>2016</v>
-      </c>
-      <c r="S14">
-        <v>2017</v>
-      </c>
-      <c r="T14">
-        <v>2018</v>
-      </c>
-      <c r="U14">
-        <v>2019</v>
-      </c>
-      <c r="V14">
-        <v>2020</v>
-      </c>
-      <c r="W14">
-        <v>2021</v>
-      </c>
-      <c r="X14">
-        <v>2022</v>
-      </c>
-    </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.30441400304414001</v>
-      </c>
-      <c r="K15">
-        <v>0.10147133434804669</v>
-      </c>
-      <c r="L15">
-        <v>0.40447488584474894</v>
-      </c>
-      <c r="M15">
-        <v>0.5811540058115402</v>
-      </c>
-      <c r="N15">
-        <v>0.53816046966731901</v>
-      </c>
-      <c r="O15">
-        <v>0.37067553048616708</v>
-      </c>
-      <c r="P15">
-        <v>0.57077625570776258</v>
-      </c>
-      <c r="Q15">
-        <v>0.57500422797226458</v>
-      </c>
-      <c r="R15">
-        <v>0.70696146759593048</v>
-      </c>
-      <c r="S15">
-        <v>0.86924428402751963</v>
-      </c>
-      <c r="T15">
-        <v>2.5863099724480505</v>
-      </c>
-      <c r="U15">
-        <v>3.6549813955986812</v>
-      </c>
-      <c r="V15">
-        <v>4.036889720525596</v>
-      </c>
-      <c r="W15">
-        <v>6.2453375126974553</v>
-      </c>
-      <c r="X15">
-        <v>3.2548137163984849</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0.17918731176527739</v>
+        <v>2000</v>
       </c>
       <c r="C16">
-        <v>0.14535545467936098</v>
+        <v>2001</v>
       </c>
       <c r="D16">
-        <v>0.15845780240593327</v>
+        <v>2002</v>
       </c>
       <c r="E16">
-        <v>0.1498316039834055</v>
+        <v>2003</v>
       </c>
       <c r="F16">
-        <v>0.1347902156764661</v>
+        <v>2004</v>
       </c>
       <c r="G16">
-        <v>0.18958653994151151</v>
+        <v>2005</v>
       </c>
       <c r="H16">
-        <v>0.18353719344825822</v>
+        <v>2006</v>
       </c>
       <c r="I16">
-        <v>0.12836507928947488</v>
+        <v>2007</v>
       </c>
       <c r="J16">
-        <v>0.12535509016122517</v>
+        <v>2008</v>
       </c>
       <c r="K16">
-        <v>0.15416139825537606</v>
+        <v>2009</v>
       </c>
       <c r="L16">
-        <v>0.21319901365069094</v>
+        <v>2010</v>
       </c>
       <c r="M16">
-        <v>0.13556538436675425</v>
+        <v>2011</v>
       </c>
       <c r="N16">
-        <v>0.1426745416205524</v>
+        <v>2012</v>
       </c>
       <c r="O16">
-        <v>0.17089921406444017</v>
+        <v>2013</v>
       </c>
       <c r="P16">
-        <v>0.18308207829936693</v>
+        <v>2014</v>
       </c>
       <c r="Q16">
-        <v>0.21797454043557021</v>
+        <v>2015</v>
       </c>
       <c r="R16">
-        <v>0.16178813238750592</v>
+        <v>2016</v>
       </c>
       <c r="S16">
-        <v>0.11826549026371555</v>
+        <v>2017</v>
       </c>
       <c r="T16">
-        <v>0.18320015783762453</v>
+        <v>2018</v>
       </c>
       <c r="U16">
-        <v>0.11430375923833559</v>
+        <v>2019</v>
       </c>
       <c r="V16">
-        <v>0.11225524213694742</v>
+        <v>2020</v>
       </c>
       <c r="W16">
-        <v>0.1716829439171017</v>
+        <v>2021</v>
       </c>
       <c r="X16">
-        <v>0.13069358514235713</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0.58751816400088952</v>
-      </c>
-      <c r="C17">
-        <v>0.63195855763612019</v>
-      </c>
-      <c r="D17">
-        <v>0.84807034848805107</v>
-      </c>
-      <c r="E17">
-        <v>0.72468873612271401</v>
-      </c>
-      <c r="F17">
-        <v>0.70518756353607848</v>
-      </c>
-      <c r="G17">
-        <v>0.78226961776024206</v>
-      </c>
-      <c r="H17">
-        <v>0.81749754243287398</v>
-      </c>
-      <c r="I17">
-        <v>0.88349648121868596</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.95119319991890894</v>
+        <v>0.30441400304414001</v>
       </c>
       <c r="K17">
-        <v>0.92048229990249752</v>
+        <v>0.10147133434804669</v>
       </c>
       <c r="L17">
-        <v>0.92005994960757642</v>
+        <v>0.40447488584474894</v>
       </c>
       <c r="M17">
-        <v>0.98431753019201262</v>
+        <v>0.5811540058115402</v>
       </c>
       <c r="N17">
-        <v>0.94540432280661413</v>
+        <v>0.53816046966731901</v>
       </c>
       <c r="O17">
-        <v>0.81619276686525755</v>
+        <v>0.37067553048616708</v>
       </c>
       <c r="P17">
-        <v>0.91711461765215874</v>
+        <v>0.57077625570776258</v>
       </c>
       <c r="Q17">
-        <v>0.88913935610658323</v>
+        <v>0.57500422797226458</v>
       </c>
       <c r="R17">
-        <v>0.91556341739152636</v>
+        <v>0.70696146759593048</v>
       </c>
       <c r="S17">
-        <v>0.90218624426321981</v>
+        <v>0.86924428402751963</v>
       </c>
       <c r="T17">
-        <v>0.91672584775055033</v>
+        <v>2.5863099724480505</v>
       </c>
       <c r="U17">
-        <v>0.942110199083116</v>
+        <v>3.6549813955986812</v>
       </c>
       <c r="V17">
-        <v>0.94612082701666678</v>
+        <v>4.036889720525596</v>
       </c>
       <c r="W17">
-        <v>0.9382181082323805</v>
+        <v>6.2453375126974553</v>
       </c>
       <c r="X17">
-        <v>0.93680249206717758</v>
+        <v>3.2548137163984849</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>1.3728687025740881E-2</v>
+        <v>0.17918731176527739</v>
       </c>
       <c r="C18">
-        <v>8.9246408872480296E-3</v>
+        <v>0.14535545467936098</v>
       </c>
       <c r="D18">
-        <v>1.4064542368890371E-2</v>
+        <v>0.15845780240593327</v>
       </c>
       <c r="E18">
-        <v>1.3440969291696423E-2</v>
+        <v>0.1498316039834055</v>
       </c>
       <c r="F18">
-        <v>1.4367639360976603E-2</v>
+        <v>0.1347902156764661</v>
       </c>
       <c r="G18">
-        <v>1.06544901065449E-2</v>
+        <v>0.18958653994151151</v>
       </c>
       <c r="H18">
-        <v>6.8721033906174785E-3</v>
+        <v>0.18353719344825822</v>
       </c>
       <c r="I18">
-        <v>1.3383397499030053E-2</v>
+        <v>0.12836507928947488</v>
       </c>
       <c r="J18">
-        <v>6.8134032678754683E-3</v>
+        <v>0.12535509016122517</v>
       </c>
       <c r="K18">
-        <v>8.974387151398696E-3</v>
+        <v>0.15416139825537606</v>
       </c>
       <c r="L18">
-        <v>1.0171012962918537E-2</v>
+        <v>0.21319901365069094</v>
       </c>
       <c r="M18">
-        <v>4.0275281549390085E-3</v>
+        <v>0.13556538436675425</v>
       </c>
       <c r="N18">
-        <v>5.4770281784942507E-3</v>
+        <v>0.1426745416205524</v>
       </c>
       <c r="O18">
-        <v>5.9193423561722108E-3</v>
+        <v>0.17089921406444017</v>
       </c>
       <c r="P18">
-        <v>5.7979529360833674E-3</v>
+        <v>0.18308207829936693</v>
       </c>
       <c r="Q18">
-        <v>5.9440758150922698E-3</v>
+        <v>0.21797454043557021</v>
       </c>
       <c r="R18">
-        <v>1.0672682178439969E-2</v>
+        <v>0.16178813238750592</v>
       </c>
       <c r="S18">
-        <v>1.3166338195431674E-2</v>
+        <v>0.11826549026371555</v>
       </c>
       <c r="T18">
-        <v>1.0273264456408587E-2</v>
+        <v>0.18320015783762453</v>
       </c>
       <c r="U18">
-        <v>1.1459284473580975E-2</v>
+        <v>0.11430375923833559</v>
       </c>
       <c r="V18">
-        <v>1.0273784895450284E-2</v>
+        <v>0.11225524213694742</v>
       </c>
       <c r="W18">
-        <v>1.1799059936493149E-2</v>
+        <v>0.1716829439171017</v>
       </c>
       <c r="X18">
-        <v>1.5180712412366853E-2</v>
+        <v>0.13069358514235713</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.58751816400088952</v>
+      </c>
+      <c r="C19">
+        <v>0.63195855763612019</v>
+      </c>
+      <c r="D19">
+        <v>0.84807034848805107</v>
+      </c>
+      <c r="E19">
+        <v>0.72468873612271401</v>
+      </c>
+      <c r="F19">
+        <v>0.70518756353607848</v>
+      </c>
+      <c r="G19">
+        <v>0.78226961776024206</v>
+      </c>
+      <c r="H19">
+        <v>0.81749754243287398</v>
       </c>
       <c r="I19">
-        <v>0.22831050228310501</v>
+        <v>0.88349648121868596</v>
       </c>
       <c r="J19">
-        <v>0.1906392694063927</v>
+        <v>0.95119319991890894</v>
       </c>
       <c r="K19">
-        <v>0.18647260273972602</v>
+        <v>0.92048229990249752</v>
       </c>
       <c r="L19">
-        <v>6.7876712328767116E-2</v>
+        <v>0.92005994960757642</v>
       </c>
       <c r="M19">
-        <v>7.476575935480044E-2</v>
+        <v>0.98431753019201262</v>
       </c>
       <c r="N19">
-        <v>9.6412405035707568E-2</v>
+        <v>0.94540432280661413</v>
       </c>
       <c r="O19">
-        <v>0.15293804193529958</v>
+        <v>0.81619276686525755</v>
       </c>
       <c r="P19">
-        <v>0.13941040865139273</v>
+        <v>0.91711461765215874</v>
       </c>
       <c r="Q19">
-        <v>0.1534278778672068</v>
+        <v>0.88913935610658323</v>
       </c>
       <c r="R19">
-        <v>0.15383140488540142</v>
+        <v>0.91556341739152636</v>
       </c>
       <c r="S19">
-        <v>0.15538589047072227</v>
+        <v>0.90218624426321981</v>
       </c>
       <c r="T19">
-        <v>0.14838111835914639</v>
+        <v>0.91672584775055033</v>
       </c>
       <c r="U19">
-        <v>0.15491400651998427</v>
+        <v>0.942110199083116</v>
       </c>
       <c r="V19">
-        <v>0.15239085998651261</v>
+        <v>0.94612082701666678</v>
       </c>
       <c r="W19">
-        <v>0.13133926069138591</v>
+        <v>0.9382181082323805</v>
       </c>
       <c r="X19">
-        <v>0.13764325363624622</v>
+        <v>0.93680249206717758</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1.3728687025740881E-2</v>
+      </c>
+      <c r="C20">
+        <v>8.9246408872480296E-3</v>
+      </c>
+      <c r="D20">
+        <v>1.4064542368890371E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.3440969291696423E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.4367639360976603E-2</v>
+      </c>
+      <c r="G20">
+        <v>1.06544901065449E-2</v>
+      </c>
+      <c r="H20">
+        <v>6.8721033906174785E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.3383397499030053E-2</v>
+      </c>
+      <c r="J20">
+        <v>6.8134032678754683E-3</v>
+      </c>
+      <c r="K20">
+        <v>8.974387151398696E-3</v>
+      </c>
+      <c r="L20">
+        <v>1.0171012962918537E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.0275281549390085E-3</v>
+      </c>
+      <c r="N20">
+        <v>5.4770281784942507E-3</v>
+      </c>
+      <c r="O20">
+        <v>5.9193423561722108E-3</v>
+      </c>
+      <c r="P20">
+        <v>5.7979529360833674E-3</v>
+      </c>
+      <c r="Q20">
+        <v>5.9440758150922698E-3</v>
+      </c>
+      <c r="R20">
+        <v>1.0672682178439969E-2</v>
+      </c>
+      <c r="S20">
+        <v>1.3166338195431674E-2</v>
+      </c>
+      <c r="T20">
+        <v>1.0273264456408587E-2</v>
+      </c>
+      <c r="U20">
+        <v>1.1459284473580975E-2</v>
+      </c>
+      <c r="V20">
+        <v>1.0273784895450284E-2</v>
+      </c>
+      <c r="W20">
+        <v>1.1799059936493149E-2</v>
+      </c>
+      <c r="X20">
+        <v>1.5180712412366853E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21">
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="J21">
+        <v>0.1906392694063927</v>
+      </c>
+      <c r="K21">
+        <v>0.18647260273972602</v>
+      </c>
+      <c r="L21">
+        <v>6.7876712328767116E-2</v>
+      </c>
+      <c r="M21">
+        <v>7.476575935480044E-2</v>
+      </c>
+      <c r="N21">
+        <v>9.6412405035707568E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.15293804193529958</v>
+      </c>
+      <c r="P21">
+        <v>0.13941040865139273</v>
+      </c>
+      <c r="Q21">
+        <v>0.1534278778672068</v>
+      </c>
+      <c r="R21">
+        <v>0.15383140488540142</v>
+      </c>
+      <c r="S21">
+        <v>0.15538589047072227</v>
+      </c>
+      <c r="T21">
+        <v>0.14838111835914639</v>
+      </c>
+      <c r="U21">
+        <v>0.15491400651998427</v>
+      </c>
+      <c r="V21">
+        <v>0.15239085998651261</v>
+      </c>
+      <c r="W21">
+        <v>0.13133926069138591</v>
+      </c>
+      <c r="X21">
+        <v>0.13764325363624622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>0.11415525114155251</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>8.4758159986470502E-2</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>0.17808980213089803</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>0.12192381639029079</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <v>8.1248714467892558E-2</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>0.15938903548169775</v>
       </c>
-      <c r="M20">
+      <c r="M22">
         <v>0.18169781142649755</v>
       </c>
-      <c r="N20">
+      <c r="N22">
         <v>0.2058669391554197</v>
       </c>
-      <c r="O20">
+      <c r="O22">
         <v>0.22956604290766625</v>
       </c>
-      <c r="P20">
+      <c r="P22">
         <v>0.2172995015710637</v>
       </c>
-      <c r="Q20">
+      <c r="Q22">
         <v>0.23704950320418605</v>
       </c>
-      <c r="R20">
+      <c r="R22">
         <v>0.23271503321770831</v>
       </c>
-      <c r="S20">
+      <c r="S22">
         <v>0.24584659524473154</v>
       </c>
-      <c r="T20">
+      <c r="T22">
         <v>0.21529025081619735</v>
       </c>
-      <c r="U20">
+      <c r="U22">
         <v>0.21381996798613462</v>
       </c>
-      <c r="V20">
+      <c r="V22">
         <v>0.23992922634315969</v>
       </c>
-      <c r="W20">
+      <c r="W22">
         <v>0.2323315222455867</v>
       </c>
-      <c r="X20">
+      <c r="X22">
         <v>0.24297964087912982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>2000</v>
-      </c>
-      <c r="C24">
-        <v>2001</v>
-      </c>
-      <c r="D24">
-        <v>2002</v>
-      </c>
-      <c r="E24">
-        <v>2003</v>
-      </c>
-      <c r="F24">
-        <v>2004</v>
-      </c>
-      <c r="G24">
-        <v>2005</v>
-      </c>
-      <c r="H24">
-        <v>2006</v>
-      </c>
-      <c r="I24">
-        <v>2007</v>
-      </c>
-      <c r="J24">
-        <v>2008</v>
-      </c>
-      <c r="K24">
-        <v>2009</v>
-      </c>
-      <c r="L24">
-        <v>2010</v>
-      </c>
-      <c r="M24">
-        <v>2011</v>
-      </c>
-      <c r="N24">
-        <v>2012</v>
-      </c>
-      <c r="O24">
-        <v>2013</v>
-      </c>
-      <c r="P24">
-        <v>2014</v>
-      </c>
-      <c r="Q24">
-        <v>2015</v>
-      </c>
-      <c r="R24">
-        <v>2016</v>
-      </c>
-      <c r="S24">
-        <v>2017</v>
-      </c>
-      <c r="T24">
-        <v>2018</v>
-      </c>
-      <c r="U24">
-        <v>2019</v>
-      </c>
-      <c r="V24">
-        <v>2020</v>
-      </c>
-      <c r="W24">
-        <v>2021</v>
-      </c>
-      <c r="X24">
-        <v>2022</v>
-      </c>
-      <c r="Y24">
-        <v>2023</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0.05</v>
-      </c>
-      <c r="C25">
-        <v>0.05</v>
-      </c>
-      <c r="D25">
-        <v>0.05</v>
-      </c>
-      <c r="E25">
-        <v>0.01</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25">
-        <v>0.01</v>
-      </c>
-      <c r="H25">
-        <v>0.01</v>
-      </c>
-      <c r="I25">
-        <v>0.01</v>
-      </c>
-      <c r="J25">
-        <v>0.01</v>
-      </c>
-      <c r="K25">
-        <v>0.01</v>
-      </c>
-      <c r="L25">
-        <v>0.01</v>
-      </c>
-      <c r="M25">
-        <v>0.01</v>
-      </c>
-      <c r="N25">
-        <v>0.01</v>
-      </c>
-      <c r="O25">
-        <v>0.03</v>
-      </c>
-      <c r="P25">
-        <v>0.04</v>
-      </c>
-      <c r="Q25">
-        <v>0.05</v>
-      </c>
-      <c r="R25">
-        <v>0.06</v>
-      </c>
-      <c r="S25">
-        <v>0.05</v>
-      </c>
-      <c r="T25">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U25">
-        <v>0.06</v>
-      </c>
-      <c r="V25">
-        <v>0.05</v>
-      </c>
-      <c r="W25">
-        <v>0.05</v>
-      </c>
-      <c r="X25">
-        <v>0.05</v>
-      </c>
-      <c r="Y25">
-        <v>0.05</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>5.62</v>
+        <v>2000</v>
       </c>
       <c r="C26">
-        <v>5.62</v>
+        <v>2001</v>
       </c>
       <c r="D26">
-        <v>5.62</v>
+        <v>2002</v>
       </c>
       <c r="E26">
-        <v>5.62</v>
+        <v>2003</v>
       </c>
       <c r="F26">
-        <v>5.5</v>
+        <v>2004</v>
       </c>
       <c r="G26">
-        <v>5.5</v>
+        <v>2005</v>
       </c>
       <c r="H26">
-        <v>5.5</v>
+        <v>2006</v>
       </c>
       <c r="I26">
-        <v>5.5</v>
+        <v>2007</v>
       </c>
       <c r="J26">
-        <v>5.5</v>
+        <v>2008</v>
       </c>
       <c r="K26">
-        <v>5.63</v>
+        <v>2009</v>
       </c>
       <c r="L26">
-        <v>5.63</v>
+        <v>2010</v>
       </c>
       <c r="M26">
-        <v>6.32</v>
+        <v>2011</v>
       </c>
       <c r="N26">
-        <v>6.32</v>
+        <v>2012</v>
       </c>
       <c r="O26">
-        <v>6.11</v>
+        <v>2013</v>
       </c>
       <c r="P26">
-        <v>5.9</v>
+        <v>2014</v>
       </c>
       <c r="Q26">
-        <v>5.0599999999999996</v>
+        <v>2015</v>
       </c>
       <c r="R26">
-        <v>5.0599999999999996</v>
+        <v>2016</v>
       </c>
       <c r="S26">
-        <v>5.1100000000000003</v>
+        <v>2017</v>
       </c>
       <c r="T26">
-        <v>5.1100000000000003</v>
+        <v>2018</v>
       </c>
       <c r="U26">
-        <v>5.1100000000000003</v>
+        <v>2019</v>
       </c>
       <c r="V26">
-        <v>5.1100000000000003</v>
+        <v>2020</v>
       </c>
       <c r="W26">
-        <v>5.1100000000000003</v>
+        <v>2021</v>
       </c>
       <c r="X26">
-        <v>5.1100000000000003</v>
+        <v>2022</v>
       </c>
       <c r="Y26">
-        <v>5.1100000000000003</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C27">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D27">
-        <v>1.1100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="G27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H27">
-        <v>1.1100000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="I27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="L27">
-        <v>1.1499999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M27">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="N27">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="O27">
-        <v>1.2</v>
+        <v>0.03</v>
       </c>
       <c r="P27">
-        <v>1.2</v>
+        <v>0.04</v>
       </c>
       <c r="Q27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="R27">
-        <v>1.2</v>
+        <v>0.06</v>
       </c>
       <c r="S27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="T27">
-        <v>1.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U27">
-        <v>1.2</v>
+        <v>0.06</v>
       </c>
       <c r="V27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="X27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
       <c r="Y27">
-        <v>1.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>1.02</v>
+        <v>5.62</v>
       </c>
       <c r="C28">
-        <v>0.84</v>
+        <v>5.62</v>
       </c>
       <c r="D28">
-        <v>1.08</v>
+        <v>5.62</v>
       </c>
       <c r="E28">
-        <v>1.65</v>
+        <v>5.62</v>
       </c>
       <c r="F28">
-        <v>1.98</v>
+        <v>5.5</v>
       </c>
       <c r="G28">
-        <v>1.98</v>
+        <v>5.5</v>
       </c>
       <c r="H28">
-        <v>1.98</v>
+        <v>5.5</v>
       </c>
       <c r="I28">
-        <v>2.0099999999999998</v>
+        <v>5.5</v>
       </c>
       <c r="J28">
-        <v>2.12</v>
+        <v>5.5</v>
       </c>
       <c r="K28">
-        <v>2.14</v>
+        <v>5.63</v>
       </c>
       <c r="L28">
-        <v>2.1800000000000002</v>
+        <v>5.63</v>
       </c>
       <c r="M28">
-        <v>2.2400000000000002</v>
+        <v>6.32</v>
       </c>
       <c r="N28">
-        <v>2.3199999999999998</v>
+        <v>6.32</v>
       </c>
       <c r="O28">
-        <v>2.34</v>
+        <v>6.11</v>
       </c>
       <c r="P28">
-        <v>2.36</v>
+        <v>5.9</v>
       </c>
       <c r="Q28">
-        <v>2.36</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R28">
-        <v>2.36</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W28">
-        <v>2.5099999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X28">
-        <v>2.5299999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y28">
-        <v>2.5299999999999998</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>3.53</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C29">
-        <v>3.53</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H29">
-        <v>2.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L29">
-        <v>1.89</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M29">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="N29">
-        <v>1.91</v>
+        <v>1.2</v>
       </c>
       <c r="O29">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="P29">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="Q29">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="R29">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="S29">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="T29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="U29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="V29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="W29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="X29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="Y29">
-        <v>2.0099999999999998</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3.53</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="L31">
-        <v>0.03</v>
+        <v>1.89</v>
       </c>
       <c r="M31">
-        <v>0.15</v>
+        <v>1.89</v>
       </c>
       <c r="N31">
-        <v>0.92</v>
+        <v>1.91</v>
       </c>
       <c r="O31">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="P31">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="Q31">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="R31">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="S31">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="T31">
-        <v>1.03</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="U31">
-        <v>1.04</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="V31">
-        <v>1.1000000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="W31">
-        <v>1.27</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="X31">
-        <v>1.74</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="Y31">
-        <v>2.94</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0.03</v>
+      </c>
+      <c r="M33">
+        <v>0.15</v>
+      </c>
+      <c r="N33">
+        <v>0.92</v>
+      </c>
+      <c r="O33">
+        <v>1.04</v>
+      </c>
+      <c r="P33">
+        <v>1.03</v>
+      </c>
+      <c r="Q33">
+        <v>1.03</v>
+      </c>
+      <c r="R33">
+        <v>1.03</v>
+      </c>
+      <c r="S33">
+        <v>1.03</v>
+      </c>
+      <c r="T33">
+        <v>1.03</v>
+      </c>
+      <c r="U33">
+        <v>1.04</v>
+      </c>
+      <c r="V33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W33">
+        <v>1.27</v>
+      </c>
+      <c r="X33">
+        <v>1.74</v>
+      </c>
+      <c r="Y33">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>0.01</v>
       </c>
-      <c r="H32">
+      <c r="H34">
         <v>0.03</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>0.03</v>
       </c>
-      <c r="J32">
+      <c r="J34">
         <v>0.11</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>0.33</v>
       </c>
-      <c r="L32">
+      <c r="L34">
         <v>0.49</v>
       </c>
-      <c r="M32">
+      <c r="M34">
         <v>0.54</v>
       </c>
-      <c r="N32">
+      <c r="N34">
         <v>0.68</v>
       </c>
-      <c r="O32">
+      <c r="O34">
         <v>0.68</v>
       </c>
-      <c r="P32">
+      <c r="P34">
         <v>0.7</v>
       </c>
-      <c r="Q32">
+      <c r="Q34">
         <v>0.7</v>
       </c>
-      <c r="R32">
+      <c r="R34">
         <v>0.7</v>
       </c>
-      <c r="S32">
+      <c r="S34">
         <v>0.7</v>
       </c>
-      <c r="T32">
+      <c r="T34">
         <v>0.7</v>
       </c>
-      <c r="U32">
+      <c r="U34">
         <v>0.7</v>
       </c>
-      <c r="V32">
+      <c r="V34">
         <v>0.7</v>
       </c>
-      <c r="W32">
+      <c r="W34">
         <v>0.7</v>
       </c>
-      <c r="X32">
+      <c r="X34">
         <v>0.7</v>
       </c>
-      <c r="Y32">
+      <c r="Y34">
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>4</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>2000</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>2001</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>2002</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>2003</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <v>2004</v>
       </c>
-      <c r="G36">
+      <c r="G38">
         <v>2005</v>
       </c>
-      <c r="H36">
+      <c r="H38">
         <v>2006</v>
       </c>
-      <c r="I36">
+      <c r="I38">
         <v>2007</v>
       </c>
-      <c r="J36">
+      <c r="J38">
         <v>2008</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>2009</v>
       </c>
-      <c r="L36">
+      <c r="L38">
         <v>2010</v>
       </c>
-      <c r="M36">
+      <c r="M38">
         <v>2011</v>
       </c>
-      <c r="N36">
+      <c r="N38">
         <v>2012</v>
       </c>
-      <c r="O36">
+      <c r="O38">
         <v>2013</v>
       </c>
-      <c r="P36">
+      <c r="P38">
         <v>2014</v>
       </c>
-      <c r="Q36">
+      <c r="Q38">
         <v>2015</v>
       </c>
-      <c r="R36">
+      <c r="R38">
         <v>2016</v>
       </c>
-      <c r="S36">
+      <c r="S38">
         <v>2017</v>
       </c>
-      <c r="T36">
+      <c r="T38">
         <v>2018</v>
       </c>
-      <c r="U36">
+      <c r="U38">
         <v>2019</v>
       </c>
-      <c r="V36">
+      <c r="V38">
         <v>2020</v>
       </c>
-      <c r="W36">
+      <c r="W38">
         <v>2021</v>
       </c>
-      <c r="X36">
+      <c r="X38">
         <v>2022</v>
       </c>
-      <c r="Y36">
+      <c r="Y38">
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>0.02</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>0.01</v>
       </c>
-      <c r="L37">
+      <c r="L39">
         <v>0.04</v>
       </c>
-      <c r="M37">
+      <c r="M39">
         <v>0.06</v>
       </c>
-      <c r="N37">
+      <c r="N39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O37">
+      <c r="O39">
         <v>0.11</v>
       </c>
-      <c r="P37">
+      <c r="P39">
         <v>0.2</v>
       </c>
-      <c r="Q37">
+      <c r="Q39">
         <v>0.27</v>
       </c>
-      <c r="R37">
+      <c r="R39">
         <v>0.35</v>
       </c>
-      <c r="S37">
+      <c r="S39">
         <v>0.4</v>
       </c>
-      <c r="T37">
+      <c r="T39">
         <v>1.57</v>
       </c>
-      <c r="U37">
+      <c r="U39">
         <v>1.82</v>
       </c>
-      <c r="V37">
+      <c r="V39">
         <v>1.7</v>
       </c>
-      <c r="W37">
+      <c r="W39">
         <v>2.59</v>
       </c>
-      <c r="X37">
+      <c r="X39">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Y37">
+      <c r="Y39">
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>16.940000000000001</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>19.5</v>
       </c>
-      <c r="D38">
+      <c r="D40">
         <v>17.18</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>19.239999999999998</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <v>18.899999999999999</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>18.46</v>
       </c>
-      <c r="H38">
+      <c r="H40">
         <v>19.09</v>
       </c>
-      <c r="I38">
+      <c r="I40">
         <v>22.37</v>
       </c>
-      <c r="J38">
+      <c r="J40">
         <v>23.18</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>21.1</v>
       </c>
-      <c r="L38">
+      <c r="L40">
         <v>22.61</v>
       </c>
-      <c r="M38">
+      <c r="M40">
         <v>27.53</v>
       </c>
-      <c r="N38">
+      <c r="N40">
         <v>22.87</v>
       </c>
-      <c r="O38">
+      <c r="O40">
         <v>19.39</v>
       </c>
-      <c r="P38">
+      <c r="P40">
         <v>21.31</v>
       </c>
-      <c r="Q38">
+      <c r="Q40">
         <v>22.53</v>
       </c>
-      <c r="R38">
+      <c r="R40">
         <v>19.37</v>
       </c>
-      <c r="S38">
+      <c r="S40">
         <v>20.92</v>
       </c>
-      <c r="T38">
+      <c r="T40">
         <v>18.66</v>
       </c>
-      <c r="U38">
+      <c r="U40">
         <v>17.2</v>
       </c>
-      <c r="V38">
+      <c r="V40">
         <v>13.51</v>
       </c>
-      <c r="W38">
+      <c r="W40">
         <v>17.09</v>
       </c>
-      <c r="X38">
+      <c r="X40">
         <v>21.79</v>
       </c>
-      <c r="Y38">
+      <c r="Y40">
         <v>11.56</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>2</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>1.91</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>1.91</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>1.54</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>1.76</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>1.49</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>1.73</v>
       </c>
-      <c r="H39">
+      <c r="H41">
         <v>2.16</v>
       </c>
-      <c r="I39">
+      <c r="I41">
         <v>2.34</v>
       </c>
-      <c r="J39">
+      <c r="J41">
         <v>2.36</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <v>1.96</v>
       </c>
-      <c r="L39">
+      <c r="L41">
         <v>1.97</v>
       </c>
-      <c r="M39">
+      <c r="M41">
         <v>2.08</v>
       </c>
-      <c r="N39">
+      <c r="N41">
         <v>2.36</v>
       </c>
-      <c r="O39">
+      <c r="O41">
         <v>2.34</v>
       </c>
-      <c r="P39">
+      <c r="P41">
         <v>2.14</v>
       </c>
-      <c r="Q39">
+      <c r="Q41">
         <v>1.86</v>
       </c>
-      <c r="R39">
+      <c r="R41">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S39">
+      <c r="S41">
         <v>1.93</v>
       </c>
-      <c r="T39">
+      <c r="T41">
         <v>2.02</v>
       </c>
-      <c r="U39">
+      <c r="U41">
         <v>2.15</v>
       </c>
-      <c r="V39">
+      <c r="V41">
         <v>2.29</v>
       </c>
-      <c r="W39">
+      <c r="W41">
         <v>3.05</v>
       </c>
-      <c r="X39">
+      <c r="X41">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Y39">
+      <c r="Y41">
         <v>1.56</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>2.63</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>1.65</v>
       </c>
-      <c r="D40">
+      <c r="D42">
         <v>2.12</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>2.99</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <v>3.14</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <v>4.3</v>
       </c>
-      <c r="H40">
+      <c r="H42">
         <v>4.21</v>
       </c>
-      <c r="I40">
+      <c r="I42">
         <v>2.83</v>
       </c>
-      <c r="J40">
+      <c r="J42">
         <v>2.79</v>
       </c>
-      <c r="K40">
+      <c r="K42">
         <v>3.43</v>
       </c>
-      <c r="L40">
+      <c r="L42">
         <v>5.03</v>
       </c>
-      <c r="M40">
+      <c r="M42">
         <v>2.87</v>
       </c>
-      <c r="N40">
+      <c r="N42">
         <v>3.18</v>
       </c>
-      <c r="O40">
+      <c r="O42">
         <v>4.04</v>
       </c>
-      <c r="P40">
+      <c r="P42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q40">
+      <c r="Q42">
         <v>5.65</v>
       </c>
-      <c r="R40">
+      <c r="R42">
         <v>3.88</v>
       </c>
-      <c r="S40">
+      <c r="S42">
         <v>2.83</v>
       </c>
-      <c r="T40">
+      <c r="T42">
         <v>5.15</v>
       </c>
-      <c r="U40">
+      <c r="U42">
         <v>2.93</v>
       </c>
-      <c r="V40">
+      <c r="V42">
         <v>2.82</v>
       </c>
-      <c r="W40">
+      <c r="W42">
         <v>4.82</v>
       </c>
-      <c r="X40">
+      <c r="X42">
         <v>3.8</v>
       </c>
-      <c r="Y40">
+      <c r="Y42">
         <v>3.11</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>18.18</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>19.55</v>
       </c>
-      <c r="D41">
+      <c r="D43">
         <v>20.22</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>17.28</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <v>16.82</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>18.649999999999999</v>
       </c>
-      <c r="H41">
+      <c r="H43">
         <v>19.489999999999998</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>14.64</v>
       </c>
-      <c r="J41">
+      <c r="J43">
         <v>15.77</v>
       </c>
-      <c r="K41">
+      <c r="K43">
         <v>15.26</v>
       </c>
-      <c r="L41">
+      <c r="L43">
         <v>15.25</v>
       </c>
-      <c r="M41">
+      <c r="M43">
         <v>16.309999999999999</v>
       </c>
-      <c r="N41">
+      <c r="N43">
         <v>15.78</v>
       </c>
-      <c r="O41">
+      <c r="O43">
         <v>14.17</v>
       </c>
-      <c r="P41">
+      <c r="P43">
         <v>15.87</v>
       </c>
-      <c r="Q41">
+      <c r="Q43">
         <v>15.38</v>
       </c>
-      <c r="R41">
+      <c r="R43">
         <v>15.78</v>
       </c>
-      <c r="S41">
+      <c r="S43">
         <v>15.55</v>
       </c>
-      <c r="T41">
+      <c r="T43">
         <v>16.13</v>
       </c>
-      <c r="U41">
+      <c r="U43">
         <v>16.559999999999999</v>
       </c>
-      <c r="V41">
+      <c r="V43">
         <v>16.63</v>
       </c>
-      <c r="W41">
+      <c r="W43">
         <v>16.489999999999998</v>
       </c>
-      <c r="X41">
+      <c r="X43">
         <v>16.46</v>
       </c>
-      <c r="Y41">
+      <c r="Y43">
         <v>16.16</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>3</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>0.93</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>0.83</v>
       </c>
-      <c r="D42">
+      <c r="D44">
         <v>1.02</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>1.01</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <v>1.01</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>0.75</v>
       </c>
-      <c r="H42">
+      <c r="H44">
         <v>0.47</v>
       </c>
-      <c r="I42">
+      <c r="I44">
         <v>0.59</v>
       </c>
-      <c r="J42">
+      <c r="J44">
         <v>0.25</v>
       </c>
-      <c r="K42">
+      <c r="K44">
         <v>0.31</v>
       </c>
-      <c r="L42">
+      <c r="L44">
         <v>0.34</v>
       </c>
-      <c r="M42">
+      <c r="M44">
         <v>0.15</v>
       </c>
-      <c r="N42">
+      <c r="N44">
         <v>0.2</v>
       </c>
-      <c r="O42">
+      <c r="O44">
         <v>0.21</v>
       </c>
-      <c r="P42">
+      <c r="P44">
         <v>0.21</v>
       </c>
-      <c r="Q42">
+      <c r="Q44">
         <v>0.19</v>
       </c>
-      <c r="R42">
+      <c r="R44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S42">
+      <c r="S44">
         <v>0.31</v>
       </c>
-      <c r="T42">
+      <c r="T44">
         <v>0.32</v>
       </c>
-      <c r="U42">
+      <c r="U44">
         <v>0.32</v>
       </c>
-      <c r="V42">
+      <c r="V44">
         <v>0.24</v>
       </c>
-      <c r="W42">
+      <c r="W44">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X42">
+      <c r="X44">
         <v>0.35</v>
       </c>
-      <c r="Y42">
+      <c r="Y44">
         <v>0.35</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
         <v>0.01</v>
       </c>
-      <c r="M43">
+      <c r="M45">
         <v>0.1</v>
       </c>
-      <c r="N43">
+      <c r="N45">
         <v>0.78</v>
       </c>
-      <c r="O43">
+      <c r="O45">
         <v>1.39</v>
       </c>
-      <c r="P43">
+      <c r="P45">
         <v>1.26</v>
       </c>
-      <c r="Q43">
+      <c r="Q45">
         <v>1.38</v>
       </c>
-      <c r="R43">
+      <c r="R45">
         <v>1.39</v>
       </c>
-      <c r="S43">
+      <c r="S45">
         <v>1.4</v>
       </c>
-      <c r="T43">
+      <c r="T45">
         <v>1.34</v>
       </c>
-      <c r="U43">
+      <c r="U45">
         <v>1.42</v>
       </c>
-      <c r="V43">
+      <c r="V45">
         <v>1.47</v>
       </c>
-      <c r="W43">
+      <c r="W45">
         <v>1.47</v>
       </c>
-      <c r="X43">
+      <c r="X45">
         <v>2.09</v>
       </c>
-      <c r="Y43">
+      <c r="Y45">
         <v>3.52</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0.02</v>
       </c>
-      <c r="I44">
+      <c r="I46">
         <v>0.05</v>
       </c>
-      <c r="J44">
+      <c r="J46">
         <v>0.12</v>
       </c>
-      <c r="K44">
+      <c r="K46">
         <v>0.24</v>
       </c>
-      <c r="L44">
+      <c r="L46">
         <v>0.68</v>
       </c>
-      <c r="M44">
+      <c r="M46">
         <v>0.86</v>
       </c>
-      <c r="N44">
+      <c r="N46">
         <v>1.22</v>
       </c>
-      <c r="O44">
+      <c r="O46">
         <v>1.37</v>
       </c>
-      <c r="P44">
+      <c r="P46">
         <v>1.33</v>
       </c>
-      <c r="Q44">
+      <c r="Q46">
         <v>1.45</v>
       </c>
-      <c r="R44">
+      <c r="R46">
         <v>1.42</v>
       </c>
-      <c r="S44">
+      <c r="S46">
         <v>1.5</v>
       </c>
-      <c r="T44">
+      <c r="T46">
         <v>1.32</v>
       </c>
-      <c r="U44">
+      <c r="U46">
         <v>1.32</v>
       </c>
-      <c r="V44">
+      <c r="V46">
         <v>1.48</v>
       </c>
-      <c r="W44">
+      <c r="W46">
         <v>1.43</v>
       </c>
-      <c r="X44">
+      <c r="X46">
         <v>1.44</v>
       </c>
-      <c r="Y44">
+      <c r="Y46">
         <v>1.55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48">
-        <v>2000</v>
-      </c>
-      <c r="C48">
-        <v>2001</v>
-      </c>
-      <c r="D48">
-        <v>2002</v>
-      </c>
-      <c r="E48">
-        <v>2003</v>
-      </c>
-      <c r="F48">
-        <v>2004</v>
-      </c>
-      <c r="G48">
-        <v>2005</v>
-      </c>
-      <c r="H48">
-        <v>2006</v>
-      </c>
-      <c r="I48">
-        <v>2007</v>
-      </c>
-      <c r="J48">
-        <v>2008</v>
-      </c>
-      <c r="K48">
-        <v>2009</v>
-      </c>
-      <c r="L48">
-        <v>2010</v>
-      </c>
-      <c r="M48">
-        <v>2011</v>
-      </c>
-      <c r="N48">
-        <v>2012</v>
-      </c>
-      <c r="O48">
-        <v>2013</v>
-      </c>
-      <c r="P48">
-        <v>2014</v>
-      </c>
-      <c r="Q48">
-        <v>2015</v>
-      </c>
-      <c r="R48">
-        <v>2016</v>
-      </c>
-      <c r="S48">
-        <v>2017</v>
-      </c>
-      <c r="T48">
-        <v>2018</v>
-      </c>
-      <c r="U48">
-        <v>2019</v>
-      </c>
-      <c r="V48">
-        <v>2020</v>
-      </c>
-      <c r="W48">
-        <v>2021</v>
-      </c>
-      <c r="X48">
-        <v>2022</v>
-      </c>
-      <c r="Y48">
-        <v>2023</v>
-      </c>
-      <c r="Z48">
-        <v>2024</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C49">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D49">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K49">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="L49">
-        <v>0.01</v>
-      </c>
-      <c r="M49">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N49">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O49">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P49">
-        <v>0.04</v>
-      </c>
-      <c r="Q49">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="R49">
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="S49">
-        <v>5.2003000000000001E-2</v>
-      </c>
-      <c r="T49">
-        <v>6.942799999999999E-2</v>
-      </c>
-      <c r="U49">
-        <v>5.6869000000000003E-2</v>
-      </c>
-      <c r="V49">
-        <v>4.8054000000000006E-2</v>
-      </c>
-      <c r="W49">
-        <v>4.7321000000000002E-2</v>
-      </c>
-      <c r="X49">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Y49">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Z49">
-        <v>7.8688999999999995E-2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>1.88</v>
+        <v>2000</v>
       </c>
       <c r="C50">
-        <v>1.7050000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D50">
-        <v>1.948</v>
+        <v>2002</v>
       </c>
       <c r="E50">
-        <v>2.5150000000000001</v>
+        <v>2003</v>
       </c>
       <c r="F50">
-        <v>2.8479999999999999</v>
+        <v>2004</v>
       </c>
       <c r="G50">
-        <v>2.8479999999999999</v>
+        <v>2005</v>
       </c>
       <c r="H50">
-        <v>2.8479999999999999</v>
+        <v>2006</v>
       </c>
       <c r="I50">
-        <v>2.8759999999999999</v>
+        <v>2007</v>
       </c>
       <c r="J50">
-        <v>2.984</v>
+        <v>2008</v>
       </c>
       <c r="K50">
-        <v>3.0009999999999999</v>
+        <v>2009</v>
       </c>
       <c r="L50">
-        <v>3.048</v>
+        <v>2010</v>
       </c>
       <c r="M50">
-        <v>3.1080000000000001</v>
+        <v>2011</v>
       </c>
       <c r="N50">
-        <v>3.181</v>
+        <v>2012</v>
       </c>
       <c r="O50">
-        <v>3.2029999999999998</v>
+        <v>2013</v>
       </c>
       <c r="P50">
-        <v>3.2189999999999999</v>
+        <v>2014</v>
       </c>
       <c r="Q50">
-        <v>3.2189999999999999</v>
+        <v>2015</v>
       </c>
       <c r="R50">
-        <v>3.2229999999999999</v>
+        <v>2016</v>
       </c>
       <c r="S50">
-        <v>3.37155</v>
+        <v>2017</v>
       </c>
       <c r="T50">
-        <v>3.379</v>
+        <v>2018</v>
       </c>
       <c r="U50">
-        <v>3.3783499999999997</v>
+        <v>2019</v>
       </c>
       <c r="V50">
-        <v>3.3764560000000001</v>
+        <v>2020</v>
       </c>
       <c r="W50">
-        <v>3.3692329999999999</v>
+        <v>2021</v>
       </c>
       <c r="X50">
-        <v>3.348185</v>
+        <v>2022</v>
       </c>
       <c r="Y50">
-        <v>3.3502800000000001</v>
+        <v>2023</v>
       </c>
       <c r="Z50">
-        <v>3.3502800000000001</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B51">
-        <v>3.532</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C51">
-        <v>3.532</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D51">
-        <v>2.722</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="E51">
-        <v>2.722</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F51">
-        <v>2.722</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G51">
-        <v>2.722</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>2.722</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I51">
-        <v>1.8919999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J51">
-        <v>1.8919999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K51">
-        <v>1.8919999999999999</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L51">
-        <v>1.8919999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="M51">
-        <v>1.8919999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N51">
-        <v>1.9059999999999999</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O51">
-        <v>1.982</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P51">
-        <v>1.9750000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="Q51">
-        <v>1.9750000000000001</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R51">
-        <v>1.9670000000000001</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S51">
-        <v>1.9670000000000001</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T51">
-        <v>2.008</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U51">
-        <v>2.0059999999999998</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V51">
-        <v>2.0059999999999998</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W51">
-        <v>2.0059999999999998</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X51">
-        <v>2.0059999999999998</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Y51">
-        <v>2.0059999999999998</v>
+        <v>7.8688999999999995E-2</v>
       </c>
       <c r="Z51">
-        <v>2.0059999999999998</v>
+        <v>7.8688999999999995E-2</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>5.6210000000000004</v>
+        <v>1.88</v>
       </c>
       <c r="C52">
-        <v>7.4059999999999997</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="D52">
-        <v>6.8259999999999996</v>
+        <v>1.948</v>
       </c>
       <c r="E52">
-        <v>6.7519999999999998</v>
+        <v>2.5150000000000001</v>
       </c>
       <c r="F52">
-        <v>6.6820000000000004</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="G52">
-        <v>6.6749999999999998</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="H52">
-        <v>6.4119999999999999</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="I52">
-        <v>4.8959999999999999</v>
+        <v>2.8759999999999999</v>
       </c>
       <c r="J52">
-        <v>4.641</v>
+        <v>2.984</v>
       </c>
       <c r="K52">
-        <v>4.3630000000000004</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="L52">
-        <v>4.5679999999999996</v>
+        <v>3.048</v>
       </c>
       <c r="M52">
-        <v>4.5350000000000001</v>
+        <v>3.1080000000000001</v>
       </c>
       <c r="N52">
-        <v>4.8979999999999997</v>
+        <v>3.181</v>
       </c>
       <c r="O52">
-        <v>4.6669999999999998</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="P52">
-        <v>4.43</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="Q52">
-        <v>3.9369999999999998</v>
+        <v>3.2189999999999999</v>
       </c>
       <c r="R52">
-        <v>3.7650000000000001</v>
+        <v>3.2229999999999999</v>
       </c>
       <c r="S52">
-        <v>3.7333600000000002</v>
+        <v>3.37155</v>
       </c>
       <c r="T52">
-        <v>4.1509750000000007</v>
+        <v>3.379</v>
       </c>
       <c r="U52">
-        <v>4.040362</v>
+        <v>3.3783499999999997</v>
       </c>
       <c r="V52">
-        <v>3.7584020000000002</v>
+        <v>3.3764560000000001</v>
       </c>
       <c r="W52">
-        <v>3.8066649999999997</v>
+        <v>3.3692329999999999</v>
       </c>
       <c r="X52">
-        <v>3.9745819999999998</v>
+        <v>3.348185</v>
       </c>
       <c r="Y52">
-        <v>3.9745819999999998</v>
+        <v>3.3502800000000001</v>
       </c>
       <c r="Z52">
-        <v>3.9745819999999998</v>
+        <v>3.3502800000000001</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>3.532</v>
+      </c>
+      <c r="C53">
+        <v>3.532</v>
+      </c>
+      <c r="D53">
+        <v>2.722</v>
+      </c>
+      <c r="E53">
+        <v>2.722</v>
+      </c>
+      <c r="F53">
+        <v>2.722</v>
+      </c>
+      <c r="G53">
+        <v>2.722</v>
+      </c>
+      <c r="H53">
+        <v>2.722</v>
       </c>
       <c r="I53">
-        <v>2.9999999999999997E-5</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="J53">
-        <v>1E-4</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="K53">
-        <v>2E-3</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="L53">
-        <v>2.5000000000000001E-2</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="M53">
-        <v>0.154</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="N53">
-        <v>0.92200000000000004</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="O53">
-        <v>1.0389999999999999</v>
+        <v>1.982</v>
       </c>
       <c r="P53">
-        <v>1.0289999999999999</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="Q53">
-        <v>1.028</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="R53">
-        <v>1.03</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="S53">
-        <v>1.0307010000000001</v>
+        <v>1.9670000000000001</v>
       </c>
       <c r="T53">
-        <v>1.033058</v>
+        <v>2.008</v>
       </c>
       <c r="U53">
-        <v>1.0443900000000002</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="V53">
-        <v>1.1002110000000001</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="W53">
-        <v>1.274713</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="X53">
-        <v>1.736537</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Y53">
-        <v>2.9081269999999999</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="Z53">
-        <v>3.9081269999999999</v>
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C54">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D54">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E54">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F54">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G54">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H54">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I54">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J54">
+        <v>4.641</v>
+      </c>
+      <c r="K54">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L54">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M54">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N54">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O54">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P54">
+        <v>4.43</v>
+      </c>
+      <c r="Q54">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R54">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S54">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T54">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U54">
+        <v>4.040362</v>
+      </c>
+      <c r="V54">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W54">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X54">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y54">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z54">
+        <v>3.9745819999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J55">
+        <v>1E-4</v>
+      </c>
+      <c r="K55">
+        <v>2E-3</v>
+      </c>
+      <c r="L55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.154</v>
+      </c>
+      <c r="N55">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="O55">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="P55">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>1.028</v>
+      </c>
+      <c r="R55">
+        <v>1.03</v>
+      </c>
+      <c r="S55">
+        <v>1.0307010000000001</v>
+      </c>
+      <c r="T55">
+        <v>1.033058</v>
+      </c>
+      <c r="U55">
+        <v>1.0443900000000002</v>
+      </c>
+      <c r="V55">
+        <v>1.1002110000000001</v>
+      </c>
+      <c r="W55">
+        <v>1.274713</v>
+      </c>
+      <c r="X55">
+        <v>1.736537</v>
+      </c>
+      <c r="Y55">
+        <v>2.9081269999999999</v>
+      </c>
+      <c r="Z55">
+        <v>3.9081269999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>10</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>1E-3</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H54">
+      <c r="H56">
         <v>2.7E-2</v>
       </c>
-      <c r="I54">
+      <c r="I56">
         <v>0.03</v>
       </c>
-      <c r="J54">
+      <c r="J56">
         <v>0.114</v>
       </c>
-      <c r="K54">
+      <c r="K56">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L54">
+      <c r="L56">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M54">
+      <c r="M56">
         <v>0.54100000000000004</v>
       </c>
-      <c r="N54">
+      <c r="N56">
         <v>0.67700000000000005</v>
       </c>
-      <c r="O54">
+      <c r="O56">
         <v>0.68300000000000005</v>
       </c>
-      <c r="P54">
+      <c r="P56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="Q54">
+      <c r="Q56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="R54">
+      <c r="R56">
         <v>0.69899999999999995</v>
       </c>
-      <c r="S54">
+      <c r="S56">
         <v>0.69838999999999996</v>
       </c>
-      <c r="T54">
+      <c r="T56">
         <v>0.69891999999999999</v>
       </c>
-      <c r="U54">
+      <c r="U56">
         <v>0.70311999999999997</v>
       </c>
-      <c r="V54">
+      <c r="V56">
         <v>0.70279999999999998</v>
       </c>
-      <c r="W54">
+      <c r="W56">
         <v>0.70437499999999997</v>
       </c>
-      <c r="X54">
+      <c r="X56">
         <v>0.70430999999999999</v>
       </c>
-      <c r="Y54">
+      <c r="Y56">
         <v>0.70430999999999999</v>
       </c>
-      <c r="Z54">
+      <c r="Z56">
         <v>0.70430999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>2000</v>
-      </c>
-      <c r="C58">
-        <v>2001</v>
-      </c>
-      <c r="D58">
-        <v>2002</v>
-      </c>
-      <c r="E58">
-        <v>2003</v>
-      </c>
-      <c r="F58">
-        <v>2004</v>
-      </c>
-      <c r="G58">
-        <v>2005</v>
-      </c>
-      <c r="H58">
-        <v>2006</v>
-      </c>
-      <c r="I58">
-        <v>2007</v>
-      </c>
-      <c r="J58">
-        <v>2008</v>
-      </c>
-      <c r="K58">
-        <v>2009</v>
-      </c>
-      <c r="L58">
-        <v>2010</v>
-      </c>
-      <c r="M58">
-        <v>2011</v>
-      </c>
-      <c r="N58">
-        <v>2012</v>
-      </c>
-      <c r="O58">
-        <v>2013</v>
-      </c>
-      <c r="P58">
-        <v>2014</v>
-      </c>
-      <c r="Q58">
-        <v>2015</v>
-      </c>
-      <c r="R58">
-        <v>2016</v>
-      </c>
-      <c r="S58">
-        <v>2017</v>
-      </c>
-      <c r="T58">
-        <v>2018</v>
-      </c>
-      <c r="U58">
-        <v>2019</v>
-      </c>
-      <c r="V58">
-        <v>2020</v>
-      </c>
-      <c r="W58">
-        <v>2021</v>
-      </c>
-      <c r="X58">
-        <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K59">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L59">
-        <v>3.5431999999999998E-2</v>
-      </c>
-      <c r="M59">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="N59">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="O59">
-        <v>0.110402</v>
-      </c>
-      <c r="P59">
-        <v>0.2</v>
-      </c>
-      <c r="Q59">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="R59">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S59">
-        <v>0.39598100000000003</v>
-      </c>
-      <c r="T59">
-        <v>1.5729660000000001</v>
-      </c>
-      <c r="U59">
-        <v>1.820811</v>
-      </c>
-      <c r="V59">
-        <v>1.699341</v>
-      </c>
-      <c r="W59">
-        <v>2.5888920000000004</v>
-      </c>
-      <c r="X59">
-        <v>2.2435940000000003</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>17.207000000000001</v>
+        <v>2000</v>
       </c>
       <c r="C60">
-        <v>19.757000000000001</v>
+        <v>2001</v>
       </c>
       <c r="D60">
-        <v>17.373000000000001</v>
+        <v>2002</v>
       </c>
       <c r="E60">
-        <v>19.462</v>
+        <v>2003</v>
       </c>
       <c r="F60">
-        <v>19.106999999999999</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>18.625</v>
+        <v>2005</v>
       </c>
       <c r="H60">
-        <v>19.206</v>
+        <v>2006</v>
       </c>
       <c r="I60">
-        <v>22.463000000000001</v>
+        <v>2007</v>
       </c>
       <c r="J60">
-        <v>23.22</v>
+        <v>2008</v>
       </c>
       <c r="K60">
-        <v>21.103000000000002</v>
+        <v>2009</v>
       </c>
       <c r="L60">
-        <v>22.606000000000002</v>
+        <v>2010</v>
       </c>
       <c r="M60">
-        <v>27.536999999999999</v>
+        <v>2011</v>
       </c>
       <c r="N60">
-        <v>22.876000000000001</v>
+        <v>2012</v>
       </c>
       <c r="O60">
-        <v>19.391598000000002</v>
+        <v>2013</v>
       </c>
       <c r="P60">
-        <v>21.305</v>
+        <v>2014</v>
       </c>
       <c r="Q60">
-        <v>22.521999999999998</v>
+        <v>2015</v>
       </c>
       <c r="R60">
-        <v>19.364000000000001</v>
+        <v>2016</v>
       </c>
       <c r="S60">
-        <v>20.914090999999999</v>
+        <v>2017</v>
       </c>
       <c r="T60">
-        <v>18.659473000000002</v>
+        <v>2018</v>
       </c>
       <c r="U60">
-        <v>17.224985</v>
+        <v>2019</v>
       </c>
       <c r="V60">
-        <v>13.53266</v>
+        <v>2020</v>
       </c>
       <c r="W60">
-        <v>17.085889999999999</v>
+        <v>2021</v>
       </c>
       <c r="X60">
-        <v>21.785509999999999</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="C61">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="D61">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="E61">
-        <v>1.762</v>
-      </c>
-      <c r="F61">
-        <v>1.494</v>
-      </c>
-      <c r="G61">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="H61">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="I61">
-        <v>2.3359999999999999</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>2.36</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K61">
-        <v>1.9610000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L61">
-        <v>1.9665680000000001</v>
+        <v>3.5431999999999998E-2</v>
       </c>
       <c r="M61">
-        <v>2.077</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="N61">
-        <v>2.3559999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="O61">
-        <v>2.339</v>
+        <v>0.110402</v>
       </c>
       <c r="P61">
-        <v>2.1419999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="Q61">
-        <v>1.8640000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="R61">
-        <v>2.0529999999999999</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="S61">
-        <v>1.9266459999999999</v>
+        <v>0.39598100000000003</v>
       </c>
       <c r="T61">
-        <v>2.0227580000000001</v>
+        <v>1.5729660000000001</v>
       </c>
       <c r="U61">
-        <v>2.1529029999999998</v>
+        <v>1.820811</v>
       </c>
       <c r="V61">
-        <v>2.292316</v>
+        <v>1.699341</v>
       </c>
       <c r="W61">
-        <v>3.0456720000000002</v>
+        <v>2.5888920000000004</v>
       </c>
       <c r="X61">
-        <v>2.0534110000000001</v>
+        <v>2.2435940000000003</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>2.9509999999999996</v>
+        <v>17.207000000000001</v>
       </c>
       <c r="C62">
-        <v>2.1710000000000003</v>
+        <v>19.757000000000001</v>
       </c>
       <c r="D62">
-        <v>2.7040000000000002</v>
+        <v>17.373000000000001</v>
       </c>
       <c r="E62">
-        <v>3.3010000000000002</v>
+        <v>19.462</v>
       </c>
       <c r="F62">
-        <v>3.3628110000000002</v>
+        <v>19.106999999999999</v>
       </c>
       <c r="G62">
-        <v>4.7298960000000001</v>
+        <v>18.625</v>
       </c>
       <c r="H62">
-        <v>4.5789740000000005</v>
+        <v>19.206</v>
       </c>
       <c r="I62">
-        <v>3.2339989999999998</v>
+        <v>22.463000000000001</v>
       </c>
       <c r="J62">
-        <v>3.2767620000000002</v>
+        <v>23.22</v>
       </c>
       <c r="K62">
-        <v>4.0527119999999996</v>
+        <v>21.103000000000002</v>
       </c>
       <c r="L62">
-        <v>5.6925160000000004</v>
+        <v>22.606000000000002</v>
       </c>
       <c r="M62">
-        <v>3.6909139999999998</v>
+        <v>27.536999999999999</v>
       </c>
       <c r="N62">
-        <v>3.9757060000000002</v>
+        <v>22.876000000000001</v>
       </c>
       <c r="O62">
-        <v>4.7951379999999997</v>
+        <v>19.391598000000002</v>
       </c>
       <c r="P62">
-        <v>5.1626289999999999</v>
+        <v>21.305</v>
       </c>
       <c r="Q62">
-        <v>6.1465419999999993</v>
+        <v>22.521999999999998</v>
       </c>
       <c r="R62">
-        <v>4.5678419999999997</v>
+        <v>19.364000000000001</v>
       </c>
       <c r="S62">
-        <v>3.4929449999999997</v>
+        <v>20.914090999999999</v>
       </c>
       <c r="T62">
-        <v>5.4227320000000008</v>
+        <v>18.659473000000002</v>
       </c>
       <c r="U62">
-        <v>3.3827449999999999</v>
+        <v>17.224985</v>
       </c>
       <c r="V62">
-        <v>3.3202579999999999</v>
+        <v>13.53266</v>
       </c>
       <c r="W62">
-        <v>5.0671330000000001</v>
+        <v>17.085889999999999</v>
       </c>
       <c r="X62">
-        <v>3.833256</v>
+        <v>21.785509999999999</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>18.178000000000001</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="C63">
-        <v>19.553000000000001</v>
+        <v>1.9079999999999999</v>
       </c>
       <c r="D63">
-        <v>20.222000000000001</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="E63">
-        <v>17.28</v>
+        <v>1.762</v>
       </c>
       <c r="F63">
-        <v>16.815000000000001</v>
+        <v>1.494</v>
       </c>
       <c r="G63">
-        <v>18.652999999999999</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="H63">
-        <v>19.492999999999999</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="I63">
-        <v>14.643000000000001</v>
+        <v>2.3359999999999999</v>
       </c>
       <c r="J63">
-        <v>15.765000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="K63">
-        <v>15.256</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="L63">
-        <v>15.249000000000001</v>
+        <v>1.9665680000000001</v>
       </c>
       <c r="M63">
-        <v>16.314</v>
+        <v>2.077</v>
       </c>
       <c r="N63">
-        <v>15.785</v>
+        <v>2.3559999999999999</v>
       </c>
       <c r="O63">
-        <v>14.170999999999999</v>
+        <v>2.339</v>
       </c>
       <c r="P63">
-        <v>15.867000000000001</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="Q63">
-        <v>15.382999999999999</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="R63">
-        <v>15.776</v>
+        <v>2.0529999999999999</v>
       </c>
       <c r="S63">
-        <v>15.545499</v>
+        <v>1.9266459999999999</v>
       </c>
       <c r="T63">
-        <v>16.125281000000001</v>
+        <v>2.0227580000000001</v>
       </c>
       <c r="U63">
-        <v>16.555288000000001</v>
+        <v>2.1529029999999998</v>
       </c>
       <c r="V63">
-        <v>16.625764999999998</v>
+        <v>2.292316</v>
       </c>
       <c r="W63">
-        <v>16.486893999999999</v>
+        <v>3.0456720000000002</v>
       </c>
       <c r="X63">
-        <v>16.462018</v>
+        <v>2.0534110000000001</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>0.67600000000000005</v>
+        <v>2.9509999999999996</v>
       </c>
       <c r="C64">
-        <v>0.57899999999999996</v>
+        <v>2.1710000000000003</v>
       </c>
       <c r="D64">
-        <v>0.84099999999999997</v>
+        <v>2.7040000000000002</v>
       </c>
       <c r="E64">
-        <v>0.79500000000000004</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="F64">
-        <v>0.84099999999999997</v>
+        <v>3.3628110000000002</v>
       </c>
       <c r="G64">
-        <v>0.623</v>
+        <v>4.7298960000000001</v>
       </c>
       <c r="H64">
-        <v>0.38600000000000001</v>
+        <v>4.5789740000000005</v>
       </c>
       <c r="I64">
-        <v>0.57399999999999995</v>
+        <v>3.2339989999999998</v>
       </c>
       <c r="J64">
-        <v>0.27700000000000002</v>
+        <v>3.2767620000000002</v>
       </c>
       <c r="K64">
-        <v>0.34300000000000003</v>
+        <v>4.0527119999999996</v>
       </c>
       <c r="L64">
-        <v>0.40700000000000003</v>
+        <v>5.6925160000000004</v>
       </c>
       <c r="M64">
-        <v>0.16</v>
+        <v>3.6909139999999998</v>
       </c>
       <c r="N64">
-        <v>0.23499999999999999</v>
+        <v>3.9757060000000002</v>
       </c>
       <c r="O64">
-        <v>0.24199999999999999</v>
+        <v>4.7951379999999997</v>
       </c>
       <c r="P64">
-        <v>0.22500000000000001</v>
+        <v>5.1626289999999999</v>
       </c>
       <c r="Q64">
-        <v>0.20499999999999999</v>
+        <v>6.1465419999999993</v>
       </c>
       <c r="R64">
-        <v>0.35199999999999998</v>
+        <v>4.5678419999999997</v>
       </c>
       <c r="S64">
-        <v>0.43059500000000001</v>
+        <v>3.4929449999999997</v>
       </c>
       <c r="T64">
-        <v>0.37356200000000001</v>
+        <v>5.4227320000000008</v>
       </c>
       <c r="U64">
-        <v>0.40558499999999997</v>
+        <v>3.3827449999999999</v>
       </c>
       <c r="V64">
-        <v>0.33825000000000005</v>
+        <v>3.3202579999999999</v>
       </c>
       <c r="W64">
-        <v>0.39345599999999997</v>
+        <v>5.0671330000000001</v>
       </c>
       <c r="X64">
-        <v>0.52855200000000002</v>
+        <v>3.833256</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C65">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D65">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E65">
+        <v>17.28</v>
+      </c>
+      <c r="F65">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G65">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H65">
+        <v>19.492999999999999</v>
       </c>
       <c r="I65">
-        <v>5.9999999999999995E-5</v>
+        <v>14.643000000000001</v>
       </c>
       <c r="J65">
-        <v>1.6700000000000002E-4</v>
+        <v>15.765000000000001</v>
       </c>
       <c r="K65">
-        <v>3.2669999999999999E-3</v>
+        <v>15.256</v>
       </c>
       <c r="L65">
-        <v>1.4865E-2</v>
+        <v>15.249000000000001</v>
       </c>
       <c r="M65">
-        <v>0.10086199999999999</v>
+        <v>16.314</v>
       </c>
       <c r="N65">
-        <v>0.77869600000000005</v>
+        <v>15.785</v>
       </c>
       <c r="O65">
-        <v>1.3919870000000001</v>
+        <v>14.170999999999999</v>
       </c>
       <c r="P65">
-        <v>1.256651</v>
+        <v>15.867000000000001</v>
       </c>
       <c r="Q65">
-        <v>1.381661</v>
+        <v>15.382999999999999</v>
       </c>
       <c r="R65">
-        <v>1.3879900000000001</v>
+        <v>15.776</v>
       </c>
       <c r="S65">
-        <v>1.4029700000000001</v>
+        <v>15.545499</v>
       </c>
       <c r="T65">
-        <v>1.3427880000000001</v>
+        <v>16.125281000000001</v>
       </c>
       <c r="U65">
-        <v>1.417286</v>
+        <v>16.555288000000001</v>
       </c>
       <c r="V65">
-        <v>1.46872</v>
+        <v>16.625764999999998</v>
       </c>
       <c r="W65">
-        <v>1.4665979999999998</v>
+        <v>16.486893999999999</v>
       </c>
       <c r="X65">
-        <v>2.0938380000000003</v>
+        <v>16.462018</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C66">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D66">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E66">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F66">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G66">
+        <v>0.623</v>
+      </c>
+      <c r="H66">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I66">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J66">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K66">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L66">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M66">
+        <v>0.16</v>
+      </c>
+      <c r="N66">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P66">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R66">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S66">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T66">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U66">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V66">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W66">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X66">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J67">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K67">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L67">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M67">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N67">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O67">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P67">
+        <v>1.256651</v>
+      </c>
+      <c r="Q67">
+        <v>1.381661</v>
+      </c>
+      <c r="R67">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S67">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T67">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U67">
+        <v>1.417286</v>
+      </c>
+      <c r="V67">
+        <v>1.46872</v>
+      </c>
+      <c r="W67">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X67">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>10</v>
       </c>
-      <c r="F66">
+      <c r="F68">
         <v>1E-3</v>
       </c>
-      <c r="G66">
+      <c r="G68">
         <v>4.5869999999999999E-3</v>
       </c>
-      <c r="H66">
+      <c r="H68">
         <v>2.0047000000000002E-2</v>
       </c>
-      <c r="I66">
+      <c r="I68">
         <v>4.6801999999999996E-2</v>
       </c>
-      <c r="J66">
+      <c r="J68">
         <v>0.12175799999999999</v>
       </c>
-      <c r="K66">
+      <c r="K68">
         <v>0.237009</v>
       </c>
-      <c r="L66">
+      <c r="L68">
         <v>0.681369</v>
       </c>
-      <c r="M66">
+      <c r="M68">
         <v>0.86109500000000005</v>
       </c>
-      <c r="N66">
+      <c r="N68">
         <v>1.2208979999999998</v>
       </c>
-      <c r="O66">
+      <c r="O68">
         <v>1.3735119999999998</v>
       </c>
-      <c r="P66">
+      <c r="P68">
         <v>1.3305769999999999</v>
       </c>
-      <c r="Q66">
+      <c r="Q68">
         <v>1.451511</v>
       </c>
-      <c r="R66">
+      <c r="R68">
         <v>1.4249700000000001</v>
       </c>
-      <c r="S66">
+      <c r="S68">
         <v>1.5040640000000001</v>
       </c>
-      <c r="T66">
+      <c r="T68">
         <v>1.3181230000000002</v>
       </c>
-      <c r="U66">
+      <c r="U68">
         <v>1.316988</v>
       </c>
-      <c r="V66">
+      <c r="V68">
         <v>1.4771310000000002</v>
       </c>
-      <c r="W66">
+      <c r="W68">
         <v>1.4335609999999999</v>
       </c>
-      <c r="X66">
+      <c r="X68">
         <v>1.499125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70">
-        <v>2000</v>
-      </c>
-      <c r="D70">
-        <v>2001</v>
-      </c>
-      <c r="E70">
-        <v>2002</v>
-      </c>
-      <c r="F70">
-        <v>2003</v>
-      </c>
-      <c r="G70">
-        <v>2004</v>
-      </c>
-      <c r="H70">
-        <v>2005</v>
-      </c>
-      <c r="I70">
-        <v>2006</v>
-      </c>
-      <c r="J70">
-        <v>2007</v>
-      </c>
-      <c r="K70">
-        <v>2008</v>
-      </c>
-      <c r="L70">
-        <v>2009</v>
-      </c>
-      <c r="M70">
-        <v>2010</v>
-      </c>
-      <c r="N70">
-        <v>2011</v>
-      </c>
-      <c r="O70">
-        <v>2012</v>
-      </c>
-      <c r="P70">
-        <v>2013</v>
-      </c>
-      <c r="Q70">
-        <v>2014</v>
-      </c>
-      <c r="R70">
-        <v>2015</v>
-      </c>
-      <c r="S70">
-        <v>2016</v>
-      </c>
-      <c r="T70">
-        <v>2017</v>
-      </c>
-      <c r="U70">
-        <v>2018</v>
-      </c>
-      <c r="V70">
-        <v>2019</v>
-      </c>
-      <c r="W70">
-        <v>2020</v>
-      </c>
-      <c r="X70">
-        <v>2021</v>
-      </c>
-      <c r="Y70">
-        <v>2022</v>
-      </c>
-      <c r="Z70">
-        <v>2023</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>87</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-      <c r="C71">
-        <v>5.6</v>
-      </c>
-      <c r="D71">
-        <v>8</v>
-      </c>
-      <c r="E71">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F71">
-        <v>6.8</v>
-      </c>
-      <c r="G71">
-        <v>6.6</v>
-      </c>
-      <c r="H71">
-        <v>8.4</v>
-      </c>
-      <c r="I71">
-        <v>8.9</v>
-      </c>
-      <c r="J71">
-        <v>7.5</v>
-      </c>
-      <c r="K71">
-        <v>8.4</v>
-      </c>
-      <c r="L71">
-        <v>7.7</v>
-      </c>
-      <c r="M71">
-        <v>9.6</v>
-      </c>
-      <c r="N71">
-        <v>12.1</v>
-      </c>
-      <c r="O71">
-        <v>10.7</v>
-      </c>
-      <c r="P71">
-        <v>9.5</v>
-      </c>
-      <c r="Q71">
-        <v>13.8</v>
-      </c>
-      <c r="R71">
-        <v>14.8</v>
-      </c>
-      <c r="S71">
-        <v>10.9</v>
-      </c>
-      <c r="T71">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="U71">
-        <v>10</v>
-      </c>
-      <c r="V71">
-        <v>8.9</v>
-      </c>
-      <c r="W71">
-        <v>7.1</v>
-      </c>
-      <c r="X71">
-        <v>10.6</v>
-      </c>
-      <c r="Y71">
-        <v>13.7</v>
-      </c>
-      <c r="Z71">
-        <v>7.7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>2000</v>
+      </c>
+      <c r="D72">
+        <v>2001</v>
+      </c>
+      <c r="E72">
+        <v>2002</v>
+      </c>
+      <c r="F72">
+        <v>2003</v>
+      </c>
+      <c r="G72">
+        <v>2004</v>
+      </c>
+      <c r="H72">
+        <v>2005</v>
+      </c>
+      <c r="I72">
+        <v>2006</v>
+      </c>
+      <c r="J72">
+        <v>2007</v>
+      </c>
+      <c r="K72">
+        <v>2008</v>
+      </c>
+      <c r="L72">
+        <v>2009</v>
+      </c>
+      <c r="M72">
+        <v>2010</v>
+      </c>
+      <c r="N72">
+        <v>2011</v>
+      </c>
+      <c r="O72">
+        <v>2012</v>
+      </c>
+      <c r="P72">
+        <v>2013</v>
+      </c>
+      <c r="Q72">
+        <v>2014</v>
+      </c>
+      <c r="R72">
+        <v>2015</v>
+      </c>
+      <c r="S72">
+        <v>2016</v>
+      </c>
+      <c r="T72">
+        <v>2017</v>
+      </c>
+      <c r="U72">
+        <v>2018</v>
+      </c>
+      <c r="V72">
+        <v>2019</v>
+      </c>
+      <c r="W72">
+        <v>2020</v>
+      </c>
+      <c r="X72">
+        <v>2021</v>
+      </c>
+      <c r="Y72">
+        <v>2022</v>
+      </c>
+      <c r="Z72">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>5.6</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F73">
+        <v>6.8</v>
+      </c>
+      <c r="G73">
+        <v>6.6</v>
+      </c>
+      <c r="H73">
+        <v>8.4</v>
+      </c>
+      <c r="I73">
+        <v>8.9</v>
+      </c>
+      <c r="J73">
+        <v>7.5</v>
+      </c>
+      <c r="K73">
+        <v>8.4</v>
+      </c>
+      <c r="L73">
+        <v>7.7</v>
+      </c>
+      <c r="M73">
+        <v>9.6</v>
+      </c>
+      <c r="N73">
+        <v>12.1</v>
+      </c>
+      <c r="O73">
+        <v>10.7</v>
+      </c>
+      <c r="P73">
+        <v>9.5</v>
+      </c>
+      <c r="Q73">
+        <v>13.8</v>
+      </c>
+      <c r="R73">
+        <v>14.8</v>
+      </c>
+      <c r="S73">
+        <v>10.9</v>
+      </c>
+      <c r="T73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U73">
+        <v>10</v>
+      </c>
+      <c r="V73">
+        <v>8.9</v>
+      </c>
+      <c r="W73">
+        <v>7.1</v>
+      </c>
+      <c r="X73">
+        <v>10.6</v>
+      </c>
+      <c r="Y73">
+        <v>13.7</v>
+      </c>
+      <c r="Z73">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
         <v>89</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E72">
+      <c r="E74">
         <v>2</v>
       </c>
-      <c r="F72">
+      <c r="F74">
         <v>1.3</v>
       </c>
-      <c r="G72">
+      <c r="G74">
         <v>0.7</v>
       </c>
-      <c r="H72">
+      <c r="H74">
         <v>0.8</v>
       </c>
-      <c r="I72">
+      <c r="I74">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J72">
+      <c r="J74">
         <v>3.1</v>
       </c>
-      <c r="K72">
+      <c r="K74">
         <v>3.1</v>
       </c>
-      <c r="L72">
+      <c r="L74">
         <v>2.7</v>
       </c>
-      <c r="M72">
+      <c r="M74">
         <v>1.2</v>
       </c>
-      <c r="N72">
+      <c r="N74">
         <v>1.4</v>
       </c>
-      <c r="O72">
+      <c r="O74">
         <v>2.4</v>
       </c>
-      <c r="P72">
+      <c r="P74">
         <v>3.4</v>
       </c>
-      <c r="Q72">
+      <c r="Q74">
         <v>4.3</v>
       </c>
-      <c r="R72">
+      <c r="R74">
         <v>4.3</v>
       </c>
-      <c r="S72">
+      <c r="S74">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T72">
+      <c r="T74">
         <v>3.7</v>
       </c>
-      <c r="U72">
+      <c r="U74">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V72">
+      <c r="V74">
         <v>3</v>
       </c>
-      <c r="W72">
+      <c r="W74">
         <v>3.7</v>
       </c>
-      <c r="X72">
+      <c r="X74">
         <v>1.9</v>
       </c>
-      <c r="Y72">
+      <c r="Y74">
         <v>1.5</v>
       </c>
-      <c r="Z72">
+      <c r="Z74">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D07D71F-687F-451C-A851-B72DD70DCF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD501D1-329D-48D6-9069-ACB31FE2DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD501D1-329D-48D6-9069-ACB31FE2DA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC846F-7D93-41F9-AAED-C74593A8E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC846F-7D93-41F9-AAED-C74593A8E069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5DC2C-C4B6-415B-87D6-6CE521CDCA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,16 +326,16 @@
     <t>Unnamed: 25</t>
   </si>
   <si>
+    <t>EMBER Generation (TWh)</t>
+  </si>
+  <si>
     <t>EMBER Capacity (GW)</t>
   </si>
   <si>
-    <t>EMBER Generation (TWh)</t>
+    <t>IRENA Generation (TWh)</t>
   </si>
   <si>
     <t>IRENA Capacity (GW)</t>
-  </si>
-  <si>
-    <t>IRENA Generation (TWh)</t>
   </si>
   <si>
     <t>Electricity Trade Data (TWh) - Source: UNSD</t>
@@ -1275,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z74"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
@@ -2488,476 +2488,91 @@
         <v>0.24297964087912982</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>2000</v>
-      </c>
-      <c r="C26">
-        <v>2001</v>
-      </c>
-      <c r="D26">
-        <v>2002</v>
-      </c>
-      <c r="E26">
-        <v>2003</v>
-      </c>
-      <c r="F26">
-        <v>2004</v>
-      </c>
-      <c r="G26">
-        <v>2005</v>
-      </c>
-      <c r="H26">
-        <v>2006</v>
-      </c>
-      <c r="I26">
-        <v>2007</v>
-      </c>
-      <c r="J26">
-        <v>2008</v>
-      </c>
-      <c r="K26">
-        <v>2009</v>
-      </c>
-      <c r="L26">
-        <v>2010</v>
-      </c>
-      <c r="M26">
-        <v>2011</v>
-      </c>
-      <c r="N26">
-        <v>2012</v>
-      </c>
-      <c r="O26">
-        <v>2013</v>
-      </c>
-      <c r="P26">
-        <v>2014</v>
-      </c>
-      <c r="Q26">
-        <v>2015</v>
-      </c>
-      <c r="R26">
-        <v>2016</v>
-      </c>
-      <c r="S26">
-        <v>2017</v>
-      </c>
-      <c r="T26">
-        <v>2018</v>
-      </c>
-      <c r="U26">
-        <v>2019</v>
-      </c>
-      <c r="V26">
-        <v>2020</v>
-      </c>
-      <c r="W26">
-        <v>2021</v>
-      </c>
-      <c r="X26">
-        <v>2022</v>
-      </c>
-      <c r="Y26">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0.05</v>
-      </c>
-      <c r="C27">
-        <v>0.05</v>
-      </c>
-      <c r="D27">
-        <v>0.05</v>
-      </c>
-      <c r="E27">
-        <v>0.01</v>
-      </c>
-      <c r="F27">
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>0.01</v>
-      </c>
-      <c r="H27">
-        <v>0.01</v>
-      </c>
-      <c r="I27">
-        <v>0.01</v>
-      </c>
-      <c r="J27">
-        <v>0.01</v>
-      </c>
-      <c r="K27">
-        <v>0.01</v>
-      </c>
-      <c r="L27">
-        <v>0.01</v>
-      </c>
-      <c r="M27">
-        <v>0.01</v>
-      </c>
-      <c r="N27">
-        <v>0.01</v>
-      </c>
-      <c r="O27">
-        <v>0.03</v>
-      </c>
-      <c r="P27">
-        <v>0.04</v>
-      </c>
-      <c r="Q27">
-        <v>0.05</v>
-      </c>
-      <c r="R27">
-        <v>0.06</v>
-      </c>
-      <c r="S27">
-        <v>0.05</v>
-      </c>
-      <c r="T27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U27">
-        <v>0.06</v>
-      </c>
-      <c r="V27">
-        <v>0.05</v>
-      </c>
-      <c r="W27">
-        <v>0.05</v>
-      </c>
-      <c r="X27">
-        <v>0.05</v>
-      </c>
-      <c r="Y27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>5.62</v>
-      </c>
-      <c r="C28">
-        <v>5.62</v>
-      </c>
-      <c r="D28">
-        <v>5.62</v>
-      </c>
-      <c r="E28">
-        <v>5.62</v>
-      </c>
-      <c r="F28">
-        <v>5.5</v>
-      </c>
-      <c r="G28">
-        <v>5.5</v>
-      </c>
-      <c r="H28">
-        <v>5.5</v>
-      </c>
-      <c r="I28">
-        <v>5.5</v>
-      </c>
-      <c r="J28">
-        <v>5.5</v>
-      </c>
-      <c r="K28">
-        <v>5.63</v>
-      </c>
-      <c r="L28">
-        <v>5.63</v>
-      </c>
-      <c r="M28">
-        <v>6.32</v>
-      </c>
-      <c r="N28">
-        <v>6.32</v>
-      </c>
-      <c r="O28">
-        <v>6.11</v>
-      </c>
-      <c r="P28">
-        <v>5.9</v>
-      </c>
-      <c r="Q28">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="R28">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="S28">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="T28">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="U28">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="V28">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="W28">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="X28">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="Y28">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="C29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H29">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I29">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J29">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K29">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L29">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M29">
-        <v>1.2</v>
-      </c>
-      <c r="N29">
-        <v>1.2</v>
-      </c>
-      <c r="O29">
-        <v>1.2</v>
-      </c>
-      <c r="P29">
-        <v>1.2</v>
-      </c>
-      <c r="Q29">
-        <v>1.2</v>
-      </c>
-      <c r="R29">
-        <v>1.2</v>
-      </c>
-      <c r="S29">
-        <v>1.2</v>
-      </c>
-      <c r="T29">
-        <v>1.2</v>
-      </c>
-      <c r="U29">
-        <v>1.2</v>
-      </c>
-      <c r="V29">
-        <v>1.2</v>
-      </c>
-      <c r="W29">
-        <v>1.2</v>
-      </c>
-      <c r="X29">
-        <v>1.2</v>
-      </c>
-      <c r="Y29">
-        <v>1.2</v>
-      </c>
-    </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>1.02</v>
-      </c>
-      <c r="C30">
-        <v>0.84</v>
-      </c>
-      <c r="D30">
-        <v>1.08</v>
-      </c>
-      <c r="E30">
-        <v>1.65</v>
-      </c>
-      <c r="F30">
-        <v>1.98</v>
-      </c>
-      <c r="G30">
-        <v>1.98</v>
-      </c>
-      <c r="H30">
-        <v>1.98</v>
-      </c>
-      <c r="I30">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="J30">
-        <v>2.12</v>
-      </c>
-      <c r="K30">
-        <v>2.14</v>
-      </c>
-      <c r="L30">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="M30">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="N30">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="O30">
-        <v>2.34</v>
-      </c>
-      <c r="P30">
-        <v>2.36</v>
-      </c>
-      <c r="Q30">
-        <v>2.36</v>
-      </c>
-      <c r="R30">
-        <v>2.36</v>
-      </c>
-      <c r="S30">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="T30">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="U30">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="V30">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="W30">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="X30">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="Y30">
-        <v>2.5299999999999998</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>3.53</v>
+        <v>2000</v>
       </c>
       <c r="C31">
-        <v>3.53</v>
+        <v>2001</v>
       </c>
       <c r="D31">
-        <v>2.72</v>
+        <v>2002</v>
       </c>
       <c r="E31">
-        <v>2.72</v>
+        <v>2003</v>
       </c>
       <c r="F31">
-        <v>2.72</v>
+        <v>2004</v>
       </c>
       <c r="G31">
-        <v>2.72</v>
+        <v>2005</v>
       </c>
       <c r="H31">
-        <v>2.72</v>
+        <v>2006</v>
       </c>
       <c r="I31">
-        <v>1.89</v>
+        <v>2007</v>
       </c>
       <c r="J31">
-        <v>1.89</v>
+        <v>2008</v>
       </c>
       <c r="K31">
-        <v>1.89</v>
+        <v>2009</v>
       </c>
       <c r="L31">
-        <v>1.89</v>
+        <v>2010</v>
       </c>
       <c r="M31">
-        <v>1.89</v>
+        <v>2011</v>
       </c>
       <c r="N31">
-        <v>1.91</v>
+        <v>2012</v>
       </c>
       <c r="O31">
-        <v>1.98</v>
+        <v>2013</v>
       </c>
       <c r="P31">
-        <v>1.98</v>
+        <v>2014</v>
       </c>
       <c r="Q31">
-        <v>1.98</v>
+        <v>2015</v>
       </c>
       <c r="R31">
-        <v>1.97</v>
+        <v>2016</v>
       </c>
       <c r="S31">
-        <v>1.97</v>
+        <v>2017</v>
       </c>
       <c r="T31">
-        <v>2.0099999999999998</v>
+        <v>2018</v>
       </c>
       <c r="U31">
-        <v>2.0099999999999998</v>
+        <v>2019</v>
       </c>
       <c r="V31">
-        <v>2.0099999999999998</v>
+        <v>2020</v>
       </c>
       <c r="W31">
-        <v>2.0099999999999998</v>
+        <v>2021</v>
       </c>
       <c r="X31">
-        <v>2.0099999999999998</v>
+        <v>2022</v>
       </c>
       <c r="Y31">
-        <v>2.0099999999999998</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2984,293 +2599,519 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>17.18</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>18.46</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>19.09</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>23.18</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="L33">
-        <v>0.03</v>
+        <v>22.61</v>
       </c>
       <c r="M33">
-        <v>0.15</v>
+        <v>27.53</v>
       </c>
       <c r="N33">
-        <v>0.92</v>
+        <v>22.87</v>
       </c>
       <c r="O33">
-        <v>1.04</v>
+        <v>19.39</v>
       </c>
       <c r="P33">
-        <v>1.03</v>
+        <v>21.31</v>
       </c>
       <c r="Q33">
-        <v>1.03</v>
+        <v>22.53</v>
       </c>
       <c r="R33">
-        <v>1.03</v>
+        <v>19.37</v>
       </c>
       <c r="S33">
-        <v>1.03</v>
+        <v>20.92</v>
       </c>
       <c r="T33">
-        <v>1.03</v>
+        <v>18.66</v>
       </c>
       <c r="U33">
-        <v>1.04</v>
+        <v>17.2</v>
       </c>
       <c r="V33">
-        <v>1.1000000000000001</v>
+        <v>13.51</v>
       </c>
       <c r="W33">
-        <v>1.27</v>
+        <v>17.09</v>
       </c>
       <c r="X33">
-        <v>1.74</v>
+        <v>21.79</v>
       </c>
       <c r="Y33">
-        <v>2.94</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="G34">
-        <v>0.01</v>
+        <v>1.73</v>
       </c>
       <c r="H34">
-        <v>0.03</v>
+        <v>2.16</v>
       </c>
       <c r="I34">
-        <v>0.03</v>
+        <v>2.34</v>
       </c>
       <c r="J34">
-        <v>0.11</v>
+        <v>2.36</v>
       </c>
       <c r="K34">
-        <v>0.33</v>
+        <v>1.96</v>
       </c>
       <c r="L34">
-        <v>0.49</v>
+        <v>1.97</v>
       </c>
       <c r="M34">
-        <v>0.54</v>
+        <v>2.08</v>
       </c>
       <c r="N34">
-        <v>0.68</v>
+        <v>2.36</v>
       </c>
       <c r="O34">
-        <v>0.68</v>
+        <v>2.34</v>
       </c>
       <c r="P34">
-        <v>0.7</v>
+        <v>2.14</v>
       </c>
       <c r="Q34">
-        <v>0.7</v>
+        <v>1.86</v>
       </c>
       <c r="R34">
-        <v>0.7</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="S34">
-        <v>0.7</v>
+        <v>1.93</v>
       </c>
       <c r="T34">
-        <v>0.7</v>
+        <v>2.02</v>
       </c>
       <c r="U34">
-        <v>0.7</v>
+        <v>2.15</v>
       </c>
       <c r="V34">
-        <v>0.7</v>
+        <v>2.29</v>
       </c>
       <c r="W34">
-        <v>0.7</v>
+        <v>3.05</v>
       </c>
       <c r="X34">
-        <v>0.7</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Y34">
-        <v>0.7</v>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>2.63</v>
+      </c>
+      <c r="C35">
+        <v>1.65</v>
+      </c>
+      <c r="D35">
+        <v>2.12</v>
+      </c>
+      <c r="E35">
+        <v>2.99</v>
+      </c>
+      <c r="F35">
+        <v>3.14</v>
+      </c>
+      <c r="G35">
+        <v>4.3</v>
+      </c>
+      <c r="H35">
+        <v>4.21</v>
+      </c>
+      <c r="I35">
+        <v>2.83</v>
+      </c>
+      <c r="J35">
+        <v>2.79</v>
+      </c>
+      <c r="K35">
+        <v>3.43</v>
+      </c>
+      <c r="L35">
+        <v>5.03</v>
+      </c>
+      <c r="M35">
+        <v>2.87</v>
+      </c>
+      <c r="N35">
+        <v>3.18</v>
+      </c>
+      <c r="O35">
+        <v>4.04</v>
+      </c>
+      <c r="P35">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q35">
+        <v>5.65</v>
+      </c>
+      <c r="R35">
+        <v>3.88</v>
+      </c>
+      <c r="S35">
+        <v>2.83</v>
+      </c>
+      <c r="T35">
+        <v>5.15</v>
+      </c>
+      <c r="U35">
+        <v>2.93</v>
+      </c>
+      <c r="V35">
+        <v>2.82</v>
+      </c>
+      <c r="W35">
+        <v>4.82</v>
+      </c>
+      <c r="X35">
+        <v>3.8</v>
+      </c>
+      <c r="Y35">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>18.18</v>
+      </c>
+      <c r="C36">
+        <v>19.55</v>
+      </c>
+      <c r="D36">
+        <v>20.22</v>
+      </c>
+      <c r="E36">
+        <v>17.28</v>
+      </c>
+      <c r="F36">
+        <v>16.82</v>
+      </c>
+      <c r="G36">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H36">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="I36">
+        <v>14.64</v>
+      </c>
+      <c r="J36">
+        <v>15.77</v>
+      </c>
+      <c r="K36">
+        <v>15.26</v>
+      </c>
+      <c r="L36">
+        <v>15.25</v>
+      </c>
+      <c r="M36">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N36">
+        <v>15.78</v>
+      </c>
+      <c r="O36">
+        <v>14.17</v>
+      </c>
+      <c r="P36">
+        <v>15.87</v>
+      </c>
+      <c r="Q36">
+        <v>15.38</v>
+      </c>
+      <c r="R36">
+        <v>15.78</v>
+      </c>
+      <c r="S36">
+        <v>15.55</v>
+      </c>
+      <c r="T36">
+        <v>16.13</v>
+      </c>
+      <c r="U36">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="V36">
+        <v>16.63</v>
+      </c>
+      <c r="W36">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X36">
+        <v>16.46</v>
+      </c>
+      <c r="Y36">
+        <v>16.16</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>0.93</v>
+      </c>
+      <c r="C37">
+        <v>0.83</v>
+      </c>
+      <c r="D37">
+        <v>1.02</v>
+      </c>
+      <c r="E37">
+        <v>1.01</v>
+      </c>
+      <c r="F37">
+        <v>1.01</v>
+      </c>
+      <c r="G37">
+        <v>0.75</v>
+      </c>
+      <c r="H37">
+        <v>0.47</v>
+      </c>
+      <c r="I37">
+        <v>0.59</v>
+      </c>
+      <c r="J37">
+        <v>0.25</v>
+      </c>
+      <c r="K37">
+        <v>0.31</v>
+      </c>
+      <c r="L37">
+        <v>0.34</v>
+      </c>
+      <c r="M37">
+        <v>0.15</v>
+      </c>
+      <c r="N37">
+        <v>0.2</v>
+      </c>
+      <c r="O37">
+        <v>0.21</v>
+      </c>
+      <c r="P37">
+        <v>0.21</v>
+      </c>
+      <c r="Q37">
+        <v>0.19</v>
+      </c>
+      <c r="R37">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S37">
+        <v>0.31</v>
+      </c>
+      <c r="T37">
+        <v>0.32</v>
+      </c>
+      <c r="U37">
+        <v>0.32</v>
+      </c>
+      <c r="V37">
+        <v>0.24</v>
+      </c>
+      <c r="W37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X37">
+        <v>0.35</v>
+      </c>
+      <c r="Y37">
+        <v>0.35</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>2002</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2004</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>2005</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2007</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>2008</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>2009</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>2010</v>
+        <v>0.01</v>
       </c>
       <c r="M38">
-        <v>2011</v>
+        <v>0.1</v>
       </c>
       <c r="N38">
-        <v>2012</v>
+        <v>0.78</v>
       </c>
       <c r="O38">
-        <v>2013</v>
+        <v>1.39</v>
       </c>
       <c r="P38">
-        <v>2014</v>
+        <v>1.26</v>
       </c>
       <c r="Q38">
-        <v>2015</v>
+        <v>1.38</v>
       </c>
       <c r="R38">
-        <v>2016</v>
+        <v>1.39</v>
       </c>
       <c r="S38">
-        <v>2017</v>
+        <v>1.4</v>
       </c>
       <c r="T38">
-        <v>2018</v>
+        <v>1.34</v>
       </c>
       <c r="U38">
-        <v>2019</v>
+        <v>1.42</v>
       </c>
       <c r="V38">
-        <v>2020</v>
+        <v>1.47</v>
       </c>
       <c r="W38">
-        <v>2021</v>
+        <v>1.47</v>
       </c>
       <c r="X38">
-        <v>2022</v>
+        <v>2.09</v>
       </c>
       <c r="Y38">
-        <v>2023</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3291,1987 +3132,2146 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J39">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="K39">
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="L39">
-        <v>0.04</v>
+        <v>0.68</v>
       </c>
       <c r="M39">
-        <v>0.06</v>
+        <v>0.86</v>
       </c>
       <c r="N39">
-        <v>7.0000000000000007E-2</v>
+        <v>1.22</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>1.37</v>
       </c>
       <c r="P39">
-        <v>0.2</v>
+        <v>1.33</v>
       </c>
       <c r="Q39">
-        <v>0.27</v>
+        <v>1.45</v>
       </c>
       <c r="R39">
-        <v>0.35</v>
+        <v>1.42</v>
       </c>
       <c r="S39">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="T39">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="U39">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="V39">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="W39">
-        <v>2.59</v>
+        <v>1.43</v>
       </c>
       <c r="X39">
-        <v>2.2400000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="Y39">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="C40">
-        <v>19.5</v>
-      </c>
-      <c r="D40">
-        <v>17.18</v>
-      </c>
-      <c r="E40">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="F40">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G40">
-        <v>18.46</v>
-      </c>
-      <c r="H40">
-        <v>19.09</v>
-      </c>
-      <c r="I40">
-        <v>22.37</v>
-      </c>
-      <c r="J40">
-        <v>23.18</v>
-      </c>
-      <c r="K40">
-        <v>21.1</v>
-      </c>
-      <c r="L40">
-        <v>22.61</v>
-      </c>
-      <c r="M40">
-        <v>27.53</v>
-      </c>
-      <c r="N40">
-        <v>22.87</v>
-      </c>
-      <c r="O40">
-        <v>19.39</v>
-      </c>
-      <c r="P40">
-        <v>21.31</v>
-      </c>
-      <c r="Q40">
-        <v>22.53</v>
-      </c>
-      <c r="R40">
-        <v>19.37</v>
-      </c>
-      <c r="S40">
-        <v>20.92</v>
-      </c>
-      <c r="T40">
-        <v>18.66</v>
-      </c>
-      <c r="U40">
-        <v>17.2</v>
-      </c>
-      <c r="V40">
-        <v>13.51</v>
-      </c>
-      <c r="W40">
-        <v>17.09</v>
-      </c>
-      <c r="X40">
-        <v>21.79</v>
-      </c>
-      <c r="Y40">
-        <v>11.56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>1.91</v>
-      </c>
-      <c r="C41">
-        <v>1.91</v>
-      </c>
-      <c r="D41">
-        <v>1.54</v>
-      </c>
-      <c r="E41">
-        <v>1.76</v>
-      </c>
-      <c r="F41">
-        <v>1.49</v>
-      </c>
-      <c r="G41">
-        <v>1.73</v>
-      </c>
-      <c r="H41">
-        <v>2.16</v>
-      </c>
-      <c r="I41">
-        <v>2.34</v>
-      </c>
-      <c r="J41">
-        <v>2.36</v>
-      </c>
-      <c r="K41">
-        <v>1.96</v>
-      </c>
-      <c r="L41">
-        <v>1.97</v>
-      </c>
-      <c r="M41">
-        <v>2.08</v>
-      </c>
-      <c r="N41">
-        <v>2.36</v>
-      </c>
-      <c r="O41">
-        <v>2.34</v>
-      </c>
-      <c r="P41">
-        <v>2.14</v>
-      </c>
-      <c r="Q41">
-        <v>1.86</v>
-      </c>
-      <c r="R41">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="S41">
-        <v>1.93</v>
-      </c>
-      <c r="T41">
-        <v>2.02</v>
-      </c>
-      <c r="U41">
-        <v>2.15</v>
-      </c>
-      <c r="V41">
-        <v>2.29</v>
-      </c>
-      <c r="W41">
-        <v>3.05</v>
-      </c>
-      <c r="X41">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="Y41">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42">
-        <v>2.63</v>
-      </c>
-      <c r="C42">
-        <v>1.65</v>
-      </c>
-      <c r="D42">
-        <v>2.12</v>
-      </c>
-      <c r="E42">
-        <v>2.99</v>
-      </c>
-      <c r="F42">
-        <v>3.14</v>
-      </c>
-      <c r="G42">
-        <v>4.3</v>
-      </c>
-      <c r="H42">
-        <v>4.21</v>
-      </c>
-      <c r="I42">
-        <v>2.83</v>
-      </c>
-      <c r="J42">
-        <v>2.79</v>
-      </c>
-      <c r="K42">
-        <v>3.43</v>
-      </c>
-      <c r="L42">
-        <v>5.03</v>
-      </c>
-      <c r="M42">
-        <v>2.87</v>
-      </c>
-      <c r="N42">
-        <v>3.18</v>
-      </c>
-      <c r="O42">
-        <v>4.04</v>
-      </c>
-      <c r="P42">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="Q42">
-        <v>5.65</v>
-      </c>
-      <c r="R42">
-        <v>3.88</v>
-      </c>
-      <c r="S42">
-        <v>2.83</v>
-      </c>
-      <c r="T42">
-        <v>5.15</v>
-      </c>
-      <c r="U42">
-        <v>2.93</v>
-      </c>
-      <c r="V42">
-        <v>2.82</v>
-      </c>
-      <c r="W42">
-        <v>4.82</v>
-      </c>
-      <c r="X42">
-        <v>3.8</v>
-      </c>
-      <c r="Y42">
-        <v>3.11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>18.18</v>
+        <v>2000</v>
       </c>
       <c r="C43">
-        <v>19.55</v>
+        <v>2001</v>
       </c>
       <c r="D43">
-        <v>20.22</v>
+        <v>2002</v>
       </c>
       <c r="E43">
-        <v>17.28</v>
+        <v>2003</v>
       </c>
       <c r="F43">
-        <v>16.82</v>
+        <v>2004</v>
       </c>
       <c r="G43">
-        <v>18.649999999999999</v>
+        <v>2005</v>
       </c>
       <c r="H43">
-        <v>19.489999999999998</v>
+        <v>2006</v>
       </c>
       <c r="I43">
-        <v>14.64</v>
+        <v>2007</v>
       </c>
       <c r="J43">
-        <v>15.77</v>
+        <v>2008</v>
       </c>
       <c r="K43">
-        <v>15.26</v>
+        <v>2009</v>
       </c>
       <c r="L43">
-        <v>15.25</v>
+        <v>2010</v>
       </c>
       <c r="M43">
-        <v>16.309999999999999</v>
+        <v>2011</v>
       </c>
       <c r="N43">
-        <v>15.78</v>
+        <v>2012</v>
       </c>
       <c r="O43">
-        <v>14.17</v>
+        <v>2013</v>
       </c>
       <c r="P43">
-        <v>15.87</v>
+        <v>2014</v>
       </c>
       <c r="Q43">
-        <v>15.38</v>
+        <v>2015</v>
       </c>
       <c r="R43">
-        <v>15.78</v>
+        <v>2016</v>
       </c>
       <c r="S43">
-        <v>15.55</v>
+        <v>2017</v>
       </c>
       <c r="T43">
-        <v>16.13</v>
+        <v>2018</v>
       </c>
       <c r="U43">
-        <v>16.559999999999999</v>
+        <v>2019</v>
       </c>
       <c r="V43">
-        <v>16.63</v>
+        <v>2020</v>
       </c>
       <c r="W43">
-        <v>16.489999999999998</v>
+        <v>2021</v>
       </c>
       <c r="X43">
-        <v>16.46</v>
+        <v>2022</v>
       </c>
       <c r="Y43">
-        <v>16.16</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>0.93</v>
+        <v>0.05</v>
       </c>
       <c r="C44">
-        <v>0.83</v>
+        <v>0.05</v>
       </c>
       <c r="D44">
-        <v>1.02</v>
+        <v>0.05</v>
       </c>
       <c r="E44">
-        <v>1.01</v>
+        <v>0.01</v>
       </c>
       <c r="F44">
-        <v>1.01</v>
+        <v>0.01</v>
       </c>
       <c r="G44">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="H44">
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="I44">
-        <v>0.59</v>
+        <v>0.01</v>
       </c>
       <c r="J44">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="K44">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="L44">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="M44">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="N44">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="O44">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="P44">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="Q44">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="R44">
-        <v>0.28999999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="S44">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="T44">
-        <v>0.32</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U44">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="V44">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="W44">
-        <v>0.28000000000000003</v>
+        <v>0.05</v>
       </c>
       <c r="X44">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="Y44">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="L45">
-        <v>0.01</v>
+        <v>5.63</v>
       </c>
       <c r="M45">
-        <v>0.1</v>
+        <v>6.32</v>
       </c>
       <c r="N45">
-        <v>0.78</v>
+        <v>6.32</v>
       </c>
       <c r="O45">
-        <v>1.39</v>
+        <v>6.11</v>
       </c>
       <c r="P45">
-        <v>1.26</v>
+        <v>5.9</v>
       </c>
       <c r="Q45">
-        <v>1.38</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="R45">
-        <v>1.39</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="S45">
-        <v>1.4</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="T45">
-        <v>1.34</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="U45">
-        <v>1.42</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="V45">
-        <v>1.47</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W45">
-        <v>1.47</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="X45">
-        <v>2.09</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Y45">
-        <v>3.52</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H46">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L46">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="M46">
+        <v>1.2</v>
+      </c>
+      <c r="N46">
+        <v>1.2</v>
+      </c>
+      <c r="O46">
+        <v>1.2</v>
+      </c>
+      <c r="P46">
+        <v>1.2</v>
+      </c>
+      <c r="Q46">
+        <v>1.2</v>
+      </c>
+      <c r="R46">
+        <v>1.2</v>
+      </c>
+      <c r="S46">
+        <v>1.2</v>
+      </c>
+      <c r="T46">
+        <v>1.2</v>
+      </c>
+      <c r="U46">
+        <v>1.2</v>
+      </c>
+      <c r="V46">
+        <v>1.2</v>
+      </c>
+      <c r="W46">
+        <v>1.2</v>
+      </c>
+      <c r="X46">
+        <v>1.2</v>
+      </c>
+      <c r="Y46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>1.02</v>
+      </c>
+      <c r="C47">
+        <v>0.84</v>
+      </c>
+      <c r="D47">
+        <v>1.08</v>
+      </c>
+      <c r="E47">
+        <v>1.65</v>
+      </c>
+      <c r="F47">
+        <v>1.98</v>
+      </c>
+      <c r="G47">
+        <v>1.98</v>
+      </c>
+      <c r="H47">
+        <v>1.98</v>
+      </c>
+      <c r="I47">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J47">
+        <v>2.12</v>
+      </c>
+      <c r="K47">
+        <v>2.14</v>
+      </c>
+      <c r="L47">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M47">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="N47">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O47">
+        <v>2.34</v>
+      </c>
+      <c r="P47">
+        <v>2.36</v>
+      </c>
+      <c r="Q47">
+        <v>2.36</v>
+      </c>
+      <c r="R47">
+        <v>2.36</v>
+      </c>
+      <c r="S47">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="T47">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="U47">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="V47">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="W47">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="X47">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>3.53</v>
+      </c>
+      <c r="C48">
+        <v>3.53</v>
+      </c>
+      <c r="D48">
+        <v>2.72</v>
+      </c>
+      <c r="E48">
+        <v>2.72</v>
+      </c>
+      <c r="F48">
+        <v>2.72</v>
+      </c>
+      <c r="G48">
+        <v>2.72</v>
+      </c>
+      <c r="H48">
+        <v>2.72</v>
+      </c>
+      <c r="I48">
+        <v>1.89</v>
+      </c>
+      <c r="J48">
+        <v>1.89</v>
+      </c>
+      <c r="K48">
+        <v>1.89</v>
+      </c>
+      <c r="L48">
+        <v>1.89</v>
+      </c>
+      <c r="M48">
+        <v>1.89</v>
+      </c>
+      <c r="N48">
+        <v>1.91</v>
+      </c>
+      <c r="O48">
+        <v>1.98</v>
+      </c>
+      <c r="P48">
+        <v>1.98</v>
+      </c>
+      <c r="Q48">
+        <v>1.98</v>
+      </c>
+      <c r="R48">
+        <v>1.97</v>
+      </c>
+      <c r="S48">
+        <v>1.97</v>
+      </c>
+      <c r="T48">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="U48">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="V48">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="W48">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="X48">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0.03</v>
+      </c>
+      <c r="M50">
+        <v>0.15</v>
+      </c>
+      <c r="N50">
+        <v>0.92</v>
+      </c>
+      <c r="O50">
+        <v>1.04</v>
+      </c>
+      <c r="P50">
+        <v>1.03</v>
+      </c>
+      <c r="Q50">
+        <v>1.03</v>
+      </c>
+      <c r="R50">
+        <v>1.03</v>
+      </c>
+      <c r="S50">
+        <v>1.03</v>
+      </c>
+      <c r="T50">
+        <v>1.03</v>
+      </c>
+      <c r="U50">
+        <v>1.04</v>
+      </c>
+      <c r="V50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W50">
+        <v>1.27</v>
+      </c>
+      <c r="X50">
+        <v>1.74</v>
+      </c>
+      <c r="Y50">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0.02</v>
-      </c>
-      <c r="I46">
-        <v>0.05</v>
-      </c>
-      <c r="J46">
-        <v>0.12</v>
-      </c>
-      <c r="K46">
-        <v>0.24</v>
-      </c>
-      <c r="L46">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.01</v>
+      </c>
+      <c r="H51">
+        <v>0.03</v>
+      </c>
+      <c r="I51">
+        <v>0.03</v>
+      </c>
+      <c r="J51">
+        <v>0.11</v>
+      </c>
+      <c r="K51">
+        <v>0.33</v>
+      </c>
+      <c r="L51">
+        <v>0.49</v>
+      </c>
+      <c r="M51">
+        <v>0.54</v>
+      </c>
+      <c r="N51">
         <v>0.68</v>
       </c>
-      <c r="M46">
-        <v>0.86</v>
-      </c>
-      <c r="N46">
-        <v>1.22</v>
-      </c>
-      <c r="O46">
-        <v>1.37</v>
-      </c>
-      <c r="P46">
-        <v>1.33</v>
-      </c>
-      <c r="Q46">
-        <v>1.45</v>
-      </c>
-      <c r="R46">
-        <v>1.42</v>
-      </c>
-      <c r="S46">
-        <v>1.5</v>
-      </c>
-      <c r="T46">
-        <v>1.32</v>
-      </c>
-      <c r="U46">
-        <v>1.32</v>
-      </c>
-      <c r="V46">
-        <v>1.48</v>
-      </c>
-      <c r="W46">
-        <v>1.43</v>
-      </c>
-      <c r="X46">
-        <v>1.44</v>
-      </c>
-      <c r="Y46">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="O51">
+        <v>0.68</v>
+      </c>
+      <c r="P51">
+        <v>0.7</v>
+      </c>
+      <c r="Q51">
+        <v>0.7</v>
+      </c>
+      <c r="R51">
+        <v>0.7</v>
+      </c>
+      <c r="S51">
+        <v>0.7</v>
+      </c>
+      <c r="T51">
+        <v>0.7</v>
+      </c>
+      <c r="U51">
+        <v>0.7</v>
+      </c>
+      <c r="V51">
+        <v>0.7</v>
+      </c>
+      <c r="W51">
+        <v>0.7</v>
+      </c>
+      <c r="X51">
+        <v>0.7</v>
+      </c>
+      <c r="Y51">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B50">
+      <c r="B55">
         <v>2000</v>
       </c>
-      <c r="C50">
+      <c r="C55">
         <v>2001</v>
       </c>
-      <c r="D50">
+      <c r="D55">
         <v>2002</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <v>2003</v>
       </c>
-      <c r="F50">
+      <c r="F55">
         <v>2004</v>
       </c>
-      <c r="G50">
+      <c r="G55">
         <v>2005</v>
       </c>
-      <c r="H50">
+      <c r="H55">
         <v>2006</v>
       </c>
-      <c r="I50">
+      <c r="I55">
         <v>2007</v>
       </c>
-      <c r="J50">
+      <c r="J55">
         <v>2008</v>
       </c>
-      <c r="K50">
+      <c r="K55">
         <v>2009</v>
       </c>
-      <c r="L50">
+      <c r="L55">
         <v>2010</v>
       </c>
-      <c r="M50">
+      <c r="M55">
         <v>2011</v>
       </c>
-      <c r="N50">
+      <c r="N55">
         <v>2012</v>
       </c>
-      <c r="O50">
+      <c r="O55">
         <v>2013</v>
       </c>
-      <c r="P50">
+      <c r="P55">
         <v>2014</v>
       </c>
-      <c r="Q50">
+      <c r="Q55">
         <v>2015</v>
       </c>
-      <c r="R50">
+      <c r="R55">
         <v>2016</v>
       </c>
-      <c r="S50">
+      <c r="S55">
         <v>2017</v>
       </c>
-      <c r="T50">
+      <c r="T55">
         <v>2018</v>
       </c>
-      <c r="U50">
+      <c r="U55">
         <v>2019</v>
       </c>
-      <c r="V50">
+      <c r="V55">
         <v>2020</v>
       </c>
-      <c r="W50">
+      <c r="W55">
         <v>2021</v>
       </c>
-      <c r="X50">
+      <c r="X55">
         <v>2022</v>
       </c>
-      <c r="Y50">
-        <v>2023</v>
-      </c>
-      <c r="Z50">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C51">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D51">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E51">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F51">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="G51">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H51">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I51">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J51">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="K51">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="L51">
-        <v>0.01</v>
-      </c>
-      <c r="M51">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N51">
-        <v>1.4E-2</v>
-      </c>
-      <c r="O51">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="P51">
-        <v>0.04</v>
-      </c>
-      <c r="Q51">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="R51">
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="S51">
-        <v>5.2003000000000001E-2</v>
-      </c>
-      <c r="T51">
-        <v>6.942799999999999E-2</v>
-      </c>
-      <c r="U51">
-        <v>5.6869000000000003E-2</v>
-      </c>
-      <c r="V51">
-        <v>4.8054000000000006E-2</v>
-      </c>
-      <c r="W51">
-        <v>4.7321000000000002E-2</v>
-      </c>
-      <c r="X51">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Y51">
-        <v>7.8688999999999995E-2</v>
-      </c>
-      <c r="Z51">
-        <v>7.8688999999999995E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K56">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L56">
+        <v>3.5431999999999998E-2</v>
+      </c>
+      <c r="M56">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="N56">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O56">
+        <v>0.110402</v>
+      </c>
+      <c r="P56">
+        <v>0.2</v>
+      </c>
+      <c r="Q56">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="R56">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S56">
+        <v>0.39598100000000003</v>
+      </c>
+      <c r="T56">
+        <v>1.5729660000000001</v>
+      </c>
+      <c r="U56">
+        <v>1.820811</v>
+      </c>
+      <c r="V56">
+        <v>1.699341</v>
+      </c>
+      <c r="W56">
+        <v>2.5888920000000004</v>
+      </c>
+      <c r="X56">
+        <v>2.2435940000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>17.207000000000001</v>
+      </c>
+      <c r="C57">
+        <v>19.757000000000001</v>
+      </c>
+      <c r="D57">
+        <v>17.373000000000001</v>
+      </c>
+      <c r="E57">
+        <v>19.462</v>
+      </c>
+      <c r="F57">
+        <v>19.106999999999999</v>
+      </c>
+      <c r="G57">
+        <v>18.625</v>
+      </c>
+      <c r="H57">
+        <v>19.206</v>
+      </c>
+      <c r="I57">
+        <v>22.463000000000001</v>
+      </c>
+      <c r="J57">
+        <v>23.22</v>
+      </c>
+      <c r="K57">
+        <v>21.103000000000002</v>
+      </c>
+      <c r="L57">
+        <v>22.606000000000002</v>
+      </c>
+      <c r="M57">
+        <v>27.536999999999999</v>
+      </c>
+      <c r="N57">
+        <v>22.876000000000001</v>
+      </c>
+      <c r="O57">
+        <v>19.391598000000002</v>
+      </c>
+      <c r="P57">
+        <v>21.305</v>
+      </c>
+      <c r="Q57">
+        <v>22.521999999999998</v>
+      </c>
+      <c r="R57">
+        <v>19.364000000000001</v>
+      </c>
+      <c r="S57">
+        <v>20.914090999999999</v>
+      </c>
+      <c r="T57">
+        <v>18.659473000000002</v>
+      </c>
+      <c r="U57">
+        <v>17.224985</v>
+      </c>
+      <c r="V57">
+        <v>13.53266</v>
+      </c>
+      <c r="W57">
+        <v>17.085889999999999</v>
+      </c>
+      <c r="X57">
+        <v>21.785509999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="C58">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="D58">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="E58">
+        <v>1.762</v>
+      </c>
+      <c r="F58">
+        <v>1.494</v>
+      </c>
+      <c r="G58">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="H58">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="I58">
+        <v>2.3359999999999999</v>
+      </c>
+      <c r="J58">
+        <v>2.36</v>
+      </c>
+      <c r="K58">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="L58">
+        <v>1.9665680000000001</v>
+      </c>
+      <c r="M58">
+        <v>2.077</v>
+      </c>
+      <c r="N58">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="O58">
+        <v>2.339</v>
+      </c>
+      <c r="P58">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="Q58">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="R58">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="S58">
+        <v>1.9266459999999999</v>
+      </c>
+      <c r="T58">
+        <v>2.0227580000000001</v>
+      </c>
+      <c r="U58">
+        <v>2.1529029999999998</v>
+      </c>
+      <c r="V58">
+        <v>2.292316</v>
+      </c>
+      <c r="W58">
+        <v>3.0456720000000002</v>
+      </c>
+      <c r="X58">
+        <v>2.0534110000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>7</v>
       </c>
-      <c r="B52">
-        <v>1.88</v>
-      </c>
-      <c r="C52">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="D52">
-        <v>1.948</v>
-      </c>
-      <c r="E52">
-        <v>2.5150000000000001</v>
-      </c>
-      <c r="F52">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="G52">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="H52">
-        <v>2.8479999999999999</v>
-      </c>
-      <c r="I52">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="J52">
-        <v>2.984</v>
-      </c>
-      <c r="K52">
-        <v>3.0009999999999999</v>
-      </c>
-      <c r="L52">
-        <v>3.048</v>
-      </c>
-      <c r="M52">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="N52">
-        <v>3.181</v>
-      </c>
-      <c r="O52">
-        <v>3.2029999999999998</v>
-      </c>
-      <c r="P52">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="Q52">
-        <v>3.2189999999999999</v>
-      </c>
-      <c r="R52">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="S52">
-        <v>3.37155</v>
-      </c>
-      <c r="T52">
-        <v>3.379</v>
-      </c>
-      <c r="U52">
-        <v>3.3783499999999997</v>
-      </c>
-      <c r="V52">
-        <v>3.3764560000000001</v>
-      </c>
-      <c r="W52">
-        <v>3.3692329999999999</v>
-      </c>
-      <c r="X52">
-        <v>3.348185</v>
-      </c>
-      <c r="Y52">
-        <v>3.3502800000000001</v>
-      </c>
-      <c r="Z52">
-        <v>3.3502800000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B59">
+        <v>2.9509999999999996</v>
+      </c>
+      <c r="C59">
+        <v>2.1710000000000003</v>
+      </c>
+      <c r="D59">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="E59">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="F59">
+        <v>3.3628110000000002</v>
+      </c>
+      <c r="G59">
+        <v>4.7298960000000001</v>
+      </c>
+      <c r="H59">
+        <v>4.5789740000000005</v>
+      </c>
+      <c r="I59">
+        <v>3.2339989999999998</v>
+      </c>
+      <c r="J59">
+        <v>3.2767620000000002</v>
+      </c>
+      <c r="K59">
+        <v>4.0527119999999996</v>
+      </c>
+      <c r="L59">
+        <v>5.6925160000000004</v>
+      </c>
+      <c r="M59">
+        <v>3.6909139999999998</v>
+      </c>
+      <c r="N59">
+        <v>3.9757060000000002</v>
+      </c>
+      <c r="O59">
+        <v>4.7951379999999997</v>
+      </c>
+      <c r="P59">
+        <v>5.1626289999999999</v>
+      </c>
+      <c r="Q59">
+        <v>6.1465419999999993</v>
+      </c>
+      <c r="R59">
+        <v>4.5678419999999997</v>
+      </c>
+      <c r="S59">
+        <v>3.4929449999999997</v>
+      </c>
+      <c r="T59">
+        <v>5.4227320000000008</v>
+      </c>
+      <c r="U59">
+        <v>3.3827449999999999</v>
+      </c>
+      <c r="V59">
+        <v>3.3202579999999999</v>
+      </c>
+      <c r="W59">
+        <v>5.0671330000000001</v>
+      </c>
+      <c r="X59">
+        <v>3.833256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>8</v>
       </c>
-      <c r="B53">
-        <v>3.532</v>
-      </c>
-      <c r="C53">
-        <v>3.532</v>
-      </c>
-      <c r="D53">
-        <v>2.722</v>
-      </c>
-      <c r="E53">
-        <v>2.722</v>
-      </c>
-      <c r="F53">
-        <v>2.722</v>
-      </c>
-      <c r="G53">
-        <v>2.722</v>
-      </c>
-      <c r="H53">
-        <v>2.722</v>
-      </c>
-      <c r="I53">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="J53">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="K53">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="L53">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="M53">
-        <v>1.8919999999999999</v>
-      </c>
-      <c r="N53">
-        <v>1.9059999999999999</v>
-      </c>
-      <c r="O53">
-        <v>1.982</v>
-      </c>
-      <c r="P53">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="Q53">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="R53">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="S53">
-        <v>1.9670000000000001</v>
-      </c>
-      <c r="T53">
-        <v>2.008</v>
-      </c>
-      <c r="U53">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="V53">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="W53">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="X53">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Y53">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="Z53">
-        <v>2.0059999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="B60">
+        <v>18.178000000000001</v>
+      </c>
+      <c r="C60">
+        <v>19.553000000000001</v>
+      </c>
+      <c r="D60">
+        <v>20.222000000000001</v>
+      </c>
+      <c r="E60">
+        <v>17.28</v>
+      </c>
+      <c r="F60">
+        <v>16.815000000000001</v>
+      </c>
+      <c r="G60">
+        <v>18.652999999999999</v>
+      </c>
+      <c r="H60">
+        <v>19.492999999999999</v>
+      </c>
+      <c r="I60">
+        <v>14.643000000000001</v>
+      </c>
+      <c r="J60">
+        <v>15.765000000000001</v>
+      </c>
+      <c r="K60">
+        <v>15.256</v>
+      </c>
+      <c r="L60">
+        <v>15.249000000000001</v>
+      </c>
+      <c r="M60">
+        <v>16.314</v>
+      </c>
+      <c r="N60">
+        <v>15.785</v>
+      </c>
+      <c r="O60">
+        <v>14.170999999999999</v>
+      </c>
+      <c r="P60">
+        <v>15.867000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>15.382999999999999</v>
+      </c>
+      <c r="R60">
+        <v>15.776</v>
+      </c>
+      <c r="S60">
+        <v>15.545499</v>
+      </c>
+      <c r="T60">
+        <v>16.125281000000001</v>
+      </c>
+      <c r="U60">
+        <v>16.555288000000001</v>
+      </c>
+      <c r="V60">
+        <v>16.625764999999998</v>
+      </c>
+      <c r="W60">
+        <v>16.486893999999999</v>
+      </c>
+      <c r="X60">
+        <v>16.462018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>3</v>
       </c>
-      <c r="B54">
-        <v>5.6210000000000004</v>
-      </c>
-      <c r="C54">
-        <v>7.4059999999999997</v>
-      </c>
-      <c r="D54">
-        <v>6.8259999999999996</v>
-      </c>
-      <c r="E54">
-        <v>6.7519999999999998</v>
-      </c>
-      <c r="F54">
-        <v>6.6820000000000004</v>
-      </c>
-      <c r="G54">
-        <v>6.6749999999999998</v>
-      </c>
-      <c r="H54">
-        <v>6.4119999999999999</v>
-      </c>
-      <c r="I54">
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="J54">
-        <v>4.641</v>
-      </c>
-      <c r="K54">
-        <v>4.3630000000000004</v>
-      </c>
-      <c r="L54">
-        <v>4.5679999999999996</v>
-      </c>
-      <c r="M54">
-        <v>4.5350000000000001</v>
-      </c>
-      <c r="N54">
-        <v>4.8979999999999997</v>
-      </c>
-      <c r="O54">
-        <v>4.6669999999999998</v>
-      </c>
-      <c r="P54">
-        <v>4.43</v>
-      </c>
-      <c r="Q54">
-        <v>3.9369999999999998</v>
-      </c>
-      <c r="R54">
-        <v>3.7650000000000001</v>
-      </c>
-      <c r="S54">
-        <v>3.7333600000000002</v>
-      </c>
-      <c r="T54">
-        <v>4.1509750000000007</v>
-      </c>
-      <c r="U54">
-        <v>4.040362</v>
-      </c>
-      <c r="V54">
-        <v>3.7584020000000002</v>
-      </c>
-      <c r="W54">
-        <v>3.8066649999999997</v>
-      </c>
-      <c r="X54">
-        <v>3.9745819999999998</v>
-      </c>
-      <c r="Y54">
-        <v>3.9745819999999998</v>
-      </c>
-      <c r="Z54">
-        <v>3.9745819999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B61">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="C61">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D61">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E61">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="F61">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G61">
+        <v>0.623</v>
+      </c>
+      <c r="H61">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="I61">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J61">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K61">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="L61">
+        <v>0.40700000000000003</v>
+      </c>
+      <c r="M61">
+        <v>0.16</v>
+      </c>
+      <c r="N61">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="O61">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="P61">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="R61">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="S61">
+        <v>0.43059500000000001</v>
+      </c>
+      <c r="T61">
+        <v>0.37356200000000001</v>
+      </c>
+      <c r="U61">
+        <v>0.40558499999999997</v>
+      </c>
+      <c r="V61">
+        <v>0.33825000000000005</v>
+      </c>
+      <c r="W61">
+        <v>0.39345599999999997</v>
+      </c>
+      <c r="X61">
+        <v>0.52855200000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>9</v>
       </c>
-      <c r="I55">
-        <v>2.9999999999999997E-5</v>
-      </c>
-      <c r="J55">
-        <v>1E-4</v>
-      </c>
-      <c r="K55">
-        <v>2E-3</v>
-      </c>
-      <c r="L55">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M55">
-        <v>0.154</v>
-      </c>
-      <c r="N55">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="O55">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="P55">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="Q55">
-        <v>1.028</v>
-      </c>
-      <c r="R55">
-        <v>1.03</v>
-      </c>
-      <c r="S55">
-        <v>1.0307010000000001</v>
-      </c>
-      <c r="T55">
-        <v>1.033058</v>
-      </c>
-      <c r="U55">
-        <v>1.0443900000000002</v>
-      </c>
-      <c r="V55">
-        <v>1.1002110000000001</v>
-      </c>
-      <c r="W55">
-        <v>1.274713</v>
-      </c>
-      <c r="X55">
-        <v>1.736537</v>
-      </c>
-      <c r="Y55">
-        <v>2.9081269999999999</v>
-      </c>
-      <c r="Z55">
-        <v>3.9081269999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="I62">
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J62">
+        <v>1.6700000000000002E-4</v>
+      </c>
+      <c r="K62">
+        <v>3.2669999999999999E-3</v>
+      </c>
+      <c r="L62">
+        <v>1.4865E-2</v>
+      </c>
+      <c r="M62">
+        <v>0.10086199999999999</v>
+      </c>
+      <c r="N62">
+        <v>0.77869600000000005</v>
+      </c>
+      <c r="O62">
+        <v>1.3919870000000001</v>
+      </c>
+      <c r="P62">
+        <v>1.256651</v>
+      </c>
+      <c r="Q62">
+        <v>1.381661</v>
+      </c>
+      <c r="R62">
+        <v>1.3879900000000001</v>
+      </c>
+      <c r="S62">
+        <v>1.4029700000000001</v>
+      </c>
+      <c r="T62">
+        <v>1.3427880000000001</v>
+      </c>
+      <c r="U62">
+        <v>1.417286</v>
+      </c>
+      <c r="V62">
+        <v>1.46872</v>
+      </c>
+      <c r="W62">
+        <v>1.4665979999999998</v>
+      </c>
+      <c r="X62">
+        <v>2.0938380000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>10</v>
       </c>
-      <c r="F56">
+      <c r="F63">
         <v>1E-3</v>
       </c>
-      <c r="G56">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H56">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I56">
-        <v>0.03</v>
-      </c>
-      <c r="J56">
-        <v>0.114</v>
-      </c>
-      <c r="K56">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L56">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="M56">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="N56">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="O56">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="P56">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="Q56">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="R56">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="S56">
-        <v>0.69838999999999996</v>
-      </c>
-      <c r="T56">
-        <v>0.69891999999999999</v>
-      </c>
-      <c r="U56">
-        <v>0.70311999999999997</v>
-      </c>
-      <c r="V56">
-        <v>0.70279999999999998</v>
-      </c>
-      <c r="W56">
-        <v>0.70437499999999997</v>
-      </c>
-      <c r="X56">
-        <v>0.70430999999999999</v>
-      </c>
-      <c r="Y56">
-        <v>0.70430999999999999</v>
-      </c>
-      <c r="Z56">
-        <v>0.70430999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60">
-        <v>2000</v>
-      </c>
-      <c r="C60">
-        <v>2001</v>
-      </c>
-      <c r="D60">
-        <v>2002</v>
-      </c>
-      <c r="E60">
-        <v>2003</v>
-      </c>
-      <c r="F60">
-        <v>2004</v>
-      </c>
-      <c r="G60">
-        <v>2005</v>
-      </c>
-      <c r="H60">
-        <v>2006</v>
-      </c>
-      <c r="I60">
-        <v>2007</v>
-      </c>
-      <c r="J60">
-        <v>2008</v>
-      </c>
-      <c r="K60">
-        <v>2009</v>
-      </c>
-      <c r="L60">
-        <v>2010</v>
-      </c>
-      <c r="M60">
-        <v>2011</v>
-      </c>
-      <c r="N60">
-        <v>2012</v>
-      </c>
-      <c r="O60">
-        <v>2013</v>
-      </c>
-      <c r="P60">
-        <v>2014</v>
-      </c>
-      <c r="Q60">
-        <v>2015</v>
-      </c>
-      <c r="R60">
-        <v>2016</v>
-      </c>
-      <c r="S60">
-        <v>2017</v>
-      </c>
-      <c r="T60">
-        <v>2018</v>
-      </c>
-      <c r="U60">
-        <v>2019</v>
-      </c>
-      <c r="V60">
-        <v>2020</v>
-      </c>
-      <c r="W60">
-        <v>2021</v>
-      </c>
-      <c r="X60">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K61">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L61">
-        <v>3.5431999999999998E-2</v>
-      </c>
-      <c r="M61">
-        <v>5.5999999999999994E-2</v>
-      </c>
-      <c r="N61">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="O61">
-        <v>0.110402</v>
-      </c>
-      <c r="P61">
-        <v>0.2</v>
-      </c>
-      <c r="Q61">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="R61">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S61">
-        <v>0.39598100000000003</v>
-      </c>
-      <c r="T61">
-        <v>1.5729660000000001</v>
-      </c>
-      <c r="U61">
-        <v>1.820811</v>
-      </c>
-      <c r="V61">
-        <v>1.699341</v>
-      </c>
-      <c r="W61">
-        <v>2.5888920000000004</v>
-      </c>
-      <c r="X61">
-        <v>2.2435940000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>17.207000000000001</v>
-      </c>
-      <c r="C62">
-        <v>19.757000000000001</v>
-      </c>
-      <c r="D62">
-        <v>17.373000000000001</v>
-      </c>
-      <c r="E62">
-        <v>19.462</v>
-      </c>
-      <c r="F62">
-        <v>19.106999999999999</v>
-      </c>
-      <c r="G62">
-        <v>18.625</v>
-      </c>
-      <c r="H62">
-        <v>19.206</v>
-      </c>
-      <c r="I62">
-        <v>22.463000000000001</v>
-      </c>
-      <c r="J62">
-        <v>23.22</v>
-      </c>
-      <c r="K62">
-        <v>21.103000000000002</v>
-      </c>
-      <c r="L62">
-        <v>22.606000000000002</v>
-      </c>
-      <c r="M62">
-        <v>27.536999999999999</v>
-      </c>
-      <c r="N62">
-        <v>22.876000000000001</v>
-      </c>
-      <c r="O62">
-        <v>19.391598000000002</v>
-      </c>
-      <c r="P62">
-        <v>21.305</v>
-      </c>
-      <c r="Q62">
-        <v>22.521999999999998</v>
-      </c>
-      <c r="R62">
-        <v>19.364000000000001</v>
-      </c>
-      <c r="S62">
-        <v>20.914090999999999</v>
-      </c>
-      <c r="T62">
-        <v>18.659473000000002</v>
-      </c>
-      <c r="U62">
-        <v>17.224985</v>
-      </c>
-      <c r="V62">
-        <v>13.53266</v>
-      </c>
-      <c r="W62">
-        <v>17.085889999999999</v>
-      </c>
-      <c r="X62">
-        <v>21.785509999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="C63">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="D63">
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="E63">
-        <v>1.762</v>
-      </c>
-      <c r="F63">
-        <v>1.494</v>
-      </c>
       <c r="G63">
-        <v>1.7290000000000001</v>
+        <v>4.5869999999999999E-3</v>
       </c>
       <c r="H63">
-        <v>2.1589999999999998</v>
+        <v>2.0047000000000002E-2</v>
       </c>
       <c r="I63">
-        <v>2.3359999999999999</v>
+        <v>4.6801999999999996E-2</v>
       </c>
       <c r="J63">
-        <v>2.36</v>
+        <v>0.12175799999999999</v>
       </c>
       <c r="K63">
-        <v>1.9610000000000001</v>
+        <v>0.237009</v>
       </c>
       <c r="L63">
-        <v>1.9665680000000001</v>
+        <v>0.681369</v>
       </c>
       <c r="M63">
-        <v>2.077</v>
+        <v>0.86109500000000005</v>
       </c>
       <c r="N63">
-        <v>2.3559999999999999</v>
+        <v>1.2208979999999998</v>
       </c>
       <c r="O63">
-        <v>2.339</v>
+        <v>1.3735119999999998</v>
       </c>
       <c r="P63">
-        <v>2.1419999999999999</v>
+        <v>1.3305769999999999</v>
       </c>
       <c r="Q63">
-        <v>1.8640000000000001</v>
+        <v>1.451511</v>
       </c>
       <c r="R63">
-        <v>2.0529999999999999</v>
+        <v>1.4249700000000001</v>
       </c>
       <c r="S63">
-        <v>1.9266459999999999</v>
+        <v>1.5040640000000001</v>
       </c>
       <c r="T63">
-        <v>2.0227580000000001</v>
+        <v>1.3181230000000002</v>
       </c>
       <c r="U63">
-        <v>2.1529029999999998</v>
+        <v>1.316988</v>
       </c>
       <c r="V63">
-        <v>2.292316</v>
+        <v>1.4771310000000002</v>
       </c>
       <c r="W63">
-        <v>3.0456720000000002</v>
+        <v>1.4335609999999999</v>
       </c>
       <c r="X63">
-        <v>2.0534110000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64">
-        <v>2.9509999999999996</v>
-      </c>
-      <c r="C64">
-        <v>2.1710000000000003</v>
-      </c>
-      <c r="D64">
-        <v>2.7040000000000002</v>
-      </c>
-      <c r="E64">
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="F64">
-        <v>3.3628110000000002</v>
-      </c>
-      <c r="G64">
-        <v>4.7298960000000001</v>
-      </c>
-      <c r="H64">
-        <v>4.5789740000000005</v>
-      </c>
-      <c r="I64">
-        <v>3.2339989999999998</v>
-      </c>
-      <c r="J64">
-        <v>3.2767620000000002</v>
-      </c>
-      <c r="K64">
-        <v>4.0527119999999996</v>
-      </c>
-      <c r="L64">
-        <v>5.6925160000000004</v>
-      </c>
-      <c r="M64">
-        <v>3.6909139999999998</v>
-      </c>
-      <c r="N64">
-        <v>3.9757060000000002</v>
-      </c>
-      <c r="O64">
-        <v>4.7951379999999997</v>
-      </c>
-      <c r="P64">
-        <v>5.1626289999999999</v>
-      </c>
-      <c r="Q64">
-        <v>6.1465419999999993</v>
-      </c>
-      <c r="R64">
-        <v>4.5678419999999997</v>
-      </c>
-      <c r="S64">
-        <v>3.4929449999999997</v>
-      </c>
-      <c r="T64">
-        <v>5.4227320000000008</v>
-      </c>
-      <c r="U64">
-        <v>3.3827449999999999</v>
-      </c>
-      <c r="V64">
-        <v>3.3202579999999999</v>
-      </c>
-      <c r="W64">
-        <v>5.0671330000000001</v>
-      </c>
-      <c r="X64">
-        <v>3.833256</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65">
-        <v>18.178000000000001</v>
-      </c>
-      <c r="C65">
-        <v>19.553000000000001</v>
-      </c>
-      <c r="D65">
-        <v>20.222000000000001</v>
-      </c>
-      <c r="E65">
-        <v>17.28</v>
-      </c>
-      <c r="F65">
-        <v>16.815000000000001</v>
-      </c>
-      <c r="G65">
-        <v>18.652999999999999</v>
-      </c>
-      <c r="H65">
-        <v>19.492999999999999</v>
-      </c>
-      <c r="I65">
-        <v>14.643000000000001</v>
-      </c>
-      <c r="J65">
-        <v>15.765000000000001</v>
-      </c>
-      <c r="K65">
-        <v>15.256</v>
-      </c>
-      <c r="L65">
-        <v>15.249000000000001</v>
-      </c>
-      <c r="M65">
-        <v>16.314</v>
-      </c>
-      <c r="N65">
-        <v>15.785</v>
-      </c>
-      <c r="O65">
-        <v>14.170999999999999</v>
-      </c>
-      <c r="P65">
-        <v>15.867000000000001</v>
-      </c>
-      <c r="Q65">
-        <v>15.382999999999999</v>
-      </c>
-      <c r="R65">
-        <v>15.776</v>
-      </c>
-      <c r="S65">
-        <v>15.545499</v>
-      </c>
-      <c r="T65">
-        <v>16.125281000000001</v>
-      </c>
-      <c r="U65">
-        <v>16.555288000000001</v>
-      </c>
-      <c r="V65">
-        <v>16.625764999999998</v>
-      </c>
-      <c r="W65">
-        <v>16.486893999999999</v>
-      </c>
-      <c r="X65">
-        <v>16.462018</v>
+        <v>1.499125</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="C66">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D66">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="E66">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="F66">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="G66">
-        <v>0.623</v>
-      </c>
-      <c r="H66">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="I66">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="J66">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="K66">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="L66">
-        <v>0.40700000000000003</v>
-      </c>
-      <c r="M66">
-        <v>0.16</v>
-      </c>
-      <c r="N66">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="O66">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="P66">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="Q66">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="R66">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="S66">
-        <v>0.43059500000000001</v>
-      </c>
-      <c r="T66">
-        <v>0.37356200000000001</v>
-      </c>
-      <c r="U66">
-        <v>0.40558499999999997</v>
-      </c>
-      <c r="V66">
-        <v>0.33825000000000005</v>
-      </c>
-      <c r="W66">
-        <v>0.39345599999999997</v>
-      </c>
-      <c r="X66">
-        <v>0.52855200000000002</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>2000</v>
+      </c>
+      <c r="C67">
+        <v>2001</v>
+      </c>
+      <c r="D67">
+        <v>2002</v>
+      </c>
+      <c r="E67">
+        <v>2003</v>
+      </c>
+      <c r="F67">
+        <v>2004</v>
+      </c>
+      <c r="G67">
+        <v>2005</v>
+      </c>
+      <c r="H67">
+        <v>2006</v>
       </c>
       <c r="I67">
-        <v>5.9999999999999995E-5</v>
+        <v>2007</v>
       </c>
       <c r="J67">
-        <v>1.6700000000000002E-4</v>
+        <v>2008</v>
       </c>
       <c r="K67">
-        <v>3.2669999999999999E-3</v>
+        <v>2009</v>
       </c>
       <c r="L67">
-        <v>1.4865E-2</v>
+        <v>2010</v>
       </c>
       <c r="M67">
-        <v>0.10086199999999999</v>
+        <v>2011</v>
       </c>
       <c r="N67">
-        <v>0.77869600000000005</v>
+        <v>2012</v>
       </c>
       <c r="O67">
-        <v>1.3919870000000001</v>
+        <v>2013</v>
       </c>
       <c r="P67">
-        <v>1.256651</v>
+        <v>2014</v>
       </c>
       <c r="Q67">
-        <v>1.381661</v>
+        <v>2015</v>
       </c>
       <c r="R67">
-        <v>1.3879900000000001</v>
+        <v>2016</v>
       </c>
       <c r="S67">
-        <v>1.4029700000000001</v>
+        <v>2017</v>
       </c>
       <c r="T67">
-        <v>1.3427880000000001</v>
+        <v>2018</v>
       </c>
       <c r="U67">
-        <v>1.417286</v>
+        <v>2019</v>
       </c>
       <c r="V67">
-        <v>1.46872</v>
+        <v>2020</v>
       </c>
       <c r="W67">
-        <v>1.4665979999999998</v>
+        <v>2021</v>
       </c>
       <c r="X67">
-        <v>2.0938380000000003</v>
+        <v>2022</v>
+      </c>
+      <c r="Y67">
+        <v>2023</v>
+      </c>
+      <c r="Z67">
+        <v>2024</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C68">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D68">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E68">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F68">
-        <v>1E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G68">
-        <v>4.5869999999999999E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H68">
-        <v>2.0047000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I68">
-        <v>4.6801999999999996E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J68">
-        <v>0.12175799999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K68">
-        <v>0.237009</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="L68">
-        <v>0.681369</v>
+        <v>0.01</v>
       </c>
       <c r="M68">
-        <v>0.86109500000000005</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N68">
-        <v>1.2208979999999998</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O68">
-        <v>1.3735119999999998</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P68">
-        <v>1.3305769999999999</v>
+        <v>0.04</v>
       </c>
       <c r="Q68">
-        <v>1.451511</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="R68">
-        <v>1.4249700000000001</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="S68">
-        <v>1.5040640000000001</v>
+        <v>5.2003000000000001E-2</v>
       </c>
       <c r="T68">
-        <v>1.3181230000000002</v>
+        <v>6.942799999999999E-2</v>
       </c>
       <c r="U68">
-        <v>1.316988</v>
+        <v>5.6869000000000003E-2</v>
       </c>
       <c r="V68">
-        <v>1.4771310000000002</v>
+        <v>4.8054000000000006E-2</v>
       </c>
       <c r="W68">
-        <v>1.4335609999999999</v>
+        <v>4.7321000000000002E-2</v>
       </c>
       <c r="X68">
-        <v>1.499125</v>
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Y68">
+        <v>7.8688999999999995E-2</v>
+      </c>
+      <c r="Z68">
+        <v>7.8688999999999995E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>1.88</v>
+      </c>
+      <c r="C69">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D69">
+        <v>1.948</v>
+      </c>
+      <c r="E69">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="F69">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="G69">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="H69">
+        <v>2.8479999999999999</v>
+      </c>
+      <c r="I69">
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="J69">
+        <v>2.984</v>
+      </c>
+      <c r="K69">
+        <v>3.0009999999999999</v>
+      </c>
+      <c r="L69">
+        <v>3.048</v>
+      </c>
+      <c r="M69">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="N69">
+        <v>3.181</v>
+      </c>
+      <c r="O69">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="P69">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="Q69">
+        <v>3.2189999999999999</v>
+      </c>
+      <c r="R69">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="S69">
+        <v>3.37155</v>
+      </c>
+      <c r="T69">
+        <v>3.379</v>
+      </c>
+      <c r="U69">
+        <v>3.3783499999999997</v>
+      </c>
+      <c r="V69">
+        <v>3.3764560000000001</v>
+      </c>
+      <c r="W69">
+        <v>3.3692329999999999</v>
+      </c>
+      <c r="X69">
+        <v>3.348185</v>
+      </c>
+      <c r="Y69">
+        <v>3.3502800000000001</v>
+      </c>
+      <c r="Z69">
+        <v>3.3502800000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>3.532</v>
+      </c>
+      <c r="C70">
+        <v>3.532</v>
+      </c>
+      <c r="D70">
+        <v>2.722</v>
+      </c>
+      <c r="E70">
+        <v>2.722</v>
+      </c>
+      <c r="F70">
+        <v>2.722</v>
+      </c>
+      <c r="G70">
+        <v>2.722</v>
+      </c>
+      <c r="H70">
+        <v>2.722</v>
+      </c>
+      <c r="I70">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="J70">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K70">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="L70">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="M70">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="N70">
+        <v>1.9059999999999999</v>
+      </c>
+      <c r="O70">
+        <v>1.982</v>
+      </c>
+      <c r="P70">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="Q70">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="R70">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="S70">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="T70">
+        <v>2.008</v>
+      </c>
+      <c r="U70">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="V70">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="W70">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="X70">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="Z70">
+        <v>2.0059999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="C71">
+        <v>7.4059999999999997</v>
+      </c>
+      <c r="D71">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="E71">
+        <v>6.7519999999999998</v>
+      </c>
+      <c r="F71">
+        <v>6.6820000000000004</v>
+      </c>
+      <c r="G71">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="H71">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="I71">
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="J71">
+        <v>4.641</v>
+      </c>
+      <c r="K71">
+        <v>4.3630000000000004</v>
+      </c>
+      <c r="L71">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="M71">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="N71">
+        <v>4.8979999999999997</v>
+      </c>
+      <c r="O71">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="P71">
+        <v>4.43</v>
+      </c>
+      <c r="Q71">
+        <v>3.9369999999999998</v>
+      </c>
+      <c r="R71">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="S71">
+        <v>3.7333600000000002</v>
+      </c>
+      <c r="T71">
+        <v>4.1509750000000007</v>
+      </c>
+      <c r="U71">
+        <v>4.040362</v>
+      </c>
+      <c r="V71">
+        <v>3.7584020000000002</v>
+      </c>
+      <c r="W71">
+        <v>3.8066649999999997</v>
+      </c>
+      <c r="X71">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Y71">
+        <v>3.9745819999999998</v>
+      </c>
+      <c r="Z71">
+        <v>3.9745819999999998</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72">
-        <v>2000</v>
-      </c>
-      <c r="D72">
-        <v>2001</v>
-      </c>
-      <c r="E72">
-        <v>2002</v>
-      </c>
-      <c r="F72">
-        <v>2003</v>
-      </c>
-      <c r="G72">
-        <v>2004</v>
-      </c>
-      <c r="H72">
-        <v>2005</v>
+        <v>9</v>
       </c>
       <c r="I72">
-        <v>2006</v>
+        <v>2.9999999999999997E-5</v>
       </c>
       <c r="J72">
-        <v>2007</v>
+        <v>1E-4</v>
       </c>
       <c r="K72">
-        <v>2008</v>
+        <v>2E-3</v>
       </c>
       <c r="L72">
-        <v>2009</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M72">
-        <v>2010</v>
+        <v>0.154</v>
       </c>
       <c r="N72">
-        <v>2011</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="O72">
-        <v>2012</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="P72">
-        <v>2013</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="Q72">
-        <v>2014</v>
+        <v>1.028</v>
       </c>
       <c r="R72">
-        <v>2015</v>
+        <v>1.03</v>
       </c>
       <c r="S72">
-        <v>2016</v>
+        <v>1.0307010000000001</v>
       </c>
       <c r="T72">
-        <v>2017</v>
+        <v>1.033058</v>
       </c>
       <c r="U72">
-        <v>2018</v>
+        <v>1.0443900000000002</v>
       </c>
       <c r="V72">
-        <v>2019</v>
+        <v>1.1002110000000001</v>
       </c>
       <c r="W72">
-        <v>2020</v>
+        <v>1.274713</v>
       </c>
       <c r="X72">
-        <v>2021</v>
+        <v>1.736537</v>
       </c>
       <c r="Y72">
-        <v>2022</v>
+        <v>2.9081269999999999</v>
       </c>
       <c r="Z72">
-        <v>2023</v>
+        <v>3.9081269999999999</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>1E-3</v>
+      </c>
+      <c r="G73">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H73">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I73">
+        <v>0.03</v>
+      </c>
+      <c r="J73">
+        <v>0.114</v>
+      </c>
+      <c r="K73">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="M73">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="N73">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="O73">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="P73">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="Q73">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="R73">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="S73">
+        <v>0.69838999999999996</v>
+      </c>
+      <c r="T73">
+        <v>0.69891999999999999</v>
+      </c>
+      <c r="U73">
+        <v>0.70311999999999997</v>
+      </c>
+      <c r="V73">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="W73">
+        <v>0.70437499999999997</v>
+      </c>
+      <c r="X73">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0.70430999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>0.70430999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>2000</v>
+      </c>
+      <c r="D77">
+        <v>2001</v>
+      </c>
+      <c r="E77">
+        <v>2002</v>
+      </c>
+      <c r="F77">
+        <v>2003</v>
+      </c>
+      <c r="G77">
+        <v>2004</v>
+      </c>
+      <c r="H77">
+        <v>2005</v>
+      </c>
+      <c r="I77">
+        <v>2006</v>
+      </c>
+      <c r="J77">
+        <v>2007</v>
+      </c>
+      <c r="K77">
+        <v>2008</v>
+      </c>
+      <c r="L77">
+        <v>2009</v>
+      </c>
+      <c r="M77">
+        <v>2010</v>
+      </c>
+      <c r="N77">
+        <v>2011</v>
+      </c>
+      <c r="O77">
+        <v>2012</v>
+      </c>
+      <c r="P77">
+        <v>2013</v>
+      </c>
+      <c r="Q77">
+        <v>2014</v>
+      </c>
+      <c r="R77">
+        <v>2015</v>
+      </c>
+      <c r="S77">
+        <v>2016</v>
+      </c>
+      <c r="T77">
+        <v>2017</v>
+      </c>
+      <c r="U77">
+        <v>2018</v>
+      </c>
+      <c r="V77">
+        <v>2019</v>
+      </c>
+      <c r="W77">
+        <v>2020</v>
+      </c>
+      <c r="X77">
+        <v>2021</v>
+      </c>
+      <c r="Y77">
+        <v>2022</v>
+      </c>
+      <c r="Z77">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>87</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" t="s">
         <v>88</v>
       </c>
-      <c r="C73">
+      <c r="C78">
         <v>5.6</v>
       </c>
-      <c r="D73">
+      <c r="D78">
         <v>8</v>
       </c>
-      <c r="E73">
+      <c r="E78">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F73">
+      <c r="F78">
         <v>6.8</v>
       </c>
-      <c r="G73">
+      <c r="G78">
         <v>6.6</v>
       </c>
-      <c r="H73">
+      <c r="H78">
         <v>8.4</v>
       </c>
-      <c r="I73">
+      <c r="I78">
         <v>8.9</v>
       </c>
-      <c r="J73">
+      <c r="J78">
         <v>7.5</v>
       </c>
-      <c r="K73">
+      <c r="K78">
         <v>8.4</v>
       </c>
-      <c r="L73">
+      <c r="L78">
         <v>7.7</v>
       </c>
-      <c r="M73">
+      <c r="M78">
         <v>9.6</v>
       </c>
-      <c r="N73">
+      <c r="N78">
         <v>12.1</v>
       </c>
-      <c r="O73">
+      <c r="O78">
         <v>10.7</v>
       </c>
-      <c r="P73">
+      <c r="P78">
         <v>9.5</v>
       </c>
-      <c r="Q73">
+      <c r="Q78">
         <v>13.8</v>
       </c>
-      <c r="R73">
+      <c r="R78">
         <v>14.8</v>
       </c>
-      <c r="S73">
+      <c r="S78">
         <v>10.9</v>
       </c>
-      <c r="T73">
+      <c r="T78">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U73">
+      <c r="U78">
         <v>10</v>
       </c>
-      <c r="V73">
+      <c r="V78">
         <v>8.9</v>
       </c>
-      <c r="W73">
+      <c r="W78">
         <v>7.1</v>
       </c>
-      <c r="X73">
+      <c r="X78">
         <v>10.6</v>
       </c>
-      <c r="Y73">
+      <c r="Y78">
         <v>13.7</v>
       </c>
-      <c r="Z73">
+      <c r="Z78">
         <v>7.7</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" t="s">
         <v>89</v>
       </c>
-      <c r="C74">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="D79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E74">
+      <c r="E79">
         <v>2</v>
       </c>
-      <c r="F74">
+      <c r="F79">
         <v>1.3</v>
       </c>
-      <c r="G74">
+      <c r="G79">
         <v>0.7</v>
       </c>
-      <c r="H74">
+      <c r="H79">
         <v>0.8</v>
       </c>
-      <c r="I74">
+      <c r="I79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J74">
+      <c r="J79">
         <v>3.1</v>
       </c>
-      <c r="K74">
+      <c r="K79">
         <v>3.1</v>
       </c>
-      <c r="L74">
+      <c r="L79">
         <v>2.7</v>
       </c>
-      <c r="M74">
+      <c r="M79">
         <v>1.2</v>
       </c>
-      <c r="N74">
+      <c r="N79">
         <v>1.4</v>
       </c>
-      <c r="O74">
+      <c r="O79">
         <v>2.4</v>
       </c>
-      <c r="P74">
+      <c r="P79">
         <v>3.4</v>
       </c>
-      <c r="Q74">
+      <c r="Q79">
         <v>4.3</v>
       </c>
-      <c r="R74">
+      <c r="R79">
         <v>4.3</v>
       </c>
-      <c r="S74">
+      <c r="S79">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T74">
+      <c r="T79">
         <v>3.7</v>
       </c>
-      <c r="U74">
+      <c r="U79">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V74">
+      <c r="V79">
         <v>3</v>
       </c>
-      <c r="W74">
+      <c r="W79">
         <v>3.7</v>
       </c>
-      <c r="X74">
+      <c r="X79">
         <v>1.9</v>
       </c>
-      <c r="Y74">
+      <c r="Y79">
         <v>1.5</v>
       </c>
-      <c r="Z74">
+      <c r="Z79">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -1292,10 +1292,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Z83"/>
+      <selection activeCell="A1" sqref="A1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -5305,266 +5305,266 @@
         <v>0.70431</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="7" t="inlineStr">
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="7" t="inlineStr">
         <is>
           <t>Electricity Trade Data (TWh) - Source: UNSD</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="8" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="8" t="inlineStr">
         <is>
           <t>ISO</t>
         </is>
       </c>
-      <c r="B81" s="8" t="inlineStr">
+      <c r="B86" s="8" t="inlineStr">
         <is>
           <t>attribute</t>
         </is>
       </c>
-      <c r="C81" s="8" t="n">
+      <c r="C86" s="8" t="n">
         <v>2000</v>
       </c>
-      <c r="D81" s="8" t="n">
+      <c r="D86" s="8" t="n">
         <v>2001</v>
       </c>
-      <c r="E81" s="8" t="n">
+      <c r="E86" s="8" t="n">
         <v>2002</v>
       </c>
-      <c r="F81" s="8" t="n">
+      <c r="F86" s="8" t="n">
         <v>2003</v>
       </c>
-      <c r="G81" s="8" t="n">
+      <c r="G86" s="8" t="n">
         <v>2004</v>
       </c>
-      <c r="H81" s="8" t="n">
+      <c r="H86" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="I81" s="8" t="n">
+      <c r="I86" s="8" t="n">
         <v>2006</v>
       </c>
-      <c r="J81" s="8" t="n">
+      <c r="J86" s="8" t="n">
         <v>2007</v>
       </c>
-      <c r="K81" s="8" t="n">
+      <c r="K86" s="8" t="n">
         <v>2008</v>
       </c>
-      <c r="L81" s="8" t="n">
+      <c r="L86" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="M81" s="8" t="n">
+      <c r="M86" s="8" t="n">
         <v>2010</v>
       </c>
-      <c r="N81" s="8" t="n">
+      <c r="N86" s="8" t="n">
         <v>2011</v>
       </c>
-      <c r="O81" s="8" t="n">
+      <c r="O86" s="8" t="n">
         <v>2012</v>
       </c>
-      <c r="P81" s="8" t="n">
+      <c r="P86" s="8" t="n">
         <v>2013</v>
       </c>
-      <c r="Q81" s="8" t="n">
+      <c r="Q86" s="8" t="n">
         <v>2014</v>
       </c>
-      <c r="R81" s="8" t="n">
+      <c r="R86" s="8" t="n">
         <v>2015</v>
       </c>
-      <c r="S81" s="8" t="n">
+      <c r="S86" s="8" t="n">
         <v>2016</v>
       </c>
-      <c r="T81" s="8" t="n">
+      <c r="T86" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="U81" s="8" t="n">
+      <c r="U86" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="V81" s="8" t="n">
+      <c r="V86" s="8" t="n">
         <v>2019</v>
       </c>
-      <c r="W81" s="8" t="n">
+      <c r="W86" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="X81" s="8" t="n">
+      <c r="X86" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="Y81" s="8" t="n">
+      <c r="Y86" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="Z81" s="8" t="n">
+      <c r="Z86" s="8" t="n">
         <v>2023</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>BGR</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Export</t>
         </is>
       </c>
-      <c r="C82" s="10" t="n">
+      <c r="C87" s="10" t="n">
         <v>5.6</v>
       </c>
-      <c r="D82" s="10" t="n">
+      <c r="D87" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="E82" s="10" t="n">
+      <c r="E87" s="10" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F82" s="10" t="n">
+      <c r="F87" s="10" t="n">
         <v>6.8</v>
       </c>
-      <c r="G82" s="10" t="n">
+      <c r="G87" s="10" t="n">
         <v>6.6</v>
       </c>
-      <c r="H82" s="10" t="n">
+      <c r="H87" s="10" t="n">
         <v>8.4</v>
       </c>
-      <c r="I82" s="10" t="n">
+      <c r="I87" s="10" t="n">
         <v>8.9</v>
       </c>
-      <c r="J82" s="10" t="n">
+      <c r="J87" s="10" t="n">
         <v>7.5</v>
       </c>
-      <c r="K82" s="10" t="n">
+      <c r="K87" s="10" t="n">
         <v>8.4</v>
       </c>
-      <c r="L82" s="10" t="n">
+      <c r="L87" s="10" t="n">
         <v>7.7</v>
       </c>
-      <c r="M82" s="10" t="n">
+      <c r="M87" s="10" t="n">
         <v>9.6</v>
       </c>
-      <c r="N82" s="10" t="n">
+      <c r="N87" s="10" t="n">
         <v>12.1</v>
       </c>
-      <c r="O82" s="10" t="n">
+      <c r="O87" s="10" t="n">
         <v>10.7</v>
       </c>
-      <c r="P82" s="10" t="n">
+      <c r="P87" s="10" t="n">
         <v>9.5</v>
       </c>
-      <c r="Q82" s="10" t="n">
+      <c r="Q87" s="10" t="n">
         <v>13.8</v>
       </c>
-      <c r="R82" s="10" t="n">
+      <c r="R87" s="10" t="n">
         <v>14.8</v>
       </c>
-      <c r="S82" s="10" t="n">
+      <c r="S87" s="10" t="n">
         <v>10.9</v>
       </c>
-      <c r="T82" s="10" t="n">
+      <c r="T87" s="10" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="U82" s="10" t="n">
+      <c r="U87" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="V82" s="10" t="n">
+      <c r="V87" s="10" t="n">
         <v>8.9</v>
       </c>
-      <c r="W82" s="10" t="n">
+      <c r="W87" s="10" t="n">
         <v>7.1</v>
       </c>
-      <c r="X82" s="10" t="n">
+      <c r="X87" s="10" t="n">
         <v>10.6</v>
       </c>
-      <c r="Y82" s="10" t="n">
+      <c r="Y87" s="10" t="n">
         <v>13.7</v>
       </c>
-      <c r="Z82" s="10" t="n">
+      <c r="Z87" s="10" t="n">
         <v>7.7</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>BGR</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Import</t>
         </is>
       </c>
-      <c r="C83" s="10" t="n">
+      <c r="C88" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D83" s="10" t="n">
+      <c r="D88" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="E83" s="10" t="n">
+      <c r="E88" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="F83" s="10" t="n">
+      <c r="F88" s="10" t="n">
         <v>1.3</v>
       </c>
-      <c r="G83" s="10" t="n">
+      <c r="G88" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="H83" s="10" t="n">
+      <c r="H88" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="I83" s="10" t="n">
+      <c r="I88" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="J83" s="10" t="n">
+      <c r="J88" s="10" t="n">
         <v>3.1</v>
       </c>
-      <c r="K83" s="10" t="n">
+      <c r="K88" s="10" t="n">
         <v>3.1</v>
       </c>
-      <c r="L83" s="10" t="n">
+      <c r="L88" s="10" t="n">
         <v>2.7</v>
       </c>
-      <c r="M83" s="10" t="n">
+      <c r="M88" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="N83" s="10" t="n">
+      <c r="N88" s="10" t="n">
         <v>1.4</v>
       </c>
-      <c r="O83" s="10" t="n">
+      <c r="O88" s="10" t="n">
         <v>2.4</v>
       </c>
-      <c r="P83" s="10" t="n">
+      <c r="P88" s="10" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q83" s="10" t="n">
+      <c r="Q88" s="10" t="n">
         <v>4.3</v>
       </c>
-      <c r="R83" s="10" t="n">
+      <c r="R88" s="10" t="n">
         <v>4.3</v>
       </c>
-      <c r="S83" s="10" t="n">
+      <c r="S88" s="10" t="n">
         <v>4.6</v>
       </c>
-      <c r="T83" s="10" t="n">
+      <c r="T88" s="10" t="n">
         <v>3.7</v>
       </c>
-      <c r="U83" s="10" t="n">
+      <c r="U88" s="10" t="n">
         <v>2.2</v>
       </c>
-      <c r="V83" s="10" t="n">
+      <c r="V88" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="W83" s="10" t="n">
+      <c r="W88" s="10" t="n">
         <v>3.7</v>
       </c>
-      <c r="X83" s="10" t="n">
+      <c r="X88" s="10" t="n">
         <v>1.9</v>
       </c>
-      <c r="Y83" s="10" t="n">
+      <c r="Y88" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="Z83" s="10" t="n">
+      <c r="Z88" s="10" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5994D5-F47F-40CF-9956-FD58FFCBFF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF781B9E-7329-4600-A629-3902F92CE4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF781B9E-7329-4600-A629-3902F92CE4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0F15C-9BE7-4CB8-9A87-E9CE1F4FF76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -211,6 +211,30 @@
   </si>
   <si>
     <t>CCGT - CHP</t>
+  </si>
+  <si>
+    <t>~UC_T: FX</t>
+  </si>
+  <si>
+    <t>pset_pn</t>
+  </si>
+  <si>
+    <t>UCE_Solar capacity aggregation for peak</t>
+  </si>
+  <si>
+    <t>ElcAgg_Solar</t>
+  </si>
+  <si>
+    <t>UCE_Wind capacity aggregation for peak</t>
+  </si>
+  <si>
+    <t>ElcAgg_Wind</t>
+  </si>
+  <si>
+    <t>ep*,EN*</t>
+  </si>
+  <si>
+    <t>Geothermal*</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -714,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ27"/>
+  <dimension ref="B1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -762,19 +786,19 @@
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.45">
       <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.45">
@@ -782,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -827,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D5" s="5">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
@@ -1143,8 +1167,8 @@
         <v>2100</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,L15:L27)</f>
-        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,L15:L28)</f>
+        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP,Geothermal*</v>
       </c>
       <c r="L15" t="s">
         <v>30</v>
@@ -1271,6 +1295,77 @@
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="L27" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="L28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1304,12 +1399,12 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7">
         <v>2000</v>
@@ -1386,7 +1481,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -1972,12 +2067,12 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7">
         <v>2000</v>
@@ -2051,7 +2146,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2457,12 +2552,12 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B31" s="7">
         <v>2000</v>
@@ -2539,7 +2634,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B32" s="8">
         <v>40.590000000000003</v>
@@ -2616,7 +2711,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B33" s="9">
         <v>0</v>
@@ -3232,12 +3327,12 @@
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B45" s="7">
         <v>2000</v>
@@ -3311,7 +3406,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B46" s="8">
         <v>40.923999999999999</v>
@@ -3385,7 +3480,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3939,12 +4034,12 @@
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A58" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7">
         <v>2000</v>
@@ -4021,7 +4116,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B60" s="9">
         <v>0.05</v>
@@ -4637,12 +4732,12 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A70" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B71" s="7">
         <v>2000</v>
@@ -4722,7 +4817,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B72" s="9">
         <v>5.1999999999999998E-2</v>
@@ -5181,12 +5276,12 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>27</v>
@@ -5266,10 +5361,10 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C87" s="9">
         <v>5.6</v>
@@ -5346,10 +5441,10 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C88" s="9">
         <v>1</v>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0F15C-9BE7-4CB8-9A87-E9CE1F4FF76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4E6E0-C750-4B58-8E4B-5178195B61E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A4E6E0-C750-4B58-8E4B-5178195B61E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA96F4D-6A62-40D3-BAF6-FDAC5F0DC479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,12 +65,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{611EBA31-8D3D-48AF-B590-BE94B249D2E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+03-08-2025
+CO2 transport and storage cost
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -235,6 +261,24 @@
   </si>
   <si>
     <t>Geothermal*</t>
+  </si>
+  <si>
+    <t>COM_AGG</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2net</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>flo_cost</t>
   </si>
   <si>
     <t>EMBER Utilization Factors</t>
@@ -389,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +442,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -738,16 +783,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ40"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.59765625" customWidth="1"/>
     <col min="5" max="5" width="9.53125" customWidth="1"/>
     <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
@@ -776,7 +821,7 @@
     <col min="36" max="36" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="AA1">
         <v>1.1000000000000001</v>
       </c>
@@ -784,29 +829,29 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.45">
-      <c r="F2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="F2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -824,7 +869,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -846,7 +894,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -869,7 +917,10 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -877,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D7" si="0">IFERROR(VLOOKUP(B6,$F$3:$J$11,5,FALSE),"")</f>
+        <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.22831050228310501</v>
       </c>
       <c r="F6" t="s">
@@ -902,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -910,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.24584659524473154</v>
       </c>
       <c r="F7" t="s">
@@ -974,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1052,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>12</v>
       </c>
@@ -1137,18 +1188,18 @@
         <v>0.24584659524473154</v>
       </c>
     </row>
-    <row r="11" spans="2:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="L16" t="s">
         <v>31</v>
       </c>
@@ -1215,6 +1266,9 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
@@ -1230,10 +1284,10 @@
         <v>40</v>
       </c>
       <c r="E22">
-        <f>G22*3.6</f>
+        <f>I22*3.6</f>
         <v>338.40000000000003</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>94</v>
       </c>
       <c r="L22" t="s">
@@ -1251,10 +1305,10 @@
         <v>40</v>
       </c>
       <c r="E23">
-        <f>G23*3.6</f>
+        <f>I23*3.6</f>
         <v>198</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>55</v>
       </c>
       <c r="L23" t="s">
@@ -1272,10 +1326,10 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <f>G24*3.6</f>
+        <f>I24*3.6</f>
         <v>252</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>70</v>
       </c>
       <c r="L24" t="s">
@@ -1283,16 +1337,53 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
       <c r="L26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>0.03</v>
+      </c>
+      <c r="F27" t="str">
+        <f>C27</f>
+        <v>co2captured</v>
+      </c>
       <c r="L27" s="2" t="s">
         <v>46</v>
       </c>
@@ -1398,90 +1489,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>55</v>
+      <c r="A1" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8">
         <v>2000</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>2001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>2002</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>2003</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>2004</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>2005</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>2006</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>2007</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>2008</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>2009</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>2010</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>2011</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>2012</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>2013</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="8">
         <v>2014</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>2015</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8">
         <v>2016</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <v>2017</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="8">
         <v>2018</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>2019</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="8">
         <v>2020</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <v>2021</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <v>2022</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2066,87 +2157,87 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
+      <c r="A15" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8">
         <v>2000</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>2001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>2002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>2003</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>2004</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>2005</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>2006</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>2007</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>2008</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>2009</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="8">
         <v>2010</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="8">
         <v>2011</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="8">
         <v>2012</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="8">
         <v>2013</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <v>2014</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="8">
         <v>2015</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="8">
         <v>2016</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="8">
         <v>2017</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="8">
         <v>2018</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="8">
         <v>2019</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="8">
         <v>2020</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="8">
         <v>2021</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2551,238 +2642,238 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="6" t="s">
-        <v>59</v>
+      <c r="A30" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="8">
         <v>2000</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>2001</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>2002</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>2003</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>2004</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>2005</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>2006</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>2007</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>2008</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="8">
         <v>2009</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="8">
         <v>2010</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="8">
         <v>2011</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="8">
         <v>2012</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="8">
         <v>2013</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="8">
         <v>2014</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="8">
         <v>2015</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="8">
         <v>2016</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="8">
         <v>2017</v>
       </c>
-      <c r="T31" s="7">
+      <c r="T31" s="8">
         <v>2018</v>
       </c>
-      <c r="U31" s="7">
+      <c r="U31" s="8">
         <v>2019</v>
       </c>
-      <c r="V31" s="7">
+      <c r="V31" s="8">
         <v>2020</v>
       </c>
-      <c r="W31" s="7">
+      <c r="W31" s="8">
         <v>2021</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="8">
         <v>2022</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y31" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="A32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="9">
         <v>40.590000000000003</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="9">
         <v>43.44</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <v>42.08</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>42.28</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>41.36</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <v>43.89</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="9">
         <v>45.44</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>42.82</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="9">
         <v>44.49</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="9">
         <v>42.31</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9">
         <v>45.93</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="9">
         <v>49.959999999999994</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="9">
         <v>46.459999999999994</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="9">
         <v>43.019999999999996</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="9">
         <v>46.92</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="9">
         <v>48.71</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="9">
         <v>44.53</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="9">
         <v>44.84</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="9">
         <v>46.51</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="9">
         <v>43.72</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="9">
         <v>40.14</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="9">
         <v>47.22</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="9">
         <v>50.220000000000006</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="9">
         <v>39.99</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="9">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9">
+        <v>63</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
         <v>0.02</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="10">
         <v>0.01</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="10">
         <v>0.04</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="10">
         <v>0.06</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="10">
         <v>0.11</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="Q33" s="10">
         <v>0.27</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33" s="10">
         <v>0.35</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="10">
         <v>0.4</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="10">
         <v>1.57</v>
       </c>
-      <c r="U33" s="9">
+      <c r="U33" s="10">
         <v>1.82</v>
       </c>
-      <c r="V33" s="9">
+      <c r="V33" s="10">
         <v>1.7</v>
       </c>
-      <c r="W33" s="9">
+      <c r="W33" s="10">
         <v>2.59</v>
       </c>
-      <c r="X33" s="9">
+      <c r="X33" s="10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33" s="10">
         <v>2.1800000000000002</v>
       </c>
     </row>
@@ -2790,76 +2881,76 @@
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="10">
         <v>16.940000000000001</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>19.5</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>17.18</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="10">
         <v>19.239999999999998</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="10">
         <v>18.899999999999999</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="10">
         <v>18.46</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="10">
         <v>19.09</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="10">
         <v>22.37</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="10">
         <v>23.18</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="10">
         <v>21.1</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="10">
         <v>22.61</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="10">
         <v>27.53</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="10">
         <v>22.87</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="10">
         <v>19.39</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="10">
         <v>21.31</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q34" s="10">
         <v>22.53</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R34" s="10">
         <v>19.37</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="10">
         <v>20.92</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="10">
         <v>18.66</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="10">
         <v>17.2</v>
       </c>
-      <c r="V34" s="9">
+      <c r="V34" s="10">
         <v>13.51</v>
       </c>
-      <c r="W34" s="9">
+      <c r="W34" s="10">
         <v>17.09</v>
       </c>
-      <c r="X34" s="9">
+      <c r="X34" s="10">
         <v>21.79</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="10">
         <v>11.56</v>
       </c>
     </row>
@@ -2867,76 +2958,76 @@
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="10">
         <v>1.91</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>1.91</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>1.54</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <v>1.76</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <v>1.49</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <v>1.73</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <v>2.16</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <v>2.34</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <v>2.36</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <v>1.96</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <v>1.97</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="10">
         <v>2.08</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="10">
         <v>2.36</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="10">
         <v>2.34</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="10">
         <v>2.14</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="Q35" s="10">
         <v>1.86</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="10">
         <v>1.93</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="10">
         <v>2.02</v>
       </c>
-      <c r="U35" s="9">
+      <c r="U35" s="10">
         <v>2.15</v>
       </c>
-      <c r="V35" s="9">
+      <c r="V35" s="10">
         <v>2.29</v>
       </c>
-      <c r="W35" s="9">
+      <c r="W35" s="10">
         <v>3.05</v>
       </c>
-      <c r="X35" s="9">
+      <c r="X35" s="10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y35" s="10">
         <v>1.56</v>
       </c>
     </row>
@@ -2944,76 +3035,76 @@
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>2.63</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="10">
         <v>1.65</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="10">
         <v>2.12</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <v>2.99</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="10">
         <v>3.14</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="10">
         <v>4.3</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="10">
         <v>4.21</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="10">
         <v>2.83</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="10">
         <v>2.79</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="10">
         <v>3.43</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="10">
         <v>5.03</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="10">
         <v>2.87</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="10">
         <v>3.18</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="10">
         <v>4.04</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q36" s="10">
         <v>5.65</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36" s="10">
         <v>3.88</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="10">
         <v>2.83</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="10">
         <v>5.15</v>
       </c>
-      <c r="U36" s="9">
+      <c r="U36" s="10">
         <v>2.93</v>
       </c>
-      <c r="V36" s="9">
+      <c r="V36" s="10">
         <v>2.82</v>
       </c>
-      <c r="W36" s="9">
+      <c r="W36" s="10">
         <v>4.82</v>
       </c>
-      <c r="X36" s="9">
+      <c r="X36" s="10">
         <v>3.8</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="10">
         <v>3.11</v>
       </c>
     </row>
@@ -3021,76 +3112,76 @@
       <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="10">
         <v>18.18</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="10">
         <v>19.55</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="10">
         <v>20.22</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="10">
         <v>17.28</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="10">
         <v>16.82</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="10">
         <v>18.649999999999999</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="10">
         <v>19.489999999999998</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="10">
         <v>14.64</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="10">
         <v>15.77</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="10">
         <v>15.26</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L37" s="10">
         <v>15.25</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="10">
         <v>16.309999999999999</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="10">
         <v>15.78</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="10">
         <v>14.17</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="10">
         <v>15.87</v>
       </c>
-      <c r="Q37" s="9">
+      <c r="Q37" s="10">
         <v>15.38</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37" s="10">
         <v>15.78</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="10">
         <v>15.55</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="10">
         <v>16.13</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="10">
         <v>16.559999999999999</v>
       </c>
-      <c r="V37" s="9">
+      <c r="V37" s="10">
         <v>16.63</v>
       </c>
-      <c r="W37" s="9">
+      <c r="W37" s="10">
         <v>16.489999999999998</v>
       </c>
-      <c r="X37" s="9">
+      <c r="X37" s="10">
         <v>16.46</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="10">
         <v>16.16</v>
       </c>
     </row>
@@ -3098,76 +3189,76 @@
       <c r="A38" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>0.93</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="10">
         <v>0.83</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="10">
         <v>1.02</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="10">
         <v>1.01</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="10">
         <v>1.01</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="10">
         <v>0.75</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="10">
         <v>0.47</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="10">
         <v>0.59</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="10">
         <v>0.25</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="10">
         <v>0.31</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="10">
         <v>0.34</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="10">
         <v>0.15</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="10">
         <v>0.2</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="10">
         <v>0.21</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="10">
         <v>0.21</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="Q38" s="10">
         <v>0.19</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="10">
         <v>0.31</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="10">
         <v>0.32</v>
       </c>
-      <c r="U38" s="9">
+      <c r="U38" s="10">
         <v>0.32</v>
       </c>
-      <c r="V38" s="9">
+      <c r="V38" s="10">
         <v>0.24</v>
       </c>
-      <c r="W38" s="9">
+      <c r="W38" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X38" s="9">
+      <c r="X38" s="10">
         <v>0.35</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="10">
         <v>0.35</v>
       </c>
     </row>
@@ -3175,76 +3266,76 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="9">
-        <v>0</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="B39" s="10">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
         <v>0.01</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="10">
         <v>0.1</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="10">
         <v>0.78</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="10">
         <v>1.39</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="10">
         <v>1.26</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="Q39" s="10">
         <v>1.38</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39" s="10">
         <v>1.39</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="10">
         <v>1.4</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="10">
         <v>1.34</v>
       </c>
-      <c r="U39" s="9">
+      <c r="U39" s="10">
         <v>1.42</v>
       </c>
-      <c r="V39" s="9">
+      <c r="V39" s="10">
         <v>1.47</v>
       </c>
-      <c r="W39" s="9">
+      <c r="W39" s="10">
         <v>1.47</v>
       </c>
-      <c r="X39" s="9">
+      <c r="X39" s="10">
         <v>2.09</v>
       </c>
-      <c r="Y39" s="9">
+      <c r="Y39" s="10">
         <v>3.52</v>
       </c>
     </row>
@@ -3252,287 +3343,287 @@
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="9">
-        <v>0</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9">
+      <c r="B40" s="10">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
         <v>0.02</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="10">
         <v>0.05</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="10">
         <v>0.12</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="10">
         <v>0.24</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="10">
         <v>0.68</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="10">
         <v>0.86</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="10">
         <v>1.22</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="10">
         <v>1.37</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="10">
         <v>1.33</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="10">
         <v>1.45</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="10">
         <v>1.42</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="10">
         <v>1.5</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="10">
         <v>1.32</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="10">
         <v>1.32</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="10">
         <v>1.48</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="10">
         <v>1.43</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="10">
         <v>1.44</v>
       </c>
-      <c r="Y40" s="9">
+      <c r="Y40" s="10">
         <v>1.55</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="6" t="s">
-        <v>61</v>
+      <c r="A44" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="8">
         <v>2000</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>2001</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>2002</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>2003</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>2004</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>2005</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>2006</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>2007</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="8">
         <v>2008</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="8">
         <v>2009</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="8">
         <v>2010</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="8">
         <v>2011</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="8">
         <v>2012</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="8">
         <v>2013</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="8">
         <v>2014</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="8">
         <v>2015</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="8">
         <v>2016</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="8">
         <v>2017</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="8">
         <v>2018</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="8">
         <v>2019</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="8">
         <v>2020</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="8">
         <v>2021</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="8">
+      <c r="A46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="9">
         <v>40.923999999999999</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>43.968000000000004</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>42.679000000000002</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <v>42.6</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <v>41.620811000000003</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>44.364483</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>45.843021</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="9">
         <v>43.296861</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="9">
         <v>45.036687000000001</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="9">
         <v>42.963988000000001</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="9">
         <v>46.652749999999997</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="9">
         <v>50.796871000000003</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="9">
         <v>47.293300000000002</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="9">
         <v>43.814637000000005</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="9">
         <v>47.488857000000003</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="9">
         <v>49.225713999999996</v>
       </c>
-      <c r="R46" s="8">
+      <c r="R46" s="9">
         <v>45.278801999999999</v>
       </c>
-      <c r="S46" s="8">
+      <c r="S46" s="9">
         <v>45.612791000000001</v>
       </c>
-      <c r="T46" s="8">
+      <c r="T46" s="9">
         <v>46.837683000000006</v>
       </c>
-      <c r="U46" s="8">
+      <c r="U46" s="9">
         <v>44.276590999999996</v>
       </c>
-      <c r="V46" s="8">
+      <c r="V46" s="9">
         <v>40.754441</v>
       </c>
-      <c r="W46" s="8">
+      <c r="W46" s="9">
         <v>47.568095999999997</v>
       </c>
-      <c r="X46" s="8">
+      <c r="X46" s="9">
         <v>50.499304000000002</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9">
+        <v>63</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K47" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L47" s="10">
         <v>3.5431999999999998E-2</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="10">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="10">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="10">
         <v>0.110402</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="10">
         <v>0.27200000000000002</v>
       </c>
-      <c r="R47" s="9">
+      <c r="R47" s="10">
         <v>0.35299999999999998</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S47" s="10">
         <v>0.39598100000000003</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="10">
         <v>1.5729660000000001</v>
       </c>
-      <c r="U47" s="9">
+      <c r="U47" s="10">
         <v>1.820811</v>
       </c>
-      <c r="V47" s="9">
+      <c r="V47" s="10">
         <v>1.699341</v>
       </c>
-      <c r="W47" s="9">
+      <c r="W47" s="10">
         <v>2.5888920000000004</v>
       </c>
-      <c r="X47" s="9">
+      <c r="X47" s="10">
         <v>2.2435940000000003</v>
       </c>
     </row>
@@ -3540,73 +3631,73 @@
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>17.207000000000001</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="10">
         <v>19.757000000000001</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="10">
         <v>17.373000000000001</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>19.462</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="10">
         <v>19.106999999999999</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="10">
         <v>18.625</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="10">
         <v>19.206</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="10">
         <v>22.463000000000001</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="10">
         <v>23.22</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="10">
         <v>21.103000000000002</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="10">
         <v>22.606000000000002</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="10">
         <v>27.536999999999999</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="10">
         <v>22.876000000000001</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="10">
         <v>19.391598000000002</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="10">
         <v>21.305</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="10">
         <v>22.521999999999998</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="10">
         <v>19.364000000000001</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="10">
         <v>20.914090999999999</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="10">
         <v>18.659473000000002</v>
       </c>
-      <c r="U48" s="9">
+      <c r="U48" s="10">
         <v>17.224985</v>
       </c>
-      <c r="V48" s="9">
+      <c r="V48" s="10">
         <v>13.53266</v>
       </c>
-      <c r="W48" s="9">
+      <c r="W48" s="10">
         <v>17.085889999999999</v>
       </c>
-      <c r="X48" s="9">
+      <c r="X48" s="10">
         <v>21.785509999999999</v>
       </c>
     </row>
@@ -3614,73 +3705,73 @@
       <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="10">
         <v>1.9119999999999999</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="10">
         <v>1.9079999999999999</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="10">
         <v>1.5389999999999999</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="10">
         <v>1.762</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="10">
         <v>1.494</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="10">
         <v>1.7290000000000001</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="10">
         <v>2.1589999999999998</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="10">
         <v>2.3359999999999999</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="10">
         <v>2.36</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K49" s="10">
         <v>1.9610000000000001</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="10">
         <v>1.9665680000000001</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M49" s="10">
         <v>2.077</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="10">
         <v>2.3559999999999999</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="10">
         <v>2.339</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="10">
         <v>2.1419999999999999</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="Q49" s="10">
         <v>1.8640000000000001</v>
       </c>
-      <c r="R49" s="9">
+      <c r="R49" s="10">
         <v>2.0529999999999999</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S49" s="10">
         <v>1.9266459999999999</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="10">
         <v>2.0227580000000001</v>
       </c>
-      <c r="U49" s="9">
+      <c r="U49" s="10">
         <v>2.1529029999999998</v>
       </c>
-      <c r="V49" s="9">
+      <c r="V49" s="10">
         <v>2.292316</v>
       </c>
-      <c r="W49" s="9">
+      <c r="W49" s="10">
         <v>3.0456720000000002</v>
       </c>
-      <c r="X49" s="9">
+      <c r="X49" s="10">
         <v>2.0534110000000001</v>
       </c>
     </row>
@@ -3688,73 +3779,73 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>2.9509999999999996</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="10">
         <v>2.1710000000000003</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="10">
         <v>2.7040000000000002</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="10">
         <v>3.3010000000000002</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="10">
         <v>3.3628110000000002</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="10">
         <v>4.7298960000000001</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="10">
         <v>4.5789740000000005</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="10">
         <v>3.2339989999999998</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="10">
         <v>3.2767620000000002</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K50" s="10">
         <v>4.0527119999999996</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="10">
         <v>5.6925160000000004</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="10">
         <v>3.6909139999999998</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="10">
         <v>3.9757060000000002</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="10">
         <v>4.7951379999999997</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="10">
         <v>5.1626289999999999</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="10">
         <v>6.1465419999999993</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R50" s="10">
         <v>4.5678419999999997</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="10">
         <v>3.4929449999999997</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="10">
         <v>5.4227320000000008</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="10">
         <v>3.3827449999999999</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="10">
         <v>3.3202579999999999</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="10">
         <v>5.0671330000000001</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="10">
         <v>3.833256</v>
       </c>
     </row>
@@ -3762,73 +3853,73 @@
       <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="10">
         <v>18.178000000000001</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="10">
         <v>19.553000000000001</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="10">
         <v>20.222000000000001</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="10">
         <v>17.28</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="10">
         <v>16.815000000000001</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="10">
         <v>18.652999999999999</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="10">
         <v>19.492999999999999</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="10">
         <v>14.643000000000001</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="10">
         <v>15.765000000000001</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K51" s="10">
         <v>15.256</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L51" s="10">
         <v>15.249000000000001</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M51" s="10">
         <v>16.314</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="10">
         <v>15.785</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="10">
         <v>14.170999999999999</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="10">
         <v>15.867000000000001</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="Q51" s="10">
         <v>15.382999999999999</v>
       </c>
-      <c r="R51" s="9">
+      <c r="R51" s="10">
         <v>15.776</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S51" s="10">
         <v>15.545499</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="10">
         <v>16.125281000000001</v>
       </c>
-      <c r="U51" s="9">
+      <c r="U51" s="10">
         <v>16.555288000000001</v>
       </c>
-      <c r="V51" s="9">
+      <c r="V51" s="10">
         <v>16.625764999999998</v>
       </c>
-      <c r="W51" s="9">
+      <c r="W51" s="10">
         <v>16.486893999999999</v>
       </c>
-      <c r="X51" s="9">
+      <c r="X51" s="10">
         <v>16.462018</v>
       </c>
     </row>
@@ -3836,73 +3927,73 @@
       <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>0.67600000000000005</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="10">
         <v>0.57899999999999996</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="10">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <v>0.79500000000000004</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="10">
         <v>0.84099999999999997</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="10">
         <v>0.623</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="10">
         <v>0.38600000000000001</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="10">
         <v>0.57399999999999995</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="10">
         <v>0.27700000000000002</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="10">
         <v>0.34300000000000003</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="10">
         <v>0.40700000000000003</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="10">
         <v>0.16</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="10">
         <v>0.24199999999999999</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="10">
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="Q52" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="R52" s="9">
+      <c r="R52" s="10">
         <v>0.35199999999999998</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S52" s="10">
         <v>0.43059500000000001</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="10">
         <v>0.37356200000000001</v>
       </c>
-      <c r="U52" s="9">
+      <c r="U52" s="10">
         <v>0.40558499999999997</v>
       </c>
-      <c r="V52" s="9">
+      <c r="V52" s="10">
         <v>0.33825000000000005</v>
       </c>
-      <c r="W52" s="9">
+      <c r="W52" s="10">
         <v>0.39345599999999997</v>
       </c>
-      <c r="X52" s="9">
+      <c r="X52" s="10">
         <v>0.52855200000000002</v>
       </c>
     </row>
@@ -3910,59 +4001,59 @@
       <c r="A53" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10">
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="10">
         <v>1.6700000000000002E-4</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="10">
         <v>3.2669999999999999E-3</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="10">
         <v>1.4865E-2</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="10">
         <v>0.10086199999999999</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="10">
         <v>0.77869600000000005</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="10">
         <v>1.3919870000000001</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="10">
         <v>1.256651</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53" s="10">
         <v>1.381661</v>
       </c>
-      <c r="R53" s="9">
+      <c r="R53" s="10">
         <v>1.3879900000000001</v>
       </c>
-      <c r="S53" s="9">
+      <c r="S53" s="10">
         <v>1.4029700000000001</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53" s="10">
         <v>1.3427880000000001</v>
       </c>
-      <c r="U53" s="9">
+      <c r="U53" s="10">
         <v>1.417286</v>
       </c>
-      <c r="V53" s="9">
+      <c r="V53" s="10">
         <v>1.46872</v>
       </c>
-      <c r="W53" s="9">
+      <c r="W53" s="10">
         <v>1.4665979999999998</v>
       </c>
-      <c r="X53" s="9">
+      <c r="X53" s="10">
         <v>2.0938380000000003</v>
       </c>
     </row>
@@ -3970,224 +4061,224 @@
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="10">
         <v>4.5869999999999999E-3</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="10">
         <v>2.0047000000000002E-2</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="10">
         <v>4.6801999999999996E-2</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="10">
         <v>0.12175799999999999</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K54" s="10">
         <v>0.237009</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="10">
         <v>0.681369</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="10">
         <v>0.86109500000000005</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="10">
         <v>1.2208979999999998</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O54" s="10">
         <v>1.3735119999999998</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="10">
         <v>1.3305769999999999</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="Q54" s="10">
         <v>1.451511</v>
       </c>
-      <c r="R54" s="9">
+      <c r="R54" s="10">
         <v>1.4249700000000001</v>
       </c>
-      <c r="S54" s="9">
+      <c r="S54" s="10">
         <v>1.5040640000000001</v>
       </c>
-      <c r="T54" s="9">
+      <c r="T54" s="10">
         <v>1.3181230000000002</v>
       </c>
-      <c r="U54" s="9">
+      <c r="U54" s="10">
         <v>1.316988</v>
       </c>
-      <c r="V54" s="9">
+      <c r="V54" s="10">
         <v>1.4771310000000002</v>
       </c>
-      <c r="W54" s="9">
+      <c r="W54" s="10">
         <v>1.4335609999999999</v>
       </c>
-      <c r="X54" s="9">
+      <c r="X54" s="10">
         <v>1.499125</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="7">
+      <c r="B59" s="8">
         <v>2000</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>2001</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <v>2002</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>2003</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>2004</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
         <v>2005</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="8">
         <v>2006</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="8">
         <v>2007</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="8">
         <v>2008</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="8">
         <v>2009</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="8">
         <v>2010</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="8">
         <v>2011</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="8">
         <v>2012</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="8">
         <v>2013</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="8">
         <v>2014</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="8">
         <v>2015</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="8">
         <v>2016</v>
       </c>
-      <c r="S59" s="7">
+      <c r="S59" s="8">
         <v>2017</v>
       </c>
-      <c r="T59" s="7">
+      <c r="T59" s="8">
         <v>2018</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="8">
         <v>2019</v>
       </c>
-      <c r="V59" s="7">
+      <c r="V59" s="8">
         <v>2020</v>
       </c>
-      <c r="W59" s="7">
+      <c r="W59" s="8">
         <v>2021</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X59" s="8">
         <v>2022</v>
       </c>
-      <c r="Y59" s="7">
+      <c r="Y59" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="9">
+        <v>63</v>
+      </c>
+      <c r="B60" s="10">
         <v>0.05</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="10">
         <v>0.05</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="10">
         <v>0.05</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="10">
         <v>0.01</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="10">
         <v>0.01</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="10">
         <v>0.01</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="10">
         <v>0.01</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="10">
         <v>0.01</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J60" s="10">
         <v>0.01</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="10">
         <v>0.01</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="10">
         <v>0.01</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="10">
         <v>0.01</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="10">
         <v>0.01</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O60" s="10">
         <v>0.03</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="10">
         <v>0.04</v>
       </c>
-      <c r="Q60" s="9">
+      <c r="Q60" s="10">
         <v>0.05</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R60" s="10">
         <v>0.06</v>
       </c>
-      <c r="S60" s="9">
+      <c r="S60" s="10">
         <v>0.05</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T60" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U60" s="9">
+      <c r="U60" s="10">
         <v>0.06</v>
       </c>
-      <c r="V60" s="9">
+      <c r="V60" s="10">
         <v>0.05</v>
       </c>
-      <c r="W60" s="9">
+      <c r="W60" s="10">
         <v>0.05</v>
       </c>
-      <c r="X60" s="9">
+      <c r="X60" s="10">
         <v>0.05</v>
       </c>
-      <c r="Y60" s="9">
+      <c r="Y60" s="10">
         <v>0.05</v>
       </c>
     </row>
@@ -4195,76 +4286,76 @@
       <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="10">
         <v>5.62</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="10">
         <v>5.62</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="10">
         <v>5.62</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="10">
         <v>5.62</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="10">
         <v>5.5</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="10">
         <v>5.5</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="10">
         <v>5.5</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="10">
         <v>5.5</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J61" s="10">
         <v>5.5</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K61" s="10">
         <v>5.63</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="10">
         <v>5.63</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="10">
         <v>6.32</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="10">
         <v>6.32</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="10">
         <v>6.11</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61" s="10">
         <v>5.9</v>
       </c>
-      <c r="Q61" s="9">
+      <c r="Q61" s="10">
         <v>5.0599999999999996</v>
       </c>
-      <c r="R61" s="9">
+      <c r="R61" s="10">
         <v>5.0599999999999996</v>
       </c>
-      <c r="S61" s="9">
+      <c r="S61" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="U61" s="9">
+      <c r="U61" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="V61" s="9">
+      <c r="V61" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="W61" s="9">
+      <c r="W61" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="X61" s="9">
+      <c r="X61" s="10">
         <v>5.1100000000000003</v>
       </c>
-      <c r="Y61" s="9">
+      <c r="Y61" s="10">
         <v>5.1100000000000003</v>
       </c>
     </row>
@@ -4272,76 +4363,76 @@
       <c r="A62" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="10">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J62" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K62" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="10">
         <v>1.2</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="10">
         <v>1.2</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="10">
         <v>1.2</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62" s="10">
         <v>1.2</v>
       </c>
-      <c r="Q62" s="9">
+      <c r="Q62" s="10">
         <v>1.2</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R62" s="10">
         <v>1.2</v>
       </c>
-      <c r="S62" s="9">
+      <c r="S62" s="10">
         <v>1.2</v>
       </c>
-      <c r="T62" s="9">
+      <c r="T62" s="10">
         <v>1.2</v>
       </c>
-      <c r="U62" s="9">
+      <c r="U62" s="10">
         <v>1.2</v>
       </c>
-      <c r="V62" s="9">
+      <c r="V62" s="10">
         <v>1.2</v>
       </c>
-      <c r="W62" s="9">
+      <c r="W62" s="10">
         <v>1.2</v>
       </c>
-      <c r="X62" s="9">
+      <c r="X62" s="10">
         <v>1.2</v>
       </c>
-      <c r="Y62" s="9">
+      <c r="Y62" s="10">
         <v>1.2</v>
       </c>
     </row>
@@ -4349,76 +4440,76 @@
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="10">
         <v>1.02</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="10">
         <v>0.84</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="10">
         <v>1.08</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="10">
         <v>1.65</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="10">
         <v>1.98</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="10">
         <v>1.98</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="10">
         <v>1.98</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J63" s="10">
         <v>2.12</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K63" s="10">
         <v>2.14</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L63" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="10">
         <v>2.2400000000000002</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="10">
         <v>2.3199999999999998</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63" s="10">
         <v>2.34</v>
       </c>
-      <c r="P63" s="9">
+      <c r="P63" s="10">
         <v>2.36</v>
       </c>
-      <c r="Q63" s="9">
+      <c r="Q63" s="10">
         <v>2.36</v>
       </c>
-      <c r="R63" s="9">
+      <c r="R63" s="10">
         <v>2.36</v>
       </c>
-      <c r="S63" s="9">
+      <c r="S63" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="T63" s="9">
+      <c r="T63" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="U63" s="9">
+      <c r="U63" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="V63" s="9">
+      <c r="V63" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="W63" s="9">
+      <c r="W63" s="10">
         <v>2.5099999999999998</v>
       </c>
-      <c r="X63" s="9">
+      <c r="X63" s="10">
         <v>2.5299999999999998</v>
       </c>
-      <c r="Y63" s="9">
+      <c r="Y63" s="10">
         <v>2.5299999999999998</v>
       </c>
     </row>
@@ -4426,76 +4517,76 @@
       <c r="A64" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="10">
         <v>3.53</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="10">
         <v>3.53</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="10">
         <v>2.72</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="10">
         <v>2.72</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="10">
         <v>2.72</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="10">
         <v>2.72</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="10">
         <v>2.72</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="10">
         <v>1.89</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J64" s="10">
         <v>1.89</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K64" s="10">
         <v>1.89</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="10">
         <v>1.89</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="10">
         <v>1.89</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="10">
         <v>1.91</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O64" s="10">
         <v>1.98</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P64" s="10">
         <v>1.98</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="Q64" s="10">
         <v>1.98</v>
       </c>
-      <c r="R64" s="9">
+      <c r="R64" s="10">
         <v>1.97</v>
       </c>
-      <c r="S64" s="9">
+      <c r="S64" s="10">
         <v>1.97</v>
       </c>
-      <c r="T64" s="9">
+      <c r="T64" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="U64" s="9">
+      <c r="U64" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="V64" s="9">
+      <c r="V64" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="W64" s="9">
+      <c r="W64" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="X64" s="9">
+      <c r="X64" s="10">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Y64" s="9">
+      <c r="Y64" s="10">
         <v>2.0099999999999998</v>
       </c>
     </row>
@@ -4503,76 +4594,76 @@
       <c r="A65" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="9">
-        <v>0</v>
-      </c>
-      <c r="C65" s="9">
-        <v>0</v>
-      </c>
-      <c r="D65" s="9">
-        <v>0</v>
-      </c>
-      <c r="E65" s="9">
-        <v>0</v>
-      </c>
-      <c r="F65" s="9">
-        <v>0</v>
-      </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="9">
-        <v>0</v>
-      </c>
-      <c r="K65" s="9">
-        <v>0</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" s="9">
-        <v>0</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0</v>
-      </c>
-      <c r="O65" s="9">
-        <v>0</v>
-      </c>
-      <c r="P65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="9">
-        <v>0</v>
-      </c>
-      <c r="R65" s="9">
-        <v>0</v>
-      </c>
-      <c r="S65" s="9">
-        <v>0</v>
-      </c>
-      <c r="T65" s="9">
-        <v>0</v>
-      </c>
-      <c r="U65" s="9">
-        <v>0</v>
-      </c>
-      <c r="V65" s="9">
-        <v>0</v>
-      </c>
-      <c r="W65" s="9">
-        <v>0</v>
-      </c>
-      <c r="X65" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="9">
+      <c r="B65" s="10">
+        <v>0</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
+        <v>0</v>
+      </c>
+      <c r="M65" s="10">
+        <v>0</v>
+      </c>
+      <c r="N65" s="10">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10">
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>0</v>
+      </c>
+      <c r="R65" s="10">
+        <v>0</v>
+      </c>
+      <c r="S65" s="10">
+        <v>0</v>
+      </c>
+      <c r="T65" s="10">
+        <v>0</v>
+      </c>
+      <c r="U65" s="10">
+        <v>0</v>
+      </c>
+      <c r="V65" s="10">
+        <v>0</v>
+      </c>
+      <c r="W65" s="10">
+        <v>0</v>
+      </c>
+      <c r="X65" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="10">
         <v>0</v>
       </c>
     </row>
@@ -4580,76 +4671,76 @@
       <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="9">
-        <v>0</v>
-      </c>
-      <c r="C66" s="9">
-        <v>0</v>
-      </c>
-      <c r="D66" s="9">
-        <v>0</v>
-      </c>
-      <c r="E66" s="9">
-        <v>0</v>
-      </c>
-      <c r="F66" s="9">
-        <v>0</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="9">
-        <v>0</v>
-      </c>
-      <c r="K66" s="9">
-        <v>0</v>
-      </c>
-      <c r="L66" s="9">
+      <c r="B66" s="10">
+        <v>0</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+      <c r="J66" s="10">
+        <v>0</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
         <v>0.03</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="10">
         <v>0.15</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="10">
         <v>0.92</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="10">
         <v>1.04</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66" s="10">
         <v>1.03</v>
       </c>
-      <c r="Q66" s="9">
+      <c r="Q66" s="10">
         <v>1.03</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66" s="10">
         <v>1.03</v>
       </c>
-      <c r="S66" s="9">
+      <c r="S66" s="10">
         <v>1.03</v>
       </c>
-      <c r="T66" s="9">
+      <c r="T66" s="10">
         <v>1.03</v>
       </c>
-      <c r="U66" s="9">
+      <c r="U66" s="10">
         <v>1.04</v>
       </c>
-      <c r="V66" s="9">
+      <c r="V66" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W66" s="9">
+      <c r="W66" s="10">
         <v>1.27</v>
       </c>
-      <c r="X66" s="9">
+      <c r="X66" s="10">
         <v>1.74</v>
       </c>
-      <c r="Y66" s="9">
+      <c r="Y66" s="10">
         <v>2.94</v>
       </c>
     </row>
@@ -4657,241 +4748,241 @@
       <c r="A67" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="9">
-        <v>0</v>
-      </c>
-      <c r="C67" s="9">
-        <v>0</v>
-      </c>
-      <c r="D67" s="9">
-        <v>0</v>
-      </c>
-      <c r="E67" s="9">
-        <v>0</v>
-      </c>
-      <c r="F67" s="9">
-        <v>0</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="B67" s="10">
+        <v>0</v>
+      </c>
+      <c r="C67" s="10">
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="10">
+        <v>0</v>
+      </c>
+      <c r="G67" s="10">
         <v>0.01</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="10">
         <v>0.03</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I67" s="10">
         <v>0.03</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J67" s="10">
         <v>0.11</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="10">
         <v>0.33</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L67" s="10">
         <v>0.49</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="10">
         <v>0.54</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="10">
         <v>0.68</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O67" s="10">
         <v>0.68</v>
       </c>
-      <c r="P67" s="9">
+      <c r="P67" s="10">
         <v>0.7</v>
       </c>
-      <c r="Q67" s="9">
+      <c r="Q67" s="10">
         <v>0.7</v>
       </c>
-      <c r="R67" s="9">
+      <c r="R67" s="10">
         <v>0.7</v>
       </c>
-      <c r="S67" s="9">
+      <c r="S67" s="10">
         <v>0.7</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67" s="10">
         <v>0.7</v>
       </c>
-      <c r="U67" s="9">
+      <c r="U67" s="10">
         <v>0.7</v>
       </c>
-      <c r="V67" s="9">
+      <c r="V67" s="10">
         <v>0.7</v>
       </c>
-      <c r="W67" s="9">
+      <c r="W67" s="10">
         <v>0.7</v>
       </c>
-      <c r="X67" s="9">
+      <c r="X67" s="10">
         <v>0.7</v>
       </c>
-      <c r="Y67" s="9">
+      <c r="Y67" s="10">
         <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A70" s="6" t="s">
-        <v>63</v>
+      <c r="A70" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="7">
+      <c r="A71" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="8">
         <v>2000</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>2001</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="8">
         <v>2002</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>2003</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>2004</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="8">
         <v>2005</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="8">
         <v>2006</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="8">
         <v>2007</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="8">
         <v>2008</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="8">
         <v>2009</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="8">
         <v>2010</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="8">
         <v>2011</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N71" s="8">
         <v>2012</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="8">
         <v>2013</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="8">
         <v>2014</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="8">
         <v>2015</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="8">
         <v>2016</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="8">
         <v>2017</v>
       </c>
-      <c r="T71" s="7">
+      <c r="T71" s="8">
         <v>2018</v>
       </c>
-      <c r="U71" s="7">
+      <c r="U71" s="8">
         <v>2019</v>
       </c>
-      <c r="V71" s="7">
+      <c r="V71" s="8">
         <v>2020</v>
       </c>
-      <c r="W71" s="7">
+      <c r="W71" s="8">
         <v>2021</v>
       </c>
-      <c r="X71" s="7">
+      <c r="X71" s="8">
         <v>2022</v>
       </c>
-      <c r="Y71" s="7">
+      <c r="Y71" s="8">
         <v>2023</v>
       </c>
-      <c r="Z71" s="7">
+      <c r="Z71" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="9">
+        <v>63</v>
+      </c>
+      <c r="B72" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J72" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K72" s="10">
         <v>9.0000000000000011E-3</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="10">
         <v>0.01</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="10">
         <v>1.4E-2</v>
       </c>
-      <c r="O72" s="9">
+      <c r="O72" s="10">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="P72" s="9">
+      <c r="P72" s="10">
         <v>0.04</v>
       </c>
-      <c r="Q72" s="9">
+      <c r="Q72" s="10">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R72" s="10">
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="S72" s="9">
+      <c r="S72" s="10">
         <v>5.2003000000000001E-2</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72" s="10">
         <v>6.942799999999999E-2</v>
       </c>
-      <c r="U72" s="9">
+      <c r="U72" s="10">
         <v>5.6869000000000003E-2</v>
       </c>
-      <c r="V72" s="9">
+      <c r="V72" s="10">
         <v>4.8054000000000006E-2</v>
       </c>
-      <c r="W72" s="9">
+      <c r="W72" s="10">
         <v>4.7321000000000002E-2</v>
       </c>
-      <c r="X72" s="9">
+      <c r="X72" s="10">
         <v>7.8688999999999995E-2</v>
       </c>
-      <c r="Y72" s="9">
+      <c r="Y72" s="10">
         <v>7.8688999999999995E-2</v>
       </c>
-      <c r="Z72" s="9">
+      <c r="Z72" s="10">
         <v>7.8688999999999995E-2</v>
       </c>
     </row>
@@ -4899,79 +4990,79 @@
       <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="10">
         <v>1.88</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="10">
         <v>1.7050000000000001</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="10">
         <v>1.948</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="10">
         <v>2.5150000000000001</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="10">
         <v>2.8479999999999999</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="10">
         <v>2.8479999999999999</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="10">
         <v>2.8479999999999999</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I73" s="10">
         <v>2.8759999999999999</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J73" s="10">
         <v>2.984</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K73" s="10">
         <v>3.0009999999999999</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="10">
         <v>3.048</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="10">
         <v>3.1080000000000001</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="10">
         <v>3.181</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73" s="10">
         <v>3.2029999999999998</v>
       </c>
-      <c r="P73" s="9">
+      <c r="P73" s="10">
         <v>3.2189999999999999</v>
       </c>
-      <c r="Q73" s="9">
+      <c r="Q73" s="10">
         <v>3.2189999999999999</v>
       </c>
-      <c r="R73" s="9">
+      <c r="R73" s="10">
         <v>3.2229999999999999</v>
       </c>
-      <c r="S73" s="9">
+      <c r="S73" s="10">
         <v>3.37155</v>
       </c>
-      <c r="T73" s="9">
+      <c r="T73" s="10">
         <v>3.379</v>
       </c>
-      <c r="U73" s="9">
+      <c r="U73" s="10">
         <v>3.3783499999999997</v>
       </c>
-      <c r="V73" s="9">
+      <c r="V73" s="10">
         <v>3.3764560000000001</v>
       </c>
-      <c r="W73" s="9">
+      <c r="W73" s="10">
         <v>3.3692329999999999</v>
       </c>
-      <c r="X73" s="9">
+      <c r="X73" s="10">
         <v>3.348185</v>
       </c>
-      <c r="Y73" s="9">
+      <c r="Y73" s="10">
         <v>3.3502800000000001</v>
       </c>
-      <c r="Z73" s="9">
+      <c r="Z73" s="10">
         <v>3.3502800000000001</v>
       </c>
     </row>
@@ -4979,79 +5070,79 @@
       <c r="A74" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="10">
         <v>3.532</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="10">
         <v>3.532</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="10">
         <v>2.722</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="10">
         <v>2.722</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="10">
         <v>2.722</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="10">
         <v>2.722</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H74" s="10">
         <v>2.722</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I74" s="10">
         <v>1.8919999999999999</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="10">
         <v>1.8919999999999999</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K74" s="10">
         <v>1.8919999999999999</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="10">
         <v>1.8919999999999999</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="10">
         <v>1.8919999999999999</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="10">
         <v>1.9059999999999999</v>
       </c>
-      <c r="O74" s="9">
+      <c r="O74" s="10">
         <v>1.982</v>
       </c>
-      <c r="P74" s="9">
+      <c r="P74" s="10">
         <v>1.9750000000000001</v>
       </c>
-      <c r="Q74" s="9">
+      <c r="Q74" s="10">
         <v>1.9750000000000001</v>
       </c>
-      <c r="R74" s="9">
+      <c r="R74" s="10">
         <v>1.9670000000000001</v>
       </c>
-      <c r="S74" s="9">
+      <c r="S74" s="10">
         <v>1.9670000000000001</v>
       </c>
-      <c r="T74" s="9">
+      <c r="T74" s="10">
         <v>2.008</v>
       </c>
-      <c r="U74" s="9">
+      <c r="U74" s="10">
         <v>2.0059999999999998</v>
       </c>
-      <c r="V74" s="9">
+      <c r="V74" s="10">
         <v>2.0059999999999998</v>
       </c>
-      <c r="W74" s="9">
+      <c r="W74" s="10">
         <v>2.0059999999999998</v>
       </c>
-      <c r="X74" s="9">
+      <c r="X74" s="10">
         <v>2.0059999999999998</v>
       </c>
-      <c r="Y74" s="9">
+      <c r="Y74" s="10">
         <v>2.0059999999999998</v>
       </c>
-      <c r="Z74" s="9">
+      <c r="Z74" s="10">
         <v>2.0059999999999998</v>
       </c>
     </row>
@@ -5059,79 +5150,79 @@
       <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="10">
         <v>5.6210000000000004</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="10">
         <v>7.4059999999999997</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="10">
         <v>6.8259999999999996</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="10">
         <v>6.7519999999999998</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="10">
         <v>6.6820000000000004</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="10">
         <v>6.6749999999999998</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="10">
         <v>6.4119999999999999</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I75" s="10">
         <v>4.8959999999999999</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="10">
         <v>4.641</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="10">
         <v>4.3630000000000004</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L75" s="10">
         <v>4.5679999999999996</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="10">
         <v>4.5350000000000001</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="10">
         <v>4.8979999999999997</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75" s="10">
         <v>4.6669999999999998</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75" s="10">
         <v>4.43</v>
       </c>
-      <c r="Q75" s="9">
+      <c r="Q75" s="10">
         <v>3.9369999999999998</v>
       </c>
-      <c r="R75" s="9">
+      <c r="R75" s="10">
         <v>3.7650000000000001</v>
       </c>
-      <c r="S75" s="9">
+      <c r="S75" s="10">
         <v>3.7333600000000002</v>
       </c>
-      <c r="T75" s="9">
+      <c r="T75" s="10">
         <v>4.1509750000000007</v>
       </c>
-      <c r="U75" s="9">
+      <c r="U75" s="10">
         <v>4.040362</v>
       </c>
-      <c r="V75" s="9">
+      <c r="V75" s="10">
         <v>3.7584020000000002</v>
       </c>
-      <c r="W75" s="9">
+      <c r="W75" s="10">
         <v>3.8066649999999997</v>
       </c>
-      <c r="X75" s="9">
+      <c r="X75" s="10">
         <v>3.9745819999999998</v>
       </c>
-      <c r="Y75" s="9">
+      <c r="Y75" s="10">
         <v>3.9745819999999998</v>
       </c>
-      <c r="Z75" s="9">
+      <c r="Z75" s="10">
         <v>3.9745819999999998</v>
       </c>
     </row>
@@ -5139,65 +5230,65 @@
       <c r="A76" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10">
         <v>2.9999999999999997E-5</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="10">
         <v>1E-4</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K76" s="10">
         <v>2E-3</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L76" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="10">
         <v>0.154</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="10">
         <v>0.92200000000000004</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="10">
         <v>1.0389999999999999</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76" s="10">
         <v>1.0289999999999999</v>
       </c>
-      <c r="Q76" s="9">
+      <c r="Q76" s="10">
         <v>1.028</v>
       </c>
-      <c r="R76" s="9">
+      <c r="R76" s="10">
         <v>1.03</v>
       </c>
-      <c r="S76" s="9">
+      <c r="S76" s="10">
         <v>1.0307010000000001</v>
       </c>
-      <c r="T76" s="9">
+      <c r="T76" s="10">
         <v>1.033058</v>
       </c>
-      <c r="U76" s="9">
+      <c r="U76" s="10">
         <v>1.0443900000000002</v>
       </c>
-      <c r="V76" s="9">
+      <c r="V76" s="10">
         <v>1.1002110000000001</v>
       </c>
-      <c r="W76" s="9">
+      <c r="W76" s="10">
         <v>1.274713</v>
       </c>
-      <c r="X76" s="9">
+      <c r="X76" s="10">
         <v>1.736537</v>
       </c>
-      <c r="Y76" s="9">
+      <c r="Y76" s="10">
         <v>2.9081269999999999</v>
       </c>
-      <c r="Z76" s="9">
+      <c r="Z76" s="10">
         <v>3.9081269999999999</v>
       </c>
     </row>
@@ -5205,317 +5296,317 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H77" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I77" s="10">
         <v>0.03</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="10">
         <v>0.114</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K77" s="10">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L77" s="10">
         <v>0.48799999999999999</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M77" s="10">
         <v>0.54100000000000004</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="10">
         <v>0.67700000000000005</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="10">
         <v>0.68300000000000005</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77" s="10">
         <v>0.69899999999999995</v>
       </c>
-      <c r="Q77" s="9">
+      <c r="Q77" s="10">
         <v>0.69899999999999995</v>
       </c>
-      <c r="R77" s="9">
+      <c r="R77" s="10">
         <v>0.69899999999999995</v>
       </c>
-      <c r="S77" s="9">
+      <c r="S77" s="10">
         <v>0.69838999999999996</v>
       </c>
-      <c r="T77" s="9">
+      <c r="T77" s="10">
         <v>0.69891999999999999</v>
       </c>
-      <c r="U77" s="9">
+      <c r="U77" s="10">
         <v>0.70311999999999997</v>
       </c>
-      <c r="V77" s="9">
+      <c r="V77" s="10">
         <v>0.70279999999999998</v>
       </c>
-      <c r="W77" s="9">
+      <c r="W77" s="10">
         <v>0.70437499999999997</v>
       </c>
-      <c r="X77" s="9">
+      <c r="X77" s="10">
         <v>0.70430999999999999</v>
       </c>
-      <c r="Y77" s="9">
+      <c r="Y77" s="10">
         <v>0.70430999999999999</v>
       </c>
-      <c r="Z77" s="9">
+      <c r="Z77" s="10">
         <v>0.70430999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A85" s="6" t="s">
-        <v>64</v>
+      <c r="A85" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="8">
         <v>2000</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>2001</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>2002</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <v>2003</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="8">
         <v>2004</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="8">
         <v>2005</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="8">
         <v>2006</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="8">
         <v>2007</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="8">
         <v>2008</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="8">
         <v>2009</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="8">
         <v>2010</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N86" s="8">
         <v>2011</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="8">
         <v>2012</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="8">
         <v>2013</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="8">
         <v>2014</v>
       </c>
-      <c r="R86" s="7">
+      <c r="R86" s="8">
         <v>2015</v>
       </c>
-      <c r="S86" s="7">
+      <c r="S86" s="8">
         <v>2016</v>
       </c>
-      <c r="T86" s="7">
+      <c r="T86" s="8">
         <v>2017</v>
       </c>
-      <c r="U86" s="7">
+      <c r="U86" s="8">
         <v>2018</v>
       </c>
-      <c r="V86" s="7">
+      <c r="V86" s="8">
         <v>2019</v>
       </c>
-      <c r="W86" s="7">
+      <c r="W86" s="8">
         <v>2020</v>
       </c>
-      <c r="X86" s="7">
+      <c r="X86" s="8">
         <v>2021</v>
       </c>
-      <c r="Y86" s="7">
+      <c r="Y86" s="8">
         <v>2022</v>
       </c>
-      <c r="Z86" s="7">
+      <c r="Z86" s="8">
         <v>2023</v>
       </c>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="9">
+        <v>73</v>
+      </c>
+      <c r="C87" s="10">
         <v>5.6</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="10">
         <v>8</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="10">
         <v>6.8</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="10">
         <v>6.6</v>
       </c>
-      <c r="H87" s="9">
+      <c r="H87" s="10">
         <v>8.4</v>
       </c>
-      <c r="I87" s="9">
+      <c r="I87" s="10">
         <v>8.9</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="10">
         <v>7.5</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K87" s="10">
         <v>8.4</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L87" s="10">
         <v>7.7</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="10">
         <v>9.6</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="10">
         <v>12.1</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="10">
         <v>10.7</v>
       </c>
-      <c r="P87" s="9">
+      <c r="P87" s="10">
         <v>9.5</v>
       </c>
-      <c r="Q87" s="9">
+      <c r="Q87" s="10">
         <v>13.8</v>
       </c>
-      <c r="R87" s="9">
+      <c r="R87" s="10">
         <v>14.8</v>
       </c>
-      <c r="S87" s="9">
+      <c r="S87" s="10">
         <v>10.9</v>
       </c>
-      <c r="T87" s="9">
+      <c r="T87" s="10">
         <v>9.1999999999999993</v>
       </c>
-      <c r="U87" s="9">
+      <c r="U87" s="10">
         <v>10</v>
       </c>
-      <c r="V87" s="9">
+      <c r="V87" s="10">
         <v>8.9</v>
       </c>
-      <c r="W87" s="9">
+      <c r="W87" s="10">
         <v>7.1</v>
       </c>
-      <c r="X87" s="9">
+      <c r="X87" s="10">
         <v>10.6</v>
       </c>
-      <c r="Y87" s="9">
+      <c r="Y87" s="10">
         <v>13.7</v>
       </c>
-      <c r="Z87" s="9">
+      <c r="Z87" s="10">
         <v>7.7</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C88" s="9">
+        <v>74</v>
+      </c>
+      <c r="C88" s="10">
         <v>1</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="10">
         <v>2</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="10">
         <v>1.3</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="10">
         <v>0.7</v>
       </c>
-      <c r="H88" s="9">
+      <c r="H88" s="10">
         <v>0.8</v>
       </c>
-      <c r="I88" s="9">
+      <c r="I88" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="10">
         <v>3.1</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K88" s="10">
         <v>3.1</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="10">
         <v>2.7</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="10">
         <v>1.2</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="10">
         <v>1.4</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88" s="10">
         <v>2.4</v>
       </c>
-      <c r="P88" s="9">
+      <c r="P88" s="10">
         <v>3.4</v>
       </c>
-      <c r="Q88" s="9">
+      <c r="Q88" s="10">
         <v>4.3</v>
       </c>
-      <c r="R88" s="9">
+      <c r="R88" s="10">
         <v>4.3</v>
       </c>
-      <c r="S88" s="9">
+      <c r="S88" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T88" s="9">
+      <c r="T88" s="10">
         <v>3.7</v>
       </c>
-      <c r="U88" s="9">
+      <c r="U88" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V88" s="9">
+      <c r="V88" s="10">
         <v>3</v>
       </c>
-      <c r="W88" s="9">
+      <c r="W88" s="10">
         <v>3.7</v>
       </c>
-      <c r="X88" s="9">
+      <c r="X88" s="10">
         <v>1.9</v>
       </c>
-      <c r="Y88" s="9">
+      <c r="Y88" s="10">
         <v>1.5</v>
       </c>
-      <c r="Z88" s="9">
+      <c r="Z88" s="10">
         <v>4.4000000000000004</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4717531-E334-4237-B2ED-1759BBE29096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A4DB26-7505-49D0-8B73-51F73D0DAB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
-    <sheet name="historical_data" sheetId="2" r:id="rId2"/>
+    <sheet name="historical_data_long" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="75">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -298,6 +298,30 @@
   <si>
     <t>bioenergy</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>mtCO2</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,8 +364,28 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,8 +398,20 @@
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -363,12 +419,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,6 +465,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,9 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1397,34 +1487,9681 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33DFE9-8C65-4A33-8FAE-96323628CE2A}">
+  <dimension ref="A1:D698"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D698"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="39.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="4.73046875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="13">
+        <v>16.940000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="12">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="12">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="13">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="13">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="13">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="12">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A30" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="12">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A34" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="13">
+        <v>17.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A36" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="13">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="13">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="12">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A46" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A48" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="12">
+        <v>18.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="13">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A51" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="13">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A54" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A56" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="13">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A60" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="13">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="12">
+        <v>19.489999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="12">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="13">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A69" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A70" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="13">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A72" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A73" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A74" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A75" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="13">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A77" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="12">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" s="13">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="12">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A80" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A81" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A82" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A84" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="12">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A86" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="13">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="12">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="13">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A90" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A91" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A92" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="13">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A93" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A94" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="13">
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="12">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="13">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A97" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="12">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A98" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="13">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A99" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A101" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A102" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A103" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="12">
+        <v>27.53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A104" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="13">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="12">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" s="13">
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A107" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A108" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A109" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A110" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="13">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A111" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B111" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A112" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="13">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A113" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" s="12">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A114" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="13">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B115" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="12">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A116" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A117" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B117" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="13">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="12">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A120" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A121" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="12">
+        <v>19.39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="13">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="12">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A124" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="13">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A125" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A126" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A127" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="13">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A129" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A130" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" s="13">
+        <v>21.31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A131" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" s="12">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A132" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A133" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" s="12">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A134" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="13">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A135" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D136" s="13">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A137" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D137" s="12">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A138" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B138" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" s="13">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A139" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D139" s="12">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A140" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D140" s="13">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A141" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" s="12">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A142" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D142" s="13">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A143" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A144" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A145" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D145" s="12">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A146" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="13">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A147" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A148" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" s="13">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A149" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A150" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" s="13">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" s="12">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A152" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D152" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A153" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B153" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A154" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" s="13">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A155" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="12">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A156" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B156" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A157" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D157" s="12">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A158" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D158" s="13">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D159" s="12">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A160" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D160" s="13">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A161" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A162" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B162" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A163" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D163" s="12">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A164" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D164" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A165" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D165" s="12">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A166" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="13">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A167" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" s="12">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A168" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D168" s="13">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A169" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" s="12">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A170" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" s="13">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A171" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B171" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A172" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" s="13">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A173" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D173" s="12">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A174" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" s="13">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A175" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="12">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A176" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D176" s="13">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A177" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D177" s="12">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A178" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="13">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A179" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A180" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D180" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A181" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" s="12">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A182" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B182" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" s="13">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A183" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B183" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D183" s="12">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A184" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C184" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D184" s="13">
+        <v>13.51</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A185" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D185" s="12">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A186" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D186" s="13">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A187" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="12">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A188" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C188" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D188" s="13">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A189" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B189" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D189" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A190" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D190" s="13">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A191" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D191" s="12">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A192" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B192" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D192" s="13">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A193" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D193" s="12">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A194" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D194" s="13">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A195" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" s="12">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A196" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D196" s="13">
+        <v>16.489999999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A197" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D197" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A198" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D198" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A199" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B199" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D199" s="12">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A200" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D200" s="13">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A201" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B201" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D201" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A202" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D202" s="13">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A203" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D203" s="12">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A204" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C204" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D204" s="13">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A205" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D205" s="12">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A206" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D206" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A207" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D207" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A208" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B208" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D208" s="13">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A209" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" s="12">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A210" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B210" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D210" s="13">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A211" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D211" s="12">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A212" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D212" s="13">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A213" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D213" s="12">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A214" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D214" s="13">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A215" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D215" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A216" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B216" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C216" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D216" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A217" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B217" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D217" s="12">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A218" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D218" s="13">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A219" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B219" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D219" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A220" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C220" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D220" s="13">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A221" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D221" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A222" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D222" s="13">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A223" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D223" s="12">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A224" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D224" s="13"/>
+    </row>
+    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A225" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B225" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D225" s="12"/>
+    </row>
+    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A226" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D226" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A227" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D227" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A228" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B228" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D228" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A229" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D229" s="12">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A230" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D230" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A231" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D231" s="12">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A232" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D232" s="13">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A233" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233" s="12"/>
+    </row>
+    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A234" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B234" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D234" s="13"/>
+    </row>
+    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A235" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D235" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A236" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D236" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A237" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B237" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D237" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A238" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" s="13">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A239" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B239" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D239" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A240" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D240" s="13">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A241" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241" s="12">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A242" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D242" s="13"/>
+    </row>
+    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A243" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B243" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D243" s="12"/>
+    </row>
+    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A244" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D244" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A245" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B245" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D245" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A246" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B246" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D246" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A247" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D247" s="12">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A248" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D248" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A249" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249" s="12">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A250" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250" s="13">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A251" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D251" s="12"/>
+    </row>
+    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A252" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B252" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D252" s="13"/>
+    </row>
+    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A253" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D253" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A254" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B254" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D254" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A255" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B255" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D255" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A256" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D256" s="13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A257" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B257" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D257" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A258" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" s="13">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A259" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B259" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D259" s="12">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A260" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D260" s="13"/>
+    </row>
+    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A261" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B261" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261" s="12"/>
+    </row>
+    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A262" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B262" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A263" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D263" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A264" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B264" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D264" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A265" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D265" s="12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A266" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D266" s="13">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A267" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D267" s="12">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A268" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D268" s="13">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A269" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D269" s="12"/>
+    </row>
+    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A270" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B270" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="13"/>
+    </row>
+    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A271" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B271" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D271" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A272" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B272" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D272" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A273" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B273" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C273" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D273" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A274" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D274" s="13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A275" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C275" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D275" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A276" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B276" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D276" s="13">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A277" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D277" s="12">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A278" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D278" s="13"/>
+    </row>
+    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A279" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B279" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D279" s="12"/>
+    </row>
+    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A280" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B280" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D280" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A281" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C281" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D281" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A282" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B282" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D282" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A283" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C283" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D283" s="12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A284" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D284" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A285" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C285" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D285" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A286" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B286" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D286" s="13">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A287" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C287" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D287" s="12"/>
+    </row>
+    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A288" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B288" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D288" s="13"/>
+    </row>
+    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A289" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B289" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C289" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D289" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A290" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D290" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A291" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B291" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C291" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D291" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A292" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D292" s="13">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A293" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D293" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A294" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D294" s="13">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A295" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B295" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D295" s="12">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A296" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D296" s="13"/>
+    </row>
+    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A297" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B297" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C297" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D297" s="12"/>
+    </row>
+    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A298" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B298" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D298" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A299" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B299" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C299" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D299" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A300" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B300" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D300" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A301" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D301" s="12">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A302" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C302" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D302" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A303" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C303" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D303" s="12">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A304" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B304" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D304" s="13">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A305" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C305" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D305" s="12"/>
+    </row>
+    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A306" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B306" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C306" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D306" s="13"/>
+    </row>
+    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A307" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C307" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D307" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A308" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B308" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D308" s="13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A309" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B309" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C309" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D309" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A310" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C310" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D310" s="13">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A311" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C311" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D311" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A312" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C312" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D312" s="13">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A313" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B313" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D313" s="12">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A314" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C314" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D314" s="13"/>
+    </row>
+    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A315" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B315" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C315" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D315" s="12"/>
+    </row>
+    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A316" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C316" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D316" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A317" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C317" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D317" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A318" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B318" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C318" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D318" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A319" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C319" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D319" s="12">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A320" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D320" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A321" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C321" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D321" s="12">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A322" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B322" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C322" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D322" s="13">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A323" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C323" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D323" s="12"/>
+    </row>
+    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A324" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B324" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C324" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D324" s="13"/>
+    </row>
+    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A325" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D325" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A326" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B326" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D326" s="13">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A327" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B327" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C327" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D327" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A328" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C328" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D328" s="13">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A329" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B329" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C329" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D329" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A330" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D330" s="13">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A331" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B331" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C331" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D331" s="12">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A332" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C332" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D332" s="13"/>
+    </row>
+    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A333" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B333" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D333" s="12"/>
+    </row>
+    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A334" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D334" s="13">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A335" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B335" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D335" s="12">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A336" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B336" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D336" s="13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A337" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D337" s="12">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A338" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B338" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C338" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D338" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A339" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D339" s="12">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A340" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C340" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D340" s="13">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A341" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D341" s="12"/>
+    </row>
+    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A342" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B342" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C342" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D342" s="13"/>
+    </row>
+    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A343" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D343" s="12">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A344" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C344" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D344" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A345" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B345" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D345" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A346" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D346" s="13">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A347" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B347" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D347" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A348" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D348" s="13">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A349" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B349" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D349" s="12">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A350" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B350" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C350" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D350" s="13"/>
+    </row>
+    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A351" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B351" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D351" s="12"/>
+    </row>
+    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A352" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C352" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D352" s="13">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A353" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D353" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A354" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B354" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C354" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D354" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A355" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D355" s="12">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A356" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B356" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C356" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D356" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A357" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D357" s="12">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A358" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B358" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D358" s="13">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A359" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D359" s="12"/>
+    </row>
+    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A360" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B360" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C360" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D360" s="13"/>
+    </row>
+    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A361" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D361" s="12">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A362" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B362" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D362" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A363" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B363" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D363" s="12">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A364" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D364" s="13">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A365" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B365" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D365" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A366" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C366" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D366" s="13">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A367" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B367" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D367" s="12">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A368" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D368" s="13"/>
+    </row>
+    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A369" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B369" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D369" s="12"/>
+    </row>
+    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A370" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C370" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D370" s="13">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A371" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B371" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D371" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A372" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B372" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D372" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A373" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D373" s="12">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A374" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B374" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C374" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D374" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A375" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D375" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A376" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C376" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D376" s="13">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A377" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D377" s="12"/>
+    </row>
+    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A378" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B378" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C378" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D378" s="13"/>
+    </row>
+    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A379" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D379" s="12">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A380" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D380" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A381" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B381" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D381" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A382" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C382" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D382" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A383" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B383" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D383" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A384" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D384" s="13">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A385" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D385" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A386" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B386" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C386" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D386" s="13"/>
+    </row>
+    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A387" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B387" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D387" s="12"/>
+    </row>
+    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A388" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C388" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D388" s="13">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A389" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B389" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D389" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A390" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B390" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D390" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A391" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D391" s="12">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A392" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B392" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C392" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D392" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A393" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D393" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A394" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B394" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D394" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A395" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B395" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D395" s="12"/>
+    </row>
+    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A396" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B396" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D396" s="13"/>
+    </row>
+    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A397" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D397" s="12">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A398" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C398" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D398" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A399" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B399" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D399" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A400" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D400" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A401" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B401" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D401" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A402" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C402" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D402" s="13">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A403" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D403" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A404" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B404" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D404" s="13"/>
+    </row>
+    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A405" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B405" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D405" s="12"/>
+    </row>
+    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A406" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D406" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A407" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D407" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A408" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B408" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C408" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D408" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A409" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D409" s="12">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A410" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B410" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D410" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A411" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D411" s="12">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A412" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C412" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D412" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A413" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D413" s="12"/>
+    </row>
+    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A414" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B414" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D414" s="13"/>
+    </row>
+    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A415" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B415" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D415" s="12">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A416" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D416" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A417" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B417" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D417" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A418" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D418" s="13">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A419" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B419" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D419" s="12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A420" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C420" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D420" s="13">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A421" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B421" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D421" s="12">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A422" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B422" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C422" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D422" s="13"/>
+    </row>
+    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A423" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B423" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D423" s="12"/>
+    </row>
+    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A424" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C424" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D424" s="13">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A425" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B425" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D425" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A426" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B426" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C426" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D426" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A427" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D427" s="12">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A428" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B428" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C428" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D428" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A429" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D429" s="12">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A430" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B430" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D430" s="13">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A431" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D431" s="12"/>
+    </row>
+    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A432" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B432" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C432" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D432" s="13"/>
+    </row>
+    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A433" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B433" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D433" s="12">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A434" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C434" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D434" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A435" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B435" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D435" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A436" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C436" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D436" s="13">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A437" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B437" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D437" s="12">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A438" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C438" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D438" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A439" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B439" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D439" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A440" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B440" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D440" s="13">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A441" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B441" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D441" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A442" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B442" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C442" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D442" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A443" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D443" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A444" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B444" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C444" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D444" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A445" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D445" s="12">
+        <v>19.579999999999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A446" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B446" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C446" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D446" s="13">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A447" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D447" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A448" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B448" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C448" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D448" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A449" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B449" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D449" s="12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A450" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B450" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C450" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D450" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A451" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D451" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A452" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C452" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D452" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A453" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B453" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D453" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A454" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C454" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D454" s="13">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A455" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B455" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D455" s="12">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A456" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C456" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D456" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A457" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B457" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D457" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A458" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B458" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C458" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D458" s="13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A459" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B459" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D459" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A460" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B460" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C460" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D460" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A461" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D461" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A462" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B462" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C462" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D462" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A463" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D463" s="12">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A464" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B464" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C464" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D464" s="13">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A465" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D465" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A466" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B466" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C466" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D466" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A467" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D467" s="12">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A468" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B468" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C468" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D468" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A469" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B469" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D469" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A470" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B470" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C470" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D470" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A471" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B471" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D471" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A472" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D472" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A473" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B473" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D473" s="12">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A474" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C474" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D474" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A475" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B475" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D475" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A476" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B476" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C476" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D476" s="13">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A477" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B477" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D477" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A478" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B478" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C478" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D478" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A479" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B479" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D479" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A480" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B480" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C480" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D480" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A481" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D481" s="12">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A482" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B482" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C482" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D482" s="13">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A483" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B483" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D483" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A484" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B484" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C484" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D484" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A485" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D485" s="12">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A486" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B486" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C486" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D486" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A487" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D487" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A488" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C488" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D488" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A489" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B489" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D489" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A490" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C490" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D490" s="13">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A491" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D491" s="12">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A492" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B492" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C492" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D492" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A493" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B493" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D493" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A494" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B494" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C494" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D494" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A495" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B495" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D495" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A496" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B496" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C496" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D496" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A497" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B497" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D497" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A498" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B498" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C498" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D498" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A499" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D499" s="12">
+        <v>22.43</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A500" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B500" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C500" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D500" s="13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A501" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B501" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D501" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A502" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B502" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C502" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D502" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A503" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B503" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D503" s="12">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A504" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B504" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C504" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D504" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A505" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D505" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A506" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B506" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C506" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D506" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A507" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B507" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D507" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A508" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C508" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D508" s="13">
+        <v>23.24</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A509" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B509" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D509" s="12">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A510" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B510" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C510" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D510" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A511" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B511" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D511" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A512" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B512" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C512" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D512" s="13">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A513" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B513" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D513" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A514" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C514" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D514" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A515" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D515" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A516" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B516" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C516" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D516" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A517" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D517" s="12">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A518" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B518" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C518" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D518" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A519" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B519" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D519" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A520" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B520" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C520" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D520" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A521" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B521" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D521" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A522" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B522" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C522" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D522" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A523" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B523" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D523" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A524" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B524" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C524" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D524" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A525" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B525" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D525" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A526" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B526" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C526" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D526" s="13">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A527" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D527" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A528" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B528" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C528" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D528" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A529" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B529" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D529" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A530" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B530" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C530" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D530" s="13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A531" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B531" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D531" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A532" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B532" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C532" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D532" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A533" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D533" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A534" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B534" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C534" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D534" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A535" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D535" s="12">
+        <v>27.74</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A536" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B536" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C536" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D536" s="13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A537" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B537" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D537" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A538" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B538" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C538" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D538" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A539" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B539" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D539" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A540" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B540" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C540" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D540" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A541" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D541" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A542" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B542" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C542" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D542" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A543" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B543" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D543" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A544" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B544" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C544" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D544" s="13">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A545" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B545" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D545" s="12">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A546" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B546" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C546" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D546" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A547" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B547" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D547" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A548" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B548" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C548" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D548" s="13">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A549" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B549" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D549" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A550" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B550" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C550" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D550" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A551" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B551" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D551" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A552" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B552" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C552" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D552" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A553" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B553" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D553" s="12">
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A554" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B554" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C554" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D554" s="13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A555" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B555" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D555" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A556" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B556" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C556" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D556" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A557" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B557" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D557" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A558" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B558" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C558" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D558" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A559" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B559" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D559" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A560" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B560" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D560" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A561" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B561" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D561" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A562" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B562" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C562" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D562" s="13">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A563" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B563" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D563" s="12">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A564" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B564" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C564" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D564" s="13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A565" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B565" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D565" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A566" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B566" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C566" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D566" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A567" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B567" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D567" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A568" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B568" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C568" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D568" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A569" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B569" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D569" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A570" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B570" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C570" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D570" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A571" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D571" s="12">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A572" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B572" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C572" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D572" s="13">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A573" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B573" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D573" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A574" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B574" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C574" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D574" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A575" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B575" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D575" s="12">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A576" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B576" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C576" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D576" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A577" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B577" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D577" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A578" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B578" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C578" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D578" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A579" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B579" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D579" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A580" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B580" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C580" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D580" s="13">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A581" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B581" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D581" s="12">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A582" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B582" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C582" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D582" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A583" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B583" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D583" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A584" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B584" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C584" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D584" s="13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A585" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B585" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D585" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A586" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B586" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C586" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D586" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A587" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D587" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A588" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B588" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C588" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D588" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A589" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B589" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D589" s="12">
+        <v>21.23</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A590" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B590" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C590" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D590" s="13">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A591" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B591" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D591" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A592" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B592" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C592" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D592" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A593" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B593" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D593" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A594" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B594" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C594" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D594" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A595" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B595" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D595" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A596" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B596" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C596" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D596" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A597" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B597" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D597" s="12">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A598" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C598" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D598" s="13">
+        <v>18.940000000000001</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A599" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B599" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D599" s="12">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A600" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B600" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C600" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D600" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A601" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B601" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D601" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A602" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B602" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C602" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D602" s="13">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A603" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B603" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D603" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A604" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B604" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C604" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D604" s="13">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A605" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D605" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A606" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B606" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C606" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D606" s="13">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A607" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B607" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D607" s="12">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A608" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B608" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C608" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D608" s="13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A609" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B609" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D609" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A610" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B610" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C610" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D610" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A611" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B611" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D611" s="12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A612" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B612" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C612" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D612" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A613" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B613" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D613" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A614" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B614" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C614" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D614" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A615" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B615" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D615" s="12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A616" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B616" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D616" s="13">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A617" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B617" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D617" s="12">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A618" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D618" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A619" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B619" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D619" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A620" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B620" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C620" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D620" s="13">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A621" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B621" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D621" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A622" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B622" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C622" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D622" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A623" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B623" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D623" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A624" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B624" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C624" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D624" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A625" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B625" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D625" s="12">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A626" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B626" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C626" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D626" s="13">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A627" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B627" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D627" s="12">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A628" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B628" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C628" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D628" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A629" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B629" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D629" s="12">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A630" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B630" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C630" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D630" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A631" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B631" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D631" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A632" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B632" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C632" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D632" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A633" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B633" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D633" s="12">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A634" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C634" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D634" s="13">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A635" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B635" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D635" s="12">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A636" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B636" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C636" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D636" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A637" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B637" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D637" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A638" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B638" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C638" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D638" s="13">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A639" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B639" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D639" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A640" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B640" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C640" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D640" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A641" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B641" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D641" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A642" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B642" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C642" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D642" s="13">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A643" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B643" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D643" s="12">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A644" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B644" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C644" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D644" s="13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A645" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B645" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D645" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A646" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B646" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C646" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D646" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A647" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B647" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D647" s="12">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A648" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B648" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C648" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D648" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A649" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D649" s="12">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A650" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B650" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C650" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D650" s="13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A651" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B651" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D651" s="12">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A652" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B652" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C652" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D652" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A653" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B653" s="10">
+        <v>2001</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D653" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A654" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B654" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C654" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D654" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A655" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B655" s="10">
+        <v>2002</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D655" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A656" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B656" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C656" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D656" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A657" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B657" s="10">
+        <v>2003</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D657" s="12">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A658" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B658" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C658" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D658" s="13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A659" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B659" s="10">
+        <v>2004</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D659" s="12">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A660" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B660" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C660" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D660" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A661" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B661" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D661" s="12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A662" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B662" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C662" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D662" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A663" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B663" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D663" s="12">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A664" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B664" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C664" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D664" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A665" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B665" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D665" s="12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A666" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B666" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C666" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D666" s="13">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A667" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B667" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D667" s="12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A668" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B668" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C668" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D668" s="13">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A669" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B669" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D669" s="12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A670" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B670" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C670" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D670" s="13">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A671" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B671" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D671" s="12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A672" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B672" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C672" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D672" s="13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A673" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B673" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D673" s="12">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A674" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B674" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C674" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D674" s="13">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A675" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B675" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D675" s="12">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A676" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B676" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C676" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D676" s="13">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A677" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B677" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D677" s="12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A678" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B678" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C678" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D678" s="13">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A679" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B679" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C679" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D679" s="12">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A680" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B680" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C680" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D680" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A681" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B681" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C681" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D681" s="12">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A682" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B682" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C682" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D682" s="13">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A683" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B683" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C683" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D683" s="12">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A684" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B684" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D684" s="13">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A685" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B685" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C685" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D685" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A686" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B686" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C686" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D686" s="13">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A687" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B687" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D687" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A688" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B688" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C688" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D688" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A689" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B689" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C689" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D689" s="12">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A690" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B690" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C690" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D690" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A691" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B691" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C691" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D691" s="12">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A692" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B692" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C692" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D692" s="13">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A693" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B693" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D693" s="12">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A694" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B694" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C694" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D694" s="13">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A695" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B695" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C695" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D695" s="12">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A696" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B696" s="11">
+        <v>2022</v>
+      </c>
+      <c r="C696" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D696" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A697" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B697" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C697" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D697" s="12">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+      <c r="A698" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B698" s="11">
+        <v>2023</v>
+      </c>
+      <c r="C698" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D698" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D7076-9855-44E5-8DB7-E0C33011072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B1943-D706-4FCE-B8FB-9AA7D726BBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B1943-D706-4FCE-B8FB-9AA7D726BBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB746FC4-2BCA-4AE6-9233-40F8B604B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB746FC4-2BCA-4AE6-9233-40F8B604B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D352402-3CA0-40A2-975F-073DBA6D822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D352402-3CA0-40A2-975F-073DBA6D822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F587454-4437-4D24-A6CE-C519EACA27F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F587454-4437-4D24-A6CE-C519EACA27F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E32246-EFB7-4DBF-BB96-806F9C7DCE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E32246-EFB7-4DBF-BB96-806F9C7DCE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934B644-426C-4546-B119-CEF2D6B40DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0934B644-426C-4546-B119-CEF2D6B40DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182AC21F-0F73-45AD-A0DD-70C56BC4D010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182AC21F-0F73-45AD-A0DD-70C56BC4D010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49AA61-A956-4E36-9AD4-C2047349C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B49AA61-A956-4E36-9AD4-C2047349C9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EF491-BB1B-482C-9FF8-6E51D87D2C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83EF491-BB1B-482C-9FF8-6E51D87D2C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02617A-051D-4005-A23A-AE1EE723BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02617A-051D-4005-A23A-AE1EE723BBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7527EE-7D02-428E-AED4-75FDB0242627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7527EE-7D02-428E-AED4-75FDB0242627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E58345-7FC0-42E5-8D1D-E1B9BC6223BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E58345-7FC0-42E5-8D1D-E1B9BC6223BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9866754A-9A2F-4AA0-8786-75061248B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="80">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>UC_RHSRT~2050</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>prc_capact</t>
   </si>
 </sst>
 </file>
@@ -814,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1355,6 +1364,9 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
       <c r="L21" t="s">
         <v>38</v>
       </c>
@@ -1475,8 +1487,28 @@
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
       <c r="L28" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29">
+        <v>8.76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9866754A-9A2F-4AA0-8786-75061248B271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A772FA-8B0B-487F-BB61-922DEFA97C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A772FA-8B0B-487F-BB61-922DEFA97C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAD6F7-36A6-41B2-A62C-B8DA8146DC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAD6F7-36A6-41B2-A62C-B8DA8146DC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAF944-EA59-4399-B611-DF451B82416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="70">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -188,43 +188,16 @@
     <t>START</t>
   </si>
   <si>
-    <t>Bioenergy + CCUS</t>
-  </si>
-  <si>
-    <t>Bioenergy - Cofiring</t>
-  </si>
-  <si>
-    <t>Bioenergy - Large scale unit</t>
-  </si>
-  <si>
-    <t>Bioenergy - Medium-scale CHP</t>
-  </si>
-  <si>
-    <t>Concentrating solar power</t>
-  </si>
-  <si>
-    <t>Fuel cell (distributed electricity generation)</t>
-  </si>
-  <si>
     <t>cset_cn</t>
   </si>
   <si>
     <t>other_indexes</t>
   </si>
   <si>
-    <t>Marine</t>
-  </si>
-  <si>
     <t>VDA_EMCB</t>
   </si>
   <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>Oxyfuel + CCS</t>
-  </si>
-  <si>
-    <t>Solar photovoltaics - Buildings</t>
   </si>
   <si>
     <t>Solar photovoltaics - Large scale unit</t>
@@ -234,9 +207,6 @@
   </si>
   <si>
     <t>Wind onshore</t>
-  </si>
-  <si>
-    <t>CCGT - CHP</t>
   </si>
   <si>
     <t>~UC_T: FX</t>
@@ -258,9 +228,6 @@
   </si>
   <si>
     <t>ep*,EN*</t>
-  </si>
-  <si>
-    <t>Geothermal*</t>
   </si>
   <si>
     <t>COM_AGG</t>
@@ -337,6 +304,9 @@
   <si>
     <t>prc_capact</t>
   </si>
+  <si>
+    <t>Hydropower - large-scale unit</t>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,14 +448,12 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -824,7 +798,7 @@
   <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -869,20 +843,20 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="F2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>65</v>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
@@ -890,18 +864,18 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>5.9132420091324196</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.10147133434804669</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>6.2453375126974553</v>
       </c>
       <c r="V3" t="s">
@@ -910,7 +884,7 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -924,40 +898,40 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.25824553878597789</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>0.50828415182197206</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
         <f>IFERROR(VLOOKUP(B5,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.21797454043557021</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.14840182648401828</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.29014459665144599</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="B6" t="s">
@@ -966,23 +940,23 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f>IFERROR(MIN(VLOOKUP(B6,$F$3:$J$11,5,FALSE),$A$6),"")</f>
         <v>0.22831050228310501</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.12825410686023031</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.29434148088459128</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.11225524213694742</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>0.21797454043557021</v>
       </c>
       <c r="U6" t="s">
@@ -999,23 +973,23 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
         <v>0.24584659524473154</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.58791571267802401</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.98511753762895304</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.58751816400088952</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0.98431753019201262</v>
       </c>
       <c r="U7" t="s">
@@ -1074,23 +1048,23 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>IFERROR(VLOOKUP(B8,$F$3:$J$11,3,FALSE),"")</f>
         <v>0.98511753762895304</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>65535</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>65535</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>4.0275281549390085E-3</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1.5180712412366853E-2</v>
       </c>
       <c r="U8" t="s">
@@ -1102,15 +1076,15 @@
       <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="2">
         <f>VLOOKUP(V8,$F$3:$J$11,3,FALSE)</f>
         <v>0.50828415182197206</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="2">
         <f>Z8*$AB$1</f>
         <v>0.55911256700416934</v>
       </c>
@@ -1130,7 +1104,7 @@
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="2">
         <f>VLOOKUP(AG8,$F$3:$J$11,2,FALSE)</f>
         <v>0.25824553878597789</v>
       </c>
@@ -1149,16 +1123,16 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>3.8051750380517509E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0.15586582367404284</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>6.7876712328767116E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.22831050228310501</v>
       </c>
       <c r="U9" t="s">
@@ -1170,15 +1144,15 @@
       <c r="W9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <f>VLOOKUP(V9,$F$3:$J$11,3,FALSE)</f>
         <v>0.29014459665144599</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2">
         <f>Z9*$AB$1</f>
         <v>0.31915905631659058</v>
       </c>
@@ -1198,7 +1172,7 @@
         <f>-1/8.76</f>
         <v>-0.11415525114155252</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="2">
         <f>VLOOKUP(AG9,$F$3:$J$11,2,FALSE)</f>
         <v>0.14840182648401828</v>
       </c>
@@ -1217,24 +1191,24 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>0.25277234181343772</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>6.5453767123287668E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.24584659524473154</v>
       </c>
     </row>
     <row r="11" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
@@ -1282,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="AD14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
@@ -1294,13 +1268,13 @@
       </c>
       <c r="D15" s="1" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,L15:L28)</f>
-        <v>Bioenergy + CCUS,Bioenergy - Cofiring,Bioenergy - Large scale unit,Bioenergy - Medium-scale CHP,Concentrating solar power,Fuel cell (distributed electricity generation),Marine,Oxyfuel + CCS,Solar photovoltaics - Buildings,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore,CCGT - CHP,Geothermal*</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
+        <v>Hydropower - large-scale unit,Solar photovoltaics - Large scale unit,Wind offshore,Wind onshore</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="V15" t="s">
         <v>19</v>
@@ -1321,42 +1295,34 @@
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="L16" t="s">
-        <v>31</v>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L17" t="s">
-        <v>32</v>
+      <c r="L17" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="L19" t="s">
-        <v>34</v>
+      <c r="L18" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1367,19 +1333,16 @@
       <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="L21" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <f>I22*3.6</f>
@@ -1388,19 +1351,16 @@
       <c r="I22">
         <v>94</v>
       </c>
-      <c r="L22" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <f>I23*3.6</f>
@@ -1409,19 +1369,16 @@
       <c r="I23">
         <v>55</v>
       </c>
-      <c r="L23" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <f>I24*3.6</f>
@@ -1430,50 +1387,41 @@
       <c r="I24">
         <v>70</v>
       </c>
-      <c r="L24" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
-      <c r="L26" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>0.03</v>
@@ -1482,38 +1430,32 @@
         <f>C27</f>
         <v>co2captured</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E28">
         <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>8.76</v>
       </c>
       <c r="G29" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
@@ -1521,7 +1463,7 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1535,10 +1477,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1557,10 +1499,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1598,27 +1540,27 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" s="10">
         <v>2000</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -1632,7 +1574,7 @@
         <v>2000</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D4" s="13">
         <v>16.940000000000001</v>
@@ -1646,7 +1588,7 @@
         <v>2000</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D5" s="11">
         <v>1.91</v>
@@ -1660,7 +1602,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D6" s="13">
         <v>2.63</v>
@@ -1674,7 +1616,7 @@
         <v>2000</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D7" s="11">
         <v>18.18</v>
@@ -1688,7 +1630,7 @@
         <v>2000</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="13">
         <v>0.93</v>
@@ -1696,13 +1638,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10">
         <v>2000</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -1716,7 +1658,7 @@
         <v>2000</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D10" s="13">
         <v>0</v>
@@ -1730,7 +1672,7 @@
         <v>2000</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1738,13 +1680,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B12" s="12">
         <v>2001</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
@@ -1758,7 +1700,7 @@
         <v>2001</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11">
         <v>19.5</v>
@@ -1772,7 +1714,7 @@
         <v>2001</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D14" s="13">
         <v>1.91</v>
@@ -1786,7 +1728,7 @@
         <v>2001</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D15" s="11">
         <v>1.65</v>
@@ -1800,7 +1742,7 @@
         <v>2001</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D16" s="13">
         <v>19.55</v>
@@ -1814,7 +1756,7 @@
         <v>2001</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D17" s="11">
         <v>0.83</v>
@@ -1822,13 +1764,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B18" s="12">
         <v>2001</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
@@ -1842,7 +1784,7 @@
         <v>2001</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
@@ -1856,7 +1798,7 @@
         <v>2001</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
@@ -1864,13 +1806,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10">
         <v>2002</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
@@ -1884,7 +1826,7 @@
         <v>2002</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13">
         <v>17.18</v>
@@ -1898,7 +1840,7 @@
         <v>2002</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D23" s="11">
         <v>1.54</v>
@@ -1912,7 +1854,7 @@
         <v>2002</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D24" s="13">
         <v>2.12</v>
@@ -1926,7 +1868,7 @@
         <v>2002</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D25" s="11">
         <v>20.22</v>
@@ -1940,7 +1882,7 @@
         <v>2002</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D26" s="13">
         <v>1.02</v>
@@ -1948,13 +1890,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B27" s="10">
         <v>2002</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
@@ -1968,7 +1910,7 @@
         <v>2002</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13">
         <v>0</v>
@@ -1982,7 +1924,7 @@
         <v>2002</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D29" s="11">
         <v>0</v>
@@ -1990,13 +1932,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B30" s="12">
         <v>2003</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
@@ -2010,7 +1952,7 @@
         <v>2003</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D31" s="11">
         <v>19.239999999999998</v>
@@ -2024,7 +1966,7 @@
         <v>2003</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D32" s="13">
         <v>1.76</v>
@@ -2038,7 +1980,7 @@
         <v>2003</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D33" s="11">
         <v>2.99</v>
@@ -2052,7 +1994,7 @@
         <v>2003</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D34" s="13">
         <v>17.28</v>
@@ -2066,7 +2008,7 @@
         <v>2003</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11">
         <v>1.01</v>
@@ -2074,13 +2016,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B36" s="12">
         <v>2003</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -2094,7 +2036,7 @@
         <v>2003</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D37" s="11">
         <v>0</v>
@@ -2108,7 +2050,7 @@
         <v>2003</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D38" s="13">
         <v>0</v>
@@ -2116,13 +2058,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B39" s="10">
         <v>2004</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D39" s="11">
         <v>0</v>
@@ -2136,7 +2078,7 @@
         <v>2004</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D40" s="13">
         <v>18.899999999999999</v>
@@ -2150,7 +2092,7 @@
         <v>2004</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D41" s="11">
         <v>1.49</v>
@@ -2164,7 +2106,7 @@
         <v>2004</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D42" s="13">
         <v>3.14</v>
@@ -2178,7 +2120,7 @@
         <v>2004</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D43" s="11">
         <v>16.82</v>
@@ -2192,7 +2134,7 @@
         <v>2004</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D44" s="13">
         <v>1.01</v>
@@ -2200,13 +2142,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B45" s="10">
         <v>2004</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D45" s="11">
         <v>0</v>
@@ -2220,7 +2162,7 @@
         <v>2004</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -2234,7 +2176,7 @@
         <v>2004</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D47" s="11">
         <v>0</v>
@@ -2242,13 +2184,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B48" s="12">
         <v>2005</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D48" s="13">
         <v>0</v>
@@ -2262,7 +2204,7 @@
         <v>2005</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D49" s="11">
         <v>18.46</v>
@@ -2276,7 +2218,7 @@
         <v>2005</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D50" s="13">
         <v>1.73</v>
@@ -2290,7 +2232,7 @@
         <v>2005</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D51" s="11">
         <v>4.3</v>
@@ -2304,7 +2246,7 @@
         <v>2005</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D52" s="13">
         <v>18.649999999999999</v>
@@ -2318,7 +2260,7 @@
         <v>2005</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D53" s="11">
         <v>0.75</v>
@@ -2326,13 +2268,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B54" s="12">
         <v>2005</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -2346,7 +2288,7 @@
         <v>2005</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D55" s="11">
         <v>0</v>
@@ -2360,7 +2302,7 @@
         <v>2005</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D56" s="13">
         <v>0</v>
@@ -2368,13 +2310,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B57" s="10">
         <v>2006</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D57" s="11">
         <v>0</v>
@@ -2388,7 +2330,7 @@
         <v>2006</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D58" s="13">
         <v>19.09</v>
@@ -2402,7 +2344,7 @@
         <v>2006</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D59" s="11">
         <v>2.16</v>
@@ -2416,7 +2358,7 @@
         <v>2006</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D60" s="13">
         <v>4.21</v>
@@ -2430,7 +2372,7 @@
         <v>2006</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D61" s="11">
         <v>19.489999999999998</v>
@@ -2444,7 +2386,7 @@
         <v>2006</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D62" s="13">
         <v>0.47</v>
@@ -2452,13 +2394,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B63" s="10">
         <v>2006</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D63" s="11">
         <v>0</v>
@@ -2472,7 +2414,7 @@
         <v>2006</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D64" s="13">
         <v>0</v>
@@ -2486,7 +2428,7 @@
         <v>2006</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D65" s="11">
         <v>0.02</v>
@@ -2494,13 +2436,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B66" s="12">
         <v>2007</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D66" s="13">
         <v>0</v>
@@ -2514,7 +2456,7 @@
         <v>2007</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D67" s="11">
         <v>22.37</v>
@@ -2528,7 +2470,7 @@
         <v>2007</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D68" s="13">
         <v>2.34</v>
@@ -2542,7 +2484,7 @@
         <v>2007</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D69" s="11">
         <v>2.83</v>
@@ -2556,7 +2498,7 @@
         <v>2007</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D70" s="13">
         <v>14.64</v>
@@ -2570,7 +2512,7 @@
         <v>2007</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D71" s="11">
         <v>0.59</v>
@@ -2578,13 +2520,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B72" s="12">
         <v>2007</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D72" s="13">
         <v>0</v>
@@ -2598,7 +2540,7 @@
         <v>2007</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D73" s="11">
         <v>0</v>
@@ -2612,7 +2554,7 @@
         <v>2007</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D74" s="13">
         <v>0.05</v>
@@ -2620,13 +2562,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B75" s="10">
         <v>2008</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D75" s="11">
         <v>0.02</v>
@@ -2640,7 +2582,7 @@
         <v>2008</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D76" s="13">
         <v>23.18</v>
@@ -2654,7 +2596,7 @@
         <v>2008</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D77" s="11">
         <v>2.36</v>
@@ -2668,7 +2610,7 @@
         <v>2008</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D78" s="13">
         <v>2.79</v>
@@ -2682,7 +2624,7 @@
         <v>2008</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D79" s="11">
         <v>15.77</v>
@@ -2696,7 +2638,7 @@
         <v>2008</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D80" s="13">
         <v>0.25</v>
@@ -2704,13 +2646,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B81" s="10">
         <v>2008</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D81" s="11">
         <v>0</v>
@@ -2724,7 +2666,7 @@
         <v>2008</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D82" s="13">
         <v>0</v>
@@ -2738,7 +2680,7 @@
         <v>2008</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D83" s="11">
         <v>0.12</v>
@@ -2746,13 +2688,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B84" s="12">
         <v>2009</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D84" s="13">
         <v>0.01</v>
@@ -2766,7 +2708,7 @@
         <v>2009</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D85" s="11">
         <v>21.1</v>
@@ -2780,7 +2722,7 @@
         <v>2009</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D86" s="13">
         <v>1.96</v>
@@ -2794,7 +2736,7 @@
         <v>2009</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D87" s="11">
         <v>3.43</v>
@@ -2808,7 +2750,7 @@
         <v>2009</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D88" s="13">
         <v>15.26</v>
@@ -2822,7 +2764,7 @@
         <v>2009</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D89" s="11">
         <v>0.31</v>
@@ -2830,13 +2772,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B90" s="12">
         <v>2009</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D90" s="13">
         <v>0</v>
@@ -2850,7 +2792,7 @@
         <v>2009</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D91" s="11">
         <v>0</v>
@@ -2864,7 +2806,7 @@
         <v>2009</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D92" s="13">
         <v>0.24</v>
@@ -2872,13 +2814,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B93" s="10">
         <v>2010</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D93" s="11">
         <v>0.04</v>
@@ -2892,7 +2834,7 @@
         <v>2010</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D94" s="13">
         <v>22.61</v>
@@ -2906,7 +2848,7 @@
         <v>2010</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D95" s="11">
         <v>1.97</v>
@@ -2920,7 +2862,7 @@
         <v>2010</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D96" s="13">
         <v>5.03</v>
@@ -2934,7 +2876,7 @@
         <v>2010</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D97" s="11">
         <v>15.25</v>
@@ -2948,7 +2890,7 @@
         <v>2010</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D98" s="13">
         <v>0.34</v>
@@ -2956,13 +2898,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B99" s="10">
         <v>2010</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D99" s="11">
         <v>0</v>
@@ -2976,7 +2918,7 @@
         <v>2010</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D100" s="13">
         <v>0.01</v>
@@ -2990,7 +2932,7 @@
         <v>2010</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D101" s="11">
         <v>0.68</v>
@@ -2998,13 +2940,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B102" s="12">
         <v>2011</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D102" s="13">
         <v>0.06</v>
@@ -3018,7 +2960,7 @@
         <v>2011</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D103" s="11">
         <v>27.53</v>
@@ -3032,7 +2974,7 @@
         <v>2011</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D104" s="13">
         <v>2.08</v>
@@ -3046,7 +2988,7 @@
         <v>2011</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D105" s="11">
         <v>2.87</v>
@@ -3060,7 +3002,7 @@
         <v>2011</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D106" s="13">
         <v>16.309999999999999</v>
@@ -3074,7 +3016,7 @@
         <v>2011</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D107" s="11">
         <v>0.15</v>
@@ -3082,13 +3024,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B108" s="12">
         <v>2011</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D108" s="13">
         <v>0</v>
@@ -3102,7 +3044,7 @@
         <v>2011</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D109" s="11">
         <v>0.1</v>
@@ -3116,7 +3058,7 @@
         <v>2011</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D110" s="13">
         <v>0.86</v>
@@ -3124,13 +3066,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B111" s="10">
         <v>2012</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D111" s="11">
         <v>7.0000000000000007E-2</v>
@@ -3144,7 +3086,7 @@
         <v>2012</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D112" s="13">
         <v>22.87</v>
@@ -3158,7 +3100,7 @@
         <v>2012</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D113" s="11">
         <v>2.36</v>
@@ -3172,7 +3114,7 @@
         <v>2012</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D114" s="13">
         <v>3.18</v>
@@ -3186,7 +3128,7 @@
         <v>2012</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D115" s="11">
         <v>15.78</v>
@@ -3200,7 +3142,7 @@
         <v>2012</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D116" s="13">
         <v>0.2</v>
@@ -3208,13 +3150,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B117" s="10">
         <v>2012</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D117" s="11">
         <v>0</v>
@@ -3228,7 +3170,7 @@
         <v>2012</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D118" s="13">
         <v>0.78</v>
@@ -3242,7 +3184,7 @@
         <v>2012</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D119" s="11">
         <v>1.22</v>
@@ -3250,13 +3192,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B120" s="12">
         <v>2013</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D120" s="13">
         <v>0.11</v>
@@ -3270,7 +3212,7 @@
         <v>2013</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D121" s="11">
         <v>19.39</v>
@@ -3284,7 +3226,7 @@
         <v>2013</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D122" s="13">
         <v>2.34</v>
@@ -3298,7 +3240,7 @@
         <v>2013</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D123" s="11">
         <v>4.04</v>
@@ -3312,7 +3254,7 @@
         <v>2013</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D124" s="13">
         <v>14.17</v>
@@ -3326,7 +3268,7 @@
         <v>2013</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D125" s="11">
         <v>0.21</v>
@@ -3334,13 +3276,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B126" s="12">
         <v>2013</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D126" s="13">
         <v>0</v>
@@ -3354,7 +3296,7 @@
         <v>2013</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D127" s="11">
         <v>1.39</v>
@@ -3368,7 +3310,7 @@
         <v>2013</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D128" s="13">
         <v>1.37</v>
@@ -3376,13 +3318,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B129" s="10">
         <v>2014</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D129" s="11">
         <v>0.2</v>
@@ -3396,7 +3338,7 @@
         <v>2014</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D130" s="13">
         <v>21.31</v>
@@ -3410,7 +3352,7 @@
         <v>2014</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D131" s="11">
         <v>2.14</v>
@@ -3424,7 +3366,7 @@
         <v>2014</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D132" s="13">
         <v>4.5999999999999996</v>
@@ -3438,7 +3380,7 @@
         <v>2014</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D133" s="11">
         <v>15.87</v>
@@ -3452,7 +3394,7 @@
         <v>2014</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D134" s="13">
         <v>0.21</v>
@@ -3460,13 +3402,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B135" s="10">
         <v>2014</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D135" s="11">
         <v>0</v>
@@ -3480,7 +3422,7 @@
         <v>2014</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D136" s="13">
         <v>1.26</v>
@@ -3494,7 +3436,7 @@
         <v>2014</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D137" s="11">
         <v>1.33</v>
@@ -3502,13 +3444,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B138" s="12">
         <v>2015</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D138" s="13">
         <v>0.27</v>
@@ -3522,7 +3464,7 @@
         <v>2015</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D139" s="11">
         <v>22.53</v>
@@ -3536,7 +3478,7 @@
         <v>2015</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D140" s="13">
         <v>1.86</v>
@@ -3550,7 +3492,7 @@
         <v>2015</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D141" s="11">
         <v>5.65</v>
@@ -3564,7 +3506,7 @@
         <v>2015</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D142" s="13">
         <v>15.38</v>
@@ -3578,7 +3520,7 @@
         <v>2015</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D143" s="11">
         <v>0.19</v>
@@ -3586,13 +3528,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B144" s="12">
         <v>2015</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D144" s="13">
         <v>0</v>
@@ -3606,7 +3548,7 @@
         <v>2015</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D145" s="11">
         <v>1.38</v>
@@ -3620,7 +3562,7 @@
         <v>2015</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D146" s="13">
         <v>1.45</v>
@@ -3628,13 +3570,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B147" s="10">
         <v>2016</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D147" s="11">
         <v>0.35</v>
@@ -3648,7 +3590,7 @@
         <v>2016</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D148" s="13">
         <v>19.37</v>
@@ -3662,7 +3604,7 @@
         <v>2016</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D149" s="11">
         <v>2.0499999999999998</v>
@@ -3676,7 +3618,7 @@
         <v>2016</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D150" s="13">
         <v>3.88</v>
@@ -3690,7 +3632,7 @@
         <v>2016</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D151" s="11">
         <v>15.78</v>
@@ -3704,7 +3646,7 @@
         <v>2016</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D152" s="13">
         <v>0.28999999999999998</v>
@@ -3712,13 +3654,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B153" s="10">
         <v>2016</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D153" s="11">
         <v>0</v>
@@ -3732,7 +3674,7 @@
         <v>2016</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D154" s="13">
         <v>1.39</v>
@@ -3746,7 +3688,7 @@
         <v>2016</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D155" s="11">
         <v>1.42</v>
@@ -3754,13 +3696,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B156" s="12">
         <v>2017</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D156" s="13">
         <v>0.4</v>
@@ -3774,7 +3716,7 @@
         <v>2017</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D157" s="11">
         <v>20.92</v>
@@ -3788,7 +3730,7 @@
         <v>2017</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D158" s="13">
         <v>1.93</v>
@@ -3802,7 +3744,7 @@
         <v>2017</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D159" s="11">
         <v>2.83</v>
@@ -3816,7 +3758,7 @@
         <v>2017</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D160" s="13">
         <v>15.55</v>
@@ -3830,7 +3772,7 @@
         <v>2017</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D161" s="11">
         <v>0.31</v>
@@ -3838,13 +3780,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B162" s="12">
         <v>2017</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D162" s="13">
         <v>0</v>
@@ -3858,7 +3800,7 @@
         <v>2017</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D163" s="11">
         <v>1.4</v>
@@ -3872,7 +3814,7 @@
         <v>2017</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D164" s="13">
         <v>1.5</v>
@@ -3880,13 +3822,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B165" s="10">
         <v>2018</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D165" s="11">
         <v>1.57</v>
@@ -3900,7 +3842,7 @@
         <v>2018</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D166" s="13">
         <v>18.66</v>
@@ -3914,7 +3856,7 @@
         <v>2018</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D167" s="11">
         <v>2.02</v>
@@ -3928,7 +3870,7 @@
         <v>2018</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D168" s="13">
         <v>5.15</v>
@@ -3942,7 +3884,7 @@
         <v>2018</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D169" s="11">
         <v>16.13</v>
@@ -3956,7 +3898,7 @@
         <v>2018</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D170" s="13">
         <v>0.32</v>
@@ -3964,13 +3906,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B171" s="10">
         <v>2018</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D171" s="11">
         <v>0</v>
@@ -3984,7 +3926,7 @@
         <v>2018</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D172" s="13">
         <v>1.34</v>
@@ -3998,7 +3940,7 @@
         <v>2018</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D173" s="11">
         <v>1.32</v>
@@ -4006,13 +3948,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B174" s="12">
         <v>2019</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D174" s="13">
         <v>1.82</v>
@@ -4026,7 +3968,7 @@
         <v>2019</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D175" s="11">
         <v>17.2</v>
@@ -4040,7 +3982,7 @@
         <v>2019</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D176" s="13">
         <v>2.15</v>
@@ -4054,7 +3996,7 @@
         <v>2019</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D177" s="11">
         <v>2.93</v>
@@ -4068,7 +4010,7 @@
         <v>2019</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D178" s="13">
         <v>16.559999999999999</v>
@@ -4082,7 +4024,7 @@
         <v>2019</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D179" s="11">
         <v>0.32</v>
@@ -4090,13 +4032,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B180" s="12">
         <v>2019</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D180" s="13">
         <v>0</v>
@@ -4110,7 +4052,7 @@
         <v>2019</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D181" s="11">
         <v>1.42</v>
@@ -4124,7 +4066,7 @@
         <v>2019</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D182" s="13">
         <v>1.32</v>
@@ -4132,13 +4074,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B183" s="10">
         <v>2020</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D183" s="11">
         <v>1.7</v>
@@ -4152,7 +4094,7 @@
         <v>2020</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D184" s="13">
         <v>13.51</v>
@@ -4166,7 +4108,7 @@
         <v>2020</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D185" s="11">
         <v>2.29</v>
@@ -4180,7 +4122,7 @@
         <v>2020</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D186" s="13">
         <v>2.82</v>
@@ -4194,7 +4136,7 @@
         <v>2020</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D187" s="11">
         <v>16.63</v>
@@ -4208,7 +4150,7 @@
         <v>2020</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D188" s="13">
         <v>0.24</v>
@@ -4216,13 +4158,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B189" s="10">
         <v>2020</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D189" s="11">
         <v>0</v>
@@ -4236,7 +4178,7 @@
         <v>2020</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D190" s="13">
         <v>1.47</v>
@@ -4250,7 +4192,7 @@
         <v>2020</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D191" s="11">
         <v>1.48</v>
@@ -4258,13 +4200,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B192" s="12">
         <v>2021</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D192" s="13">
         <v>2.59</v>
@@ -4278,7 +4220,7 @@
         <v>2021</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D193" s="11">
         <v>17.09</v>
@@ -4292,7 +4234,7 @@
         <v>2021</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D194" s="13">
         <v>3.05</v>
@@ -4306,7 +4248,7 @@
         <v>2021</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D195" s="11">
         <v>4.82</v>
@@ -4320,7 +4262,7 @@
         <v>2021</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D196" s="13">
         <v>16.489999999999998</v>
@@ -4334,7 +4276,7 @@
         <v>2021</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D197" s="11">
         <v>0.28000000000000003</v>
@@ -4342,13 +4284,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B198" s="12">
         <v>2021</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D198" s="13">
         <v>0</v>
@@ -4362,7 +4304,7 @@
         <v>2021</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D199" s="11">
         <v>1.47</v>
@@ -4376,7 +4318,7 @@
         <v>2021</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D200" s="13">
         <v>1.43</v>
@@ -4384,13 +4326,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B201" s="10">
         <v>2022</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D201" s="11">
         <v>2.2400000000000002</v>
@@ -4404,7 +4346,7 @@
         <v>2022</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D202" s="13">
         <v>21.79</v>
@@ -4418,7 +4360,7 @@
         <v>2022</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D203" s="11">
         <v>2.0499999999999998</v>
@@ -4432,7 +4374,7 @@
         <v>2022</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D204" s="13">
         <v>3.8</v>
@@ -4446,7 +4388,7 @@
         <v>2022</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D205" s="11">
         <v>16.46</v>
@@ -4460,7 +4402,7 @@
         <v>2022</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D206" s="13">
         <v>0.35</v>
@@ -4468,13 +4410,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B207" s="10">
         <v>2022</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D207" s="11">
         <v>0</v>
@@ -4488,7 +4430,7 @@
         <v>2022</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D208" s="13">
         <v>2.09</v>
@@ -4502,7 +4444,7 @@
         <v>2022</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D209" s="11">
         <v>1.44</v>
@@ -4510,13 +4452,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B210" s="12">
         <v>2023</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D210" s="13">
         <v>2.1800000000000002</v>
@@ -4530,7 +4472,7 @@
         <v>2023</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D211" s="11">
         <v>11.56</v>
@@ -4544,7 +4486,7 @@
         <v>2023</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D212" s="13">
         <v>1.56</v>
@@ -4558,7 +4500,7 @@
         <v>2023</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D213" s="11">
         <v>3.11</v>
@@ -4572,7 +4514,7 @@
         <v>2023</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D214" s="13">
         <v>16.16</v>
@@ -4586,7 +4528,7 @@
         <v>2023</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D215" s="11">
         <v>0.35</v>
@@ -4594,13 +4536,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B216" s="12">
         <v>2023</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D216" s="13">
         <v>0</v>
@@ -4614,7 +4556,7 @@
         <v>2023</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D217" s="11">
         <v>3.52</v>
@@ -4628,7 +4570,7 @@
         <v>2023</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D218" s="13">
         <v>1.55</v>
@@ -4636,13 +4578,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B219" s="10">
         <v>2000</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D219" s="11">
         <v>0.05</v>
@@ -4656,7 +4598,7 @@
         <v>2000</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D220" s="13">
         <v>5.62</v>
@@ -4670,7 +4612,7 @@
         <v>2000</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D221" s="11">
         <v>1.1100000000000001</v>
@@ -4684,7 +4626,7 @@
         <v>2000</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D222" s="13">
         <v>1.02</v>
@@ -4698,7 +4640,7 @@
         <v>2000</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D223" s="11">
         <v>3.53</v>
@@ -4712,19 +4654,19 @@
         <v>2000</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D224" s="13"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B225" s="10">
         <v>2000</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D225" s="11"/>
     </row>
@@ -4736,7 +4678,7 @@
         <v>2000</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D226" s="13">
         <v>0</v>
@@ -4750,7 +4692,7 @@
         <v>2000</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D227" s="11">
         <v>0</v>
@@ -4758,13 +4700,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B228" s="12">
         <v>2001</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D228" s="13">
         <v>0.05</v>
@@ -4778,7 +4720,7 @@
         <v>2001</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D229" s="11">
         <v>5.62</v>
@@ -4792,7 +4734,7 @@
         <v>2001</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D230" s="13">
         <v>1.1100000000000001</v>
@@ -4806,7 +4748,7 @@
         <v>2001</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D231" s="11">
         <v>0.84</v>
@@ -4820,7 +4762,7 @@
         <v>2001</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D232" s="13">
         <v>3.53</v>
@@ -4834,19 +4776,19 @@
         <v>2001</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D233" s="11"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B234" s="12">
         <v>2001</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D234" s="13"/>
     </row>
@@ -4858,7 +4800,7 @@
         <v>2001</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D235" s="11">
         <v>0</v>
@@ -4872,7 +4814,7 @@
         <v>2001</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D236" s="13">
         <v>0</v>
@@ -4880,13 +4822,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B237" s="10">
         <v>2002</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D237" s="11">
         <v>0.05</v>
@@ -4900,7 +4842,7 @@
         <v>2002</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D238" s="13">
         <v>5.62</v>
@@ -4914,7 +4856,7 @@
         <v>2002</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D239" s="11">
         <v>1.1100000000000001</v>
@@ -4928,7 +4870,7 @@
         <v>2002</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D240" s="13">
         <v>1.08</v>
@@ -4942,7 +4884,7 @@
         <v>2002</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D241" s="11">
         <v>2.72</v>
@@ -4956,19 +4898,19 @@
         <v>2002</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D242" s="13"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B243" s="10">
         <v>2002</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D243" s="11"/>
     </row>
@@ -4980,7 +4922,7 @@
         <v>2002</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D244" s="13">
         <v>0</v>
@@ -4994,7 +4936,7 @@
         <v>2002</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D245" s="11">
         <v>0</v>
@@ -5002,13 +4944,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B246" s="12">
         <v>2003</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D246" s="13">
         <v>0.01</v>
@@ -5022,7 +4964,7 @@
         <v>2003</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D247" s="11">
         <v>5.62</v>
@@ -5036,7 +4978,7 @@
         <v>2003</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D248" s="13">
         <v>1.1100000000000001</v>
@@ -5050,7 +4992,7 @@
         <v>2003</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D249" s="11">
         <v>1.65</v>
@@ -5064,7 +5006,7 @@
         <v>2003</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D250" s="13">
         <v>2.72</v>
@@ -5078,19 +5020,19 @@
         <v>2003</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D251" s="11"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B252" s="12">
         <v>2003</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D252" s="13"/>
     </row>
@@ -5102,7 +5044,7 @@
         <v>2003</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D253" s="11">
         <v>0</v>
@@ -5116,7 +5058,7 @@
         <v>2003</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D254" s="13">
         <v>0</v>
@@ -5124,13 +5066,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B255" s="10">
         <v>2004</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D255" s="11">
         <v>0.01</v>
@@ -5144,7 +5086,7 @@
         <v>2004</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D256" s="13">
         <v>5.5</v>
@@ -5158,7 +5100,7 @@
         <v>2004</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D257" s="11">
         <v>1.1100000000000001</v>
@@ -5172,7 +5114,7 @@
         <v>2004</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D258" s="13">
         <v>1.98</v>
@@ -5186,7 +5128,7 @@
         <v>2004</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D259" s="11">
         <v>2.72</v>
@@ -5200,19 +5142,19 @@
         <v>2004</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D260" s="13"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B261" s="10">
         <v>2004</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D261" s="11"/>
     </row>
@@ -5224,7 +5166,7 @@
         <v>2004</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D262" s="13">
         <v>0</v>
@@ -5238,7 +5180,7 @@
         <v>2004</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D263" s="11">
         <v>0</v>
@@ -5246,13 +5188,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B264" s="12">
         <v>2005</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D264" s="13">
         <v>0.01</v>
@@ -5266,7 +5208,7 @@
         <v>2005</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D265" s="11">
         <v>5.5</v>
@@ -5280,7 +5222,7 @@
         <v>2005</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D266" s="13">
         <v>1.1100000000000001</v>
@@ -5294,7 +5236,7 @@
         <v>2005</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D267" s="11">
         <v>1.98</v>
@@ -5308,7 +5250,7 @@
         <v>2005</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D268" s="13">
         <v>2.72</v>
@@ -5322,19 +5264,19 @@
         <v>2005</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D269" s="11"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B270" s="12">
         <v>2005</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D270" s="13"/>
     </row>
@@ -5346,7 +5288,7 @@
         <v>2005</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D271" s="11">
         <v>0</v>
@@ -5360,7 +5302,7 @@
         <v>2005</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D272" s="13">
         <v>0.01</v>
@@ -5368,13 +5310,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B273" s="10">
         <v>2006</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D273" s="11">
         <v>0.01</v>
@@ -5388,7 +5330,7 @@
         <v>2006</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D274" s="13">
         <v>5.5</v>
@@ -5402,7 +5344,7 @@
         <v>2006</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D275" s="11">
         <v>1.1100000000000001</v>
@@ -5416,7 +5358,7 @@
         <v>2006</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D276" s="13">
         <v>1.98</v>
@@ -5430,7 +5372,7 @@
         <v>2006</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D277" s="11">
         <v>2.72</v>
@@ -5444,19 +5386,19 @@
         <v>2006</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D278" s="13"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B279" s="10">
         <v>2006</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D279" s="11"/>
     </row>
@@ -5468,7 +5410,7 @@
         <v>2006</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D280" s="13">
         <v>0</v>
@@ -5482,7 +5424,7 @@
         <v>2006</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D281" s="11">
         <v>0.03</v>
@@ -5490,13 +5432,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B282" s="12">
         <v>2007</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D282" s="13">
         <v>0.01</v>
@@ -5510,7 +5452,7 @@
         <v>2007</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D283" s="11">
         <v>5.5</v>
@@ -5524,7 +5466,7 @@
         <v>2007</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D284" s="13">
         <v>1.1499999999999999</v>
@@ -5538,7 +5480,7 @@
         <v>2007</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D285" s="11">
         <v>2.0099999999999998</v>
@@ -5552,7 +5494,7 @@
         <v>2007</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D286" s="13">
         <v>1.89</v>
@@ -5566,19 +5508,19 @@
         <v>2007</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D287" s="11"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B288" s="12">
         <v>2007</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D288" s="13"/>
     </row>
@@ -5590,7 +5532,7 @@
         <v>2007</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D289" s="11">
         <v>0</v>
@@ -5604,7 +5546,7 @@
         <v>2007</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D290" s="13">
         <v>0.03</v>
@@ -5612,13 +5554,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B291" s="10">
         <v>2008</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D291" s="11">
         <v>0.01</v>
@@ -5632,7 +5574,7 @@
         <v>2008</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D292" s="13">
         <v>5.5</v>
@@ -5646,7 +5588,7 @@
         <v>2008</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D293" s="11">
         <v>1.1499999999999999</v>
@@ -5660,7 +5602,7 @@
         <v>2008</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D294" s="13">
         <v>2.12</v>
@@ -5674,7 +5616,7 @@
         <v>2008</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D295" s="11">
         <v>1.89</v>
@@ -5688,19 +5630,19 @@
         <v>2008</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D296" s="13"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B297" s="10">
         <v>2008</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D297" s="11"/>
     </row>
@@ -5712,7 +5654,7 @@
         <v>2008</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D298" s="13">
         <v>0</v>
@@ -5726,7 +5668,7 @@
         <v>2008</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D299" s="11">
         <v>0.11</v>
@@ -5734,13 +5676,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B300" s="12">
         <v>2009</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D300" s="13">
         <v>0.01</v>
@@ -5754,7 +5696,7 @@
         <v>2009</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D301" s="11">
         <v>5.63</v>
@@ -5768,7 +5710,7 @@
         <v>2009</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D302" s="13">
         <v>1.1499999999999999</v>
@@ -5782,7 +5724,7 @@
         <v>2009</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D303" s="11">
         <v>2.14</v>
@@ -5796,7 +5738,7 @@
         <v>2009</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D304" s="13">
         <v>1.89</v>
@@ -5810,19 +5752,19 @@
         <v>2009</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D305" s="11"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B306" s="12">
         <v>2009</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D306" s="13"/>
     </row>
@@ -5834,7 +5776,7 @@
         <v>2009</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D307" s="11">
         <v>0</v>
@@ -5848,7 +5790,7 @@
         <v>2009</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D308" s="13">
         <v>0.33</v>
@@ -5856,13 +5798,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B309" s="10">
         <v>2010</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D309" s="11">
         <v>0.01</v>
@@ -5876,7 +5818,7 @@
         <v>2010</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D310" s="13">
         <v>5.63</v>
@@ -5890,7 +5832,7 @@
         <v>2010</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D311" s="11">
         <v>1.1499999999999999</v>
@@ -5904,7 +5846,7 @@
         <v>2010</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D312" s="13">
         <v>2.1800000000000002</v>
@@ -5918,7 +5860,7 @@
         <v>2010</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D313" s="11">
         <v>1.89</v>
@@ -5932,19 +5874,19 @@
         <v>2010</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D314" s="13"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B315" s="10">
         <v>2010</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D315" s="11"/>
     </row>
@@ -5956,7 +5898,7 @@
         <v>2010</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D316" s="13">
         <v>0.03</v>
@@ -5970,7 +5912,7 @@
         <v>2010</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D317" s="11">
         <v>0.49</v>
@@ -5978,13 +5920,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B318" s="12">
         <v>2011</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D318" s="13">
         <v>0.01</v>
@@ -5998,7 +5940,7 @@
         <v>2011</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D319" s="11">
         <v>6.32</v>
@@ -6012,7 +5954,7 @@
         <v>2011</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D320" s="13">
         <v>1.2</v>
@@ -6026,7 +5968,7 @@
         <v>2011</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D321" s="11">
         <v>2.2400000000000002</v>
@@ -6040,7 +5982,7 @@
         <v>2011</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D322" s="13">
         <v>1.89</v>
@@ -6054,19 +5996,19 @@
         <v>2011</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D323" s="11"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B324" s="12">
         <v>2011</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D324" s="13"/>
     </row>
@@ -6078,7 +6020,7 @@
         <v>2011</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D325" s="11">
         <v>0.15</v>
@@ -6092,7 +6034,7 @@
         <v>2011</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D326" s="13">
         <v>0.54</v>
@@ -6100,13 +6042,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B327" s="10">
         <v>2012</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D327" s="11">
         <v>0.01</v>
@@ -6120,7 +6062,7 @@
         <v>2012</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D328" s="13">
         <v>6.32</v>
@@ -6134,7 +6076,7 @@
         <v>2012</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D329" s="11">
         <v>1.2</v>
@@ -6148,7 +6090,7 @@
         <v>2012</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D330" s="13">
         <v>2.3199999999999998</v>
@@ -6162,7 +6104,7 @@
         <v>2012</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D331" s="11">
         <v>1.91</v>
@@ -6176,19 +6118,19 @@
         <v>2012</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D332" s="13"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B333" s="10">
         <v>2012</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D333" s="11"/>
     </row>
@@ -6200,7 +6142,7 @@
         <v>2012</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D334" s="13">
         <v>0.92</v>
@@ -6214,7 +6156,7 @@
         <v>2012</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D335" s="11">
         <v>0.68</v>
@@ -6222,13 +6164,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B336" s="12">
         <v>2013</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D336" s="13">
         <v>0.03</v>
@@ -6242,7 +6184,7 @@
         <v>2013</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D337" s="11">
         <v>6.11</v>
@@ -6256,7 +6198,7 @@
         <v>2013</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D338" s="13">
         <v>1.2</v>
@@ -6270,7 +6212,7 @@
         <v>2013</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D339" s="11">
         <v>2.34</v>
@@ -6284,7 +6226,7 @@
         <v>2013</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D340" s="13">
         <v>1.98</v>
@@ -6298,19 +6240,19 @@
         <v>2013</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D341" s="11"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B342" s="12">
         <v>2013</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D342" s="13"/>
     </row>
@@ -6322,7 +6264,7 @@
         <v>2013</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D343" s="11">
         <v>1.04</v>
@@ -6336,7 +6278,7 @@
         <v>2013</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D344" s="13">
         <v>0.68</v>
@@ -6344,13 +6286,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B345" s="10">
         <v>2014</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D345" s="11">
         <v>0.04</v>
@@ -6364,7 +6306,7 @@
         <v>2014</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D346" s="13">
         <v>5.9</v>
@@ -6378,7 +6320,7 @@
         <v>2014</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D347" s="11">
         <v>1.2</v>
@@ -6392,7 +6334,7 @@
         <v>2014</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D348" s="13">
         <v>2.36</v>
@@ -6406,7 +6348,7 @@
         <v>2014</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D349" s="11">
         <v>1.98</v>
@@ -6420,19 +6362,19 @@
         <v>2014</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D350" s="13"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B351" s="10">
         <v>2014</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D351" s="11"/>
     </row>
@@ -6444,7 +6386,7 @@
         <v>2014</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D352" s="13">
         <v>1.03</v>
@@ -6458,7 +6400,7 @@
         <v>2014</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D353" s="11">
         <v>0.7</v>
@@ -6466,13 +6408,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B354" s="12">
         <v>2015</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D354" s="13">
         <v>0.05</v>
@@ -6486,7 +6428,7 @@
         <v>2015</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D355" s="11">
         <v>5.0599999999999996</v>
@@ -6500,7 +6442,7 @@
         <v>2015</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D356" s="13">
         <v>1.2</v>
@@ -6514,7 +6456,7 @@
         <v>2015</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D357" s="11">
         <v>2.36</v>
@@ -6528,7 +6470,7 @@
         <v>2015</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D358" s="13">
         <v>1.98</v>
@@ -6542,19 +6484,19 @@
         <v>2015</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D359" s="11"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B360" s="12">
         <v>2015</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D360" s="13"/>
     </row>
@@ -6566,7 +6508,7 @@
         <v>2015</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D361" s="11">
         <v>1.03</v>
@@ -6580,7 +6522,7 @@
         <v>2015</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D362" s="13">
         <v>0.7</v>
@@ -6588,13 +6530,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B363" s="10">
         <v>2016</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D363" s="11">
         <v>0.06</v>
@@ -6608,7 +6550,7 @@
         <v>2016</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D364" s="13">
         <v>5.0599999999999996</v>
@@ -6622,7 +6564,7 @@
         <v>2016</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D365" s="11">
         <v>1.2</v>
@@ -6636,7 +6578,7 @@
         <v>2016</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D366" s="13">
         <v>2.36</v>
@@ -6650,7 +6592,7 @@
         <v>2016</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D367" s="11">
         <v>1.97</v>
@@ -6664,19 +6606,19 @@
         <v>2016</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D368" s="13"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B369" s="10">
         <v>2016</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D369" s="11"/>
     </row>
@@ -6688,7 +6630,7 @@
         <v>2016</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D370" s="13">
         <v>1.03</v>
@@ -6702,7 +6644,7 @@
         <v>2016</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D371" s="11">
         <v>0.7</v>
@@ -6710,13 +6652,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B372" s="12">
         <v>2017</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D372" s="13">
         <v>0.05</v>
@@ -6730,7 +6672,7 @@
         <v>2017</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D373" s="11">
         <v>5.1100000000000003</v>
@@ -6744,7 +6686,7 @@
         <v>2017</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D374" s="13">
         <v>1.2</v>
@@ -6758,7 +6700,7 @@
         <v>2017</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D375" s="11">
         <v>2.5099999999999998</v>
@@ -6772,7 +6714,7 @@
         <v>2017</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D376" s="13">
         <v>1.97</v>
@@ -6786,19 +6728,19 @@
         <v>2017</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D377" s="11"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B378" s="12">
         <v>2017</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D378" s="13"/>
     </row>
@@ -6810,7 +6752,7 @@
         <v>2017</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D379" s="11">
         <v>1.03</v>
@@ -6824,7 +6766,7 @@
         <v>2017</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D380" s="13">
         <v>0.7</v>
@@ -6832,13 +6774,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B381" s="10">
         <v>2018</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D381" s="11">
         <v>7.0000000000000007E-2</v>
@@ -6852,7 +6794,7 @@
         <v>2018</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D382" s="13">
         <v>5.1100000000000003</v>
@@ -6866,7 +6808,7 @@
         <v>2018</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D383" s="11">
         <v>1.2</v>
@@ -6880,7 +6822,7 @@
         <v>2018</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D384" s="13">
         <v>2.5099999999999998</v>
@@ -6894,7 +6836,7 @@
         <v>2018</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D385" s="11">
         <v>2.0099999999999998</v>
@@ -6908,19 +6850,19 @@
         <v>2018</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D386" s="13"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B387" s="10">
         <v>2018</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D387" s="11"/>
     </row>
@@ -6932,7 +6874,7 @@
         <v>2018</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D388" s="13">
         <v>1.03</v>
@@ -6946,7 +6888,7 @@
         <v>2018</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D389" s="11">
         <v>0.7</v>
@@ -6954,13 +6896,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B390" s="12">
         <v>2019</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D390" s="13">
         <v>0.06</v>
@@ -6974,7 +6916,7 @@
         <v>2019</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D391" s="11">
         <v>5.1100000000000003</v>
@@ -6988,7 +6930,7 @@
         <v>2019</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D392" s="13">
         <v>1.2</v>
@@ -7002,7 +6944,7 @@
         <v>2019</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D393" s="11">
         <v>2.5099999999999998</v>
@@ -7016,7 +6958,7 @@
         <v>2019</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D394" s="13">
         <v>2.0099999999999998</v>
@@ -7030,19 +6972,19 @@
         <v>2019</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D395" s="11"/>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B396" s="12">
         <v>2019</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D396" s="13"/>
     </row>
@@ -7054,7 +6996,7 @@
         <v>2019</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D397" s="11">
         <v>1.04</v>
@@ -7068,7 +7010,7 @@
         <v>2019</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D398" s="13">
         <v>0.7</v>
@@ -7076,13 +7018,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B399" s="10">
         <v>2020</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D399" s="11">
         <v>0.05</v>
@@ -7096,7 +7038,7 @@
         <v>2020</v>
       </c>
       <c r="C400" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D400" s="13">
         <v>5.1100000000000003</v>
@@ -7110,7 +7052,7 @@
         <v>2020</v>
       </c>
       <c r="C401" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D401" s="11">
         <v>1.2</v>
@@ -7124,7 +7066,7 @@
         <v>2020</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D402" s="13">
         <v>2.5099999999999998</v>
@@ -7138,7 +7080,7 @@
         <v>2020</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D403" s="11">
         <v>2.0099999999999998</v>
@@ -7152,19 +7094,19 @@
         <v>2020</v>
       </c>
       <c r="C404" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D404" s="13"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B405" s="10">
         <v>2020</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D405" s="11"/>
     </row>
@@ -7176,7 +7118,7 @@
         <v>2020</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D406" s="13">
         <v>1.1000000000000001</v>
@@ -7190,7 +7132,7 @@
         <v>2020</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D407" s="11">
         <v>0.7</v>
@@ -7198,13 +7140,13 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B408" s="12">
         <v>2021</v>
       </c>
       <c r="C408" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D408" s="13">
         <v>0.05</v>
@@ -7218,7 +7160,7 @@
         <v>2021</v>
       </c>
       <c r="C409" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D409" s="11">
         <v>5.1100000000000003</v>
@@ -7232,7 +7174,7 @@
         <v>2021</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D410" s="13">
         <v>1.2</v>
@@ -7246,7 +7188,7 @@
         <v>2021</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D411" s="11">
         <v>2.5099999999999998</v>
@@ -7260,7 +7202,7 @@
         <v>2021</v>
       </c>
       <c r="C412" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D412" s="13">
         <v>2.0099999999999998</v>
@@ -7274,19 +7216,19 @@
         <v>2021</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D413" s="11"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B414" s="12">
         <v>2021</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D414" s="13"/>
     </row>
@@ -7298,7 +7240,7 @@
         <v>2021</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D415" s="11">
         <v>1.27</v>
@@ -7312,7 +7254,7 @@
         <v>2021</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D416" s="13">
         <v>0.7</v>
@@ -7320,13 +7262,13 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B417" s="10">
         <v>2022</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D417" s="11">
         <v>0.05</v>
@@ -7340,7 +7282,7 @@
         <v>2022</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D418" s="13">
         <v>5.1100000000000003</v>
@@ -7354,7 +7296,7 @@
         <v>2022</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D419" s="11">
         <v>1.2</v>
@@ -7368,7 +7310,7 @@
         <v>2022</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D420" s="13">
         <v>2.5299999999999998</v>
@@ -7382,7 +7324,7 @@
         <v>2022</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D421" s="11">
         <v>2.0099999999999998</v>
@@ -7396,19 +7338,19 @@
         <v>2022</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D422" s="13"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B423" s="10">
         <v>2022</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D423" s="11"/>
     </row>
@@ -7420,7 +7362,7 @@
         <v>2022</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D424" s="13">
         <v>1.74</v>
@@ -7434,7 +7376,7 @@
         <v>2022</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D425" s="11">
         <v>0.7</v>
@@ -7442,13 +7384,13 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B426" s="12">
         <v>2023</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D426" s="13">
         <v>0.05</v>
@@ -7462,7 +7404,7 @@
         <v>2023</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D427" s="11">
         <v>5.1100000000000003</v>
@@ -7476,7 +7418,7 @@
         <v>2023</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D428" s="13">
         <v>1.2</v>
@@ -7490,7 +7432,7 @@
         <v>2023</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D429" s="11">
         <v>2.5299999999999998</v>
@@ -7504,7 +7446,7 @@
         <v>2023</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D430" s="13">
         <v>2.0099999999999998</v>
@@ -7518,19 +7460,19 @@
         <v>2023</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D431" s="11"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B432" s="12">
         <v>2023</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D432" s="13"/>
     </row>
@@ -7542,7 +7484,7 @@
         <v>2023</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D433" s="11">
         <v>2.94</v>
@@ -7556,7 +7498,7 @@
         <v>2023</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D434" s="13">
         <v>0.7</v>
@@ -7564,13 +7506,13 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B435" s="10">
         <v>2000</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D435" s="11">
         <v>0</v>
@@ -7584,7 +7526,7 @@
         <v>2000</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D436" s="13">
         <v>17.059999999999999</v>
@@ -7598,7 +7540,7 @@
         <v>2000</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D437" s="11">
         <v>0.78</v>
@@ -7612,7 +7554,7 @@
         <v>2000</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D438" s="13">
         <v>0.06</v>
@@ -7626,7 +7568,7 @@
         <v>2000</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D439" s="11">
         <v>0.09</v>
@@ -7640,7 +7582,7 @@
         <v>2000</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D440" s="13">
         <v>0.61</v>
@@ -7648,13 +7590,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B441" s="10">
         <v>2000</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D441" s="11">
         <v>0</v>
@@ -7668,7 +7610,7 @@
         <v>2000</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D442" s="13">
         <v>0</v>
@@ -7682,7 +7624,7 @@
         <v>2000</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D443" s="11">
         <v>0</v>
@@ -7690,13 +7632,13 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B444" s="12">
         <v>2001</v>
       </c>
       <c r="C444" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D444" s="13">
         <v>0</v>
@@ -7710,7 +7652,7 @@
         <v>2001</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D445" s="11">
         <v>19.579999999999998</v>
@@ -7724,7 +7666,7 @@
         <v>2001</v>
       </c>
       <c r="C446" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D446" s="13">
         <v>0.78</v>
@@ -7738,7 +7680,7 @@
         <v>2001</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D447" s="11">
         <v>0.04</v>
@@ -7752,7 +7694,7 @@
         <v>2001</v>
       </c>
       <c r="C448" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D448" s="13">
         <v>0.09</v>
@@ -7766,7 +7708,7 @@
         <v>2001</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D449" s="11">
         <v>0.55000000000000004</v>
@@ -7774,13 +7716,13 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B450" s="12">
         <v>2001</v>
       </c>
       <c r="C450" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D450" s="13">
         <v>0</v>
@@ -7794,7 +7736,7 @@
         <v>2001</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D451" s="11">
         <v>0</v>
@@ -7808,7 +7750,7 @@
         <v>2001</v>
       </c>
       <c r="C452" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D452" s="13">
         <v>0</v>
@@ -7816,13 +7758,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B453" s="10">
         <v>2002</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D453" s="11">
         <v>0</v>
@@ -7836,7 +7778,7 @@
         <v>2002</v>
       </c>
       <c r="C454" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D454" s="13">
         <v>17.260000000000002</v>
@@ -7850,7 +7792,7 @@
         <v>2002</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D455" s="11">
         <v>0.63</v>
@@ -7864,7 +7806,7 @@
         <v>2002</v>
       </c>
       <c r="C456" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D456" s="13">
         <v>0.05</v>
@@ -7878,7 +7820,7 @@
         <v>2002</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D457" s="11">
         <v>0.1</v>
@@ -7892,7 +7834,7 @@
         <v>2002</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D458" s="13">
         <v>0.67</v>
@@ -7900,13 +7842,13 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B459" s="10">
         <v>2002</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D459" s="11">
         <v>0</v>
@@ -7920,7 +7862,7 @@
         <v>2002</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D460" s="13">
         <v>0</v>
@@ -7934,7 +7876,7 @@
         <v>2002</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D461" s="11">
         <v>0</v>
@@ -7942,13 +7884,13 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B462" s="12">
         <v>2003</v>
       </c>
       <c r="C462" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D462" s="13">
         <v>0</v>
@@ -7962,7 +7904,7 @@
         <v>2003</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D463" s="11">
         <v>19.309999999999999</v>
@@ -7976,7 +7918,7 @@
         <v>2003</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D464" s="13">
         <v>0.72</v>
@@ -7990,7 +7932,7 @@
         <v>2003</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D465" s="11">
         <v>7.0000000000000007E-2</v>
@@ -8004,7 +7946,7 @@
         <v>2003</v>
       </c>
       <c r="C466" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D466" s="13">
         <v>0.08</v>
@@ -8018,7 +7960,7 @@
         <v>2003</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D467" s="11">
         <v>0.66</v>
@@ -8026,13 +7968,13 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B468" s="12">
         <v>2003</v>
       </c>
       <c r="C468" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D468" s="13">
         <v>0</v>
@@ -8046,7 +7988,7 @@
         <v>2003</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D469" s="11">
         <v>0</v>
@@ -8060,7 +8002,7 @@
         <v>2003</v>
       </c>
       <c r="C470" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D470" s="13">
         <v>0</v>
@@ -8068,13 +8010,13 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B471" s="10">
         <v>2004</v>
       </c>
       <c r="C471" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D471" s="11">
         <v>0</v>
@@ -8088,7 +8030,7 @@
         <v>2004</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D472" s="13">
         <v>19</v>
@@ -8102,7 +8044,7 @@
         <v>2004</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D473" s="11">
         <v>0.61</v>
@@ -8116,7 +8058,7 @@
         <v>2004</v>
       </c>
       <c r="C474" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D474" s="13">
         <v>7.0000000000000007E-2</v>
@@ -8130,7 +8072,7 @@
         <v>2004</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D475" s="11">
         <v>0.08</v>
@@ -8144,7 +8086,7 @@
         <v>2004</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D476" s="13">
         <v>0.66</v>
@@ -8152,13 +8094,13 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B477" s="10">
         <v>2004</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D477" s="11">
         <v>0</v>
@@ -8172,7 +8114,7 @@
         <v>2004</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D478" s="13">
         <v>0</v>
@@ -8186,7 +8128,7 @@
         <v>2004</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D479" s="11">
         <v>0</v>
@@ -8194,13 +8136,13 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B480" s="12">
         <v>2005</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D480" s="13">
         <v>0</v>
@@ -8214,7 +8156,7 @@
         <v>2005</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D481" s="11">
         <v>18.53</v>
@@ -8228,7 +8170,7 @@
         <v>2005</v>
       </c>
       <c r="C482" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D482" s="13">
         <v>0.71</v>
@@ -8242,7 +8184,7 @@
         <v>2005</v>
       </c>
       <c r="C483" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D483" s="11">
         <v>0.1</v>
@@ -8256,7 +8198,7 @@
         <v>2005</v>
       </c>
       <c r="C484" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D484" s="13">
         <v>0.09</v>
@@ -8270,7 +8212,7 @@
         <v>2005</v>
       </c>
       <c r="C485" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D485" s="11">
         <v>0.49</v>
@@ -8278,13 +8220,13 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B486" s="12">
         <v>2005</v>
       </c>
       <c r="C486" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D486" s="13">
         <v>0</v>
@@ -8298,7 +8240,7 @@
         <v>2005</v>
       </c>
       <c r="C487" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D487" s="11">
         <v>0</v>
@@ -8312,7 +8254,7 @@
         <v>2005</v>
       </c>
       <c r="C488" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D488" s="13">
         <v>0</v>
@@ -8320,13 +8262,13 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B489" s="10">
         <v>2006</v>
       </c>
       <c r="C489" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D489" s="11">
         <v>0</v>
@@ -8340,7 +8282,7 @@
         <v>2006</v>
       </c>
       <c r="C490" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D490" s="13">
         <v>19.149999999999999</v>
@@ -8354,7 +8296,7 @@
         <v>2006</v>
       </c>
       <c r="C491" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D491" s="11">
         <v>0.88</v>
@@ -8368,7 +8310,7 @@
         <v>2006</v>
       </c>
       <c r="C492" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D492" s="13">
         <v>0.1</v>
@@ -8382,7 +8324,7 @@
         <v>2006</v>
       </c>
       <c r="C493" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D493" s="11">
         <v>0.09</v>
@@ -8396,7 +8338,7 @@
         <v>2006</v>
       </c>
       <c r="C494" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D494" s="13">
         <v>0.31</v>
@@ -8404,13 +8346,13 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B495" s="10">
         <v>2006</v>
       </c>
       <c r="C495" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D495" s="11">
         <v>0</v>
@@ -8424,7 +8366,7 @@
         <v>2006</v>
       </c>
       <c r="C496" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D496" s="13">
         <v>0</v>
@@ -8438,7 +8380,7 @@
         <v>2006</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D497" s="11">
         <v>0</v>
@@ -8446,13 +8388,13 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B498" s="12">
         <v>2007</v>
       </c>
       <c r="C498" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D498" s="13">
         <v>0</v>
@@ -8466,7 +8408,7 @@
         <v>2007</v>
       </c>
       <c r="C499" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D499" s="11">
         <v>22.43</v>
@@ -8480,7 +8422,7 @@
         <v>2007</v>
       </c>
       <c r="C500" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D500" s="13">
         <v>0.96</v>
@@ -8494,7 +8436,7 @@
         <v>2007</v>
       </c>
       <c r="C501" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D501" s="11">
         <v>7.0000000000000007E-2</v>
@@ -8508,7 +8450,7 @@
         <v>2007</v>
       </c>
       <c r="C502" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D502" s="13">
         <v>7.0000000000000007E-2</v>
@@ -8522,7 +8464,7 @@
         <v>2007</v>
       </c>
       <c r="C503" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D503" s="11">
         <v>0.39</v>
@@ -8530,13 +8472,13 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B504" s="12">
         <v>2007</v>
       </c>
       <c r="C504" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D504" s="13">
         <v>0</v>
@@ -8550,7 +8492,7 @@
         <v>2007</v>
       </c>
       <c r="C505" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D505" s="11">
         <v>0</v>
@@ -8564,7 +8506,7 @@
         <v>2007</v>
       </c>
       <c r="C506" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D506" s="13">
         <v>0</v>
@@ -8572,13 +8514,13 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B507" s="10">
         <v>2008</v>
       </c>
       <c r="C507" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D507" s="11">
         <v>0</v>
@@ -8592,7 +8534,7 @@
         <v>2008</v>
       </c>
       <c r="C508" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D508" s="13">
         <v>23.24</v>
@@ -8606,7 +8548,7 @@
         <v>2008</v>
       </c>
       <c r="C509" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D509" s="11">
         <v>0.96</v>
@@ -8620,7 +8562,7 @@
         <v>2008</v>
       </c>
       <c r="C510" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D510" s="13">
         <v>7.0000000000000007E-2</v>
@@ -8634,7 +8576,7 @@
         <v>2008</v>
       </c>
       <c r="C511" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D511" s="11">
         <v>0.08</v>
@@ -8648,7 +8590,7 @@
         <v>2008</v>
       </c>
       <c r="C512" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D512" s="13">
         <v>0.16</v>
@@ -8656,13 +8598,13 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B513" s="10">
         <v>2008</v>
       </c>
       <c r="C513" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D513" s="11">
         <v>0</v>
@@ -8676,7 +8618,7 @@
         <v>2008</v>
       </c>
       <c r="C514" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D514" s="13">
         <v>0</v>
@@ -8690,7 +8632,7 @@
         <v>2008</v>
       </c>
       <c r="C515" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D515" s="11">
         <v>0</v>
@@ -8698,13 +8640,13 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B516" s="12">
         <v>2009</v>
       </c>
       <c r="C516" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D516" s="13">
         <v>0</v>
@@ -8718,7 +8660,7 @@
         <v>2009</v>
       </c>
       <c r="C517" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D517" s="11">
         <v>21.21</v>
@@ -8732,7 +8674,7 @@
         <v>2009</v>
       </c>
       <c r="C518" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D518" s="13">
         <v>0.8</v>
@@ -8746,7 +8688,7 @@
         <v>2009</v>
       </c>
       <c r="C519" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D519" s="11">
         <v>0.08</v>
@@ -8760,7 +8702,7 @@
         <v>2009</v>
       </c>
       <c r="C520" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D520" s="13">
         <v>7.0000000000000007E-2</v>
@@ -8774,7 +8716,7 @@
         <v>2009</v>
       </c>
       <c r="C521" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D521" s="11">
         <v>0.2</v>
@@ -8782,13 +8724,13 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B522" s="12">
         <v>2009</v>
       </c>
       <c r="C522" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D522" s="13">
         <v>0</v>
@@ -8802,7 +8744,7 @@
         <v>2009</v>
       </c>
       <c r="C523" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D523" s="11">
         <v>0</v>
@@ -8816,7 +8758,7 @@
         <v>2009</v>
       </c>
       <c r="C524" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D524" s="13">
         <v>0</v>
@@ -8824,13 +8766,13 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B525" s="10">
         <v>2010</v>
       </c>
       <c r="C525" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D525" s="11">
         <v>0.01</v>
@@ -8844,7 +8786,7 @@
         <v>2010</v>
       </c>
       <c r="C526" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D526" s="13">
         <v>22.7</v>
@@ -8858,7 +8800,7 @@
         <v>2010</v>
       </c>
       <c r="C527" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D527" s="11">
         <v>0.8</v>
@@ -8872,7 +8814,7 @@
         <v>2010</v>
       </c>
       <c r="C528" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D528" s="13">
         <v>0.12</v>
@@ -8886,7 +8828,7 @@
         <v>2010</v>
       </c>
       <c r="C529" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D529" s="11">
         <v>7.0000000000000007E-2</v>
@@ -8900,7 +8842,7 @@
         <v>2010</v>
       </c>
       <c r="C530" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D530" s="13">
         <v>0.22</v>
@@ -8908,13 +8850,13 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B531" s="10">
         <v>2010</v>
       </c>
       <c r="C531" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D531" s="11">
         <v>0</v>
@@ -8928,7 +8870,7 @@
         <v>2010</v>
       </c>
       <c r="C532" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D532" s="13">
         <v>0</v>
@@ -8942,7 +8884,7 @@
         <v>2010</v>
       </c>
       <c r="C533" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D533" s="11">
         <v>0.01</v>
@@ -8950,13 +8892,13 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B534" s="12">
         <v>2011</v>
       </c>
       <c r="C534" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D534" s="13">
         <v>0.01</v>
@@ -8970,7 +8912,7 @@
         <v>2011</v>
       </c>
       <c r="C535" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D535" s="11">
         <v>27.74</v>
@@ -8984,7 +8926,7 @@
         <v>2011</v>
       </c>
       <c r="C536" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D536" s="13">
         <v>0.85</v>
@@ -8998,7 +8940,7 @@
         <v>2011</v>
       </c>
       <c r="C537" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D537" s="11">
         <v>7.0000000000000007E-2</v>
@@ -9012,7 +8954,7 @@
         <v>2011</v>
       </c>
       <c r="C538" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D538" s="13">
         <v>0.08</v>
@@ -9026,7 +8968,7 @@
         <v>2011</v>
       </c>
       <c r="C539" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D539" s="11">
         <v>0.1</v>
@@ -9034,13 +8976,13 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B540" s="12">
         <v>2011</v>
       </c>
       <c r="C540" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D540" s="13">
         <v>0</v>
@@ -9054,7 +8996,7 @@
         <v>2011</v>
       </c>
       <c r="C541" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D541" s="11">
         <v>0</v>
@@ -9068,7 +9010,7 @@
         <v>2011</v>
       </c>
       <c r="C542" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D542" s="13">
         <v>0.01</v>
@@ -9076,13 +9018,13 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B543" s="10">
         <v>2012</v>
       </c>
       <c r="C543" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D543" s="11">
         <v>0.02</v>
@@ -9096,7 +9038,7 @@
         <v>2012</v>
       </c>
       <c r="C544" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D544" s="13">
         <v>23.09</v>
@@ -9110,7 +9052,7 @@
         <v>2012</v>
       </c>
       <c r="C545" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D545" s="11">
         <v>0.96</v>
@@ -9124,7 +9066,7 @@
         <v>2012</v>
       </c>
       <c r="C546" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D546" s="13">
         <v>0.08</v>
@@ -9138,7 +9080,7 @@
         <v>2012</v>
       </c>
       <c r="C547" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D547" s="11">
         <v>0.08</v>
@@ -9152,7 +9094,7 @@
         <v>2012</v>
       </c>
       <c r="C548" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D548" s="13">
         <v>0.13</v>
@@ -9160,13 +9102,13 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B549" s="10">
         <v>2012</v>
       </c>
       <c r="C549" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D549" s="11">
         <v>0</v>
@@ -9180,7 +9122,7 @@
         <v>2012</v>
       </c>
       <c r="C550" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D550" s="13">
         <v>0.04</v>
@@ -9194,7 +9136,7 @@
         <v>2012</v>
       </c>
       <c r="C551" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D551" s="11">
         <v>0.01</v>
@@ -9202,13 +9144,13 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B552" s="12">
         <v>2013</v>
       </c>
       <c r="C552" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D552" s="13">
         <v>0.02</v>
@@ -9222,7 +9164,7 @@
         <v>2013</v>
       </c>
       <c r="C553" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D553" s="11">
         <v>19.59</v>
@@ -9236,7 +9178,7 @@
         <v>2013</v>
       </c>
       <c r="C554" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D554" s="13">
         <v>0.96</v>
@@ -9250,7 +9192,7 @@
         <v>2013</v>
       </c>
       <c r="C555" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D555" s="11">
         <v>0.1</v>
@@ -9264,7 +9206,7 @@
         <v>2013</v>
       </c>
       <c r="C556" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D556" s="13">
         <v>7.0000000000000007E-2</v>
@@ -9278,7 +9220,7 @@
         <v>2013</v>
       </c>
       <c r="C557" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D557" s="11">
         <v>0.14000000000000001</v>
@@ -9286,13 +9228,13 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B558" s="12">
         <v>2013</v>
       </c>
       <c r="C558" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D558" s="13">
         <v>0</v>
@@ -9306,7 +9248,7 @@
         <v>2013</v>
       </c>
       <c r="C559" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D559" s="11">
         <v>7.0000000000000007E-2</v>
@@ -9320,7 +9262,7 @@
         <v>2013</v>
       </c>
       <c r="C560" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D560" s="13">
         <v>0.02</v>
@@ -9328,13 +9270,13 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B561" s="10">
         <v>2014</v>
       </c>
       <c r="C561" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D561" s="11">
         <v>0.04</v>
@@ -9348,7 +9290,7 @@
         <v>2014</v>
       </c>
       <c r="C562" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D562" s="13">
         <v>21.53</v>
@@ -9362,7 +9304,7 @@
         <v>2014</v>
       </c>
       <c r="C563" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D563" s="11">
         <v>0.87</v>
@@ -9376,7 +9318,7 @@
         <v>2014</v>
       </c>
       <c r="C564" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D564" s="13">
         <v>0.11</v>
@@ -9390,7 +9332,7 @@
         <v>2014</v>
       </c>
       <c r="C565" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D565" s="11">
         <v>0.08</v>
@@ -9404,7 +9346,7 @@
         <v>2014</v>
       </c>
       <c r="C566" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D566" s="13">
         <v>0.14000000000000001</v>
@@ -9412,13 +9354,13 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B567" s="10">
         <v>2014</v>
       </c>
       <c r="C567" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D567" s="11">
         <v>0</v>
@@ -9432,7 +9374,7 @@
         <v>2014</v>
       </c>
       <c r="C568" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D568" s="13">
         <v>0.06</v>
@@ -9446,7 +9388,7 @@
         <v>2014</v>
       </c>
       <c r="C569" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D569" s="11">
         <v>0.02</v>
@@ -9454,13 +9396,13 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B570" s="12">
         <v>2015</v>
       </c>
       <c r="C570" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D570" s="13">
         <v>0.06</v>
@@ -9474,7 +9416,7 @@
         <v>2015</v>
       </c>
       <c r="C571" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D571" s="11">
         <v>22.85</v>
@@ -9488,7 +9430,7 @@
         <v>2015</v>
       </c>
       <c r="C572" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D572" s="13">
         <v>0.76</v>
@@ -9502,7 +9444,7 @@
         <v>2015</v>
       </c>
       <c r="C573" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D573" s="11">
         <v>0.13</v>
@@ -9516,7 +9458,7 @@
         <v>2015</v>
       </c>
       <c r="C574" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D574" s="13">
         <v>7.0000000000000007E-2</v>
@@ -9530,7 +9472,7 @@
         <v>2015</v>
       </c>
       <c r="C575" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D575" s="11">
         <v>0.13</v>
@@ -9538,13 +9480,13 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B576" s="12">
         <v>2015</v>
       </c>
       <c r="C576" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D576" s="13">
         <v>0</v>
@@ -9558,7 +9500,7 @@
         <v>2015</v>
       </c>
       <c r="C577" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D577" s="11">
         <v>7.0000000000000007E-2</v>
@@ -9572,7 +9514,7 @@
         <v>2015</v>
       </c>
       <c r="C578" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D578" s="13">
         <v>0.02</v>
@@ -9580,13 +9522,13 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B579" s="10">
         <v>2016</v>
       </c>
       <c r="C579" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D579" s="11">
         <v>0.08</v>
@@ -9600,7 +9542,7 @@
         <v>2016</v>
       </c>
       <c r="C580" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D580" s="13">
         <v>19.649999999999999</v>
@@ -9614,7 +9556,7 @@
         <v>2016</v>
       </c>
       <c r="C581" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D581" s="11">
         <v>0.84</v>
@@ -9628,7 +9570,7 @@
         <v>2016</v>
       </c>
       <c r="C582" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D582" s="13">
         <v>0.09</v>
@@ -9642,7 +9584,7 @@
         <v>2016</v>
       </c>
       <c r="C583" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D583" s="11">
         <v>0.08</v>
@@ -9656,7 +9598,7 @@
         <v>2016</v>
       </c>
       <c r="C584" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D584" s="13">
         <v>0.19</v>
@@ -9664,13 +9606,13 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B585" s="10">
         <v>2016</v>
       </c>
       <c r="C585" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D585" s="11">
         <v>0</v>
@@ -9684,7 +9626,7 @@
         <v>2016</v>
       </c>
       <c r="C586" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D586" s="13">
         <v>7.0000000000000007E-2</v>
@@ -9698,7 +9640,7 @@
         <v>2016</v>
       </c>
       <c r="C587" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D587" s="11">
         <v>0.02</v>
@@ -9706,13 +9648,13 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B588" s="12">
         <v>2017</v>
       </c>
       <c r="C588" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D588" s="13">
         <v>0.09</v>
@@ -9726,7 +9668,7 @@
         <v>2017</v>
       </c>
       <c r="C589" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D589" s="11">
         <v>21.23</v>
@@ -9740,7 +9682,7 @@
         <v>2017</v>
       </c>
       <c r="C590" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D590" s="13">
         <v>0.79</v>
@@ -9754,7 +9696,7 @@
         <v>2017</v>
       </c>
       <c r="C591" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D591" s="11">
         <v>7.0000000000000007E-2</v>
@@ -9768,7 +9710,7 @@
         <v>2017</v>
       </c>
       <c r="C592" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D592" s="13">
         <v>0.08</v>
@@ -9782,7 +9724,7 @@
         <v>2017</v>
       </c>
       <c r="C593" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D593" s="11">
         <v>0.2</v>
@@ -9790,13 +9732,13 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B594" s="12">
         <v>2017</v>
       </c>
       <c r="C594" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D594" s="13">
         <v>0</v>
@@ -9810,7 +9752,7 @@
         <v>2017</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D595" s="11">
         <v>7.0000000000000007E-2</v>
@@ -9824,7 +9766,7 @@
         <v>2017</v>
       </c>
       <c r="C596" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D596" s="13">
         <v>0.02</v>
@@ -9832,13 +9774,13 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B597" s="10">
         <v>2018</v>
       </c>
       <c r="C597" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D597" s="11">
         <v>0.34</v>
@@ -9852,7 +9794,7 @@
         <v>2018</v>
       </c>
       <c r="C598" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D598" s="13">
         <v>18.940000000000001</v>
@@ -9866,7 +9808,7 @@
         <v>2018</v>
       </c>
       <c r="C599" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D599" s="11">
         <v>0.82</v>
@@ -9880,7 +9822,7 @@
         <v>2018</v>
       </c>
       <c r="C600" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D600" s="13">
         <v>0.12</v>
@@ -9894,7 +9836,7 @@
         <v>2018</v>
       </c>
       <c r="C601" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D601" s="11">
         <v>0.08</v>
@@ -9908,7 +9850,7 @@
         <v>2018</v>
       </c>
       <c r="C602" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D602" s="13">
         <v>0.21</v>
@@ -9916,13 +9858,13 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B603" s="10">
         <v>2018</v>
       </c>
       <c r="C603" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D603" s="11">
         <v>0</v>
@@ -9936,7 +9878,7 @@
         <v>2018</v>
       </c>
       <c r="C604" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D604" s="13">
         <v>0.06</v>
@@ -9950,7 +9892,7 @@
         <v>2018</v>
       </c>
       <c r="C605" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D605" s="11">
         <v>0.02</v>
@@ -9958,13 +9900,13 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B606" s="12">
         <v>2019</v>
       </c>
       <c r="C606" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D606" s="13">
         <v>0.39</v>
@@ -9978,7 +9920,7 @@
         <v>2019</v>
       </c>
       <c r="C607" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D607" s="11">
         <v>17.46</v>
@@ -9992,7 +9934,7 @@
         <v>2019</v>
       </c>
       <c r="C608" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D608" s="13">
         <v>0.88</v>
@@ -10006,7 +9948,7 @@
         <v>2019</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D609" s="11">
         <v>7.0000000000000007E-2</v>
@@ -10020,7 +9962,7 @@
         <v>2019</v>
       </c>
       <c r="C610" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D610" s="13">
         <v>0.08</v>
@@ -10034,7 +9976,7 @@
         <v>2019</v>
       </c>
       <c r="C611" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D611" s="11">
         <v>0.21</v>
@@ -10042,13 +9984,13 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B612" s="12">
         <v>2019</v>
       </c>
       <c r="C612" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D612" s="13">
         <v>0</v>
@@ -10062,7 +10004,7 @@
         <v>2019</v>
       </c>
       <c r="C613" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D613" s="11">
         <v>7.0000000000000007E-2</v>
@@ -10076,7 +10018,7 @@
         <v>2019</v>
       </c>
       <c r="C614" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D614" s="13">
         <v>0.02</v>
@@ -10084,13 +10026,13 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B615" s="10">
         <v>2020</v>
       </c>
       <c r="C615" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D615" s="11">
         <v>0.37</v>
@@ -10104,7 +10046,7 @@
         <v>2020</v>
       </c>
       <c r="C616" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D616" s="13">
         <v>13.71</v>
@@ -10118,7 +10060,7 @@
         <v>2020</v>
       </c>
       <c r="C617" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D617" s="11">
         <v>0.93</v>
@@ -10132,7 +10074,7 @@
         <v>2020</v>
       </c>
       <c r="C618" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D618" s="13">
         <v>7.0000000000000007E-2</v>
@@ -10146,7 +10088,7 @@
         <v>2020</v>
       </c>
       <c r="C619" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D619" s="11">
         <v>0.08</v>
@@ -10160,7 +10102,7 @@
         <v>2020</v>
       </c>
       <c r="C620" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D620" s="13">
         <v>0.16</v>
@@ -10168,13 +10110,13 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B621" s="10">
         <v>2020</v>
       </c>
       <c r="C621" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D621" s="11">
         <v>0</v>
@@ -10188,7 +10130,7 @@
         <v>2020</v>
       </c>
       <c r="C622" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D622" s="13">
         <v>7.0000000000000007E-2</v>
@@ -10202,7 +10144,7 @@
         <v>2020</v>
       </c>
       <c r="C623" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D623" s="11">
         <v>0.02</v>
@@ -10210,13 +10152,13 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B624" s="12">
         <v>2021</v>
       </c>
       <c r="C624" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D624" s="13">
         <v>0.56000000000000005</v>
@@ -10230,7 +10172,7 @@
         <v>2021</v>
       </c>
       <c r="C625" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D625" s="11">
         <v>17.34</v>
@@ -10244,7 +10186,7 @@
         <v>2021</v>
       </c>
       <c r="C626" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D626" s="13">
         <v>1.25</v>
@@ -10258,7 +10200,7 @@
         <v>2021</v>
       </c>
       <c r="C627" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D627" s="11">
         <v>0.11</v>
@@ -10272,7 +10214,7 @@
         <v>2021</v>
       </c>
       <c r="C628" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D628" s="13">
         <v>0.08</v>
@@ -10286,7 +10228,7 @@
         <v>2021</v>
       </c>
       <c r="C629" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D629" s="11">
         <v>0.18</v>
@@ -10294,13 +10236,13 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B630" s="12">
         <v>2021</v>
       </c>
       <c r="C630" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D630" s="13">
         <v>0</v>
@@ -10314,7 +10256,7 @@
         <v>2021</v>
       </c>
       <c r="C631" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D631" s="11">
         <v>7.0000000000000007E-2</v>
@@ -10328,7 +10270,7 @@
         <v>2021</v>
       </c>
       <c r="C632" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D632" s="13">
         <v>0.02</v>
@@ -10336,13 +10278,13 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B633" s="10">
         <v>2022</v>
       </c>
       <c r="C633" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D633" s="11">
         <v>0.48</v>
@@ -10356,7 +10298,7 @@
         <v>2022</v>
       </c>
       <c r="C634" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D634" s="13">
         <v>22.11</v>
@@ -10370,7 +10312,7 @@
         <v>2022</v>
       </c>
       <c r="C635" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D635" s="11">
         <v>0.84</v>
@@ -10384,7 +10326,7 @@
         <v>2022</v>
       </c>
       <c r="C636" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D636" s="13">
         <v>0.09</v>
@@ -10398,7 +10340,7 @@
         <v>2022</v>
       </c>
       <c r="C637" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D637" s="11">
         <v>0.08</v>
@@ -10412,7 +10354,7 @@
         <v>2022</v>
       </c>
       <c r="C638" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D638" s="13">
         <v>0.23</v>
@@ -10420,13 +10362,13 @@
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B639" s="10">
         <v>2022</v>
       </c>
       <c r="C639" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D639" s="11">
         <v>0</v>
@@ -10440,7 +10382,7 @@
         <v>2022</v>
       </c>
       <c r="C640" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D640" s="13">
         <v>0.1</v>
@@ -10454,7 +10396,7 @@
         <v>2022</v>
       </c>
       <c r="C641" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D641" s="11">
         <v>0.02</v>
@@ -10462,13 +10404,13 @@
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B642" s="12">
         <v>2023</v>
       </c>
       <c r="C642" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D642" s="13">
         <v>0.47</v>
@@ -10482,7 +10424,7 @@
         <v>2023</v>
       </c>
       <c r="C643" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D643" s="11">
         <v>11.73</v>
@@ -10496,7 +10438,7 @@
         <v>2023</v>
       </c>
       <c r="C644" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D644" s="13">
         <v>0.64</v>
@@ -10510,7 +10452,7 @@
         <v>2023</v>
       </c>
       <c r="C645" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D645" s="11">
         <v>7.0000000000000007E-2</v>
@@ -10524,7 +10466,7 @@
         <v>2023</v>
       </c>
       <c r="C646" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D646" s="13">
         <v>0.08</v>
@@ -10538,7 +10480,7 @@
         <v>2023</v>
       </c>
       <c r="C647" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D647" s="11">
         <v>0.23</v>
@@ -10546,13 +10488,13 @@
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B648" s="12">
         <v>2023</v>
       </c>
       <c r="C648" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D648" s="13">
         <v>0</v>
@@ -10566,7 +10508,7 @@
         <v>2023</v>
       </c>
       <c r="C649" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D649" s="11">
         <v>0.17</v>
@@ -10580,7 +10522,7 @@
         <v>2023</v>
       </c>
       <c r="C650" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D650" s="13">
         <v>0.02</v>
@@ -10588,13 +10530,13 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B651" s="10">
         <v>2000</v>
       </c>
       <c r="C651" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D651" s="11">
         <v>5.6</v>
@@ -10602,13 +10544,13 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B652" s="12">
         <v>2000</v>
       </c>
       <c r="C652" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D652" s="13">
         <v>1</v>
@@ -10616,13 +10558,13 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B653" s="10">
         <v>2001</v>
       </c>
       <c r="C653" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D653" s="11">
         <v>8</v>
@@ -10630,13 +10572,13 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B654" s="12">
         <v>2001</v>
       </c>
       <c r="C654" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D654" s="13">
         <v>1.1000000000000001</v>
@@ -10644,13 +10586,13 @@
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B655" s="10">
         <v>2002</v>
       </c>
       <c r="C655" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D655" s="11">
         <v>8.3000000000000007</v>
@@ -10658,13 +10600,13 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B656" s="12">
         <v>2002</v>
       </c>
       <c r="C656" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D656" s="13">
         <v>2</v>
@@ -10672,13 +10614,13 @@
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B657" s="10">
         <v>2003</v>
       </c>
       <c r="C657" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D657" s="11">
         <v>6.8</v>
@@ -10686,13 +10628,13 @@
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B658" s="12">
         <v>2003</v>
       </c>
       <c r="C658" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D658" s="13">
         <v>1.3</v>
@@ -10700,13 +10642,13 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B659" s="10">
         <v>2004</v>
       </c>
       <c r="C659" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D659" s="11">
         <v>6.6</v>
@@ -10714,13 +10656,13 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B660" s="12">
         <v>2004</v>
       </c>
       <c r="C660" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D660" s="13">
         <v>0.7</v>
@@ -10728,13 +10670,13 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B661" s="10">
         <v>2005</v>
       </c>
       <c r="C661" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D661" s="11">
         <v>8.4</v>
@@ -10742,13 +10684,13 @@
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B662" s="12">
         <v>2005</v>
       </c>
       <c r="C662" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D662" s="13">
         <v>0.8</v>
@@ -10756,13 +10698,13 @@
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B663" s="10">
         <v>2006</v>
       </c>
       <c r="C663" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D663" s="11">
         <v>8.9</v>
@@ -10770,13 +10712,13 @@
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B664" s="12">
         <v>2006</v>
       </c>
       <c r="C664" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D664" s="13">
         <v>1.1000000000000001</v>
@@ -10784,13 +10726,13 @@
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B665" s="10">
         <v>2007</v>
       </c>
       <c r="C665" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D665" s="11">
         <v>7.5</v>
@@ -10798,13 +10740,13 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B666" s="12">
         <v>2007</v>
       </c>
       <c r="C666" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D666" s="13">
         <v>3.1</v>
@@ -10812,13 +10754,13 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B667" s="10">
         <v>2008</v>
       </c>
       <c r="C667" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D667" s="11">
         <v>8.4</v>
@@ -10826,13 +10768,13 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B668" s="12">
         <v>2008</v>
       </c>
       <c r="C668" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D668" s="13">
         <v>3.1</v>
@@ -10840,13 +10782,13 @@
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B669" s="10">
         <v>2009</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D669" s="11">
         <v>7.7</v>
@@ -10854,13 +10796,13 @@
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B670" s="12">
         <v>2009</v>
       </c>
       <c r="C670" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D670" s="13">
         <v>2.7</v>
@@ -10868,13 +10810,13 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B671" s="10">
         <v>2010</v>
       </c>
       <c r="C671" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D671" s="11">
         <v>9.6</v>
@@ -10882,13 +10824,13 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B672" s="12">
         <v>2010</v>
       </c>
       <c r="C672" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D672" s="13">
         <v>1.2</v>
@@ -10896,13 +10838,13 @@
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B673" s="10">
         <v>2011</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D673" s="11">
         <v>12.1</v>
@@ -10910,13 +10852,13 @@
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B674" s="12">
         <v>2011</v>
       </c>
       <c r="C674" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D674" s="13">
         <v>1.4</v>
@@ -10924,13 +10866,13 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B675" s="10">
         <v>2012</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D675" s="11">
         <v>10.7</v>
@@ -10938,13 +10880,13 @@
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B676" s="12">
         <v>2012</v>
       </c>
       <c r="C676" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D676" s="13">
         <v>2.4</v>
@@ -10952,13 +10894,13 @@
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B677" s="10">
         <v>2013</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D677" s="11">
         <v>9.5</v>
@@ -10966,13 +10908,13 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B678" s="12">
         <v>2013</v>
       </c>
       <c r="C678" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D678" s="13">
         <v>3.4</v>
@@ -10980,13 +10922,13 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B679" s="10">
         <v>2014</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D679" s="11">
         <v>13.8</v>
@@ -10994,13 +10936,13 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B680" s="12">
         <v>2014</v>
       </c>
       <c r="C680" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D680" s="13">
         <v>4.3</v>
@@ -11008,13 +10950,13 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B681" s="10">
         <v>2015</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D681" s="11">
         <v>14.8</v>
@@ -11022,13 +10964,13 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B682" s="12">
         <v>2015</v>
       </c>
       <c r="C682" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D682" s="13">
         <v>4.3</v>
@@ -11036,13 +10978,13 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B683" s="10">
         <v>2016</v>
       </c>
       <c r="C683" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D683" s="11">
         <v>10.9</v>
@@ -11050,13 +10992,13 @@
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B684" s="12">
         <v>2016</v>
       </c>
       <c r="C684" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D684" s="13">
         <v>4.5999999999999996</v>
@@ -11064,13 +11006,13 @@
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B685" s="10">
         <v>2017</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D685" s="11">
         <v>9.1999999999999993</v>
@@ -11078,13 +11020,13 @@
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B686" s="12">
         <v>2017</v>
       </c>
       <c r="C686" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D686" s="13">
         <v>3.7</v>
@@ -11092,13 +11034,13 @@
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B687" s="10">
         <v>2018</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D687" s="11">
         <v>10</v>
@@ -11106,13 +11048,13 @@
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B688" s="12">
         <v>2018</v>
       </c>
       <c r="C688" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D688" s="13">
         <v>2.2000000000000002</v>
@@ -11120,13 +11062,13 @@
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B689" s="10">
         <v>2019</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D689" s="11">
         <v>8.9</v>
@@ -11134,13 +11076,13 @@
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B690" s="12">
         <v>2019</v>
       </c>
       <c r="C690" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D690" s="13">
         <v>3</v>
@@ -11148,13 +11090,13 @@
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B691" s="10">
         <v>2020</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D691" s="11">
         <v>7.1</v>
@@ -11162,13 +11104,13 @@
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B692" s="12">
         <v>2020</v>
       </c>
       <c r="C692" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D692" s="13">
         <v>3.7</v>
@@ -11176,13 +11118,13 @@
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B693" s="10">
         <v>2021</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D693" s="11">
         <v>10.6</v>
@@ -11190,13 +11132,13 @@
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B694" s="12">
         <v>2021</v>
       </c>
       <c r="C694" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D694" s="13">
         <v>1.9</v>
@@ -11204,13 +11146,13 @@
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B695" s="10">
         <v>2022</v>
       </c>
       <c r="C695" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D695" s="11">
         <v>13.7</v>
@@ -11218,13 +11160,13 @@
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B696" s="12">
         <v>2022</v>
       </c>
       <c r="C696" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D696" s="13">
         <v>1.5</v>
@@ -11232,13 +11174,13 @@
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B697" s="10">
         <v>2023</v>
       </c>
       <c r="C697" s="10" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D697" s="11">
         <v>7.7</v>
@@ -11246,13 +11188,13 @@
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B698" s="12">
         <v>2023</v>
       </c>
       <c r="C698" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D698" s="13">
         <v>4.4000000000000004</v>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAF944-EA59-4399-B611-DF451B82416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A335A-51FB-46BA-A1C4-6414050C283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42A335A-51FB-46BA-A1C4-6414050C283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC020917-0348-4AC0-B821-CA4D1BB3C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC020917-0348-4AC0-B821-CA4D1BB3C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1264E3-5980-4ED7-AFD5-2A1ABACDA7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1264E3-5980-4ED7-AFD5-2A1ABACDA7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816A7E5-7C02-45AF-8B44-C70BEABEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816A7E5-7C02-45AF-8B44-C70BEABEE68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037EDA0B-B7F4-4F7B-9A32-E57C7A1F1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037EDA0B-B7F4-4F7B-9A32-E57C7A1F1F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C7A56F-9427-4519-A050-92ED89A411D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C7A56F-9427-4519-A050-92ED89A411D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF49E14-2504-4C11-B959-4798FEB37058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF49E14-2504-4C11-B959-4798FEB37058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86615F57-2C03-4D71-985F-33766325EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86615F57-2C03-4D71-985F-33766325EEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC7901-5DB2-405A-93E8-4BD592B0B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC7901-5DB2-405A-93E8-4BD592B0B989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E47B1-EF32-4F5F-9671-464E779EBEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E47B1-EF32-4F5F-9671-464E779EBEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BE0EF7-80E3-4183-A498-41BEEB81499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BE0EF7-80E3-4183-A498-41BEEB81499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB80D84-DEBF-4970-8931-9D6192D19444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E78014-E20F-4EB3-A999-1F023D309921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B04F3-2D49-4406-A364-AF95298BA8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B04F3-2D49-4406-A364-AF95298BA8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB5755-D945-4370-BE00-1911A75783E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CB5755-D945-4370-BE00-1911A75783E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4C8DDE-8BD7-4B2E-8D4A-614B17F2D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4C8DDE-8BD7-4B2E-8D4A-614B17F2D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E257B89-D176-4FC6-A981-025498668007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E257B89-D176-4FC6-A981-025498668007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121AFE0-DC52-4261-9334-66F7B27F7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121AFE0-DC52-4261-9334-66F7B27F7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C954215-565D-464F-915D-89FB805CD7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83479753-9398-4E09-833E-44BC696689DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A414CAD-60F2-447D-A730-0DFD90DA9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="87">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Hydropower - large-scale unit</t>
   </si>
   <si>
-    <t>ISO</t>
-  </si>
-  <si>
     <t>Solar Low</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>Nuclear High</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>uc_n</t>
   </si>
   <si>
@@ -353,15 +347,28 @@
   <si>
     <t>~UC_T: uc_rhsrt</t>
   </si>
+  <si>
+    <t>BUILD RATE ASSUMPTIONS</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +438,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +547,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -544,6 +564,13 @@
     <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
@@ -562,6 +589,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627E6A18-4CC1-7E9B-24B7-D6C42AEE0DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849938" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1613,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
-  <dimension ref="A10:J23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1622,83 +1704,95 @@
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.265625" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="8" t="s">
+    <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="20">
         <v>0.5</v>
       </c>
-      <c r="H11">
-        <v>1.5</v>
-      </c>
-      <c r="I11">
+      <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1706,16 +1800,16 @@
         <v>48</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F19" s="8">
         <v>2025</v>
@@ -1740,18 +1834,18 @@
         <v>solar</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
         <f>C11</f>
-        <v>25</v>
+        <v>1.2</v>
       </c>
       <c r="G20">
         <f>D11</f>
-        <v>40</v>
+        <v>1.8</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1770,18 +1864,18 @@
         <v>wind</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
         <f>E11</f>
-        <v>15</v>
+        <v>0.8</v>
       </c>
       <c r="G21">
         <f>F11</f>
-        <v>25</v>
+        <v>1.2</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -1800,18 +1894,18 @@
         <v>hydro</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
         <f>G11</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G22">
         <f>H11</f>
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -1830,25 +1924,29 @@
         <v>nuclear</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
         <f>I11</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
         <f>J11</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A414CAD-60F2-447D-A730-0DFD90DA9BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012C232-CE69-41C0-A6A6-F23299436421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -564,13 +564,10 @@
     <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
@@ -1698,7 +1695,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1711,16 +1708,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
@@ -1728,60 +1725,60 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>1.2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="13">
         <v>1.8</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>0.8</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>1.2</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="16">
         <v>0.05</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="16">
         <v>0.1</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>0.5</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="13">
         <v>1</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012C232-CE69-41C0-A6A6-F23299436421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1E28B5-AB7F-4662-94B0-C88F8A6F4AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -564,10 +564,13 @@
     <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
@@ -608,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627E6A18-4CC1-7E9B-24B7-D6C42AEE0DD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBD8C91-C0C1-5F29-91D7-27FCCA102D1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1698,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1708,16 +1711,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
@@ -1725,60 +1728,60 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="19">
         <v>1.2</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="19">
         <v>1.8</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="20">
         <v>0.8</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="19">
         <v>1.2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="20">
         <v>0.05</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="20">
         <v>0.1</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="20">
         <v>0.5</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="19">
         <v>1</v>
       </c>
     </row>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A1E28B5-AB7F-4662-94B0-C88F8A6F4AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9AFB51-3982-4056-804E-2F16CE542E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CBD8C91-C0C1-5F29-91D7-27FCCA102D1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158CB9B0-D40C-748F-F415-DA8C306F176B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C9AFB51-3982-4056-804E-2F16CE542E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12437839-1476-43C5-89CD-A3FB2BFABFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158CB9B0-D40C-748F-F415-DA8C306F176B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7625A54-FB72-4E57-DA84-2409946AC8F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12437839-1476-43C5-89CD-A3FB2BFABFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFA25B2-AB8D-44EB-8A25-4A923C8ADCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7625A54-FB72-4E57-DA84-2409946AC8F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD10F21-C4B1-0F26-371A-C4B2D3D6369A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFA25B2-AB8D-44EB-8A25-4A923C8ADCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48EF883-CB9A-4677-9FAE-5680698A8F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD10F21-C4B1-0F26-371A-C4B2D3D6369A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9EC82B-BCAF-7B2B-D4D0-1FCAA68244F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C48EF883-CB9A-4677-9FAE-5680698A8F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8C7B8D-9D0B-4060-9D5C-1AA8796540AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9EC82B-BCAF-7B2B-D4D0-1FCAA68244F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD523962-5439-8980-32A0-C00179E9C86D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF8C7B8D-9D0B-4060-9D5C-1AA8796540AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA32418-A3A0-4B86-94B1-7985EAE1613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD523962-5439-8980-32A0-C00179E9C86D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59926F54-1552-0240-90E7-D91C79D653FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA32418-A3A0-4B86-94B1-7985EAE1613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{406B7773-B018-4A38-9B8E-FA561BF012C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59926F54-1552-0240-90E7-D91C79D653FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C42756-2440-482D-8F33-CC47E5832B28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{406B7773-B018-4A38-9B8E-FA561BF012C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{366CC0DB-65B8-421D-8122-51D200C01FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C42756-2440-482D-8F33-CC47E5832B28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A81EB97-7965-DDD8-7515-E8C42ED54D72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366CC0DB-65B8-421D-8122-51D200C01FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{613346E3-5ACF-40E8-AF2F-66CDBFA4A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="88">
   <si>
     <t>~TFM_INS-AT</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>~UC_T: uc_rhsrt</t>
+  </si>
+  <si>
+    <t>windon</t>
   </si>
   <si>
     <t>BUILD RATE ASSUMPTIONS</t>
@@ -611,7 +614,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A81EB97-7965-DDD8-7515-E8C42ED54D72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8338B8A0-222E-4D4A-3E49-70A945473BB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,9 +1144,9 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="str">
         <f t="shared" ref="D7" si="0">IFERROR(VLOOKUP(B7,$F$3:$J$11,5,FALSE),"")</f>
-        <v>0.24584659524473154</v>
+        <v/>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -1357,7 +1360,7 @@
     </row>
     <row r="10" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -1712,7 +1715,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1724,12 +1727,12 @@
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>70</v>
@@ -1758,7 +1761,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="19">
         <v>1.2</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B11" s="12">
         <v>2000</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B20" s="14">
         <v>2001</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B29" s="12">
         <v>2002</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B38" s="14">
         <v>2003</v>
@@ -2595,7 +2598,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B47" s="12">
         <v>2004</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B56" s="14">
         <v>2005</v>
@@ -2847,7 +2850,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B65" s="12">
         <v>2006</v>
@@ -2973,7 +2976,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B74" s="14">
         <v>2007</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B83" s="12">
         <v>2008</v>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B92" s="14">
         <v>2009</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B101" s="12">
         <v>2010</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B110" s="14">
         <v>2011</v>
@@ -3603,7 +3606,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B119" s="12">
         <v>2012</v>
@@ -3729,7 +3732,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B128" s="14">
         <v>2013</v>
@@ -3855,7 +3858,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B137" s="12">
         <v>2014</v>
@@ -3981,7 +3984,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B146" s="14">
         <v>2015</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B155" s="12">
         <v>2016</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B164" s="14">
         <v>2017</v>
@@ -4359,7 +4362,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B173" s="12">
         <v>2018</v>
@@ -4485,7 +4488,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B182" s="14">
         <v>2019</v>
@@ -4611,7 +4614,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B191" s="12">
         <v>2020</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B200" s="14">
         <v>2021</v>
@@ -4863,7 +4866,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B209" s="12">
         <v>2022</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B218" s="14">
         <v>2023</v>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B227" s="12">
         <v>2000</v>
@@ -5233,7 +5236,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B236" s="14">
         <v>2001</v>
@@ -5355,7 +5358,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B245" s="12">
         <v>2002</v>
@@ -5477,7 +5480,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B254" s="14">
         <v>2003</v>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B263" s="12">
         <v>2004</v>
@@ -5721,7 +5724,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B272" s="14">
         <v>2005</v>
@@ -5843,7 +5846,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B281" s="12">
         <v>2006</v>
@@ -5965,7 +5968,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B290" s="14">
         <v>2007</v>
@@ -6087,7 +6090,7 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B299" s="12">
         <v>2008</v>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B308" s="14">
         <v>2009</v>
@@ -6331,7 +6334,7 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B317" s="12">
         <v>2010</v>
@@ -6453,7 +6456,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B326" s="14">
         <v>2011</v>
@@ -6575,7 +6578,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B335" s="12">
         <v>2012</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B344" s="14">
         <v>2013</v>
@@ -6819,7 +6822,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B353" s="12">
         <v>2014</v>
@@ -6941,7 +6944,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B362" s="14">
         <v>2015</v>
@@ -7063,7 +7066,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B371" s="12">
         <v>2016</v>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B380" s="14">
         <v>2017</v>
@@ -7307,7 +7310,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B389" s="12">
         <v>2018</v>
@@ -7429,7 +7432,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B398" s="14">
         <v>2019</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B407" s="12">
         <v>2020</v>
@@ -7673,7 +7676,7 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B416" s="14">
         <v>2021</v>
@@ -7795,7 +7798,7 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B425" s="12">
         <v>2022</v>
@@ -7917,7 +7920,7 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B434" s="14">
         <v>2023</v>
@@ -8043,7 +8046,7 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B443" s="12">
         <v>2000</v>
@@ -8169,7 +8172,7 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B452" s="14">
         <v>2001</v>
@@ -8295,7 +8298,7 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B461" s="12">
         <v>2002</v>
@@ -8421,7 +8424,7 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B470" s="14">
         <v>2003</v>
@@ -8547,7 +8550,7 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B479" s="12">
         <v>2004</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B488" s="14">
         <v>2005</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B497" s="12">
         <v>2006</v>
@@ -8925,7 +8928,7 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B506" s="14">
         <v>2007</v>
@@ -9051,7 +9054,7 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B515" s="12">
         <v>2008</v>
@@ -9177,7 +9180,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B524" s="14">
         <v>2009</v>
@@ -9303,7 +9306,7 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B533" s="12">
         <v>2010</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B542" s="14">
         <v>2011</v>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B551" s="12">
         <v>2012</v>
@@ -9681,7 +9684,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B560" s="14">
         <v>2013</v>
@@ -9807,7 +9810,7 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B569" s="12">
         <v>2014</v>
@@ -9933,7 +9936,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B578" s="14">
         <v>2015</v>
@@ -10059,7 +10062,7 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B587" s="12">
         <v>2016</v>
@@ -10185,7 +10188,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B596" s="14">
         <v>2017</v>
@@ -10311,7 +10314,7 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B605" s="12">
         <v>2018</v>
@@ -10437,7 +10440,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B614" s="14">
         <v>2019</v>
@@ -10563,7 +10566,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B623" s="12">
         <v>2020</v>
@@ -10689,7 +10692,7 @@
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B632" s="14">
         <v>2021</v>
@@ -10815,7 +10818,7 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="12" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B641" s="12">
         <v>2022</v>
@@ -10941,7 +10944,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="14" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B650" s="14">
         <v>2023</v>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6657A955-6802-497C-B36A-A94AE20AD4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9017545F-6F63-4F3A-9275-091ADEE423AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -830,9 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -872,7 +870,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1143,7 +1141,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.23242098490738011</v>
+        <v>5.1649107757195584E-2</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1211,7 +1209,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>0.13356164383561647</v>
+        <v>2.9680365296803658E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1562,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9017545F-6F63-4F3A-9275-091ADEE423AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD3AC8A-33DF-4694-A4A5-94C34ECF8EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFD3AC8A-33DF-4694-A4A5-94C34ECF8EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2E9357-71C0-422A-9ABF-B07A1AAEC99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB2E9357-71C0-422A-9ABF-B07A1AAEC99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B70AD2DE-72E1-4898-8D6C-F2791DE333D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B70AD2DE-72E1-4898-8D6C-F2791DE333D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{641C0855-BC93-4922-81AC-7B7B629809E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{641C0855-BC93-4922-81AC-7B7B629809E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{291FBCF6-074A-44D6-9BA3-AD8F2F6F5A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291FBCF6-074A-44D6-9BA3-AD8F2F6F5A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF27A5E1-68AE-4549-ACDD-FD637DA3052B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF27A5E1-68AE-4549-ACDD-FD637DA3052B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6373BCAA-899A-49E0-BAF3-E8FCB70F6F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6373BCAA-899A-49E0-BAF3-E8FCB70F6F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAE5323-89DF-4EB9-AFB7-4A8A54FA7692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAE5323-89DF-4EB9-AFB7-4A8A54FA7692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1990437E-4149-4AB7-8F9E-AC8CBDAC7227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1990437E-4149-4AB7-8F9E-AC8CBDAC7227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{273F5410-0CCC-4BD5-A6AD-0AFEEC930699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_BGR/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{273F5410-0CCC-4BD5-A6AD-0AFEEC930699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{055C4939-662F-4D80-9AB3-16BBFA5526E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
